--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -680,7 +680,7 @@
           <t>Removed:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
           <t>Removed:
 • description: Service Unavailable
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
           <t>Added:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  •     pis</t>
+  - pis</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
           <t>Removed:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
           <t>Removed:
 • description: Service Unavailable
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
           <t>Added:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  •     pis</t>
+  - pis</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
           <t>Removed:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
           <t>Removed:
 • description: Service Unavailable
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
           <t>Added:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  •     pis</t>
+  - pis</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
           <t>Removed:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
           <t>Removed:
 • description: Service Unavailable
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
           <t>Added:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  •     pis</t>
+  - pis</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
           <t>Removed:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
           <t>Removed:
 • description: Service Unavailable
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
           <t>Added:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  •     pis</t>
+  - pis</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
           <t>Removed:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
           <t>Removed:
 • description: Service Unavailable
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
           <t>Added:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  •     pis</t>
+  - pis</t>
         </is>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
           <t>Removed:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
           <t>Removed:
 • description: Service Unavailable
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
           <t>Added:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  •     pis</t>
+  - pis</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
           <t>Removed:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
           <t>Removed:
 • description: Service Unavailable
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -2225,7 +2225,7 @@
           <t>Added:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  •     pis</t>
+  - pis</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
           <t>Removed:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
           <t>Removed:
 • description: Service Unavailable
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
           <t>Added:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  •     pis</t>
+  - pis</t>
         </is>
       </c>
     </row>
@@ -2554,71 +2554,71 @@
           <t>Removed:
 • x-swagger-router-controller: pis
 • post:
-  • summary: Get the status of multiple payments
-  • description: 
-  • operationId: getMultiplePayments
-  • parameters:
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: payments
-      • in: body
-      • description: Payments ID list
-      • required: True
-      • schema:
-        • $ref: #/definitions/PaymentsRequest
-  • tags:
-    •       PIS
-  • responses:
-    • 200:
-      • description: Success
-      • schema:
-        • $ref: #/definitions/PaymentsResponse
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-        • X-JWS-SIGNATURE:
-          • type: string
-          • description: Detached JWS signature of the body of the response
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 403:
-      • description: Forbidden
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 429:
-      • description: Request limit for the requested service exceeded
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error</t>
+  summary: Get the status of multiple payments
+  description: 
+  operationId: getMultiplePayments
+  parameters:
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: payments
+    in: body
+    description: Payments ID list
+    required: True
+    schema:
+      $ref: #/definitions/PaymentsRequest
+  tags:
+    - PIS
+  responses:
+    200:
+      description: Success
+      schema:
+        $ref: #/definitions/PaymentsResponse
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+        X-JWS-SIGNATURE:
+          type: string
+          description: Detached JWS signature of the body of the response
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    403:
+      description: Forbidden
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    429:
+      description: Request limit for the requested service exceeded
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
           <t>Removed:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
           <t>Removed:
 • description: Service Unavailable
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -2784,7 +2784,7 @@
           <t>Added:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  •     pis</t>
+  - pis</t>
         </is>
       </c>
     </row>
@@ -2927,7 +2927,7 @@
           <t>Removed:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
           <t>Removed:
 • description: Service Unavailable
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
           <t>Added:
 • description: Internal Server Error
 • schema:
-  • $ref: #/definitions/Error</t>
+  $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  •     pis</t>
+  - pis</t>
         </is>
       </c>
     </row>
@@ -3114,71 +3114,71 @@
           <t>Removed:
 • x-swagger-router-controller: caf
 • post:
-  • summary: Confirmation of the availability of funds
-  • description: Confirming the availability on the payers account of the amount necessary to execute the payment transaction, as defined in Art. 65 PSD2.
-  • operationId: getConfirmationOfFunds
-  • parameters:
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: confirmationOfFundsRequest
-      • in: body
-      • description: Object with amount to check
-      • required: True
-      • schema:
-        • $ref: #/definitions/ConfirmationOfFundsRequest
-  • tags:
-    •       CAF
-  • responses:
-    • 200:
-      • description: Success
-      • schema:
-        • $ref: #/definitions/ConfirmationOfFundsResponse
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-        • X-JWS-SIGNATURE:
-          • type: string
-          • description: Detached JWS signature of the body of the response
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 403:
-      • description: Forbidden
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 429:
-      • description: Request limit for the requested service exceeded
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error</t>
+  summary: Confirmation of the availability of funds
+  description: Confirming the availability on the payers account of the amount necessary to execute the payment transaction, as defined in Art. 65 PSD2.
+  operationId: getConfirmationOfFunds
+  parameters:
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: confirmationOfFundsRequest
+    in: body
+    description: Object with amount to check
+    required: True
+    schema:
+      $ref: #/definitions/ConfirmationOfFundsRequest
+  tags:
+    - CAF
+  responses:
+    200:
+      description: Success
+      schema:
+        $ref: #/definitions/ConfirmationOfFundsResponse
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+        X-JWS-SIGNATURE:
+          type: string
+          description: Detached JWS signature of the body of the response
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    403:
+      description: Forbidden
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    429:
+      description: Request limit for the requested service exceeded
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -3266,66 +3266,66 @@
           <t>Removed:
 • x-swagger-router-controller: ais
 • post:
-  • summary: Removes consent
-  • description: Removes consent
-  • operationId: deleteConsent
-  • parameters:
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: deleteConsentRequest
-      • in: body
-      • description: Data for delete Consent Request
-      • required: True
-      • schema:
-        • $ref: #/definitions/DeleteConsentRequest
-  • tags:
-    •       AIS
-  • responses:
-    • 204:
-      • description: Success
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 401:
-      • description: Unauthorized
-      • schema:
-        • $ref: #/definitions/Error
-    • 403:
-      • description: Forbidden
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error</t>
+  summary: Removes consent
+  description: Removes consent
+  operationId: deleteConsent
+  parameters:
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: deleteConsentRequest
+    in: body
+    description: Data for delete Consent Request
+    required: True
+    schema:
+      $ref: #/definitions/DeleteConsentRequest
+  tags:
+    - AIS
+  responses:
+    204:
+      description: Success
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    401:
+      description: Unauthorized
+      schema:
+        $ref: #/definitions/Error
+    403:
+      description: Forbidden
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -3428,81 +3428,81 @@
           <t>Removed:
 • x-swagger-router-controller: ais
 • post:
-  • summary: Get information about all user's payment account
-  • description: User identification based on access token
-  • operationId: getAccounts
-  • parameters:
-    •       • $ref: #/parameters/authorizationParam
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: getAccountsRequest
-      • in: body
-      • description: Data for Accounts Request
-      • required: True
-      • schema:
-        • $ref: #/definitions/AccountsRequest
-  • tags:
-    •       AIS
-  • responses:
-    • 200:
-      • description: Success
-      • schema:
-        • $ref: #/definitions/AccountsResponse
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-        • X-JWS-SIGNATURE:
-          • type: string
-          • description: Detached JWS signature of the body of the response
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 401:
-      • description: Unauthorized
-      • schema:
-        • $ref: #/definitions/Error
-    • 403:
-      • description: Forbidden
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 429:
-      • description: Request limit for the requested service exceeded
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error
-  • security:
-    •       • xs2a_auth_aspsp:
-        •           ais-accounts
-    •       • xs2a_auth_decoupled:
-        •           ais-accounts</t>
+  summary: Get information about all user's payment account
+  description: User identification based on access token
+  operationId: getAccounts
+  parameters:
+    $ref: #/parameters/authorizationParam
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: getAccountsRequest
+    in: body
+    description: Data for Accounts Request
+    required: True
+    schema:
+      $ref: #/definitions/AccountsRequest
+  tags:
+    - AIS
+  responses:
+    200:
+      description: Success
+      schema:
+        $ref: #/definitions/AccountsResponse
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+        X-JWS-SIGNATURE:
+          type: string
+          description: Detached JWS signature of the body of the response
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    401:
+      description: Unauthorized
+      schema:
+        $ref: #/definitions/Error
+    403:
+      description: Forbidden
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    429:
+      description: Request limit for the requested service exceeded
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error
+  security:
+    xs2a_auth_aspsp:
+      - ais-accounts
+    xs2a_auth_decoupled:
+      - ais-accounts</t>
         </is>
       </c>
     </row>
@@ -3605,81 +3605,81 @@
           <t>Removed:
 • x-swagger-router-controller: ais
 • post:
-  • summary: Get detailed information about user payment account
-  • description: User identification based on access token
-  • operationId: getAccount
-  • parameters:
-    •       • $ref: #/parameters/authorizationParam
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: getAccountRequest
-      • in: body
-      • description: Data for Account Request
-      • required: True
-      • schema:
-        • $ref: #/definitions/AccountInfoRequest
-  • tags:
-    •       AIS
-  • responses:
-    • 200:
-      • description: Success
-      • schema:
-        • $ref: #/definitions/AccountResponse
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-        • X-JWS-SIGNATURE:
-          • type: string
-          • description: Detached JWS signature of the body of the response
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 401:
-      • description: Unauthorized
-      • schema:
-        • $ref: #/definitions/Error
-    • 403:
-      • description: Forbidden
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 429:
-      • description: Request limit for the requested service exceeded
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error
-  • security:
-    •       • xs2a_auth_aspsp:
-        •           ais
-    •       • xs2a_auth_decoupled:
-        •           ais</t>
+  summary: Get detailed information about user payment account
+  description: User identification based on access token
+  operationId: getAccount
+  parameters:
+    $ref: #/parameters/authorizationParam
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: getAccountRequest
+    in: body
+    description: Data for Account Request
+    required: True
+    schema:
+      $ref: #/definitions/AccountInfoRequest
+  tags:
+    - AIS
+  responses:
+    200:
+      description: Success
+      schema:
+        $ref: #/definitions/AccountResponse
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+        X-JWS-SIGNATURE:
+          type: string
+          description: Detached JWS signature of the body of the response
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    401:
+      description: Unauthorized
+      schema:
+        $ref: #/definitions/Error
+    403:
+      description: Forbidden
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    429:
+      description: Request limit for the requested service exceeded
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error
+  security:
+    xs2a_auth_aspsp:
+      - ais
+    xs2a_auth_decoupled:
+      - ais</t>
         </is>
       </c>
     </row>
@@ -3782,81 +3782,81 @@
           <t>Removed:
 • x-swagger-router-controller: ais
 • post:
-  • summary: Get list of user done transactions
-  • description: 
-  • operationId: getTransactionsDone
-  • parameters:
-    •       • $ref: #/parameters/authorizationParam
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: getTransactionsDoneRequest
-      • in: body
-      • description: Data for Transactions Done Request
-      • required: True
-      • schema:
-        • $ref: #/definitions/TransactionInfoRequest
-  • tags:
-    •       AIS
-  • responses:
-    • 200:
-      • description: Success
-      • schema:
-        • $ref: #/definitions/TransactionsDoneInfoResponse
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-        • X-JWS-SIGNATURE:
-          • type: string
-          • description: Detached JWS signature of the body of the response
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 401:
-      • description: Unauthorized
-      • schema:
-        • $ref: #/definitions/Error
-    • 403:
-      • description: Forbidden
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 429:
-      • description: Request limit for the requested service exceeded
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error
-  • security:
-    •       • xs2a_auth_aspsp:
-        •           ais
-    •       • xs2a_auth_decoupled:
-        •           ais</t>
+  summary: Get list of user done transactions
+  description: 
+  operationId: getTransactionsDone
+  parameters:
+    $ref: #/parameters/authorizationParam
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: getTransactionsDoneRequest
+    in: body
+    description: Data for Transactions Done Request
+    required: True
+    schema:
+      $ref: #/definitions/TransactionInfoRequest
+  tags:
+    - AIS
+  responses:
+    200:
+      description: Success
+      schema:
+        $ref: #/definitions/TransactionsDoneInfoResponse
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+        X-JWS-SIGNATURE:
+          type: string
+          description: Detached JWS signature of the body of the response
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    401:
+      description: Unauthorized
+      schema:
+        $ref: #/definitions/Error
+    403:
+      description: Forbidden
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    429:
+      description: Request limit for the requested service exceeded
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error
+  security:
+    xs2a_auth_aspsp:
+      - ais
+    xs2a_auth_decoupled:
+      - ais</t>
         </is>
       </c>
     </row>
@@ -3959,81 +3959,81 @@
           <t>Removed:
 • x-swagger-router-controller: ais
 • post:
-  • summary: Get list of user's pending transactions
-  • description: 
-  • operationId: getTransactionsPending
-  • parameters:
-    •       • $ref: #/parameters/authorizationParam
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: getTransactionsPendingRequest
-      • in: body
-      • description: Data for Transactions Pending Request
-      • required: True
-      • schema:
-        • $ref: #/definitions/TransactionInfoRequest
-  • tags:
-    •       AIS
-  • responses:
-    • 200:
-      • description: Success
-      • schema:
-        • $ref: #/definitions/TransactionPendingInfoResponse
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-        • X-JWS-SIGNATURE:
-          • type: string
-          • description: Detached JWS signature of the body of the response
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 401:
-      • description: Unauthorized
-      • schema:
-        • $ref: #/definitions/Error
-    • 403:
-      • description: Forbidden
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 429:
-      • description: Request limit for the requested service exceeded
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error
-  • security:
-    •       • xs2a_auth_aspsp:
-        •           ais
-    •       • xs2a_auth_decoupled:
-        •           ais</t>
+  summary: Get list of user's pending transactions
+  description: 
+  operationId: getTransactionsPending
+  parameters:
+    $ref: #/parameters/authorizationParam
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: getTransactionsPendingRequest
+    in: body
+    description: Data for Transactions Pending Request
+    required: True
+    schema:
+      $ref: #/definitions/TransactionInfoRequest
+  tags:
+    - AIS
+  responses:
+    200:
+      description: Success
+      schema:
+        $ref: #/definitions/TransactionPendingInfoResponse
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+        X-JWS-SIGNATURE:
+          type: string
+          description: Detached JWS signature of the body of the response
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    401:
+      description: Unauthorized
+      schema:
+        $ref: #/definitions/Error
+    403:
+      description: Forbidden
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    429:
+      description: Request limit for the requested service exceeded
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error
+  security:
+    xs2a_auth_aspsp:
+      - ais
+    xs2a_auth_decoupled:
+      - ais</t>
         </is>
       </c>
     </row>
@@ -4136,81 +4136,81 @@
           <t>Removed:
 • x-swagger-router-controller: ais
 • post:
-  • summary: Get list of user's rejected transactions
-  • description: 
-  • operationId: getTransactionsRejected
-  • parameters:
-    •       • $ref: #/parameters/authorizationParam
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: getTransactionsRejectedRequest
-      • in: body
-      • description: Data for Transactions Rejected Request
-      • required: True
-      • schema:
-        • $ref: #/definitions/TransactionInfoRequest
-  • tags:
-    •       AIS
-  • responses:
-    • 200:
-      • description: Success
-      • schema:
-        • $ref: #/definitions/TransactionRejectedInfoResponse
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-        • X-JWS-SIGNATURE:
-          • type: string
-          • description: Detached JWS signature of the body of the response
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 401:
-      • description: Unauthorized
-      • schema:
-        • $ref: #/definitions/Error
-    • 403:
-      • description: Forbidden
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 429:
-      • description: Request limit for the requested service exceeded
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error
-  • security:
-    •       • xs2a_auth_aspsp:
-        •           ais
-    •       • xs2a_auth_decoupled:
-        •           ais</t>
+  summary: Get list of user's rejected transactions
+  description: 
+  operationId: getTransactionsRejected
+  parameters:
+    $ref: #/parameters/authorizationParam
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: getTransactionsRejectedRequest
+    in: body
+    description: Data for Transactions Rejected Request
+    required: True
+    schema:
+      $ref: #/definitions/TransactionInfoRequest
+  tags:
+    - AIS
+  responses:
+    200:
+      description: Success
+      schema:
+        $ref: #/definitions/TransactionRejectedInfoResponse
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+        X-JWS-SIGNATURE:
+          type: string
+          description: Detached JWS signature of the body of the response
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    401:
+      description: Unauthorized
+      schema:
+        $ref: #/definitions/Error
+    403:
+      description: Forbidden
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    429:
+      description: Request limit for the requested service exceeded
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error
+  security:
+    xs2a_auth_aspsp:
+      - ais
+    xs2a_auth_decoupled:
+      - ais</t>
         </is>
       </c>
     </row>
@@ -4313,81 +4313,81 @@
           <t>Removed:
 • x-swagger-router-controller: ais
 • post:
-  • summary: Get list of user cancelled transactions
-  • description: 
-  • operationId: getTransactionsCancelled
-  • parameters:
-    •       • $ref: #/parameters/authorizationParam
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: getTransactionsCancelledRequest
-      • in: body
-      • description: Data for Transactions Cancelled Request
-      • required: True
-      • schema:
-        • $ref: #/definitions/TransactionInfoRequest
-  • tags:
-    •       AIS
-  • responses:
-    • 200:
-      • description: Success
-      • schema:
-        • $ref: #/definitions/TransactionsCancelledInfoResponse
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-        • X-JWS-SIGNATURE:
-          • type: string
-          • description: Detached JWS signature of the body of the response
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 401:
-      • description: Unauthorized
-      • schema:
-        • $ref: #/definitions/Error
-    • 403:
-      • description: Forbidden
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 429:
-      • description: Request limit for the requested service exceeded
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error
-  • security:
-    •       • xs2a_auth_aspsp:
-        •           ais
-    •       • xs2a_auth_decoupled:
-        •           ais</t>
+  summary: Get list of user cancelled transactions
+  description: 
+  operationId: getTransactionsCancelled
+  parameters:
+    $ref: #/parameters/authorizationParam
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: getTransactionsCancelledRequest
+    in: body
+    description: Data for Transactions Cancelled Request
+    required: True
+    schema:
+      $ref: #/definitions/TransactionInfoRequest
+  tags:
+    - AIS
+  responses:
+    200:
+      description: Success
+      schema:
+        $ref: #/definitions/TransactionsCancelledInfoResponse
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+        X-JWS-SIGNATURE:
+          type: string
+          description: Detached JWS signature of the body of the response
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    401:
+      description: Unauthorized
+      schema:
+        $ref: #/definitions/Error
+    403:
+      description: Forbidden
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    429:
+      description: Request limit for the requested service exceeded
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error
+  security:
+    xs2a_auth_aspsp:
+      - ais
+    xs2a_auth_decoupled:
+      - ais</t>
         </is>
       </c>
     </row>
@@ -4490,81 +4490,81 @@
           <t>Removed:
 • x-swagger-router-controller: ais
 • post:
-  • summary: Get list of user scheduled transactions
-  • description: 
-  • operationId: getTransactionsScheduled
-  • parameters:
-    •       • $ref: #/parameters/authorizationParam
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: getTransactionsScheduledRequest
-      • in: body
-      • description: Data for Transactions Scheduled Request
-      • required: True
-      • schema:
-        • $ref: #/definitions/TransactionInfoRequest
-  • tags:
-    •       AIS
-  • responses:
-    • 200:
-      • description: Success
-      • schema:
-        • $ref: #/definitions/TransactionsScheduledInfoResponse
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-        • X-JWS-SIGNATURE:
-          • type: string
-          • description: Detached JWS signature of the body of the response
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 401:
-      • description: Unauthorized
-      • schema:
-        • $ref: #/definitions/Error
-    • 403:
-      • description: Forbidden
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 429:
-      • description: Request limit for the requested service exceeded
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error
-  • security:
-    •       • xs2a_auth_aspsp:
-        •           ais
-    •       • xs2a_auth_decoupled:
-        •           ais</t>
+  summary: Get list of user scheduled transactions
+  description: 
+  operationId: getTransactionsScheduled
+  parameters:
+    $ref: #/parameters/authorizationParam
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: getTransactionsScheduledRequest
+    in: body
+    description: Data for Transactions Scheduled Request
+    required: True
+    schema:
+      $ref: #/definitions/TransactionInfoRequest
+  tags:
+    - AIS
+  responses:
+    200:
+      description: Success
+      schema:
+        $ref: #/definitions/TransactionsScheduledInfoResponse
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+        X-JWS-SIGNATURE:
+          type: string
+          description: Detached JWS signature of the body of the response
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    401:
+      description: Unauthorized
+      schema:
+        $ref: #/definitions/Error
+    403:
+      description: Forbidden
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    429:
+      description: Request limit for the requested service exceeded
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error
+  security:
+    xs2a_auth_aspsp:
+      - ais
+    xs2a_auth_decoupled:
+      - ais</t>
         </is>
       </c>
     </row>
@@ -4667,81 +4667,81 @@
           <t>Removed:
 • x-swagger-router-controller: ais
 • post:
-  • summary: Get list of user's holded operations
-  • description: 
-  • operationId: getHolds
-  • parameters:
-    •       • $ref: #/parameters/authorizationParam
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: getHoldsRequest
-      • in: body
-      • description: Data for hold Request
-      • required: True
-      • schema:
-        • $ref: #/definitions/HoldRequest
-  • tags:
-    •       AIS
-  • responses:
-    • 200:
-      • description: Success
-      • schema:
-        • $ref: #/definitions/HoldInfoResponse
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-        • X-JWS-SIGNATURE:
-          • type: string
-          • description: Detached JWS signature of the body of the response
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 401:
-      • description: Unauthorized
-      • schema:
-        • $ref: #/definitions/Error
-    • 403:
-      • description: Forbidden
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 429:
-      • description: Request limit for the requested service exceeded
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error
-  • security:
-    •       • xs2a_auth_aspsp:
-        •           ais
-    •       • xs2a_auth_decoupled:
-        •           ais</t>
+  summary: Get list of user's holded operations
+  description: 
+  operationId: getHolds
+  parameters:
+    $ref: #/parameters/authorizationParam
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: getHoldsRequest
+    in: body
+    description: Data for hold Request
+    required: True
+    schema:
+      $ref: #/definitions/HoldRequest
+  tags:
+    - AIS
+  responses:
+    200:
+      description: Success
+      schema:
+        $ref: #/definitions/HoldInfoResponse
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+        X-JWS-SIGNATURE:
+          type: string
+          description: Detached JWS signature of the body of the response
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    401:
+      description: Unauthorized
+      schema:
+        $ref: #/definitions/Error
+    403:
+      description: Forbidden
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    429:
+      description: Request limit for the requested service exceeded
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error
+  security:
+    xs2a_auth_aspsp:
+      - ais
+    xs2a_auth_decoupled:
+      - ais</t>
         </is>
       </c>
     </row>
@@ -4844,81 +4844,81 @@
           <t>Removed:
 • x-swagger-router-controller: ais
 • post:
-  • summary: Get detailed information about user's single transaction
-  • description: 
-  • operationId: getTransactionDetail
-  • parameters:
-    •       • $ref: #/parameters/authorizationParam
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: getTransationDetailRequest
-      • in: body
-      • description: Data for transation detail Request
-      • required: True
-      • schema:
-        • $ref: #/definitions/TransactionDetailRequest
-  • tags:
-    •       AIS
-  • responses:
-    • 200:
-      • description: Success
-      • schema:
-        • $ref: #/definitions/TransactionDetailResponse
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-        • X-JWS-SIGNATURE:
-          • type: string
-          • description: Detached JWS signature of the body of the response
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 401:
-      • description: Unauthorized
-      • schema:
-        • $ref: #/definitions/Error
-    • 403:
-      • description: Forbidden
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 429:
-      • description: Request limit for the requested service exceeded
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error
-  • security:
-    •       • xs2a_auth_aspsp:
-        •           ais
-    •       • xs2a_auth_decoupled:
-        •           ais</t>
+  summary: Get detailed information about user's single transaction
+  description: 
+  operationId: getTransactionDetail
+  parameters:
+    $ref: #/parameters/authorizationParam
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: getTransationDetailRequest
+    in: body
+    description: Data for transation detail Request
+    required: True
+    schema:
+      $ref: #/definitions/TransactionDetailRequest
+  tags:
+    - AIS
+  responses:
+    200:
+      description: Success
+      schema:
+        $ref: #/definitions/TransactionDetailResponse
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+        X-JWS-SIGNATURE:
+          type: string
+          description: Detached JWS signature of the body of the response
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    401:
+      description: Unauthorized
+      schema:
+        $ref: #/definitions/Error
+    403:
+      description: Forbidden
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    429:
+      description: Request limit for the requested service exceeded
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error
+  security:
+    xs2a_auth_aspsp:
+      - ais
+    xs2a_auth_decoupled:
+      - ais</t>
         </is>
       </c>
     </row>
@@ -5003,63 +5003,63 @@
           <t>Removed:
 • x-swagger-router-controller: as
 • post:
-  • summary: Requests OAuth2 authorization code
-  • description: Requests OAuth2 authorization code
-  • operationId: authorize
-  • parameters:
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: authorizeRequest
-      • in: body
-      • description: Data for OAuth2 Authorization Code Request
-      • required: True
-      • schema:
-        • $ref: #/definitions/AuthorizeRequest
-  • tags:
-    •       AS
-  • responses:
-    • 200:
-      • description: Success
-      • schema:
-        • $ref: #/definitions/AuthorizeResponse
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-        • X-JWS-SIGNATURE:
-          • type: string
-          • description: Detached JWS signature of the body of the response
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error</t>
+  summary: Requests OAuth2 authorization code
+  description: Requests OAuth2 authorization code
+  operationId: authorize
+  parameters:
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: authorizeRequest
+    in: body
+    description: Data for OAuth2 Authorization Code Request
+    required: True
+    schema:
+      $ref: #/definitions/AuthorizeRequest
+  tags:
+    - AS
+  responses:
+    200:
+      description: Success
+      schema:
+        $ref: #/definitions/AuthorizeResponse
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+        X-JWS-SIGNATURE:
+          type: string
+          description: Detached JWS signature of the body of the response
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -5145,58 +5145,58 @@
           <t>Removed:
 • x-swagger-router-controller: as
 • post:
-  • summary: Requests OAuth2 authorization code based on One-time authorization code issued by External Authorization Tool
-  • description: Requests OAuth2 authorization code based One-time authorization code issued by External Authorization Tool. Authorization code will be delivered to TPP as callback request from ASPSP if PSU authentication is confirmed by EAT. Callback function must provide similar notification also in case of unsuccessful authentication or its abandonment.
-  • operationId: authorizeExt
-  • parameters:
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: eatCodeRequest
-      • in: body
-      • description: Data for OAuth2 Authorization Code Request extended for EAT based authentication and callback response
-      • required: True
-      • schema:
-        • $ref: #/definitions/EatCodeRequest
-  • tags:
-    •       AS
-  • responses:
-    • 204:
-      • description: Successful TPP and EAT Code verification
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error</t>
+  summary: Requests OAuth2 authorization code based on One-time authorization code issued by External Authorization Tool
+  description: Requests OAuth2 authorization code based One-time authorization code issued by External Authorization Tool. Authorization code will be delivered to TPP as callback request from ASPSP if PSU authentication is confirmed by EAT. Callback function must provide similar notification also in case of unsuccessful authentication or its abandonment.
+  operationId: authorizeExt
+  parameters:
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: eatCodeRequest
+    in: body
+    description: Data for OAuth2 Authorization Code Request extended for EAT based authentication and callback response
+    required: True
+    schema:
+      $ref: #/definitions/EatCodeRequest
+  tags:
+    - AS
+  responses:
+    204:
+      description: Successful TPP and EAT Code verification
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -5285,67 +5285,67 @@
           <t>Removed:
 • x-swagger-router-controller: as
 • post:
-  • summary: Requests OAuth2 access token value
-  • description: Requests OAuth2 access token value
-  • operationId: token
-  • parameters:
-    •       • $ref: #/parameters/acceptEncodingParam
-    •       • $ref: #/parameters/acceptLanguageParam
-    •       • $ref: #/parameters/acceptCharsetParam
-    •       • $ref: #/parameters/xjwsSignatureParam
-    •       • $ref: #/parameters/xRequestIdParam
-    •       • name: tokenRequest
-      • in: body
-      • description: Data for OAuth2 Access Token Request
-      • required: True
-      • schema:
-        • $ref: #/definitions/TokenRequest
-  • tags:
-    •       AS
-  • responses:
-    • 200:
-      • description: Success
-      • schema:
-        • $ref: #/definitions/TokenResponse
-      • headers:
-        • Content-Encoding:
-          • type: string
-          • description: Gzip, deflate
-        • X-JWS-SIGNATURE:
-          • type: string
-          • description: Detached JWS signature of the body of the response
-    • 400:
-      • description: Bad request
-      • schema:
-        • $ref: #/definitions/Error
-    • 401:
-      • description: Unauthorized
-      • schema:
-        • $ref: #/definitions/Error
-    • 405:
-      • description: Method Not Allowed
-      • schema:
-        • $ref: #/definitions/Error
-    • 406:
-      • description: Not Acceptable
-      • schema:
-        • $ref: #/definitions/Error
-    • 415:
-      • description: Unsupported Media Type
-      • schema:
-        • $ref: #/definitions/Error
-    • 422:
-      • description: Unprocessable entity
-      • schema:
-        • $ref: #/definitions/Error
-    • 500:
-      • description: Internal Server Error
-      • schema:
-        • $ref: #/definitions/Error
-    • 503:
-      • description: Service Unavailable
-      • schema:
-        • $ref: #/definitions/Error</t>
+  summary: Requests OAuth2 access token value
+  description: Requests OAuth2 access token value
+  operationId: token
+  parameters:
+    $ref: #/parameters/acceptEncodingParam
+    $ref: #/parameters/acceptLanguageParam
+    $ref: #/parameters/acceptCharsetParam
+    $ref: #/parameters/xjwsSignatureParam
+    $ref: #/parameters/xRequestIdParam
+    name: tokenRequest
+    in: body
+    description: Data for OAuth2 Access Token Request
+    required: True
+    schema:
+      $ref: #/definitions/TokenRequest
+  tags:
+    - AS
+  responses:
+    200:
+      description: Success
+      schema:
+        $ref: #/definitions/TokenResponse
+      headers:
+        Content-Encoding:
+          type: string
+          description: Gzip, deflate
+        X-JWS-SIGNATURE:
+          type: string
+          description: Detached JWS signature of the body of the response
+    400:
+      description: Bad request
+      schema:
+        $ref: #/definitions/Error
+    401:
+      description: Unauthorized
+      schema:
+        $ref: #/definitions/Error
+    405:
+      description: Method Not Allowed
+      schema:
+        $ref: #/definitions/Error
+    406:
+      description: Not Acceptable
+      schema:
+        $ref: #/definitions/Error
+    415:
+      description: Unsupported Media Type
+      schema:
+        $ref: #/definitions/Error
+    422:
+      description: Unprocessable entity
+      schema:
+        $ref: #/definitions/Error
+    500:
+      description: Internal Server Error
+      schema:
+        $ref: #/definitions/Error
+    503:
+      description: Service Unavailable
+      schema:
+        $ref: #/definitions/Error</t>
         </is>
       </c>
     </row>
@@ -5407,35 +5407,35 @@
 • description: Klasa zapytania o uzyskanie kodu autoryzacyjnego zgodnego z OAuth2
 • type: object
 • required:
-  •     requestHeader
-  •     response_type
-  •     client_id
-  •     redirect_uri
-  •     scope
-  •     scope_details
-  •     state
+  - requestHeader
+  - response_type
+  - client_id
+  - redirect_uri
+  - scope
+  - scope_details
+  - state
 • properties:
-  • requestHeader:
-    • $ref: #/definitions/RequestHeaderWithoutTokenAS
-  • response_type:
-    • type: string
-    • description: Typ odpowiedzi. Wartość stała: code
-  • client_id:
-    • type: string
-    • description: Identyfikator TPP
-  • redirect_uri:
-    • type: string
-    • description: Adres usługi TPP, na które zostanie wykonane przekierowanie po uwierzytelnieniu klienta ASPSP
-  • scope:
-    • type: string
-    • description: Typy zgód o które prosi TPP. Lista identyfikatorów zgodna ze specyfikacją standardu Polish API.
-  • scope_details:
-    • $ref: #/definitions/ScopeDetailsInput
-  • state:
-    • type: string
-    • description: Losowa, unikalna w ramach TPP wartość – zabezpieczenie przed atakiem Cross-Site Request Forgery
+  requestHeader:
+    $ref: #/definitions/RequestHeaderWithoutTokenAS
+  response_type:
+    type: string
+    description: Typ odpowiedzi. Wartość stała: code
+  client_id:
+    type: string
+    description: Identyfikator TPP
+  redirect_uri:
+    type: string
+    description: Adres usługi TPP, na które zostanie wykonane przekierowanie po uwierzytelnieniu klienta ASPSP
+  scope:
+    type: string
+    description: Typy zgód o które prosi TPP. Lista identyfikatorów zgodna ze specyfikacją standardu Polish API.
+  scope_details:
+    $ref: #/definitions/ScopeDetailsInput
+  state:
+    type: string
+    description: Losowa, unikalna w ramach TPP wartość – zabezpieczenie przed atakiem Cross-Site Request Forgery
 • xml:
-  • name: AuthorizeRequest</t>
+  name: AuthorizeRequest</t>
         </is>
       </c>
     </row>
@@ -5475,16 +5475,16 @@
           <t>Removed:
 • description: Klasa odpowiedzi na zapytanie TPP o autoryzację PSU do wykonania usługi interfejsu XS2A
 • required:
-  •     responseHeader
-  •     aspspRedirectUri
+  - responseHeader
+  - aspspRedirectUri
 • properties:
-  • responseHeader:
-    • $ref: #/definitions/ResponseHeader
-  • aspspRedirectUri:
-    • type: string
-    • description: Adres po stronie ASPSP, na który TPP powinien dokonać przekierowania przeglądarki PSU w celu jego uwierzytelnienia
+  responseHeader:
+    $ref: #/definitions/ResponseHeader
+  aspspRedirectUri:
+    type: string
+    description: Adres po stronie ASPSP, na który TPP powinien dokonać przekierowania przeglądarki PSU w celu jego uwierzytelnienia
 • xml:
-  • name: AuthorizeResponse</t>
+  name: AuthorizeResponse</t>
         </is>
       </c>
     </row>
@@ -5550,39 +5550,39 @@
 • description: Klasa zapytania o uzyskanie kodu autoryzacyjnego zgodnego z OAuth2 na podstawie przekazanego kodu jednorazowego, wygenerowanego w EAT
 • type: object
 • required:
-  •     requestHeader
-  •     requestId
-  •     response_type
-  •     eatCode
-  •     client_id
-  •     callbackURL
-  •     apiKey
-  •     scope
-  •     scope_details
+  - requestHeader
+  - requestId
+  - response_type
+  - eatCode
+  - client_id
+  - callbackURL
+  - apiKey
+  - scope
+  - scope_details
 • properties:
-  • requestHeader:
-    • $ref: #/definitions/RequestHeaderWithoutTokenCallbackAS
-  • response_type:
-    • type: string
-    • description: Typ odpowiedzi. Wartość stała: code
-  • eatCode:
-    • type: string
-    • description: Jednorazowy kod autoryzacyjny wygenerowany przez EAT
-  • eatType:
-    • $ref: #/definitions/DictionaryItem
-  • client_id:
-    • type: string
-    • description: Identyfikator TPP
-  • scope:
-    • type: string
-    • description: Typy zgód o które prosi TPP. Lista identyfikatorów zgodna ze specyfikacją standardu Polish API.
-  • scope_details:
-    • $ref: #/definitions/ScopeDetailsInput
-  • state:
-    • type: string
-    • description: Losowa, unikalna w ramach TPP wartość – zabezpieczenie przed atakiem Cross-Site Request Forgery
+  requestHeader:
+    $ref: #/definitions/RequestHeaderWithoutTokenCallbackAS
+  response_type:
+    type: string
+    description: Typ odpowiedzi. Wartość stała: code
+  eatCode:
+    type: string
+    description: Jednorazowy kod autoryzacyjny wygenerowany przez EAT
+  eatType:
+    $ref: #/definitions/DictionaryItem
+  client_id:
+    type: string
+    description: Identyfikator TPP
+  scope:
+    type: string
+    description: Typy zgód o które prosi TPP. Lista identyfikatorów zgodna ze specyfikacją standardu Polish API.
+  scope_details:
+    $ref: #/definitions/ScopeDetailsInput
+  state:
+    type: string
+    description: Losowa, unikalna w ramach TPP wartość – zabezpieczenie przed atakiem Cross-Site Request Forgery
 • xml:
-  • name: EatCodeRequest</t>
+  name: EatCodeRequest</t>
         </is>
       </c>
     </row>
@@ -5665,44 +5665,44 @@
 • description: Klasa zapytania o uzyskanie tokena dostępowego zgodnego z OAuth2
 • type: object
 • required:
-  •     grant_type
+  - grant_type
 • properties:
-  • requestHeader:
-    • $ref: #/definitions/RequestHeaderWithoutTokenAS
-  • grant_type:
-    • type: string
-    • description: Typ zastosowanej autoryzacji. Jedna z wartości: authorization_code, refresh_token, exchange_token (rozszerzenie standardu OAuth2)
-  • Code:
-    • type: string
-    • description: Kod autoryzacji uzyskany podczas żądania do usługi /authorize OAuth2. Wymagany dla grant_type=authorization_code.
-  • redirect_uri:
-    • type: string
-    • description: Adres usługi TPP, na które zostanie wykonane przekierowanie po wygenerowaniu tokena dostępowego przez ASPSP. Wymagany dla grant_type=authorization_code.
-  • client_id:
-    • type: string
-    • description: Identyfikator TPP. Wymagany dla grant_type=authorization_code.
-  • refresh_token:
-    • type: string
-    • description: Wartość tokena, który służy do uzyskania nowego tokena dostępowego dla tego samego zakresu zgód (scope, scope_details) - w przypadku gdy pierwotny token utraci swoją ważność, lub dla zawężonego zakresu zgód. Wymagany dla grant_type=refresh_token.
-  • exchange_token:
-    • type: string
-    • description: Wartość tokena, który służy do uzyskania nowego tokena dostępowego dla innego zakresu zgód (scope, scope_details). Wartością tego parametru powinien być token dostępowy ważnej sesji komuikacyjnej z interfejsem XS2A. Wymagany dla grant_type=exchange_token.
-  • scope:
-    • type: string
-    • description: Typy zgód o które prosi TPP. Lista identyfikatorów zgodna ze specyfikacją standardu Polish API. Wymagany dla grant_type=exchange_token.
-  • scope_details:
-    • $ref: #/definitions/ScopeDetailsInput
-  • is_user_session:
-    • type: boolean
-    • description: Określa czy dana sesja jest związana z interakcją z PSU – wartości true/false. Rozszerzenie standardu OAuth2.
-  • user_ip:
-    • type: string
-    • description: IP przeglądarki użytkownika (informacja na potrzeby fraud detection). Rozszerzenie standardu OAuth2. Wymagany dla is_user_session = true.
-  • user_agent:
-    • type: string
-    • description: Informacja dotycząca wersji przeglądarki użytkownika (informacja na potrzeby fraud detection). Rozszerzenie standardu OAuth2. Wymagany dla is_user_session = true.
+  requestHeader:
+    $ref: #/definitions/RequestHeaderWithoutTokenAS
+  grant_type:
+    type: string
+    description: Typ zastosowanej autoryzacji. Jedna z wartości: authorization_code, refresh_token, exchange_token (rozszerzenie standardu OAuth2)
+  Code:
+    type: string
+    description: Kod autoryzacji uzyskany podczas żądania do usługi /authorize OAuth2. Wymagany dla grant_type=authorization_code.
+  redirect_uri:
+    type: string
+    description: Adres usługi TPP, na które zostanie wykonane przekierowanie po wygenerowaniu tokena dostępowego przez ASPSP. Wymagany dla grant_type=authorization_code.
+  client_id:
+    type: string
+    description: Identyfikator TPP. Wymagany dla grant_type=authorization_code.
+  refresh_token:
+    type: string
+    description: Wartość tokena, który służy do uzyskania nowego tokena dostępowego dla tego samego zakresu zgód (scope, scope_details) - w przypadku gdy pierwotny token utraci swoją ważność, lub dla zawężonego zakresu zgód. Wymagany dla grant_type=refresh_token.
+  exchange_token:
+    type: string
+    description: Wartość tokena, który służy do uzyskania nowego tokena dostępowego dla innego zakresu zgód (scope, scope_details). Wartością tego parametru powinien być token dostępowy ważnej sesji komuikacyjnej z interfejsem XS2A. Wymagany dla grant_type=exchange_token.
+  scope:
+    type: string
+    description: Typy zgód o które prosi TPP. Lista identyfikatorów zgodna ze specyfikacją standardu Polish API. Wymagany dla grant_type=exchange_token.
+  scope_details:
+    $ref: #/definitions/ScopeDetailsInput
+  is_user_session:
+    type: boolean
+    description: Określa czy dana sesja jest związana z interakcją z PSU – wartości true/false. Rozszerzenie standardu OAuth2.
+  user_ip:
+    type: string
+    description: IP przeglądarki użytkownika (informacja na potrzeby fraud detection). Rozszerzenie standardu OAuth2. Wymagany dla is_user_session = true.
+  user_agent:
+    type: string
+    description: Informacja dotycząca wersji przeglądarki użytkownika (informacja na potrzeby fraud detection). Rozszerzenie standardu OAuth2. Wymagany dla is_user_session = true.
 • xml:
-  • name: TokenRequest</t>
+  name: TokenRequest</t>
         </is>
       </c>
     </row>
@@ -5761,31 +5761,31 @@
           <t>Removed:
 • description: Klasa odpowiedzi na zapytanie TPP o wygenerowanie tokena dostępowego
 • required:
-  •     responseHeader
-  •     access_token
-  •     token_type
-  •     expires_in
-  •     scope_details
+  - responseHeader
+  - access_token
+  - token_type
+  - expires_in
+  - scope_details
 • properties:
-  • responseHeader:
-    • $ref: #/definitions/ResponseHeader
-  • access_token:
-    • type: string
-    • description: Wartość wygenerowanego tokena dostępowego
-  • token_type:
-    • type: string
-    • description: Typ tokena dostępowego. Dozwolona wartość to Bearer.
-  • expires_in:
-    • type: string
-    • description: Czas ważności tokena dostępowego, po którym zostanie on unieważniony. Wartość wyrażona w sekundach, od momentu wygenerowania odpowiedzi.
-  • refresh_token:
-    • type: string
-    • description: Wartość wygenerowanego tokena służącego do uzyskania nowego tokena dostępowego bez konieczności ponownej autoryzacji
-  • scope:
-    • type: string
-    • description: Typy zgód które uzyskał TPP. Lista identyfikatorów zgodna ze specyfikacją standardu Polish API.
-  • scope_details:
-    • $ref: #/definitions/ScopeDetailsOutput</t>
+  responseHeader:
+    $ref: #/definitions/ResponseHeader
+  access_token:
+    type: string
+    description: Wartość wygenerowanego tokena dostępowego
+  token_type:
+    type: string
+    description: Typ tokena dostępowego. Dozwolona wartość to Bearer.
+  expires_in:
+    type: string
+    description: Czas ważności tokena dostępowego, po którym zostanie on unieważniony. Wartość wyrażona w sekundach, od momentu wygenerowania odpowiedzi.
+  refresh_token:
+    type: string
+    description: Wartość wygenerowanego tokena służącego do uzyskania nowego tokena dostępowego bez konieczności ponownej autoryzacji
+  scope:
+    type: string
+    description: Typy zgód które uzyskał TPP. Lista identyfikatorów zgodna ze specyfikacją standardu Polish API.
+  scope_details:
+    $ref: #/definitions/ScopeDetailsOutput</t>
         </is>
       </c>
     </row>
@@ -5822,13 +5822,13 @@
 • description: Klasa zapytania o usunięcie zgody na dostęp do AIS
 • type: object
 • required:
-  •     consentId
+  - consentId
 • properties:
-  • consentId:
-    • type: string
-    • description: Identyfikator zgody / Consent ID
+  consentId:
+    type: string
+    description: Identyfikator zgody / Consent ID
 • xml:
-  • name: DeleteConsentRequest</t>
+  name: DeleteConsentRequest</t>
         </is>
       </c>
     </row>
@@ -5875,20 +5875,20 @@
 • description: Klasa zapytania o rachunki / Accounts Request Class
 • type: object
 • required:
-  •     requestHeader
+  - requestHeader
 • properties:
-  • requestHeader:
-    • $ref: #/definitions/RequestHeaderAISCallback
-  • pageId:
-    • type: string
-    • description: Używane w celu stronicowania danych: identyfikator strony, która ma zostać zwrócona w odpowiedzi / Used for paging the results. Identifier of the page to be returned in the response.
-  • perPage:
-    • type: integer
-    • format: int32
-    • minimum: 1
-    • description: Używane w celu stronicowania danych: wielkość strony danych / Page size (paging info)
+  requestHeader:
+    $ref: #/definitions/RequestHeaderAISCallback
+  pageId:
+    type: string
+    description: Używane w celu stronicowania danych: identyfikator strony, która ma zostać zwrócona w odpowiedzi / Used for paging the results. Identifier of the page to be returned in the response.
+  perPage:
+    type: integer
+    format: int32
+    minimum: 1
+    description: Używane w celu stronicowania danych: wielkość strony danych / Page size (paging info)
 • xml:
-  • name: AccountsRequest</t>
+  name: AccountsRequest</t>
         </is>
       </c>
     </row>
@@ -5922,12 +5922,12 @@
           <t>Removed:
 • description: Klasa odpowiedzi na zapytania o konto PSU / PSU's Account Response Class
 • required:
-  •     responseHeader
+  - responseHeader
 • properties:
-  • responseHeader:
-    • $ref: #/definitions/ResponseHeader
-  • account:
-    • $ref: #/definitions/AccountInfo</t>
+  responseHeader:
+    $ref: #/definitions/ResponseHeader
+  account:
+    $ref: #/definitions/AccountInfo</t>
         </is>
       </c>
     </row>
@@ -5966,16 +5966,16 @@
           <t>Removed:
 • description: Klasa odpowiedzi na zapytania o wiele kont PSU / PSU's Multiple Accounts Response Class
 • required:
-  •     responseHeader
+  - responseHeader
 • properties:
-  • responseHeader:
-    • $ref: #/definitions/ResponseHeader
-  • accounts:
-    • type: array
-    • items:
-      • $ref: #/definitions/AccountBaseInfo
-  • pageInfo:
-    • $ref: #/definitions/PageInfo</t>
+  responseHeader:
+    $ref: #/definitions/ResponseHeader
+  accounts:
+    type: array
+    items:
+      $ref: #/definitions/AccountBaseInfo
+  pageInfo:
+    $ref: #/definitions/PageInfo</t>
         </is>
       </c>
     </row>
@@ -6022,21 +6022,21 @@
 • description: Klasa informacji o koncie / Account Information Class
 • type: object
 • required:
-  •     accountNumber
-  •     accountTypeName
-  •     accountType
+  - accountNumber
+  - accountTypeName
+  - accountType
 • properties:
-  • accountNumber:
-    • type: string
-    • description: Numer rachunku (częściowo zamaskowany) / Account number (partly masked)
-  • accountTypeName:
-    • type: string
-    • maxLength: 32
-    • description: Nazwa typu rachunku (definiowana przez ASPSP) / Account's type name (defined by ASPSP)
-  • accountType:
-    • $ref: #/definitions/DictionaryItem
+  accountNumber:
+    type: string
+    description: Numer rachunku (częściowo zamaskowany) / Account number (partly masked)
+  accountTypeName:
+    type: string
+    maxLength: 32
+    description: Nazwa typu rachunku (definiowana przez ASPSP) / Account's type name (defined by ASPSP)
+  accountType:
+    $ref: #/definitions/DictionaryItem
 • xml:
-  • name: AccountBaseInfo</t>
+  name: AccountBaseInfo</t>
         </is>
       </c>
     </row>
@@ -6117,53 +6117,53 @@
 • description: Klasa informacji o koncie / Account Information Class
 • type: object
 • required:
-  •     accountNumber
-  •     nameAddress
-  •     availableBalance
-  •     bookingBalance
-  •     currency
-  •     accountType
-  •     accountHolderType
+  - accountNumber
+  - nameAddress
+  - availableBalance
+  - bookingBalance
+  - currency
+  - accountType
+  - accountHolderType
 • properties:
-  • accountNumber:
-    • type: string
-    • description: Numer rachunku / Account number
-  • nameAddress:
-    • $ref: #/definitions/NameAddress
-  • accountType:
-    • $ref: #/definitions/DictionaryItem
-  • accountTypeName:
-    • type: string
-    • maxLength: 32
-    • description: Nazwa typu rachunku (definiowana przez ASPSP) / Account's type name (defined by ASPSP)
-  • accountHolderType:
-    • type: string
-    • enum:
-      •         individual
-      •         corporation
-    • description: Rodzaj posiadacza rachunku: osoba fizyczna lub osoba prawna / Account holder type: individual person or corporation
-  • accountNameClient:
-    • type: string
-    • maxLength: 32
-    • description: Nazwa konta ustawiona przez klienta / Account name set by the client
-  • currency:
-    • type: string
-    • maxLength: 3
-    • description: Waluta rachunku / Currency
-  • availableBalance:
-    • type: string
-    • pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
-    • description: Dostępne środki - po wykonaniu transakcji / Available funds
-  • bookingBalance:
-    • type: string
-    • pattern: ^-?(0|([1-9][0-9]{0,}))\.\d{2}$
-    • description: Saldo księgowe rachunku - po wykonaniu transakcji / Book balance of the account
-  • bank:
-    • $ref: #/definitions/BankAccountInfo
-  • auxData:
-    • $ref: #/definitions/Map
+  accountNumber:
+    type: string
+    description: Numer rachunku / Account number
+  nameAddress:
+    $ref: #/definitions/NameAddress
+  accountType:
+    $ref: #/definitions/DictionaryItem
+  accountTypeName:
+    type: string
+    maxLength: 32
+    description: Nazwa typu rachunku (definiowana przez ASPSP) / Account's type name (defined by ASPSP)
+  accountHolderType:
+    type: string
+    enum:
+      - individual
+      - corporation
+    description: Rodzaj posiadacza rachunku: osoba fizyczna lub osoba prawna / Account holder type: individual person or corporation
+  accountNameClient:
+    type: string
+    maxLength: 32
+    description: Nazwa konta ustawiona przez klienta / Account name set by the client
+  currency:
+    type: string
+    maxLength: 3
+    description: Waluta rachunku / Currency
+  availableBalance:
+    type: string
+    pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
+    description: Dostępne środki - po wykonaniu transakcji / Available funds
+  bookingBalance:
+    type: string
+    pattern: ^-?(0|([1-9][0-9]{0,}))\.\d{2}$
+    description: Saldo księgowe rachunku - po wykonaniu transakcji / Book balance of the account
+  bank:
+    $ref: #/definitions/BankAccountInfo
+  auxData:
+    $ref: #/definitions/Map
 • xml:
-  • name: AccountInfo</t>
+  name: AccountInfo</t>
         </is>
       </c>
     </row>
@@ -6203,16 +6203,16 @@
 • description: Klasa zapytania o pojedynczy rachunek / Account Information Request Class
 • type: object
 • required:
-  •     requestHeader
-  •     accountNumber
+  - requestHeader
+  - accountNumber
 • properties:
-  • requestHeader:
-    • $ref: #/definitions/RequestHeaderAIS
-  • accountNumber:
-    • type: string
-    • description: Numer rachunku / Account number
+  requestHeader:
+    $ref: #/definitions/RequestHeaderAIS
+  accountNumber:
+    type: string
+    description: Numer rachunku / Account number
 • xml:
-  • name: AccountInfoRequest</t>
+  name: AccountInfoRequest</t>
         </is>
       </c>
     </row>
@@ -6298,53 +6298,53 @@
 • description: Bazowa klasa dla zapytań o elementy takie jak transakcja i blokada / Element (transaction or hold) Information Request Base Class
 • type: object
 • properties:
-  • requestHeader:
-    • $ref: #/definitions/RequestHeaderAISCallback
-  • accountNumber:
-    • type: string
-    • description: Numer rachunku / Account number
-  • itemIdFrom:
-    • type: string
-    • maxLength: 64
-    • description: Element filtru: elementy od podanego identyfikatora (transakcji lub blokady) / Filter element - id of transaction or hold to start from
-  • transactionDateFrom:
-    • type: string
-    • format: date
-    • maxLength: 10
-    • description: Element filtru: data transakcji od, YYYY-MM-DD / Filter element
-  • transactionDateTo:
-    • type: string
-    • format: date
-    • maxLength: 10
-    • description: Element filtru: data transakcji do, YYYY-MM-DD / Filter element
-  • bookingDateFrom:
-    • type: string
-    • format: date
-    • maxLength: 10
-    • description: Element filtru: data księgowania od, YYYY-MM-DD. Ignorowane w przypadku pobierania listy blokad. / Filter element. Ignored during list of holds retrieval.
-  • bookingDateTo:
-    • type: string
-    • format: date
-    • maxLength: 10
-    • description: Element filtru: data księgowania do, YYYY-MM-DD. Ignorowane w przypadku pobierania listy blokad. / Filter element. Ignored during list of holds retrieval.
-  • minAmount:
-    • type: string
-    • pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
-    • description: Element filtru: kwota od / Filter element
-  • maxAmount:
-    • type: string
-    • pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
-    • description: Element filtru: kwota do / Filter element
-  • pageId:
-    • type: string
-    • description: Używane w celu stronicowania danych: identyfikator strony, która ma zostać zwrócona w odpowiedzi / Used for paging the results. Identifier of the page to be returned in the response.
-  • perPage:
-    • type: integer
-    • format: int32
-    • minimum: 1
-    • description: Używane w celu stronicowania danych: wielkość strony danych / Page size (paging info)
+  requestHeader:
+    $ref: #/definitions/RequestHeaderAISCallback
+  accountNumber:
+    type: string
+    description: Numer rachunku / Account number
+  itemIdFrom:
+    type: string
+    maxLength: 64
+    description: Element filtru: elementy od podanego identyfikatora (transakcji lub blokady) / Filter element - id of transaction or hold to start from
+  transactionDateFrom:
+    type: string
+    format: date
+    maxLength: 10
+    description: Element filtru: data transakcji od, YYYY-MM-DD / Filter element
+  transactionDateTo:
+    type: string
+    format: date
+    maxLength: 10
+    description: Element filtru: data transakcji do, YYYY-MM-DD / Filter element
+  bookingDateFrom:
+    type: string
+    format: date
+    maxLength: 10
+    description: Element filtru: data księgowania od, YYYY-MM-DD. Ignorowane w przypadku pobierania listy blokad. / Filter element. Ignored during list of holds retrieval.
+  bookingDateTo:
+    type: string
+    format: date
+    maxLength: 10
+    description: Element filtru: data księgowania do, YYYY-MM-DD. Ignorowane w przypadku pobierania listy blokad. / Filter element. Ignored during list of holds retrieval.
+  minAmount:
+    type: string
+    pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
+    description: Element filtru: kwota od / Filter element
+  maxAmount:
+    type: string
+    pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
+    description: Element filtru: kwota do / Filter element
+  pageId:
+    type: string
+    description: Używane w celu stronicowania danych: identyfikator strony, która ma zostać zwrócona w odpowiedzi / Used for paging the results. Identifier of the page to be returned in the response.
+  perPage:
+    type: integer
+    format: int32
+    minimum: 1
+    description: Używane w celu stronicowania danych: wielkość strony danych / Page size (paging info)
 • xml:
-  • name: ItemInfoRequestBase</t>
+  name: ItemInfoRequestBase</t>
         </is>
       </c>
     </row>
@@ -6386,20 +6386,20 @@
           <t>Removed:
 • description: Klasa zapytania o transakcje / Transaction Information Request Class
 • allOf:
-  •     • $ref: #/definitions/ItemInfoRequestBase
-  •     • type: object
-    • required:
-      •         requestHeader
-      •         accountNumber
-    • properties:
-      • type:
-        • type: string
-        • enum:
-          •             CREDIT
-          •             DEBIT
-        • description: Element filtru: transakcji / Filter element
+  $ref: #/definitions/ItemInfoRequestBase
+  type: object
+  required:
+    - requestHeader
+    - accountNumber
+  properties:
+    type:
+      type: string
+      enum:
+        - CREDIT
+        - DEBIT
+      description: Element filtru: transakcji / Filter element
 • xml:
-  • name: TransactionInfoRequest</t>
+  name: TransactionInfoRequest</t>
         </is>
       </c>
     </row>
@@ -6441,19 +6441,19 @@
           <t>Removed:
 • description: Klasa zapytania o elementy (transakcje lub blokady) / Element (transaction or hold) Information Request Class
 • allOf:
-  •     • $ref: #/definitions/ItemInfoRequestBase
-  •     • type: object
-    • required:
-      •         requestHeader
-      •         accountNumber
-    • properties:
-      • type:
-        • type: string
-        • enum:
-          •             DEBIT
-        • description: Element filtru: transakcji / Filter element
+  $ref: #/definitions/ItemInfoRequestBase
+  type: object
+  required:
+    - requestHeader
+    - accountNumber
+  properties:
+    type:
+      type: string
+      enum:
+        - DEBIT
+      description: Element filtru: transakcji / Filter element
 • xml:
-  • name: HoldRequest</t>
+  name: HoldRequest</t>
         </is>
       </c>
     </row>
@@ -6518,38 +6518,38 @@
 • description: Klasa bazowa informacji o elemencie (transakcji lub blokadzie) / Element (transaction or hold) Information Base Class
 • type: object
 • required:
-  •     itemId
-  •     amount
+  - itemId
+  - amount
 • properties:
-  • itemId:
-    • type: string
-    • maxLength: 64
-    • description: ID elementu (transakcji lub blokadzie) nadany przez ASPSP / Element (transaction or hold) ID (ASPSP)
-  • amount:
-    • type: string
-    • pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
-    • description: Kwota transakcji / Amount of the transaction
-  • currency:
-    • type: string
-    • maxLength: 3
-    • description: Kod ISO waluty transakcji / Currency (ISO)
-  • description:
-    • type: string
-    • maxLength: 140
-    • description: Tytuł transakcji / Description of the transaction
-  • transactionType:
-    • type: string
-    • maxLength: 100
-    • description: Typ transakcji / Transaction type
-  • tradeDate:
-    • type: string
-    • format: date-time
-    • description: Data operacji, YYYY-MM-DDThh:mm:ss[.mmm] / Date of the operation
-  • mcc:
-    • type: string
-    • description: Kod dla każdej transakcji/operacji wykonanej przy użyciu karty / A code of each transaction performed by card
-  • auxData:
-    • $ref: #/definitions/Map</t>
+  itemId:
+    type: string
+    maxLength: 64
+    description: ID elementu (transakcji lub blokadzie) nadany przez ASPSP / Element (transaction or hold) ID (ASPSP)
+  amount:
+    type: string
+    pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
+    description: Kwota transakcji / Amount of the transaction
+  currency:
+    type: string
+    maxLength: 3
+    description: Kod ISO waluty transakcji / Currency (ISO)
+  description:
+    type: string
+    maxLength: 140
+    description: Tytuł transakcji / Description of the transaction
+  transactionType:
+    type: string
+    maxLength: 100
+    description: Typ transakcji / Transaction type
+  tradeDate:
+    type: string
+    format: date-time
+    description: Data operacji, YYYY-MM-DDThh:mm:ss[.mmm] / Date of the operation
+  mcc:
+    type: string
+    description: Kod dla każdej transakcji/operacji wykonanej przy użyciu karty / A code of each transaction performed by card
+  auxData:
+    $ref: #/definitions/Map</t>
         </is>
       </c>
     </row>
@@ -6595,24 +6595,24 @@
           <t>Removed:
 • description: Klasa opisująca blokadę na rachunku / Hold info class
 • allOf:
-  •     • $ref: #/definitions/ItemInfoBase
-  •     • type: object
-    • required:
-      •         itemId
-      •         amount
-    • properties:
-      • holdExpirationDate:
-        • type: string
-        • format: date-time
-        • description: Data ważności blokady, YYYY-MM-DDThh:mm:ss[.mmm]
-      • initiator:
-        • $ref: #/definitions/NameAddress
-      • sender:
-        • $ref: #/definitions/SenderRecipient
-      • recipient:
-        • $ref: #/definitions/SenderRecipient
+  $ref: #/definitions/ItemInfoBase
+  type: object
+  required:
+    - itemId
+    - amount
+  properties:
+    holdExpirationDate:
+      type: string
+      format: date-time
+      description: Data ważności blokady, YYYY-MM-DDThh:mm:ss[.mmm]
+    initiator:
+      $ref: #/definitions/NameAddress
+    sender:
+      $ref: #/definitions/SenderRecipient
+    recipient:
+      $ref: #/definitions/SenderRecipient
 • xml:
-  • name: HoldInfo</t>
+  name: HoldInfo</t>
         </is>
       </c>
     </row>
@@ -6664,27 +6664,27 @@
           <t>Removed:
 • description: Klasa opisująca oczekującą transakcję płatniczą. Jest to transakcja niezaksięgowana, niemodyfikowalna, wpływającej na dostępne środki (saldo dostępne).
 • allOf:
-  •     • $ref: #/definitions/ItemInfoBase
-  •     • type: object
-    • required:
-      •         itemId
-      •         amount
-      •         transactionCategory
-    • properties:
-      • transactionCategory:
-        • type: string
-        • enum:
-          •             CREDIT
-          •             DEBIT
-        • description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
-      • initiator:
-        • $ref: #/definitions/NameAddress
-      • sender:
-        • $ref: #/definitions/SenderRecipient
-      • recipient:
-        • $ref: #/definitions/SenderRecipient
+  $ref: #/definitions/ItemInfoBase
+  type: object
+  required:
+    - itemId
+    - amount
+    - transactionCategory
+  properties:
+    transactionCategory:
+      type: string
+      enum:
+        - CREDIT
+        - DEBIT
+      description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
+    initiator:
+      $ref: #/definitions/NameAddress
+    sender:
+      $ref: #/definitions/SenderRecipient
+    recipient:
+      $ref: #/definitions/SenderRecipient
 • xml:
-  • name: TransactionPendingInfo</t>
+  name: TransactionPendingInfo</t>
         </is>
       </c>
     </row>
@@ -6742,35 +6742,35 @@
           <t>Removed:
 • description: Klasa opisująca odrzuconą transakcję płatniczą
 • allOf:
-  •     • $ref: #/definitions/ItemInfoBase
-  •     • type: object
-    • required:
-      •         itemId
-      •         amount
-      •         transactionCategory
-    • properties:
-      • transactionCategory:
-        • type: string
-        • enum:
-          •             CREDIT
-          •             DEBIT
-        • description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
-      • initiator:
-        • $ref: #/definitions/NameAddress
-      • sender:
-        • $ref: #/definitions/SenderRecipient
-      • recipient:
-        • $ref: #/definitions/SenderRecipient
-      • rejectionReason:
-        • type: string
-        • maxLength: 140
-        • description: Powod odrzucenia
-      • rejectionDate:
-        • type: string
-        • format: date-time
-        • description: Data odrzucenia, YYYY-MM-DDThh:mm:ss[.mmm]
+  $ref: #/definitions/ItemInfoBase
+  type: object
+  required:
+    - itemId
+    - amount
+    - transactionCategory
+  properties:
+    transactionCategory:
+      type: string
+      enum:
+        - CREDIT
+        - DEBIT
+      description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
+    initiator:
+      $ref: #/definitions/NameAddress
+    sender:
+      $ref: #/definitions/SenderRecipient
+    recipient:
+      $ref: #/definitions/SenderRecipient
+    rejectionReason:
+      type: string
+      maxLength: 140
+      description: Powod odrzucenia
+    rejectionDate:
+      type: string
+      format: date-time
+      description: Data odrzucenia, YYYY-MM-DDThh:mm:ss[.mmm]
 • xml:
-  • name: TransactionRejectedInfo</t>
+  name: TransactionRejectedInfo</t>
         </is>
       </c>
     </row>
@@ -6832,37 +6832,37 @@
           <t>Removed:
 • description: Klasa opisująca transakcję płatniczą
 • allOf:
-  •     • $ref: #/definitions/ItemInfoBase
-  •     • type: object
-    • required:
-      •         itemId
-      •         amount
-      •         transactionCategory
-    • properties:
-      • transactionCategory:
-        • type: string
-        • enum:
-          •             CREDIT
-          •             DEBIT
-        • description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
-      • transactionStatus:
-        • $ref: #/definitions/DictionaryItem
-      • initiator:
-        • $ref: #/definitions/NameAddress
-      • sender:
-        • $ref: #/definitions/SenderRecipient
-      • recipient:
-        • $ref: #/definitions/SenderRecipient
-      • bookingDate:
-        • type: string
-        • format: date-time
-        • description: Data księgowania, YYYY-MM-DDThh:mm:ss[.mmm]. Wymagane warunkowo - w przypadku transakcji zaksięgowanych.
-      • postTransactionBalance:
-        • type: string
-        • pattern: ^-?(0|([1-9][0-9]{0,}))\.\d{2}$
-        • description: Saldo rachunku po transakcji. Wymagane warunkowo - w przypadku transakcji zaksięgowanych.
+  $ref: #/definitions/ItemInfoBase
+  type: object
+  required:
+    - itemId
+    - amount
+    - transactionCategory
+  properties:
+    transactionCategory:
+      type: string
+      enum:
+        - CREDIT
+        - DEBIT
+      description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
+    transactionStatus:
+      $ref: #/definitions/DictionaryItem
+    initiator:
+      $ref: #/definitions/NameAddress
+    sender:
+      $ref: #/definitions/SenderRecipient
+    recipient:
+      $ref: #/definitions/SenderRecipient
+    bookingDate:
+      type: string
+      format: date-time
+      description: Data księgowania, YYYY-MM-DDThh:mm:ss[.mmm]. Wymagane warunkowo - w przypadku transakcji zaksięgowanych.
+    postTransactionBalance:
+      type: string
+      pattern: ^-?(0|([1-9][0-9]{0,}))\.\d{2}$
+      description: Saldo rachunku po transakcji. Wymagane warunkowo - w przypadku transakcji zaksięgowanych.
 • xml:
-  • name: TransactionInfo</t>
+  name: TransactionInfo</t>
         </is>
       </c>
     </row>
@@ -6914,29 +6914,29 @@
           <t>Removed:
 • description: Klasa opisująca odwołaną transakcję płatniczą
 • allOf:
-  •     • $ref: #/definitions/ItemInfoBase
-  •     • type: object
-    • required:
-      •         itemId
-      •         amount
-      •         transactionCategory
-    • properties:
-      • transactionCategory:
-        • type: string
-        • enum:
-          •             CREDIT
-          •             DEBIT
-        • description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
-      • transactionStatus:
-        • $ref: #/definitions/DictionaryItem
-      • initiator:
-        • $ref: #/definitions/NameAddress
-      • sender:
-        • $ref: #/definitions/SenderRecipient
-      • recipient:
-        • $ref: #/definitions/SenderRecipient
+  $ref: #/definitions/ItemInfoBase
+  type: object
+  required:
+    - itemId
+    - amount
+    - transactionCategory
+  properties:
+    transactionCategory:
+      type: string
+      enum:
+        - CREDIT
+        - DEBIT
+      description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
+    transactionStatus:
+      $ref: #/definitions/DictionaryItem
+    initiator:
+      $ref: #/definitions/NameAddress
+    sender:
+      $ref: #/definitions/SenderRecipient
+    recipient:
+      $ref: #/definitions/SenderRecipient
 • xml:
-  • name: TransactionCancelledInfo</t>
+  name: TransactionCancelledInfo</t>
         </is>
       </c>
     </row>
@@ -6988,29 +6988,29 @@
           <t>Removed:
 • description: Klasa opisująca zaplanowaną transakcję płatniczą
 • allOf:
-  •     • $ref: #/definitions/ItemInfoBase
-  •     • type: object
-    • required:
-      •         itemId
-      •         amount
-      •         transactionCategory
-    • properties:
-      • transactionCategory:
-        • type: string
-        • enum:
-          •             CREDIT
-          •             DEBIT
-        • description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
-      • transactionStatus:
-        • $ref: #/definitions/DictionaryItem
-      • initiator:
-        • $ref: #/definitions/NameAddress
-      • sender:
-        • $ref: #/definitions/SenderRecipient
-      • recipient:
-        • $ref: #/definitions/SenderRecipient
+  $ref: #/definitions/ItemInfoBase
+  type: object
+  required:
+    - itemId
+    - amount
+    - transactionCategory
+  properties:
+    transactionCategory:
+      type: string
+      enum:
+        - CREDIT
+        - DEBIT
+      description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
+    transactionStatus:
+      $ref: #/definitions/DictionaryItem
+    initiator:
+      $ref: #/definitions/NameAddress
+    sender:
+      $ref: #/definitions/SenderRecipient
+    recipient:
+      $ref: #/definitions/SenderRecipient
 • xml:
-  • name: TransactionScheduledInfo</t>
+  name: TransactionScheduledInfo</t>
         </is>
       </c>
     </row>
@@ -7051,18 +7051,18 @@
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji done / Done Transaction Information Response Class
 • required:
-  •     responseHeader
+  - responseHeader
 • properties:
-  • responseHeader:
-    • $ref: #/definitions/ResponseHeader
-  • transactions:
-    • type: array
-    • items:
-      • $ref: #/definitions/TransactionInfo
-  • pageInfo:
-    • $ref: #/definitions/PageInfo
+  responseHeader:
+    $ref: #/definitions/ResponseHeader
+  transactions:
+    type: array
+    items:
+      $ref: #/definitions/TransactionInfo
+  pageInfo:
+    $ref: #/definitions/PageInfo
 • xml:
-  • name: TransactionsDoneInfoResponse</t>
+  name: TransactionsDoneInfoResponse</t>
         </is>
       </c>
     </row>
@@ -7103,18 +7103,18 @@
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji cancelled / Cancelled Transaction Information Response Class
 • required:
-  •     responseHeader
+  - responseHeader
 • properties:
-  • responseHeader:
-    • $ref: #/definitions/ResponseHeader
-  • transactions:
-    • type: array
-    • items:
-      • $ref: #/definitions/TransactionCancelledInfo
-  • pageInfo:
-    • $ref: #/definitions/PageInfo
+  responseHeader:
+    $ref: #/definitions/ResponseHeader
+  transactions:
+    type: array
+    items:
+      $ref: #/definitions/TransactionCancelledInfo
+  pageInfo:
+    $ref: #/definitions/PageInfo
 • xml:
-  • name: TransactionsCancelledInfoResponse</t>
+  name: TransactionsCancelledInfoResponse</t>
         </is>
       </c>
     </row>
@@ -7155,18 +7155,18 @@
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji scheduled / Scheduled Transaction Information Response Class
 • required:
-  •     responseHeader
+  - responseHeader
 • properties:
-  • responseHeader:
-    • $ref: #/definitions/ResponseHeader
-  • transactions:
-    • type: array
-    • items:
-      • $ref: #/definitions/TransactionScheduledInfo
-  • pageInfo:
-    • $ref: #/definitions/PageInfo
+  responseHeader:
+    $ref: #/definitions/ResponseHeader
+  transactions:
+    type: array
+    items:
+      $ref: #/definitions/TransactionScheduledInfo
+  pageInfo:
+    $ref: #/definitions/PageInfo
 • xml:
-  • name: TransactionsScheduledInfoResponse</t>
+  name: TransactionsScheduledInfoResponse</t>
         </is>
       </c>
     </row>
@@ -7207,18 +7207,18 @@
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji pending / Pending Transaction Information Response Class
 • required:
-  •     responseHeader
+  - responseHeader
 • properties:
-  • responseHeader:
-    • $ref: #/definitions/ResponseHeader
-  • transactions:
-    • type: array
-    • items:
-      • $ref: #/definitions/TransactionPendingInfo
-  • pageInfo:
-    • $ref: #/definitions/PageInfo
+  responseHeader:
+    $ref: #/definitions/ResponseHeader
+  transactions:
+    type: array
+    items:
+      $ref: #/definitions/TransactionPendingInfo
+  pageInfo:
+    $ref: #/definitions/PageInfo
 • xml:
-  • name: TransactionPendingInfoResponse</t>
+  name: TransactionPendingInfoResponse</t>
         </is>
       </c>
     </row>
@@ -7259,18 +7259,18 @@
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji rejected / Rejected Transaction Information Response Class
 • required:
-  •     responseHeader
+  - responseHeader
 • properties:
-  • responseHeader:
-    • $ref: #/definitions/ResponseHeader
-  • transactions:
-    • type: array
-    • items:
-      • $ref: #/definitions/TransactionRejectedInfo
-  • pageInfo:
-    • $ref: #/definitions/PageInfo
+  responseHeader:
+    $ref: #/definitions/ResponseHeader
+  transactions:
+    type: array
+    items:
+      $ref: #/definitions/TransactionRejectedInfo
+  pageInfo:
+    $ref: #/definitions/PageInfo
 • xml:
-  • name: TransactionRejectedInfoResponse</t>
+  name: TransactionRejectedInfoResponse</t>
         </is>
       </c>
     </row>
@@ -7311,18 +7311,18 @@
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę blokad na rachunku / Hold Information Response Class
 • required:
-  •     responseHeader
+  - responseHeader
 • properties:
-  • responseHeader:
-    • $ref: #/definitions/ResponseHeader
-  • holds:
-    • type: array
-    • items:
-      • $ref: #/definitions/HoldInfo
-  • pageInfo:
-    • $ref: #/definitions/PageInfo
+  responseHeader:
+    $ref: #/definitions/ResponseHeader
+  holds:
+    type: array
+    items:
+      $ref: #/definitions/HoldInfo
+  pageInfo:
+    $ref: #/definitions/PageInfo
 • xml:
-  • name: HoldInfoResponse</t>
+  name: HoldInfoResponse</t>
         </is>
       </c>
     </row>
@@ -7375,26 +7375,26 @@
 • description: Klasa zapytania o pojedynczą transakcję / Transaction Detail Request Class
 • type: object
 • required:
-  •     requestHeader
-  •     itemId
-  •     accountNumber
+  - requestHeader
+  - itemId
+  - accountNumber
 • properties:
-  • requestHeader:
-    • $ref: #/definitions/RequestHeaderAIS
-  • itemId:
-    • type: string
-    • maxLength: 64
-    • description: ID elementu (transakcji lub blokadzie) nadany przez ASPSP / Element (transaction or hold) ID (ASPSP)
-  • accountNumber:
-    • type: string
-    • maxLength: 34
-    • description: Numer konta nadawcy / Sender account number
-  • bookingDate:
-    • type: string
-    • format: date-time
-    • description: Data zaksięgowania operacji, YYYY-MM-DDThh:mm:ss[.mmm] / Transaction booking date
+  requestHeader:
+    $ref: #/definitions/RequestHeaderAIS
+  itemId:
+    type: string
+    maxLength: 64
+    description: ID elementu (transakcji lub blokadzie) nadany przez ASPSP / Element (transaction or hold) ID (ASPSP)
+  accountNumber:
+    type: string
+    maxLength: 34
+    description: Numer konta nadawcy / Sender account number
+  bookingDate:
+    type: string
+    format: date-time
+    description: Data zaksięgowania operacji, YYYY-MM-DDThh:mm:ss[.mmm] / Transaction booking date
 • xml:
-  • name: TransactionDetailRequest</t>
+  name: TransactionDetailRequest</t>
         </is>
       </c>
     </row>
@@ -7521,18 +7521,18 @@
           <t>Removed:
 • name: payorIdType
 • values:
-  •     • value: N
-    • description: NIP
-  •     • value: P
-    • description: Pesel
-  •     • value: R
-    • description: Regon
-  •     • value: 1
-    • description: Dowód osobisty
-  •     • value: 2
-    • description: Paszport
-  •     • value: 3
-    • description: Inny</t>
+  value: N
+  description: NIP
+  value: P
+  description: Pesel
+  value: R
+  description: Regon
+  value: 1
+  description: Dowód osobisty
+  value: 2
+  description: Paszport
+  value: 3
+  description: Inny</t>
         </is>
       </c>
     </row>
@@ -7594,35 +7594,35 @@
 • description: Klasa informacji o płatniku do ZUS / Polish Social Security Institution (ZUS) Payor Information Class
 • type: object
 • properties:
-  • nip:
-    • type: string
-    • maxLength: 10
-    • description: Numer Identyfikacji Podatkowej / Payor's Tax Identification Number
-  • additionalPayorId:
-    • type: string
-    • maxLength: 20
-    • description: Dodatkowy numer identyfikacyjny płatnika / Payor's additional identification number
-  • additionalPayorIdType:
-    • type: string
-    • description: Typ dodatkowego identyfikatora płatnika / Payor's additional identifier type
-    • enum:
-      •         P
-      •         R
-      •         1
-      •         2
-    • x-ms-enum:
-      • name: additionalPayorIdType
-      • values:
-        •           • value: P
-          • description: Pesel
-        •           • value: R
-          • description: Regon
-        •           • value: 1
-          • description: Dowód osobisty
-        •           • value: 2
-          • description: Paszport
+  nip:
+    type: string
+    maxLength: 10
+    description: Numer Identyfikacji Podatkowej / Payor's Tax Identification Number
+  additionalPayorId:
+    type: string
+    maxLength: 20
+    description: Dodatkowy numer identyfikacyjny płatnika / Payor's additional identification number
+  additionalPayorIdType:
+    type: string
+    description: Typ dodatkowego identyfikatora płatnika / Payor's additional identifier type
+    enum:
+      - P
+      - R
+      - 1
+      - 2
+    x-ms-enum:
+      name: additionalPayorIdType
+      values:
+        value: P
+        description: Pesel
+        value: R
+        description: Regon
+        value: 1
+        description: Dowód osobisty
+        value: 2
+        description: Paszport
 • xml:
-  • name: SocialSecurityPayor</t>
+  name: SocialSecurityPayor</t>
         </is>
       </c>
     </row>
@@ -7677,30 +7677,30 @@
 • description: Klasa informacji danych dla przelewu do ZUS / ZUS Transfer Information Class
 • type: object
 • properties:
-  • payerInfo:
-    • $ref: #/definitions/SocialSecurityPayor
-  • contributionType:
-    • type: string
-    • maxLength: 1
-    • description: Typ wpłaty / Contribution type
-  • contributionId:
-    • type: string
-    • maxLength: 2
-    • description: Numer deklaracji / Contribution identifier
-  • contributionPeriod:
-    • type: string
-    • maxLength: 6
-    • description: Okres deklaracji / Contribution period, Format: MMYYYY
-  • paymentTypeId:
-    • type: string
-    • maxLength: 1
-    • description: Identyfikator typu płatności / Payment type ID
-  • obligationId:
-    • type: string
-    • maxLength: 40
-    • description: Numer tytułu wykonawczego / Obligation identifier or number
+  payerInfo:
+    $ref: #/definitions/SocialSecurityPayor
+  contributionType:
+    type: string
+    maxLength: 1
+    description: Typ wpłaty / Contribution type
+  contributionId:
+    type: string
+    maxLength: 2
+    description: Numer deklaracji / Contribution identifier
+  contributionPeriod:
+    type: string
+    maxLength: 6
+    description: Okres deklaracji / Contribution period, Format: MMYYYY
+  paymentTypeId:
+    type: string
+    maxLength: 1
+    description: Identyfikator typu płatności / Payment type ID
+  obligationId:
+    type: string
+    maxLength: 40
+    description: Numer tytułu wykonawczego / Obligation identifier or number
 • xml:
-  • name: TransactionInfoZUS</t>
+  name: TransactionInfoZUS</t>
         </is>
       </c>
     </row>
@@ -7737,12 +7737,12 @@
 • type: object
 • description: Klasa reprezentująca informacje o karcie w ramach transakcji / Transaction Card Information Class
 • properties:
-  • cardHolder:
-    • type: string
-    • description: Właściciel karty / Card holder
-  • cardNumber:
-    • type: string
-    • description: Numer karty / Card number</t>
+  cardHolder:
+    type: string
+    description: Właściciel karty / Card holder
+  cardNumber:
+    type: string
+    description: Numer karty / Card number</t>
         </is>
       </c>
     </row>
@@ -7829,57 +7829,57 @@
 • description: Klasa odpowiedzi na zapytanie o transakcję /  Transaction Detail Response Class
 • type: object
 • required:
-  •     responseHeader
-  •     baseInfo
+  - responseHeader
+  - baseInfo
 • properties:
-  • responseHeader:
-    • $ref: #/definitions/ResponseHeader
-  • baseInfo:
-    • $ref: #/definitions/TransactionInfo
-  • zusInfo:
-    • $ref: #/definitions/TransactionInfoZUS
-  • usInfo:
-    • $ref: #/definitions/TransactionInfoTax
-  • cardInfo:
-    • $ref: #/definitions/TransactionInfoCard
-  • currencyDate:
-    • type: string
-    • format: date-time
-    • description: Data kursu waluty, YYYY-MM-DDThh:mm:ss[.mmm] / Date of the currency exchange rate
-  • transactionRate:
-    • type: array
-    • items:
-      • $ref: #/definitions/CurrencyRate
-  • baseCurrency:
-    • type: string
-    • maxLength: 3
-    • description: Waluta oryginalna transakcji, kod ISO / Currency of the transaction, ISO code
-  • amountBaseCurrency:
-    • type: string
-    • pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
-    • description: Kwota w oryginalnej walucie / Amount of the transaction
-  • usedPaymentInstrumentId:
-    • type: string
-    • maxLength: 32
-    • description: Unikalny identyfikator instrumentu płatniczego, za którego pomocą wykonano transakcję / Payment Instrument ID
-  • tppTransactionId:
-    • type: string
-    • maxLength: 64
-    • description: Unikalny identyfikator transakcji po stronie TPP / Transaction ID (TPP)
-  • tppName:
-    • type: string
-    • maxLength: 32
-    • description: Nazwa TPP / TPP name
-  • rejectionReason:
-    • type: string
-    • maxLength: 140
-    • description: Przyczyna odrzucenia / Reason for rejection
-  • holdExpirationDate:
-    • type: string
-    • format: date-time
-    • description: Data ważności blokady, YYYY-MM-DDThh:mm:ss[.mmm] / Hold expiration date
+  responseHeader:
+    $ref: #/definitions/ResponseHeader
+  baseInfo:
+    $ref: #/definitions/TransactionInfo
+  zusInfo:
+    $ref: #/definitions/TransactionInfoZUS
+  usInfo:
+    $ref: #/definitions/TransactionInfoTax
+  cardInfo:
+    $ref: #/definitions/TransactionInfoCard
+  currencyDate:
+    type: string
+    format: date-time
+    description: Data kursu waluty, YYYY-MM-DDThh:mm:ss[.mmm] / Date of the currency exchange rate
+  transactionRate:
+    type: array
+    items:
+      $ref: #/definitions/CurrencyRate
+  baseCurrency:
+    type: string
+    maxLength: 3
+    description: Waluta oryginalna transakcji, kod ISO / Currency of the transaction, ISO code
+  amountBaseCurrency:
+    type: string
+    pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
+    description: Kwota w oryginalnej walucie / Amount of the transaction
+  usedPaymentInstrumentId:
+    type: string
+    maxLength: 32
+    description: Unikalny identyfikator instrumentu płatniczego, za którego pomocą wykonano transakcję / Payment Instrument ID
+  tppTransactionId:
+    type: string
+    maxLength: 64
+    description: Unikalny identyfikator transakcji po stronie TPP / Transaction ID (TPP)
+  tppName:
+    type: string
+    maxLength: 32
+    description: Nazwa TPP / TPP name
+  rejectionReason:
+    type: string
+    maxLength: 140
+    description: Przyczyna odrzucenia / Reason for rejection
+  holdExpirationDate:
+    type: string
+    format: date-time
+    description: Data ważności blokady, YYYY-MM-DDThh:mm:ss[.mmm] / Hold expiration date
 • xml:
-  • name: TransactionDetailResponse</t>
+  name: TransactionDetailResponse</t>
         </is>
       </c>
     </row>
@@ -8603,21 +8603,21 @@
         <is>
           <t>Added:
 • properties:
-  • responseHeader:
-    • $ref: #/definitions/ResponseHeader
+  responseHeader:
+    $ref: #/definitions/ResponseHeader
 • required:
-  •     responseHeader
+  - responseHeader
 • type: object
 Removed:
 • type: object
 • required:
-  •     responseHeader
-  •     paymentId
-  •     generalStatus
-  •     detailedStatus
+  - responseHeader
+  - paymentId
+  - generalStatus
+  - detailedStatus
 • properties:
-  • responseHeader:
-    • $ref: #/definitions/ResponseHeader</t>
+  responseHeader:
+    $ref: #/definitions/ResponseHeader</t>
         </is>
       </c>
     </row>
@@ -8748,27 +8748,27 @@
 • description: Klasa zapytania o dostępne środki płatnicze na rachunku / Confirmation of Funds Request Class
 • type: object
 • required:
-  •     requestHeader
-  •     accountNumber
-  •     amount
-  •     currency
+  - requestHeader
+  - accountNumber
+  - amount
+  - currency
 • properties:
-  • requestHeader:
-    • $ref: #/definitions/RequestHeaderWithoutToken
-  • accountNumber:
-    • type: string
-    • maxLength: 34
-    • description: Numer konta / Account number
-  • amount:
-    • type: string
-    • pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
-    • description: Wielkość środków której dotyczy zaptanie / Amount of the transaction
-  • currency:
-    • type: string
-    • maxLength: 3
-    • description: Kod ISO Waluty (waluta transakcji) / Currency of transaction (ISO)
+  requestHeader:
+    $ref: #/definitions/RequestHeaderWithoutToken
+  accountNumber:
+    type: string
+    maxLength: 34
+    description: Numer konta / Account number
+  amount:
+    type: string
+    pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
+    description: Wielkość środków której dotyczy zaptanie / Amount of the transaction
+  currency:
+    type: string
+    maxLength: 3
+    description: Kod ISO Waluty (waluta transakcji) / Currency of transaction (ISO)
 • xml:
-  • name: ConfirmationOfFundsRequest</t>
+  name: ConfirmationOfFundsRequest</t>
         </is>
       </c>
     </row>
@@ -8809,17 +8809,17 @@
           <t>Removed:
 • description: Klasa odpowiedzi na zapytanie o dostępne środki płatnicze na rachunku / Confirmation of Funds Response Class
 • required:
-  •     responseHeader
-  •     fundsAvailable
+  - responseHeader
+  - fundsAvailable
 • properties:
-  • responseHeader:
-    • $ref: #/definitions/ResponseHeader
-  • fundsAvailable:
-    • description: Status - Czy środki są dostępne / Status - are funds available
-    • type: boolean
-    • enum:
-      •         True
-      •         False</t>
+  responseHeader:
+    $ref: #/definitions/ResponseHeader
+  fundsAvailable:
+    description: Status - Czy środki są dostępne / Status - are funds available
+    type: boolean
+    enum:
+      - True
+      - False</t>
         </is>
       </c>
     </row>
@@ -8989,24 +8989,24 @@
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU na potrzeby usług autoryzacji / PSU Information Class dedicated for authorization services
 • allOf:
-  •     • $ref: #/definitions/RequestHeaderWithoutToken
-  •     • type: object
-    • properties:
-      • isCompanyContext:
-        • type: boolean
-        • description: (true / false) Znacznik oznaczający czy żądanie jest wysyłane w kontekście PSU korporacyjnego
-      • psuIdentifierType:
-        • type: string
-        • description: Typ identyfikatora PSU, służy do wskazania przez TPP na podstawie jakiej informacji zostanie zidentyfikowany PSU, który będzie podlegał uwierzytelnieniu. Wartość słownikowa. / PSU identifier type, used by TPP to indicate type of information based on which the PSU is to be authenticated. Dictionary value.
-      • psuIdentifierValue:
-        • type: string
-        • description: Wartość identyfikatora PSU. Wymagany warunkowo - w przypadku gdy została przekazana niepusta wartość typu identyfikatora PSU. / The value of the PSU's identifier. Required conditionally - in case non empty value of PSU identifier type was passed.
-      • psuContextIdentifierType:
-        • type: string
-        • description: Typ identyfikatora kontekstu w jakim występuje PSU. Wartość słownikowa. Wymagany warunkowo - w przypadku wysyłania żądania dla takiego PSU, który może występować w więcej niż jednym kontekście w wybranym ASPSP. / Identifier of context that is used by PSU. Dictionary value. Required conditionally - in case context of the request is used and PSU may use more then one context for the ASPSP.
-      • psuContextIdentifierValue:
-        • type: string
-        • description: Wartość identyfikatora kontekstu w jakim występuje PSU. Wymagany warunkowo - w przypadku wysyłania żądania dla takiego PSU, który może występować w więcej niż jednym kontekście w wybranym ASPSP. / The value of context that is used by PSU. Required conditionally - in case context of the request is used and PSU may use more then one context for the ASPSP.</t>
+  $ref: #/definitions/RequestHeaderWithoutToken
+  type: object
+  properties:
+    isCompanyContext:
+      type: boolean
+      description: (true / false) Znacznik oznaczający czy żądanie jest wysyłane w kontekście PSU korporacyjnego
+    psuIdentifierType:
+      type: string
+      description: Typ identyfikatora PSU, służy do wskazania przez TPP na podstawie jakiej informacji zostanie zidentyfikowany PSU, który będzie podlegał uwierzytelnieniu. Wartość słownikowa. / PSU identifier type, used by TPP to indicate type of information based on which the PSU is to be authenticated. Dictionary value.
+    psuIdentifierValue:
+      type: string
+      description: Wartość identyfikatora PSU. Wymagany warunkowo - w przypadku gdy została przekazana niepusta wartość typu identyfikatora PSU. / The value of the PSU's identifier. Required conditionally - in case non empty value of PSU identifier type was passed.
+    psuContextIdentifierType:
+      type: string
+      description: Typ identyfikatora kontekstu w jakim występuje PSU. Wartość słownikowa. Wymagany warunkowo - w przypadku wysyłania żądania dla takiego PSU, który może występować w więcej niż jednym kontekście w wybranym ASPSP. / Identifier of context that is used by PSU. Dictionary value. Required conditionally - in case context of the request is used and PSU may use more then one context for the ASPSP.
+    psuContextIdentifierValue:
+      type: string
+      description: Wartość identyfikatora kontekstu w jakim występuje PSU. Wymagany warunkowo - w przypadku wysyłania żądania dla takiego PSU, który może występować w więcej niż jednym kontekście w wybranym ASPSP. / The value of context that is used by PSU. Required conditionally - in case context of the request is used and PSU may use more then one context for the ASPSP.</t>
         </is>
       </c>
     </row>
@@ -9046,17 +9046,17 @@
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class
 • allOf:
-  •     • $ref: #/definitions/RequestHeaderWithoutTokenAS
-  •     • type: object
-    • required:
-      •         callbackURL, apiKey
-    • properties:
-      • callbackURL:
-        • type: string
-        • description: adres funkcji zwrotnej / callback URL
-      • apiKey:
-        • type: string
-        • description: API key dla wywołania funkcji zwrotnej / callback API key</t>
+  $ref: #/definitions/RequestHeaderWithoutTokenAS
+  type: object
+  required:
+    - callbackURL, apiKey
+  properties:
+    callbackURL:
+      type: string
+      description: adres funkcji zwrotnej / callback URL
+    apiKey:
+      type: string
+      description: API key dla wywołania funkcji zwrotnej / callback API key</t>
         </is>
       </c>
     </row>
@@ -9142,35 +9142,35 @@
         <is>
           <t>Added:
 • properties:
-  • token:
-    • description: Token autoryzacyjny / Authorization token
-    • maxLength: 256
-    • type: string
-  • callbackURL:
-    • description: adres funkcji zwrotnej / callback URL
-    • maxLength: 255
-    • type: string
-  • apiKey:
-    • description: API key dla wywołania funkcji zwrotnej / callback API key
-    • maxLength: 255
-    • type: string
+  token:
+    description: Token autoryzacyjny / Authorization token
+    maxLength: 256
+    type: string
+  callbackURL:
+    description: adres funkcji zwrotnej / callback URL
+    maxLength: 255
+    type: string
+  apiKey:
+    description: API key dla wywołania funkcji zwrotnej / callback API key
+    maxLength: 255
+    type: string
 • required:
-  •     token
+  - token
 • type: object
 Removed:
 • type: object
 • required:
-  •     token
+  - token
 • properties:
-  • token:
-    • type: string
-    • description: Token autoryzacyjny / Authorization token
-  • callbackURL:
-    • type: string
-    • description: adres funkcji zwrotnej / callback URL
-  • apiKey:
-    • type: string
-    • description: API key dla wywołania funkcji zwrotnej / callback API key</t>
+  token:
+    type: string
+    description: Token autoryzacyjny / Authorization token
+  callbackURL:
+    type: string
+    description: adres funkcji zwrotnej / callback URL
+  apiKey:
+    type: string
+    description: API key dla wywołania funkcji zwrotnej / callback API key</t>
         </is>
       </c>
     </row>
@@ -9241,21 +9241,21 @@
         <is>
           <t>Added:
 • properties:
-  • token:
-    • description: Token autoryzacyjny / Authorization token
-    • maxLength: 256
-    • type: string
+  token:
+    description: Token autoryzacyjny / Authorization token
+    maxLength: 256
+    type: string
 • required:
-  •     token
+  - token
 • type: object
 Removed:
 • type: object
 • required:
-  •     token
+  - token
 • properties:
-  • token:
-    • type: string
-    • description: Token autoryzacyjny / Authorization token</t>
+  token:
+    type: string
+    description: Token autoryzacyjny / Authorization token</t>
         </is>
       </c>
     </row>
@@ -9296,17 +9296,17 @@
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU / PSU Information Class
 • allOf:
-  •     • $ref: #/definitions/RequestHeaderWithoutToken
-  •     • type: object
-    • required:
-      •         token
-    • properties:
-      • token:
-        • type: string
-        • description: Token autoryzacyjny / Authorization token
-      • isDirectPsu:
-        • type: boolean
-        • description: (true/false) Znacznik informujący czy request jest przesłany bezpośrednio przez PSU. Domyślna wartość to false. / Is request sent by PSU directly. false is default value.</t>
+  $ref: #/definitions/RequestHeaderWithoutToken
+  type: object
+  required:
+    - token
+  properties:
+    token:
+      type: string
+      description: Token autoryzacyjny / Authorization token
+    isDirectPsu:
+      type: boolean
+      description: (true/false) Znacznik informujący czy request jest przesłany bezpośrednio przez PSU. Domyślna wartość to false. / Is request sent by PSU directly. false is default value.</t>
         </is>
       </c>
     </row>
@@ -9354,23 +9354,23 @@
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class
 • allOf:
-  •     • $ref: #/definitions/RequestHeaderWithoutToken
-  •     • type: object
-    • required:
-      •         token
-    • properties:
-      • token:
-        • type: string
-        • description: Token autoryzacyjny / Authorization token
-      • isDirectPsu:
-        • type: boolean
-        • description: (true/false) Znacznik informujący czy request jest przesłany bezpośrednio przez PSU. Domyślna wartość to false. / Is request sent by PSU directly. false is default value.
-      • callbackURL:
-        • type: string
-        • description: adres funkcji zwrotnej / callback URL
-      • apiKey:
-        • type: string
-        • description: API key dla wywołania funkcji zwrotnej / callback API key</t>
+  $ref: #/definitions/RequestHeaderWithoutToken
+  type: object
+  required:
+    - token
+  properties:
+    token:
+      type: string
+      description: Token autoryzacyjny / Authorization token
+    isDirectPsu:
+      type: boolean
+      description: (true/false) Znacznik informujący czy request jest przesłany bezpośrednio przez PSU. Domyślna wartość to false. / Is request sent by PSU directly. false is default value.
+    callbackURL:
+      type: string
+      description: adres funkcji zwrotnej / callback URL
+    apiKey:
+      type: string
+      description: API key dla wywołania funkcji zwrotnej / callback API key</t>
         </is>
       </c>
     </row>
@@ -9538,16 +9538,16 @@
           <t>Removed:
 • description: Klasa zawierająca dane banku / Bank Data Class
 • properties:
-  • bicOrSwift:
-    • type: string
-    • maxLength: 8
-    • description: Numer BIC/SWIFT Banku / BIC/SWIFT number
-  • name:
-    • type: string
-    • maxLength: 70
-    • description: Nazwa Banku / Bank's name
-  • address:
-    • $ref: #/definitions/Address</t>
+  bicOrSwift:
+    type: string
+    maxLength: 8
+    description: Numer BIC/SWIFT Banku / BIC/SWIFT number
+  name:
+    type: string
+    maxLength: 70
+    description: Nazwa Banku / Bank's name
+  address:
+    $ref: #/definitions/Address</t>
         </is>
       </c>
     </row>
@@ -9624,19 +9624,19 @@
 • description: Bazowa klasa dla TransferData / TransferData Base Class
 • type: object
 • properties:
-  • description:
-    • type: string
-    • maxLength: 140
-    • description: Pole opisujące przelew / Description
-  • amount:
-    • type: string
-    • pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
-    • description: Kwota przelewu / Amount
-  • executionDate:
-    • type: string
-    • format: date
-    • maxLength: 10
-    • description: Data wykonania przelewu. Wymagany pod warunkiem przekazania wartości FutureDated w atrybucie executionMode. Format: YYYY-MM-DD / Date when the transfer is to be executed (YYYY-MM-DD). Required conditionally if executionMode attribute has value FutureDated.</t>
+  description:
+    type: string
+    maxLength: 140
+    description: Pole opisujące przelew / Description
+  amount:
+    type: string
+    pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
+    description: Kwota przelewu / Amount
+  executionDate:
+    type: string
+    format: date
+    maxLength: 10
+    description: Data wykonania przelewu. Wymagany pod warunkiem przekazania wartości FutureDated w atrybucie executionMode. Format: YYYY-MM-DD / Date when the transfer is to be executed (YYYY-MM-DD). Required conditionally if executionMode attribute has value FutureDated.</t>
         </is>
       </c>
     </row>
@@ -9753,16 +9753,16 @@
       <c r="E177" s="7" t="inlineStr">
         <is>
           <t>Removed:
-•   • $ref: #/definitions/TransferDataBase
-•   • type: object
-  • required:
-    •       description
-    •       amount
-  • properties:
-    • currency:
-      • type: string
-      • maxLength: 3
-      • description: Waluta / Currency</t>
+$ref: #/definitions/TransferDataBase
+type: object
+required:
+  - description
+  - amount
+properties:
+  currency:
+    type: string
+    maxLength: 3
+    description: Waluta / Currency</t>
         </is>
       </c>
     </row>
@@ -9807,22 +9807,22 @@
         <is>
           <t>Added:
 • description:
-  • maxLength: 140
-  • description: Pole opisujące przelew / Description
-  • type: string
+  maxLength: 140
+  description: Pole opisujące przelew / Description
+  type: string
 • amount:
-  • pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
-  • description: Kwota przelewu / Amount
-  • type: string
+  pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
+  description: Kwota przelewu / Amount
+  type: string
 • executionDate:
-  • description: Data wykonania przelewu. Wymagany pod warunkiem przekazania wartości FutureDated w atrybucie executionMode. Format: YYYY-MM-DD / Date when the transfer is to be executed (YYYY-MM-DD). Required conditionally if executionMode attribute has value FutureDated.
-  • type: string
-  • format: date
-  • maxLength: 10
+  description: Data wykonania przelewu. Wymagany pod warunkiem przekazania wartości FutureDated w atrybucie executionMode. Format: YYYY-MM-DD / Date when the transfer is to be executed (YYYY-MM-DD). Required conditionally if executionMode attribute has value FutureDated.
+  type: string
+  format: date
+  maxLength: 10
 • currency:
-  • maxLength: 3
-  • description: Waluta / Currency
-  • type: string</t>
+  maxLength: 3
+  description: Waluta / Currency
+  type: string</t>
         </is>
       </c>
     </row>
@@ -9848,8 +9848,8 @@
       <c r="E179" s="7" t="inlineStr">
         <is>
           <t>Added:
-•   amount
-•   description</t>
+• amount
+• description</t>
         </is>
       </c>
     </row>
@@ -9941,17 +9941,17 @@
       <c r="E182" s="7" t="inlineStr">
         <is>
           <t>Removed:
-•   • $ref: #/definitions/TransferDataBase
-•   • type: object
-  • required:
-    •       description
-    •       amount
-    •       currency
-  • properties:
-    • currency:
-      • type: string
-      • maxLength: 3
-      • description: Waluta, domyślnie EUR przelewów zagranicznych / Currency</t>
+$ref: #/definitions/TransferDataBase
+type: object
+required:
+  - description
+  - amount
+  - currency
+properties:
+  currency:
+    type: string
+    maxLength: 3
+    description: Waluta, domyślnie EUR przelewów zagranicznych / Currency</t>
         </is>
       </c>
     </row>
@@ -9996,22 +9996,22 @@
         <is>
           <t>Added:
 • description:
-  • maxLength: 140
-  • description: Pole opisujące przelew / Description
-  • type: string
+  maxLength: 140
+  description: Pole opisujące przelew / Description
+  type: string
 • amount:
-  • pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
-  • description: Kwota przelewu / Amount
-  • type: string
+  pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
+  description: Kwota przelewu / Amount
+  type: string
 • executionDate:
-  • description: Data wykonania przelewu. Wymagany pod warunkiem przekazania wartości FutureDated w atrybucie executionMode. Format: YYYY-MM-DD / Date when the transfer is to be executed (YYYY-MM-DD). Required conditionally if executionMode attribute has value FutureDated.
-  • type: string
-  • format: date
-  • maxLength: 10
+  description: Data wykonania przelewu. Wymagany pod warunkiem przekazania wartości FutureDated w atrybucie executionMode. Format: YYYY-MM-DD / Date when the transfer is to be executed (YYYY-MM-DD). Required conditionally if executionMode attribute has value FutureDated.
+  type: string
+  format: date
+  maxLength: 10
 • currency:
-  • maxLength: 3
-  • description: Waluta, domyślnie EUR przelewów zagranicznych / Currency
-  • type: string</t>
+  maxLength: 3
+  description: Waluta, domyślnie EUR przelewów zagranicznych / Currency
+  type: string</t>
         </is>
       </c>
     </row>
@@ -10038,9 +10038,9 @@
       <c r="E184" s="7" t="inlineStr">
         <is>
           <t>Added:
-•   currency
-•   amount
-•   description</t>
+• currency
+• amount
+• description</t>
         </is>
       </c>
     </row>
@@ -10126,16 +10126,16 @@
       <c r="E187" s="7" t="inlineStr">
         <is>
           <t>Removed:
-•   • $ref: #/definitions/TransferDataBaseTax
-•   • type: object
-  • required:
-    •       amount
-    •       currency
-  • properties:
-    • currency:
-      • type: string
-      • maxLength: 3
-      • description: Waluta, wymagana wartość PLN / Currency - PLN value required</t>
+$ref: #/definitions/TransferDataBaseTax
+type: object
+required:
+  - amount
+  - currency
+properties:
+  currency:
+    type: string
+    maxLength: 3
+    description: Waluta, wymagana wartość PLN / Currency - PLN value required</t>
         </is>
       </c>
     </row>
@@ -10176,18 +10176,18 @@
         <is>
           <t>Added:
 • amount:
-  • pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
-  • description: Kwota przelewu / Amount
-  • type: string
+  pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
+  description: Kwota przelewu / Amount
+  type: string
 • executionDate:
-  • description: Data wykonania przelewu. Wymagany pod warunkiem przekazania wartości FutureDated w atrybucie executionMode. Format: YYYY-MM-DD / Date when the transfer is to be executed (YYYY-MM-DD). Required conditionally if executionMode attribute has value FutureDated.
-  • type: string
-  • format: date
-  • maxLength: 10
+  description: Data wykonania przelewu. Wymagany pod warunkiem przekazania wartości FutureDated w atrybucie executionMode. Format: YYYY-MM-DD / Date when the transfer is to be executed (YYYY-MM-DD). Required conditionally if executionMode attribute has value FutureDated.
+  type: string
+  format: date
+  maxLength: 10
 • currency:
-  • maxLength: 3
-  • description: Waluta, wymagana wartość PLN / Currency - PLN value required
-  • type: string</t>
+  maxLength: 3
+  description: Waluta, wymagana wartość PLN / Currency - PLN value required
+  type: string</t>
         </is>
       </c>
     </row>
@@ -10213,8 +10213,8 @@
       <c r="E189" s="7" t="inlineStr">
         <is>
           <t>Added:
-•   currency
-•   amount</t>
+• currency
+• amount</t>
         </is>
       </c>
     </row>
@@ -10279,16 +10279,16 @@
           <t>Removed:
 • description: Klasa zawierająca dane nadawcy/odbiorcy używana w żądaniach AIS / AIS Sender Recipient Data Class
 • properties:
-  • accountNumber:
-    • type: string
-    • description: Numer konta nadawcy/odbiorcy / Account number
-  • accountMassPayment:
-    • type: string
-    • description: Numer wirtualny rachunku odbiorcy w formacie / Virtual account name
-  • bank:
-    • $ref: #/definitions/Bank
-  • nameAddress:
-    • $ref: #/definitions/NameAddress</t>
+  accountNumber:
+    type: string
+    description: Numer konta nadawcy/odbiorcy / Account number
+  accountMassPayment:
+    type: string
+    description: Numer wirtualny rachunku odbiorcy w formacie / Virtual account name
+  bank:
+    $ref: #/definitions/Bank
+  nameAddress:
+    $ref: #/definitions/NameAddress</t>
         </is>
       </c>
     </row>
@@ -10472,7 +10472,7 @@
       <c r="E198" s="7" t="inlineStr">
         <is>
           <t>Added:
-•   value</t>
+• value</t>
         </is>
       </c>
     </row>
@@ -10537,12 +10537,12 @@
           <t>Removed:
 • description: Klasa zawierająca dane pozwalajace na korzystanie z mechanizmu stronicowania / Paging Information Class
 • properties:
-  • previousPage:
-    • type: string
-    • description: Użyte w celu stronicowania danych: Identyfikator poprzedniej strony rezultatów / Used for paging the results. Identifier of the previous page.
-  • nextPage:
-    • type: string
-    • description: Użyte w celu stronicowania danych:  Identyfikator następnej strony rezultatów / Used for paging the results. Identifier of the next page.</t>
+  previousPage:
+    type: string
+    description: Użyte w celu stronicowania danych: Identyfikator poprzedniej strony rezultatów / Used for paging the results. Identifier of the previous page.
+  nextPage:
+    type: string
+    description: Użyte w celu stronicowania danych:  Identyfikator następnej strony rezultatów / Used for paging the results. Identifier of the next page.</t>
         </is>
       </c>
     </row>
@@ -10583,19 +10583,19 @@
           <t>Removed:
 • description: Klasa zawierająca kursy przewalutowań / Currency rate
 • properties:
-  • rate:
-    • type: number
-    • format: double
-    • pattern: ^(0|([1-9][0-9]{0,}))(\.[0-9]{1,7})?$
-    • description: Kursy przewalutowania / Currency exchange rate
-  • fromCurrency:
-    • type: string
-    • maxLength: 3
-    • description: Waluta rachunku, kod ISO / from Currency, ISO code
-  • toCurrency:
-    • type: string
-    • maxLength: 3
-    • description: Waluta rachunku, kod ISO / to Currency, ISO code</t>
+  rate:
+    type: number
+    format: double
+    pattern: ^(0|([1-9][0-9]{0,}))(\.[0-9]{1,7})?$
+    description: Kursy przewalutowania / Currency exchange rate
+  fromCurrency:
+    type: string
+    maxLength: 3
+    description: Waluta rachunku, kod ISO / from Currency, ISO code
+  toCurrency:
+    type: string
+    maxLength: 3
+    description: Waluta rachunku, kod ISO / to Currency, ISO code</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10626,7 @@
 • description: Klasa mapy &lt;string, string&gt; / Map (Dictionary) class
 • type: object
 • additionalProperties:
-  • type: string</t>
+  type: string</t>
         </is>
       </c>
     </row>
@@ -10661,12 +10661,12 @@
           <t>Removed:
 • description: Klasa zawierająca dane elementu/pozycji słownika / Dictionary Item Class
 • properties:
-  • code:
-    • type: string
-    • description: Kod pozycji słownika / Code
-  • description:
-    • type: string
-    • description: Opis pozycji słownika / Description</t>
+  code:
+    type: string
+    description: Kod pozycji słownika / Code
+  description:
+    type: string
+    description: Opis pozycji słownika / Description</t>
         </is>
       </c>
     </row>
@@ -10728,35 +10728,35 @@
 • description: Zakres, limity, parametry i czas ważności zgód, o które prosi TPP. / Scope, limits, parameters and expiration time of consents requested by TPP
 • type: object
 • required:
-  •     consentId
-  •     scopeGroupType
-  •     scopeTimeLimit
-  •     throttlingPolicy
+  - consentId
+  - scopeGroupType
+  - scopeTimeLimit
+  - throttlingPolicy
 • properties:
-  • privilegeList:
-    • type: array
-    • items:
-      • $ref: #/definitions/ScopeDetailsInputPrivilegeList
-    • description: The list of structures describing details of consent. Conditionally required - in case of process of obtaining new consent.
-  • scopeGroupType:
-    • type: string
-    • description: Type of consent
-    • enum:
-      •         ais-accounts
-      •         ais
-      •         pis
-  • consentId:
-    • type: string
-    • description: Id of consent
-  • scopeTimeLimit:
-    • type: string
-    • format: date-time
-    • description: Data ważności zgody / consent valid until, YYYY-MM-DDThh:mm:ss[.mmm]
-  • throttlingPolicy:
-    • type: string
-    • description: Throttling policy
-    • enum:
-      •         psd2Regulatory</t>
+  privilegeList:
+    type: array
+    items:
+      $ref: #/definitions/ScopeDetailsInputPrivilegeList
+    description: The list of structures describing details of consent. Conditionally required - in case of process of obtaining new consent.
+  scopeGroupType:
+    type: string
+    description: Type of consent
+    enum:
+      - ais-accounts
+      - ais
+      - pis
+  consentId:
+    type: string
+    description: Id of consent
+  scopeTimeLimit:
+    type: string
+    format: date-time
+    description: Data ważności zgody / consent valid until, YYYY-MM-DDThh:mm:ss[.mmm]
+  throttlingPolicy:
+    type: string
+    description: Throttling policy
+    enum:
+      - psd2Regulatory</t>
         </is>
       </c>
     </row>
@@ -10851,68 +10851,68 @@
 • description: Zakres, limity, parametry i czas ważności zgód, które potwierdza ASPSP / Scope, limits, parameters and expiration time of consents that are confimed by ASPSP
 • type: object
 • required:
-  •     consentId
-  •     scopeTimeLimit
-  •     throttlingPolicy
+  - consentId
+  - scopeTimeLimit
+  - throttlingPolicy
 • properties:
-  • privilegeList:
-    • type: array
-    • items:
-      • $ref: #/definitions/ScopeDetailsOutputPrivilegeList
-    • description: The list of structures describing details of consent obtained by TPP.
-  • consentId:
-    • type: string
-    • description: Id of consent
-  • scopeTimeLimit:
-    • type: string
-    • format: date-time
-    • description: Data ważności zgody / consent valid until, YYYY-MM-DDThh:mm:ss[.mmm]
-  • throttlingPolicy:
-    • type: string
-    • description: Throttling policy
-    • enum:
-      •         psd2Regulatory
+  privilegeList:
+    type: array
+    items:
+      $ref: #/definitions/ScopeDetailsOutputPrivilegeList
+    description: The list of structures describing details of consent obtained by TPP.
+  consentId:
+    type: string
+    description: Id of consent
+  scopeTimeLimit:
+    type: string
+    format: date-time
+    description: Data ważności zgody / consent valid until, YYYY-MM-DDThh:mm:ss[.mmm]
+  throttlingPolicy:
+    type: string
+    description: Throttling policy
+    enum:
+      - psd2Regulatory
 • example:
-  • consentId: consentId
-  • resource:
-    • accounts:
-      •         accounts
-      •         accounts
-  • scopeTimeLimit: scopeTimeLimit
-  • throttlingPolicy: psd2Regulatory
-  • privilegeList:
-    • ais:getTransactionsDone:
-      • scopeUsageLimit: single
-      • maxAllowedHistoryLong: 880
-    • ais:getHolds:
-      • scopeUsageLimit: single
-      • maxAllowedHistoryLong: 880
-    • ais:getTransactionsRejected:
-      • scopeUsageLimit: single
-      • maxAllowedHistoryLong: 880
-    • ais:getTransactionsCancelled:
-      • scopeUsageLimit: single
-      • maxAllowedHistoryLong: 880
-    • ais:getTransactionsScheduled:
-      • scopeUsageLimit: single
-      • maxAllowedHistoryLong: 880
-    • ais-accounts:getAccounts:
-      • scopeUsageLimit: single
-      • maxAllowedHistoryLong: 880
-    • pis:tax:
-      • scopeUsageLimit: single
-    • pis:getPayment:
-      • scopeUsageLimit: single
-    • pis:domestic:
-      • scopeUsageLimit: single
-    • ais:getTransactionDetail:
-      • scopeUsageLimit: single
-      • maxAllowedHistoryLong: 880
-    • ais:getTransactionsPending:
-      • scopeUsageLimit: single
-      • maxAllowedHistoryLong: 880
-    • pis:bundle:
-      • scopeUsageLimit: single</t>
+  consentId: consentId
+  resource:
+    accounts:
+      - accounts
+      - accounts
+  scopeTimeLimit: scopeTimeLimit
+  throttlingPolicy: psd2Regulatory
+  privilegeList:
+    ais:getTransactionsDone:
+      scopeUsageLimit: single
+      maxAllowedHistoryLong: 880
+    ais:getHolds:
+      scopeUsageLimit: single
+      maxAllowedHistoryLong: 880
+    ais:getTransactionsRejected:
+      scopeUsageLimit: single
+      maxAllowedHistoryLong: 880
+    ais:getTransactionsCancelled:
+      scopeUsageLimit: single
+      maxAllowedHistoryLong: 880
+    ais:getTransactionsScheduled:
+      scopeUsageLimit: single
+      maxAllowedHistoryLong: 880
+    ais-accounts:getAccounts:
+      scopeUsageLimit: single
+      maxAllowedHistoryLong: 880
+    pis:tax:
+      scopeUsageLimit: single
+    pis:getPayment:
+      scopeUsageLimit: single
+    pis:domestic:
+      scopeUsageLimit: single
+    ais:getTransactionDetail:
+      scopeUsageLimit: single
+      maxAllowedHistoryLong: 880
+    ais:getTransactionsPending:
+      scopeUsageLimit: single
+      maxAllowedHistoryLong: 880
+    pis:bundle:
+      scopeUsageLimit: single</t>
         </is>
       </c>
     </row>
@@ -10950,12 +10950,12 @@
 • description: Lista atrybutów uprawnienia usługi AIS będących przedmiotem zapytania o zgodę PSU / The list of attributes of the privilege of the AIS service that are the subject of the request for PSU's consent
 • type: object
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages</t>
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages</t>
         </is>
       </c>
     </row>
@@ -11004,19 +11004,19 @@
 • description: Lista atrybutów uprawnienia usługi AIS będących przedmiotem zapytania o zgodę PSU / The list of attributes of the privilege of the AIS service that are the subject of the request for PSU's consent
 • type: object
 • required:
-  •     maxAllowedHistoryLong
+  - maxAllowedHistoryLong
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages
-  • maxAllowedHistoryLong:
-    • type: integer
-    • description: Ilość dni wstecz, liczona od momentu wysłania przez TPP żądania o pobranie historii transakcji rachunku płatnicznego, jaką może obejmować odpowiedź na to żądanie / How much account's transaction history is allowed to retrieve in days. This value should be used for calculation based on date of sending the request.
-    • minimum: 1
-    • maximum: 1460</t>
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages
+  maxAllowedHistoryLong:
+    type: integer
+    description: Ilość dni wstecz, liczona od momentu wysłania przez TPP żądania o pobranie historii transakcji rachunku płatnicznego, jaką może obejmować odpowiedź na to żądanie / How much account's transaction history is allowed to retrieve in days. This value should be used for calculation based on date of sending the request.
+    minimum: 1
+    maximum: 1460</t>
         </is>
       </c>
     </row>
@@ -11054,12 +11054,12 @@
 • description: Lista atrybutów uprawnienia usługi AIS dla których została wyrażona zgoda przez PSU / The list of attributes of the privilege of the AIS service that the PSU's consent has been confirmed
 • type: object
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages</t>
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages</t>
         </is>
       </c>
     </row>
@@ -11111,22 +11111,22 @@
 • description: Lista atrybutów uprawnienia usługi AIS dla których została wyrażona zgoda przez PSU / The list of attributes of the privilege of the AIS service that the PSU's consent has been confirmed
 • type: object
 • required:
-  •     maxAllowedHistoryLong
+  - maxAllowedHistoryLong
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages
-  • maxAllowedHistoryLong:
-    • type: integer
-    • description: Ilość dni wstecz, liczona od momentu wysłania przez TPP żądania o pobranie historii transakcji rachunku płatnicznego, jaką może obejmować odpowiedź na to żądanie / How much account's transaction history is allowed to retrieve in days. This value should be used for calculation based on date of sending the request.
-    • minimum: 1
-    • maximum: 1460
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages
+  maxAllowedHistoryLong:
+    type: integer
+    description: Ilość dni wstecz, liczona od momentu wysłania przez TPP żądania o pobranie historii transakcji rachunku płatnicznego, jaką może obejmować odpowiedź na to żądanie / How much account's transaction history is allowed to retrieve in days. This value should be used for calculation based on date of sending the request.
+    minimum: 1
+    maximum: 1460
 • example:
-  • scopeUsageLimit: single
-  • maxAllowedHistoryLong: 880</t>
+  scopeUsageLimit: single
+  maxAllowedHistoryLong: 880</t>
         </is>
       </c>
     </row>
@@ -11170,18 +11170,18 @@
 • description: Lista atrybutów uprawnienia do żądania statusu płatności / The list of attributes of the payment status request privilege
 • type: object
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages
-  • paymentId:
-    • type: string
-    • description: Identyfikator płatności / Payment ID
-  • tppTransactionId:
-    • type: string
-    • description: Identyfikator transakcji nadany przez TPP. / Identifier of transaction established by TPP.</t>
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages
+  paymentId:
+    type: string
+    description: Identyfikator płatności / Payment ID
+  tppTransactionId:
+    type: string
+    description: Identyfikator transakcji nadany przez TPP. / Identifier of transaction established by TPP.</t>
         </is>
       </c>
     </row>
@@ -11225,18 +11225,18 @@
 • description: Lista atrybutów uprawnienia do żądania statusu paczki płatności / The list of attributes of the bundle of payments status request privilege
 • type: object
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages
-  • bundleId:
-    • type: string
-    • description: Identyfikator paczki płatności / Bundle of payments ID
-  • tppBundleId:
-    • type: string
-    • description: Identyfikator paczki przelewów nadany przez TPP. / Bundle of payments identifier set by TPP.</t>
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages
+  bundleId:
+    type: string
+    description: Identyfikator paczki płatności / Bundle of payments ID
+  tppBundleId:
+    type: string
+    description: Identyfikator paczki przelewów nadany przez TPP. / Bundle of payments identifier set by TPP.</t>
         </is>
       </c>
     </row>
@@ -11282,18 +11282,18 @@
 • description: Lista atrybutów uprawnienia do żądania statusu płatności cyklicznej / The list of attributes of recurring payment status request privilege
 • type: object
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages
-  • recurringPaymentId:
-    • type: string
-    • description: Identyfikator płatności cyklicznej nadany przez APSP / Recurring payment identifier set by ASPSP
-  • tppRecurringPaymentId:
-    • type: string
-    • description: Identyfikator płatności cyklicznej nadany przez TPP / Recurring payment identifier set by TPP</t>
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages
+  recurringPaymentId:
+    type: string
+    description: Identyfikator płatności cyklicznej nadany przez APSP / Recurring payment identifier set by ASPSP
+  tppRecurringPaymentId:
+    type: string
+    description: Identyfikator płatności cyklicznej nadany przez TPP / Recurring payment identifier set by TPP</t>
         </is>
       </c>
     </row>
@@ -11361,39 +11361,39 @@
 • description: Lista atrybutów uprawnienia do inicjacji przelewu zwykłego / The list of attributes of the domestic transfer request initiation privilege
 • type: object
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages
-  • recipient:
-    • $ref: #/definitions/RecipientPIS
-  • sender:
-    • $ref: #/definitions/SenderPISDomestic
-  • transferData:
-    • $ref: #/definitions/TransferData
-  • deliveryMode:
-    • description: Tryb pilności / Urgency mode
-    • type: string
-    • enum:
-      •         ExpressD0
-      •         StandardD1
-  • system:
-    • description: Droga jaką przelew ma być rozliczony / The way the transfer should be settled
-    • type: string
-    • enum:
-      •         Elixir
-      •         ExpressElixir
-      •         Sorbnet
-      •         BlueCash
-      •         Internal
-  • executionMode:
-    • description: Tryb realizacji płatności. Nadrzędna informacja decydująca o tym w jakim trybie zostanie zrealizowana płatność. / Payment execution mode. The superior information deciding which mode is to be used to execute payment.
-    • type: string
-    • enum:
-      •         Immediate
-      •         FutureDated</t>
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages
+  recipient:
+    $ref: #/definitions/RecipientPIS
+  sender:
+    $ref: #/definitions/SenderPISDomestic
+  transferData:
+    $ref: #/definitions/TransferData
+  deliveryMode:
+    description: Tryb pilności / Urgency mode
+    type: string
+    enum:
+      - ExpressD0
+      - StandardD1
+  system:
+    description: Droga jaką przelew ma być rozliczony / The way the transfer should be settled
+    type: string
+    enum:
+      - Elixir
+      - ExpressElixir
+      - Sorbnet
+      - BlueCash
+      - Internal
+  executionMode:
+    description: Tryb realizacji płatności. Nadrzędna informacja decydująca o tym w jakim trybie zostanie zrealizowana płatność. / Payment execution mode. The superior information deciding which mode is to be used to execute payment.
+    type: string
+    enum:
+      - Immediate
+      - FutureDated</t>
         </is>
       </c>
     </row>
@@ -11459,37 +11459,37 @@
 • description: Lista atrybutów uprawnienia do inicjacji przelewu zagranicznego EEA / The list of attributes of the EEA foreign transfer request initiation privilege
 • type: object
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages
-  • recipient:
-    • $ref: #/definitions/RecipientPISForeign
-  • sender:
-    • $ref: #/definitions/SenderPISForeign
-  • transferData:
-    • $ref: #/definitions/TransferDataCurrencyRequired
-  • deliveryMode:
-    • description: Tryb pilności / Urgency mode
-    • type: string
-    • enum:
-      •         ExpressD0
-      •         StandardD1
-  • system:
-    • description: Droga jaką przelew ma być rozliczony / The way the transfer should be settled
-    • type: string
-    • enum:
-      •         SEPA
-      •         InstantSEPA
-      •         Target
-  • executionMode:
-    • description: Tryb realizacji płatności. Nadrzędna informacja decydująca o tym w jakim trybie zostanie zrealizowana płatność. / Payment execution mode. The superior information deciding which mode is to be used to execute payment.
-    • type: string
-    • enum:
-      •         Immediate
-      •         FutureDated</t>
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages
+  recipient:
+    $ref: #/definitions/RecipientPISForeign
+  sender:
+    $ref: #/definitions/SenderPISForeign
+  transferData:
+    $ref: #/definitions/TransferDataCurrencyRequired
+  deliveryMode:
+    description: Tryb pilności / Urgency mode
+    type: string
+    enum:
+      - ExpressD0
+      - StandardD1
+  system:
+    description: Droga jaką przelew ma być rozliczony / The way the transfer should be settled
+    type: string
+    enum:
+      - SEPA
+      - InstantSEPA
+      - Target
+  executionMode:
+    description: Tryb realizacji płatności. Nadrzędna informacja decydująca o tym w jakim trybie zostanie zrealizowana płatność. / Payment execution mode. The superior information deciding which mode is to be used to execute payment.
+    type: string
+    enum:
+      - Immediate
+      - FutureDated</t>
         </is>
       </c>
     </row>
@@ -11561,42 +11561,42 @@
 • description: Lista atrybutów uprawnienia do inicjacji przelewu zagranicznego bez EEA / The list of attributes of the non-EEA foreign transfer request initiation privilege
 • type: object
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages
-  • recipient:
-    • $ref: #/definitions/RecipientPISForeign
-  • recipientBank:
-    • $ref: #/definitions/Bank
-  • sender:
-    • $ref: #/definitions/SenderPISForeign
-  • transferData:
-    • $ref: #/definitions/TransferDataCurrencyRequired
-  • transferCharges:
-    • type: string
-    • maxLength: 3
-    • description: Klauzula kosztowa / The cost clause
-  • deliveryMode:
-    • description: Tryb pilności / Urgency mode
-    • type: string
-    • enum:
-      •         ExpressD0
-      •         UrgentD1
-      •         StandardD2
-  • system:
-    • description: Droga jaką przelew ma być rozliczony / The way the transfer should be settled
-    • type: string
-    • enum:
-      •         Swift
-  • executionMode:
-    • description: Tryb realizacji płatności. Nadrzędna informacja decydująca o tym w jakim trybie zostanie zrealizowana płatność. / Payment execution mode. The superior information deciding which mode is to be used to execute payment.
-    • type: string
-    • enum:
-      •         Immediate
-      •         FutureDated</t>
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages
+  recipient:
+    $ref: #/definitions/RecipientPISForeign
+  recipientBank:
+    $ref: #/definitions/Bank
+  sender:
+    $ref: #/definitions/SenderPISForeign
+  transferData:
+    $ref: #/definitions/TransferDataCurrencyRequired
+  transferCharges:
+    type: string
+    maxLength: 3
+    description: Klauzula kosztowa / The cost clause
+  deliveryMode:
+    description: Tryb pilności / Urgency mode
+    type: string
+    enum:
+      - ExpressD0
+      - UrgentD1
+      - StandardD2
+  system:
+    description: Droga jaką przelew ma być rozliczony / The way the transfer should be settled
+    type: string
+    enum:
+      - Swift
+  executionMode:
+    description: Tryb realizacji płatności. Nadrzędna informacja decydująca o tym w jakim trybie zostanie zrealizowana płatność. / Payment execution mode. The superior information deciding which mode is to be used to execute payment.
+    type: string
+    enum:
+      - Immediate
+      - FutureDated</t>
         </is>
       </c>
     </row>
@@ -11663,38 +11663,38 @@
 • description: Lista atrybutów uprawnienia do inicjacji przelewu urzędu podatkowego / The list of attributes of the tax transfer request initiation privilege
 • type: object
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages
-  • recipient:
-    • $ref: #/definitions/RecipientPISTax
-  • sender:
-    • $ref: #/definitions/SenderPISDomestic
-  • transferData:
-    • $ref: #/definitions/TransferDataCurrencyRequiredTax
-  • usInfo:
-    • $ref: #/definitions/TransactionInfoTax
-  • deliveryMode:
-    • description: Tryb pilności / Urgency mode
-    • type: string
-    • enum:
-      •         ExpressD0
-      •         StandardD1
-  • system:
-    • description: Droga jaką przelew ma być rozliczony / The way the transfer should be settled
-    • type: string
-    • enum:
-      •         Elixir
-      •         ExpressElixir
-  • executionMode:
-    • description: Tryb realizacji płatności. Nadrzędna informacja decydująca o tym w jakim trybie zostanie zrealizowana płatność. / Payment execution mode. The superior information deciding which mode is to be used to execute payment.
-    • type: string
-    • enum:
-      •         Immediate
-      •         FutureDated</t>
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages
+  recipient:
+    $ref: #/definitions/RecipientPISTax
+  sender:
+    $ref: #/definitions/SenderPISDomestic
+  transferData:
+    $ref: #/definitions/TransferDataCurrencyRequiredTax
+  usInfo:
+    $ref: #/definitions/TransactionInfoTax
+  deliveryMode:
+    description: Tryb pilności / Urgency mode
+    type: string
+    enum:
+      - ExpressD0
+      - StandardD1
+  system:
+    description: Droga jaką przelew ma być rozliczony / The way the transfer should be settled
+    type: string
+    enum:
+      - Elixir
+      - ExpressElixir
+  executionMode:
+    description: Tryb realizacji płatności. Nadrzędna informacja decydująca o tym w jakim trybie zostanie zrealizowana płatność. / Payment execution mode. The superior information deciding which mode is to be used to execute payment.
+    type: string
+    enum:
+      - Immediate
+      - FutureDated</t>
         </is>
       </c>
     </row>
@@ -11738,19 +11738,19 @@
 • description: Lista atrybutów uprawnienia do odwołania zainicjowanego przelewu / The list of attributes of the cancel initiated payment request privilege
 • type: object
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages
-  • paymentId:
-    • type: string
-    • maxLength: 64
-    • description: Identyfikator płatności / Payment ID
-  • bundleId:
-    • type: string
-    • description: Identyfikator paczki przelewów / Bundle of payments ID</t>
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages
+  paymentId:
+    type: string
+    maxLength: 64
+    description: Identyfikator płatności / Payment ID
+  bundleId:
+    type: string
+    description: Identyfikator paczki przelewów / Bundle of payments ID</t>
         </is>
       </c>
     </row>
@@ -11792,16 +11792,16 @@
 • description: Lista atrybutów uprawnienia do anulowania płatności cyklicznej / The list of attributes of the cancel recurring payment request privilege
 • type: object
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages
-  • recurringPaymentId:
-    • type: string
-    • maxLength: 64
-    • description: Identyfikator płatności cyklicznej nadany przez ASPSP / Recurring payment identifier set by ASPSP</t>
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages
+  recurringPaymentId:
+    type: string
+    maxLength: 64
+    description: Identyfikator płatności cyklicznej nadany przez ASPSP / Recurring payment identifier set by ASPSP</t>
         </is>
       </c>
     </row>
@@ -11883,44 +11883,44 @@
 • description: Lista atrybutów uprawnienia do zainicjowania paczki przelewu / The list of attributes of the initiate bundle of payments request privilege
 • type: object
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages
-  • transfersTotalAmount:
-    • description: Łączna kwota wszystkich przelewów z paczki / The total amount of all transfers from bundle
-    • type: string
-    • pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
-  • typeOfTransfers:
-    • description: Typ przelewów, które zostaną zlecone w ramach paczki / The type of transfers that will be initiated through the bundle
-    • type: string
-    • enum:
-      •         domestic
-      •         EEA
-      •         nonEEA
-      •         tax
-  • domesticTransfers:
-    • description: Lista struktur danych przelewów zwykłych, które zostaną zlecone. Wymagane gdy typeOfTransfers = domestic. / The list of data structures of domestic transfers to be initiated. Required when typeOfTransfers = domestic.
-    • type: array
-    • items:
-      • $ref: #/definitions/PaymentDomesticRequestBundled
-  • EEATransfers:
-    • description: Lista struktur danych przelewów zagranicznych SEPA, które zostaną zlecone. Wymagane gdy typeOfTransfers = EEA. / The list of data structures of SEPA foreign transfers to be initiated. Required when typeOfTransfers = EEA.
-    • type: array
-    • items:
-      • $ref: #/definitions/PaymentEEARequestBundled
-  • nonEEATransfers:
-    • description: Lista struktur danych przelewów zagranicznych innych niż SEPA, które zostaną zlecone. Wymagane gdy typeOfTransfers = nonEEA. / The list of data structures of non SEPA foreign transfers to be initiated. Required when typeOfTransfers = nonEEA.
-    • type: array
-    • items:
-      • $ref: #/definitions/PaymentNonEEARequestBundled
-  • taxTransfers:
-    • description: Lista struktur danych przelewów do urzędu podatkowego, które zostaną zlecone. Wymagane gdy typeOfTransfers = tax. / The list of data structures of tax transfers to be initiated. Required when typeOfTransfers = tax.
-    • type: array
-    • items:
-      • $ref: #/definitions/PaymentTaxRequestBundled</t>
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages
+  transfersTotalAmount:
+    description: Łączna kwota wszystkich przelewów z paczki / The total amount of all transfers from bundle
+    type: string
+    pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
+  typeOfTransfers:
+    description: Typ przelewów, które zostaną zlecone w ramach paczki / The type of transfers that will be initiated through the bundle
+    type: string
+    enum:
+      - domestic
+      - EEA
+      - nonEEA
+      - tax
+  domesticTransfers:
+    description: Lista struktur danych przelewów zwykłych, które zostaną zlecone. Wymagane gdy typeOfTransfers = domestic. / The list of data structures of domestic transfers to be initiated. Required when typeOfTransfers = domestic.
+    type: array
+    items:
+      $ref: #/definitions/PaymentDomesticRequestBundled
+  EEATransfers:
+    description: Lista struktur danych przelewów zagranicznych SEPA, które zostaną zlecone. Wymagane gdy typeOfTransfers = EEA. / The list of data structures of SEPA foreign transfers to be initiated. Required when typeOfTransfers = EEA.
+    type: array
+    items:
+      $ref: #/definitions/PaymentEEARequestBundled
+  nonEEATransfers:
+    description: Lista struktur danych przelewów zagranicznych innych niż SEPA, które zostaną zlecone. Wymagane gdy typeOfTransfers = nonEEA. / The list of data structures of non SEPA foreign transfers to be initiated. Required when typeOfTransfers = nonEEA.
+    type: array
+    items:
+      $ref: #/definitions/PaymentNonEEARequestBundled
+  taxTransfers:
+    description: Lista struktur danych przelewów do urzędu podatkowego, które zostaną zlecone. Wymagane gdy typeOfTransfers = tax. / The list of data structures of tax transfers to be initiated. Required when typeOfTransfers = tax.
+    type: array
+    items:
+      $ref: #/definitions/PaymentTaxRequestBundled</t>
         </is>
       </c>
     </row>
@@ -11978,30 +11978,30 @@
 • description: Lista atrybutów uprawnienia do zdefiniowania nowej płatności cyklicznej / The list of attributes of definition of new recurring payment request privilege
 • type: object
 • properties:
-  • scopeUsageLimit:
-    • type: string
-    • enum:
-      •         single
-      •         multiple
-    • description: Rodzaj limitu zgody / Type of limit of usages
-  • recurrence:
-    • $ref: #/definitions/RecurringTransferParameters
-  • typeOfPayment:
-    • description: Typ przelewu, który zostanie wykorzystany do zdefiniowania nowej płatności cyklicznej  / The type of payment that is to be used to define new recurring payment
-    • type: string
-    • enum:
-      •         domestic
-      •         EEA
-      •         nonEEA
-      •         tax
-  • domesticPayment:
-    • $ref: #/definitions/RecurringDomesticPayment
-  • EEAPayment:
-    • $ref: #/definitions/RecurringEEAPayment
-  • nonEEAPayment:
-    • $ref: #/definitions/RecurringNonEEAPayment
-  • taxPayment:
-    • $ref: #/definitions/RecurringTaxPayment</t>
+  scopeUsageLimit:
+    type: string
+    enum:
+      - single
+      - multiple
+    description: Rodzaj limitu zgody / Type of limit of usages
+  recurrence:
+    $ref: #/definitions/RecurringTransferParameters
+  typeOfPayment:
+    description: Typ przelewu, który zostanie wykorzystany do zdefiniowania nowej płatności cyklicznej  / The type of payment that is to be used to define new recurring payment
+    type: string
+    enum:
+      - domestic
+      - EEA
+      - nonEEA
+      - tax
+  domesticPayment:
+    $ref: #/definitions/RecurringDomesticPayment
+  EEAPayment:
+    $ref: #/definitions/RecurringEEAPayment
+  nonEEAPayment:
+    $ref: #/definitions/RecurringNonEEAPayment
+  taxPayment:
+    $ref: #/definitions/RecurringTaxPayment</t>
         </is>
       </c>
     </row>
@@ -12073,48 +12073,48 @@
           <t>Removed:
 • description: Pełna lista uprawnień będących przedmiotem zapytania o zgodę PSU / The list of all privileges that are the subject of the request for PSU's consent
 • properties:
-  • accountNumber:
-    • $ref: #/definitions/AccountNumber
-  • ais-accounts:getAccounts:
-    • $ref: #/definitions/PrivilegeAisAspspInSimple
-  • ais:getAccount:
-    • $ref: #/definitions/PrivilegeAisAspspInSimple
-  • ais:getHolds:
-    • $ref: #/definitions/PrivilegeAisAspspIn
-  • ais:getTransactionsDone:
-    • $ref: #/definitions/PrivilegeAisAspspIn
-  • ais:getTransactionsPending:
-    • $ref: #/definitions/PrivilegeAisAspspIn
-  • ais:getTransactionsRejected:
-    • $ref: #/definitions/PrivilegeAisAspspIn
-  • ais:getTransactionsCancelled:
-    • $ref: #/definitions/PrivilegeAisAspspIn
-  • ais:getTransactionsScheduled:
-    • $ref: #/definitions/PrivilegeAisAspspIn
-  • ais:getTransactionDetail:
-    • $ref: #/definitions/PrivilegeAisAspspInSimple
-  • pis:getPayment:
-    • $ref: #/definitions/PrivilegePayment
-  • pis:getBundle:
-    • $ref: #/definitions/PrivilegeBundle
-  • pis:domestic:
-    • $ref: #/definitions/PrivilegeDomesticTransfer
-  • pis:EEA:
-    • $ref: #/definitions/PrivilegeForeignTransferEEA
-  • pis:nonEEA:
-    • $ref: #/definitions/PrivilegeForeignTransferNonEEA
-  • pis:tax:
-    • $ref: #/definitions/PrivilegeTaxTransfer
-  • pis:cancelPayment:
-    • $ref: #/definitions/PrivilegeCancelPayment
-  • pis:bundle:
-    • $ref: #/definitions/PrivilegeBundleTransfers
-  • pis:recurring:
-    • $ref: #/definitions/PrivilegeRecurringPayment
-  • pis:getRecurringPayment:
-    • $ref: #/definitions/PrivilegeRecurringPaymentStatus
-  • pis:cancelRecurringPayment:
-    • $ref: #/definitions/PrivilegeCancelRecurringPayment</t>
+  accountNumber:
+    $ref: #/definitions/AccountNumber
+  ais-accounts:getAccounts:
+    $ref: #/definitions/PrivilegeAisAspspInSimple
+  ais:getAccount:
+    $ref: #/definitions/PrivilegeAisAspspInSimple
+  ais:getHolds:
+    $ref: #/definitions/PrivilegeAisAspspIn
+  ais:getTransactionsDone:
+    $ref: #/definitions/PrivilegeAisAspspIn
+  ais:getTransactionsPending:
+    $ref: #/definitions/PrivilegeAisAspspIn
+  ais:getTransactionsRejected:
+    $ref: #/definitions/PrivilegeAisAspspIn
+  ais:getTransactionsCancelled:
+    $ref: #/definitions/PrivilegeAisAspspIn
+  ais:getTransactionsScheduled:
+    $ref: #/definitions/PrivilegeAisAspspIn
+  ais:getTransactionDetail:
+    $ref: #/definitions/PrivilegeAisAspspInSimple
+  pis:getPayment:
+    $ref: #/definitions/PrivilegePayment
+  pis:getBundle:
+    $ref: #/definitions/PrivilegeBundle
+  pis:domestic:
+    $ref: #/definitions/PrivilegeDomesticTransfer
+  pis:EEA:
+    $ref: #/definitions/PrivilegeForeignTransferEEA
+  pis:nonEEA:
+    $ref: #/definitions/PrivilegeForeignTransferNonEEA
+  pis:tax:
+    $ref: #/definitions/PrivilegeTaxTransfer
+  pis:cancelPayment:
+    $ref: #/definitions/PrivilegeCancelPayment
+  pis:bundle:
+    $ref: #/definitions/PrivilegeBundleTransfers
+  pis:recurring:
+    $ref: #/definitions/PrivilegeRecurringPayment
+  pis:getRecurringPayment:
+    $ref: #/definitions/PrivilegeRecurringPaymentStatus
+  pis:cancelRecurringPayment:
+    $ref: #/definitions/PrivilegeCancelRecurringPayment</t>
         </is>
       </c>
     </row>
@@ -12225,87 +12225,87 @@
           <t>Removed:
 • description: Pełna lista uprawnień, dla których została wyrażona zgoda przez PSU / The list of all privileges that the PSU's consent has been confirmed
 • properties:
-  • accountNumber:
-    • $ref: #/definitions/AccountNumber
-  • ais-accounts:getAccounts:
-    • $ref: #/definitions/PrivilegeAisAspspOutSimple
-  • ais:getAccount:
-    • $ref: #/definitions/PrivilegeAisAspspOutSimple
-  • ais:getHolds:
-    • $ref: #/definitions/PrivilegeAisAspspOut
-  • ais:getTransactionsDone:
-    • $ref: #/definitions/PrivilegeAisAspspOut
-  • ais:getTransactionsPending:
-    • $ref: #/definitions/PrivilegeAisAspspOut
-  • ais:getTransactionsRejected:
-    • $ref: #/definitions/PrivilegeAisAspspOut
-  • ais:getTransactionsCancelled:
-    • $ref: #/definitions/PrivilegeAisAspspOut
-  • ais:getTransactionsScheduled:
-    • $ref: #/definitions/PrivilegeAisAspspOut
-  • ais:getTransactionDetail:
-    • $ref: #/definitions/PrivilegeAisAspspOutSimple
-  • pis:getPayment:
-    • $ref: #/definitions/PrivilegePayment
-  • pis:getBundle:
-    • $ref: #/definitions/PrivilegeBundle
-  • pis:domestic:
-    • $ref: #/definitions/PrivilegeDomesticTransfer
-  • pis:EEA:
-    • $ref: #/definitions/PrivilegeForeignTransferEEA
-  • pis:nonEEA:
-    • $ref: #/definitions/PrivilegeForeignTransferNonEEA
-  • pis:tax:
-    • $ref: #/definitions/PrivilegeTaxTransfer
-  • pis:cancelPayment:
-    • $ref: #/definitions/PrivilegeCancelPayment
-  • pis:bundle:
-    • $ref: #/definitions/PrivilegeBundleTransfers
-  • pis:recurring:
-    • $ref: #/definitions/PrivilegeRecurringPayment
-  • pis:getRecurringPayment:
-    • $ref: #/definitions/PrivilegeRecurringPaymentStatus
-  • pis:cancelRecurringPayment:
-    • $ref: #/definitions/PrivilegeCancelRecurringPayment
+  accountNumber:
+    $ref: #/definitions/AccountNumber
+  ais-accounts:getAccounts:
+    $ref: #/definitions/PrivilegeAisAspspOutSimple
+  ais:getAccount:
+    $ref: #/definitions/PrivilegeAisAspspOutSimple
+  ais:getHolds:
+    $ref: #/definitions/PrivilegeAisAspspOut
+  ais:getTransactionsDone:
+    $ref: #/definitions/PrivilegeAisAspspOut
+  ais:getTransactionsPending:
+    $ref: #/definitions/PrivilegeAisAspspOut
+  ais:getTransactionsRejected:
+    $ref: #/definitions/PrivilegeAisAspspOut
+  ais:getTransactionsCancelled:
+    $ref: #/definitions/PrivilegeAisAspspOut
+  ais:getTransactionsScheduled:
+    $ref: #/definitions/PrivilegeAisAspspOut
+  ais:getTransactionDetail:
+    $ref: #/definitions/PrivilegeAisAspspOutSimple
+  pis:getPayment:
+    $ref: #/definitions/PrivilegePayment
+  pis:getBundle:
+    $ref: #/definitions/PrivilegeBundle
+  pis:domestic:
+    $ref: #/definitions/PrivilegeDomesticTransfer
+  pis:EEA:
+    $ref: #/definitions/PrivilegeForeignTransferEEA
+  pis:nonEEA:
+    $ref: #/definitions/PrivilegeForeignTransferNonEEA
+  pis:tax:
+    $ref: #/definitions/PrivilegeTaxTransfer
+  pis:cancelPayment:
+    $ref: #/definitions/PrivilegeCancelPayment
+  pis:bundle:
+    $ref: #/definitions/PrivilegeBundleTransfers
+  pis:recurring:
+    $ref: #/definitions/PrivilegeRecurringPayment
+  pis:getRecurringPayment:
+    $ref: #/definitions/PrivilegeRecurringPaymentStatus
+  pis:cancelRecurringPayment:
+    $ref: #/definitions/PrivilegeCancelRecurringPayment
 • example:
-  • ais:getTransactionsDone:
-    • scopeUsageLimit: single
-    • maxAllowedHistoryLong: 880
-  • ais:getHolds:
-    • scopeUsageLimit: single
-    • maxAllowedHistoryLong: 880
-  • ais:getTransactionsRejected:
-    • scopeUsageLimit: single
-    • maxAllowedHistoryLong: 880
-  • ais:getTransactionsCancelled:
-    • scopeUsageLimit: single
-    • maxAllowedHistoryLong: 880
-  • ais:getTransactionsScheduled:
-    • scopeUsageLimit: single
-    • maxAllowedHistoryLong: 880
-  • ais-accounts:getAccounts:
-    • scopeUsageLimit: single
-    • maxAllowedHistoryLong: 880
-  • pis:tax:
-    • scopeUsageLimit: single
-  • pis:getPayment:
-    • scopeUsageLimit: single
-  • pis:domestic:
-    • scopeUsageLimit: single
-  • ais:getTransactionDetail:
-    • scopeUsageLimit: single
-    • maxAllowedHistoryLong: 880
-  • ais:getTransactionsPending:
-    • scopeUsageLimit: single
-    • maxAllowedHistoryLong: 880
-  • pis:foreign:
-    • scopeUsageLimit: single
-  • pis:cancelPayment:
-    • scopeUsageLimit: single
-    • paymentId: 12345
-    • bundleId: 12345
-  • pis:bundle:
-    • scopeUsageLimit: single</t>
+  ais:getTransactionsDone:
+    scopeUsageLimit: single
+    maxAllowedHistoryLong: 880
+  ais:getHolds:
+    scopeUsageLimit: single
+    maxAllowedHistoryLong: 880
+  ais:getTransactionsRejected:
+    scopeUsageLimit: single
+    maxAllowedHistoryLong: 880
+  ais:getTransactionsCancelled:
+    scopeUsageLimit: single
+    maxAllowedHistoryLong: 880
+  ais:getTransactionsScheduled:
+    scopeUsageLimit: single
+    maxAllowedHistoryLong: 880
+  ais-accounts:getAccounts:
+    scopeUsageLimit: single
+    maxAllowedHistoryLong: 880
+  pis:tax:
+    scopeUsageLimit: single
+  pis:getPayment:
+    scopeUsageLimit: single
+  pis:domestic:
+    scopeUsageLimit: single
+  ais:getTransactionDetail:
+    scopeUsageLimit: single
+    maxAllowedHistoryLong: 880
+  ais:getTransactionsPending:
+    scopeUsageLimit: single
+    maxAllowedHistoryLong: 880
+  pis:foreign:
+    scopeUsageLimit: single
+  pis:cancelPayment:
+    scopeUsageLimit: single
+    paymentId: 12345
+    bundleId: 12345
+  pis:bundle:
+    scopeUsageLimit: single</t>
         </is>
       </c>
     </row>
@@ -12419,29 +12419,29 @@
 adress[1] - pozostałe dane adresowe banku odbiorcy (np. ulica i numer) / other address details of the recipient's bank (e.g. street and number)
 adress[2]- nazwa miasta, w którym mieści się bank odbiorcy / name of the city in which the recipient's bank is located
 • properties:
-  • bicOrSwift:
-    • maxLength: 11
-    • description: Numer BIC/SWIFT Banku / BIC/SWIFT number
+  bicOrSwift:
+    maxLength: 11
+    description: Numer BIC/SWIFT Banku / BIC/SWIFT number
 - Dla rachunku IBAN niewymagany / For the IBAN account not required
 'Dla rachunku nie-IBAN / For non-IBAN account:'
 - jeżeli jest podany kod BIC/SWIFT banku odbiorcy w polu recipientBankBicOrSwift, nie jest wymagane wypełnianie pozostałych danych dotyczących banku odbiorcy / if the full BIC / SWIFT code of the recipient's bank is provided in the recipientBankBicOrSwift field, no other fields for the recipient's bank are required.
 - jeżeli w polu recipientBankBicOrSwift nie podano kodu, wymagane jest uzupełnienie niektórych z poniższych danych (zawarto w opisie recipientBank)/ if no code is given in the recipientBankBicOrSwift field, some of the following data must be completed (included in recipientBank description)
-    • type: string
-  • name:
-    • maxLength: 70
-    • description: Nazwa Banku / Bank's name
+    type: string
+  name:
+    maxLength: 70
+    description: Nazwa Banku / Bank's name
 Pełna nazwa banku odbiorcy / Full name of the recipient's bank
-    • type: string
-  • code:
-    • maxLength: 10
-    • description: Kod Banku, dla przelewów zagranicznych / Bank's code
-    • type: string
-  • countryCode:
-    • maxLength: 2
-    • description: Kod kraju 3166-1 / Country code (Dwuliterowy kod kraju banku odbiorcy według standardu ISO 3166-1 alpha-2 / The two letter country code of the recipient bank according to the ISO 3166-1 alpha-2 standard )
-    • type: string
-  • address:
-    • $ref: #/definitions/Address
+    type: string
+  code:
+    maxLength: 10
+    description: Kod Banku, dla przelewów zagranicznych / Bank's code
+    type: string
+  countryCode:
+    maxLength: 2
+    description: Kod kraju 3166-1 / Country code (Dwuliterowy kod kraju banku odbiorcy według standardu ISO 3166-1 alpha-2 / The two letter country code of the recipient bank according to the ISO 3166-1 alpha-2 standard )
+    type: string
+  address:
+    $ref: #/definitions/Address
 • type: object</t>
         </is>
       </c>

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -578,7 +578,7 @@
       <c r="E2" s="7" t="inlineStr">
         <is>
           <t>Removed:
-pis</t>
+• pis</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       <c r="E3" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Removed:
-</t>
+• </t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  - pis</t>
+  -     pis</t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       <c r="E9" s="7" t="inlineStr">
         <is>
           <t>Removed:
-pis</t>
+• pis</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       <c r="E10" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Removed:
-</t>
+• </t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  - pis</t>
+  -     pis</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       <c r="E16" s="7" t="inlineStr">
         <is>
           <t>Removed:
-pis</t>
+• pis</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  - pis</t>
+  -     pis</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       <c r="E22" s="7" t="inlineStr">
         <is>
           <t>Removed:
-pis</t>
+• pis</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       <c r="E23" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Removed:
-</t>
+• </t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  - pis</t>
+  -     pis</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       <c r="E29" s="7" t="inlineStr">
         <is>
           <t>Removed:
-pis</t>
+• pis</t>
         </is>
       </c>
     </row>
@@ -1462,7 +1462,7 @@
       <c r="E30" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Removed:
-</t>
+• </t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  - pis</t>
+  -     pis</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       <c r="E36" s="7" t="inlineStr">
         <is>
           <t>Removed:
-pis</t>
+• pis</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       <c r="E37" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Removed:
-</t>
+• </t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  - pis</t>
+  -     pis</t>
         </is>
       </c>
     </row>
@@ -1884,7 +1884,7 @@
       <c r="E43" s="7" t="inlineStr">
         <is>
           <t>Removed:
-pis</t>
+• pis</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  - pis</t>
+  -     pis</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       <c r="E49" s="7" t="inlineStr">
         <is>
           <t>Removed:
-pis</t>
+• pis</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  - pis</t>
+  -     pis</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       <c r="E55" s="7" t="inlineStr">
         <is>
           <t>Removed:
-pis</t>
+• pis</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  - pis</t>
+  -     pis</t>
         </is>
       </c>
     </row>
@@ -2558,19 +2558,19 @@
   description: 
   operationId: getMultiplePayments
   parameters:
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: payments
-    in: body
-    description: Payments ID list
-    required: True
-    schema:
-      $ref: #/definitions/PaymentsRequest
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: payments
+      in: body
+      description: Payments ID list
+      required: True
+      schema:
+        $ref: #/definitions/PaymentsRequest
   tags:
-    - PIS
+    -       PIS
   responses:
     200:
       description: Success
@@ -2644,7 +2644,7 @@
       <c r="E62" s="7" t="inlineStr">
         <is>
           <t>Removed:
-pis</t>
+• pis</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  - pis</t>
+  -     pis</t>
         </is>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
       <c r="E68" s="7" t="inlineStr">
         <is>
           <t>Removed:
-pis</t>
+• pis</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
-  - pis</t>
+  -     pis</t>
         </is>
       </c>
     </row>
@@ -3118,19 +3118,19 @@
   description: Confirming the availability on the payers account of the amount necessary to execute the payment transaction, as defined in Art. 65 PSD2.
   operationId: getConfirmationOfFunds
   parameters:
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: confirmationOfFundsRequest
-    in: body
-    description: Object with amount to check
-    required: True
-    schema:
-      $ref: #/definitions/ConfirmationOfFundsRequest
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: confirmationOfFundsRequest
+      in: body
+      description: Object with amount to check
+      required: True
+      schema:
+        $ref: #/definitions/ConfirmationOfFundsRequest
   tags:
-    - CAF
+    -       CAF
   responses:
     200:
       description: Success
@@ -3270,19 +3270,19 @@
   description: Removes consent
   operationId: deleteConsent
   parameters:
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: deleteConsentRequest
-    in: body
-    description: Data for delete Consent Request
-    required: True
-    schema:
-      $ref: #/definitions/DeleteConsentRequest
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: deleteConsentRequest
+      in: body
+      description: Data for delete Consent Request
+      required: True
+      schema:
+        $ref: #/definitions/DeleteConsentRequest
   tags:
-    - AIS
+    -       AIS
   responses:
     204:
       description: Success
@@ -3432,20 +3432,20 @@
   description: User identification based on access token
   operationId: getAccounts
   parameters:
-    $ref: #/parameters/authorizationParam
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: getAccountsRequest
-    in: body
-    description: Data for Accounts Request
-    required: True
-    schema:
-      $ref: #/definitions/AccountsRequest
+    -       $ref: #/parameters/authorizationParam
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: getAccountsRequest
+      in: body
+      description: Data for Accounts Request
+      required: True
+      schema:
+        $ref: #/definitions/AccountsRequest
   tags:
-    - AIS
+    -       AIS
   responses:
     200:
       description: Success
@@ -3499,10 +3499,10 @@
       schema:
         $ref: #/definitions/Error
   security:
-    xs2a_auth_aspsp:
-      - ais-accounts
-    xs2a_auth_decoupled:
-      - ais-accounts</t>
+    -       xs2a_auth_aspsp:
+        -           ais-accounts
+    -       xs2a_auth_decoupled:
+        -           ais-accounts</t>
         </is>
       </c>
     </row>
@@ -3609,20 +3609,20 @@
   description: User identification based on access token
   operationId: getAccount
   parameters:
-    $ref: #/parameters/authorizationParam
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: getAccountRequest
-    in: body
-    description: Data for Account Request
-    required: True
-    schema:
-      $ref: #/definitions/AccountInfoRequest
+    -       $ref: #/parameters/authorizationParam
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: getAccountRequest
+      in: body
+      description: Data for Account Request
+      required: True
+      schema:
+        $ref: #/definitions/AccountInfoRequest
   tags:
-    - AIS
+    -       AIS
   responses:
     200:
       description: Success
@@ -3676,10 +3676,10 @@
       schema:
         $ref: #/definitions/Error
   security:
-    xs2a_auth_aspsp:
-      - ais
-    xs2a_auth_decoupled:
-      - ais</t>
+    -       xs2a_auth_aspsp:
+        -           ais
+    -       xs2a_auth_decoupled:
+        -           ais</t>
         </is>
       </c>
     </row>
@@ -3786,20 +3786,20 @@
   description: 
   operationId: getTransactionsDone
   parameters:
-    $ref: #/parameters/authorizationParam
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: getTransactionsDoneRequest
-    in: body
-    description: Data for Transactions Done Request
-    required: True
-    schema:
-      $ref: #/definitions/TransactionInfoRequest
+    -       $ref: #/parameters/authorizationParam
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: getTransactionsDoneRequest
+      in: body
+      description: Data for Transactions Done Request
+      required: True
+      schema:
+        $ref: #/definitions/TransactionInfoRequest
   tags:
-    - AIS
+    -       AIS
   responses:
     200:
       description: Success
@@ -3853,10 +3853,10 @@
       schema:
         $ref: #/definitions/Error
   security:
-    xs2a_auth_aspsp:
-      - ais
-    xs2a_auth_decoupled:
-      - ais</t>
+    -       xs2a_auth_aspsp:
+        -           ais
+    -       xs2a_auth_decoupled:
+        -           ais</t>
         </is>
       </c>
     </row>
@@ -3963,20 +3963,20 @@
   description: 
   operationId: getTransactionsPending
   parameters:
-    $ref: #/parameters/authorizationParam
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: getTransactionsPendingRequest
-    in: body
-    description: Data for Transactions Pending Request
-    required: True
-    schema:
-      $ref: #/definitions/TransactionInfoRequest
+    -       $ref: #/parameters/authorizationParam
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: getTransactionsPendingRequest
+      in: body
+      description: Data for Transactions Pending Request
+      required: True
+      schema:
+        $ref: #/definitions/TransactionInfoRequest
   tags:
-    - AIS
+    -       AIS
   responses:
     200:
       description: Success
@@ -4030,10 +4030,10 @@
       schema:
         $ref: #/definitions/Error
   security:
-    xs2a_auth_aspsp:
-      - ais
-    xs2a_auth_decoupled:
-      - ais</t>
+    -       xs2a_auth_aspsp:
+        -           ais
+    -       xs2a_auth_decoupled:
+        -           ais</t>
         </is>
       </c>
     </row>
@@ -4140,20 +4140,20 @@
   description: 
   operationId: getTransactionsRejected
   parameters:
-    $ref: #/parameters/authorizationParam
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: getTransactionsRejectedRequest
-    in: body
-    description: Data for Transactions Rejected Request
-    required: True
-    schema:
-      $ref: #/definitions/TransactionInfoRequest
+    -       $ref: #/parameters/authorizationParam
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: getTransactionsRejectedRequest
+      in: body
+      description: Data for Transactions Rejected Request
+      required: True
+      schema:
+        $ref: #/definitions/TransactionInfoRequest
   tags:
-    - AIS
+    -       AIS
   responses:
     200:
       description: Success
@@ -4207,10 +4207,10 @@
       schema:
         $ref: #/definitions/Error
   security:
-    xs2a_auth_aspsp:
-      - ais
-    xs2a_auth_decoupled:
-      - ais</t>
+    -       xs2a_auth_aspsp:
+        -           ais
+    -       xs2a_auth_decoupled:
+        -           ais</t>
         </is>
       </c>
     </row>
@@ -4317,20 +4317,20 @@
   description: 
   operationId: getTransactionsCancelled
   parameters:
-    $ref: #/parameters/authorizationParam
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: getTransactionsCancelledRequest
-    in: body
-    description: Data for Transactions Cancelled Request
-    required: True
-    schema:
-      $ref: #/definitions/TransactionInfoRequest
+    -       $ref: #/parameters/authorizationParam
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: getTransactionsCancelledRequest
+      in: body
+      description: Data for Transactions Cancelled Request
+      required: True
+      schema:
+        $ref: #/definitions/TransactionInfoRequest
   tags:
-    - AIS
+    -       AIS
   responses:
     200:
       description: Success
@@ -4384,10 +4384,10 @@
       schema:
         $ref: #/definitions/Error
   security:
-    xs2a_auth_aspsp:
-      - ais
-    xs2a_auth_decoupled:
-      - ais</t>
+    -       xs2a_auth_aspsp:
+        -           ais
+    -       xs2a_auth_decoupled:
+        -           ais</t>
         </is>
       </c>
     </row>
@@ -4494,20 +4494,20 @@
   description: 
   operationId: getTransactionsScheduled
   parameters:
-    $ref: #/parameters/authorizationParam
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: getTransactionsScheduledRequest
-    in: body
-    description: Data for Transactions Scheduled Request
-    required: True
-    schema:
-      $ref: #/definitions/TransactionInfoRequest
+    -       $ref: #/parameters/authorizationParam
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: getTransactionsScheduledRequest
+      in: body
+      description: Data for Transactions Scheduled Request
+      required: True
+      schema:
+        $ref: #/definitions/TransactionInfoRequest
   tags:
-    - AIS
+    -       AIS
   responses:
     200:
       description: Success
@@ -4561,10 +4561,10 @@
       schema:
         $ref: #/definitions/Error
   security:
-    xs2a_auth_aspsp:
-      - ais
-    xs2a_auth_decoupled:
-      - ais</t>
+    -       xs2a_auth_aspsp:
+        -           ais
+    -       xs2a_auth_decoupled:
+        -           ais</t>
         </is>
       </c>
     </row>
@@ -4671,20 +4671,20 @@
   description: 
   operationId: getHolds
   parameters:
-    $ref: #/parameters/authorizationParam
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: getHoldsRequest
-    in: body
-    description: Data for hold Request
-    required: True
-    schema:
-      $ref: #/definitions/HoldRequest
+    -       $ref: #/parameters/authorizationParam
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: getHoldsRequest
+      in: body
+      description: Data for hold Request
+      required: True
+      schema:
+        $ref: #/definitions/HoldRequest
   tags:
-    - AIS
+    -       AIS
   responses:
     200:
       description: Success
@@ -4738,10 +4738,10 @@
       schema:
         $ref: #/definitions/Error
   security:
-    xs2a_auth_aspsp:
-      - ais
-    xs2a_auth_decoupled:
-      - ais</t>
+    -       xs2a_auth_aspsp:
+        -           ais
+    -       xs2a_auth_decoupled:
+        -           ais</t>
         </is>
       </c>
     </row>
@@ -4848,20 +4848,20 @@
   description: 
   operationId: getTransactionDetail
   parameters:
-    $ref: #/parameters/authorizationParam
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: getTransationDetailRequest
-    in: body
-    description: Data for transation detail Request
-    required: True
-    schema:
-      $ref: #/definitions/TransactionDetailRequest
+    -       $ref: #/parameters/authorizationParam
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: getTransationDetailRequest
+      in: body
+      description: Data for transation detail Request
+      required: True
+      schema:
+        $ref: #/definitions/TransactionDetailRequest
   tags:
-    - AIS
+    -       AIS
   responses:
     200:
       description: Success
@@ -4915,10 +4915,10 @@
       schema:
         $ref: #/definitions/Error
   security:
-    xs2a_auth_aspsp:
-      - ais
-    xs2a_auth_decoupled:
-      - ais</t>
+    -       xs2a_auth_aspsp:
+        -           ais
+    -       xs2a_auth_decoupled:
+        -           ais</t>
         </is>
       </c>
     </row>
@@ -5007,19 +5007,19 @@
   description: Requests OAuth2 authorization code
   operationId: authorize
   parameters:
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: authorizeRequest
-    in: body
-    description: Data for OAuth2 Authorization Code Request
-    required: True
-    schema:
-      $ref: #/definitions/AuthorizeRequest
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: authorizeRequest
+      in: body
+      description: Data for OAuth2 Authorization Code Request
+      required: True
+      schema:
+        $ref: #/definitions/AuthorizeRequest
   tags:
-    - AS
+    -       AS
   responses:
     200:
       description: Success
@@ -5149,19 +5149,19 @@
   description: Requests OAuth2 authorization code based One-time authorization code issued by External Authorization Tool. Authorization code will be delivered to TPP as callback request from ASPSP if PSU authentication is confirmed by EAT. Callback function must provide similar notification also in case of unsuccessful authentication or its abandonment.
   operationId: authorizeExt
   parameters:
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: eatCodeRequest
-    in: body
-    description: Data for OAuth2 Authorization Code Request extended for EAT based authentication and callback response
-    required: True
-    schema:
-      $ref: #/definitions/EatCodeRequest
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: eatCodeRequest
+      in: body
+      description: Data for OAuth2 Authorization Code Request extended for EAT based authentication and callback response
+      required: True
+      schema:
+        $ref: #/definitions/EatCodeRequest
   tags:
-    - AS
+    -       AS
   responses:
     204:
       description: Successful TPP and EAT Code verification
@@ -5289,19 +5289,19 @@
   description: Requests OAuth2 access token value
   operationId: token
   parameters:
-    $ref: #/parameters/acceptEncodingParam
-    $ref: #/parameters/acceptLanguageParam
-    $ref: #/parameters/acceptCharsetParam
-    $ref: #/parameters/xjwsSignatureParam
-    $ref: #/parameters/xRequestIdParam
-    name: tokenRequest
-    in: body
-    description: Data for OAuth2 Access Token Request
-    required: True
-    schema:
-      $ref: #/definitions/TokenRequest
+    -       $ref: #/parameters/acceptEncodingParam
+    -       $ref: #/parameters/acceptLanguageParam
+    -       $ref: #/parameters/acceptCharsetParam
+    -       $ref: #/parameters/xjwsSignatureParam
+    -       $ref: #/parameters/xRequestIdParam
+    -       name: tokenRequest
+      in: body
+      description: Data for OAuth2 Access Token Request
+      required: True
+      schema:
+        $ref: #/definitions/TokenRequest
   tags:
-    - AS
+    -       AS
   responses:
     200:
       description: Success
@@ -5407,13 +5407,13 @@
 • description: Klasa zapytania o uzyskanie kodu autoryzacyjnego zgodnego z OAuth2
 • type: object
 • required:
-  - requestHeader
-  - response_type
-  - client_id
-  - redirect_uri
-  - scope
-  - scope_details
-  - state
+  -     requestHeader
+  -     response_type
+  -     client_id
+  -     redirect_uri
+  -     scope
+  -     scope_details
+  -     state
 • properties:
   requestHeader:
     $ref: #/definitions/RequestHeaderWithoutTokenAS
@@ -5475,8 +5475,8 @@
           <t>Removed:
 • description: Klasa odpowiedzi na zapytanie TPP o autoryzację PSU do wykonania usługi interfejsu XS2A
 • required:
-  - responseHeader
-  - aspspRedirectUri
+  -     responseHeader
+  -     aspspRedirectUri
 • properties:
   responseHeader:
     $ref: #/definitions/ResponseHeader
@@ -5550,15 +5550,15 @@
 • description: Klasa zapytania o uzyskanie kodu autoryzacyjnego zgodnego z OAuth2 na podstawie przekazanego kodu jednorazowego, wygenerowanego w EAT
 • type: object
 • required:
-  - requestHeader
-  - requestId
-  - response_type
-  - eatCode
-  - client_id
-  - callbackURL
-  - apiKey
-  - scope
-  - scope_details
+  -     requestHeader
+  -     requestId
+  -     response_type
+  -     eatCode
+  -     client_id
+  -     callbackURL
+  -     apiKey
+  -     scope
+  -     scope_details
 • properties:
   requestHeader:
     $ref: #/definitions/RequestHeaderWithoutTokenCallbackAS
@@ -5665,7 +5665,7 @@
 • description: Klasa zapytania o uzyskanie tokena dostępowego zgodnego z OAuth2
 • type: object
 • required:
-  - grant_type
+  -     grant_type
 • properties:
   requestHeader:
     $ref: #/definitions/RequestHeaderWithoutTokenAS
@@ -5761,11 +5761,11 @@
           <t>Removed:
 • description: Klasa odpowiedzi na zapytanie TPP o wygenerowanie tokena dostępowego
 • required:
-  - responseHeader
-  - access_token
-  - token_type
-  - expires_in
-  - scope_details
+  -     responseHeader
+  -     access_token
+  -     token_type
+  -     expires_in
+  -     scope_details
 • properties:
   responseHeader:
     $ref: #/definitions/ResponseHeader
@@ -5822,7 +5822,7 @@
 • description: Klasa zapytania o usunięcie zgody na dostęp do AIS
 • type: object
 • required:
-  - consentId
+  -     consentId
 • properties:
   consentId:
     type: string
@@ -5875,7 +5875,7 @@
 • description: Klasa zapytania o rachunki / Accounts Request Class
 • type: object
 • required:
-  - requestHeader
+  -     requestHeader
 • properties:
   requestHeader:
     $ref: #/definitions/RequestHeaderAISCallback
@@ -5922,7 +5922,7 @@
           <t>Removed:
 • description: Klasa odpowiedzi na zapytania o konto PSU / PSU's Account Response Class
 • required:
-  - responseHeader
+  -     responseHeader
 • properties:
   responseHeader:
     $ref: #/definitions/ResponseHeader
@@ -5966,7 +5966,7 @@
           <t>Removed:
 • description: Klasa odpowiedzi na zapytania o wiele kont PSU / PSU's Multiple Accounts Response Class
 • required:
-  - responseHeader
+  -     responseHeader
 • properties:
   responseHeader:
     $ref: #/definitions/ResponseHeader
@@ -6022,9 +6022,9 @@
 • description: Klasa informacji o koncie / Account Information Class
 • type: object
 • required:
-  - accountNumber
-  - accountTypeName
-  - accountType
+  -     accountNumber
+  -     accountTypeName
+  -     accountType
 • properties:
   accountNumber:
     type: string
@@ -6117,13 +6117,13 @@
 • description: Klasa informacji o koncie / Account Information Class
 • type: object
 • required:
-  - accountNumber
-  - nameAddress
-  - availableBalance
-  - bookingBalance
-  - currency
-  - accountType
-  - accountHolderType
+  -     accountNumber
+  -     nameAddress
+  -     availableBalance
+  -     bookingBalance
+  -     currency
+  -     accountType
+  -     accountHolderType
 • properties:
   accountNumber:
     type: string
@@ -6139,8 +6139,8 @@
   accountHolderType:
     type: string
     enum:
-      - individual
-      - corporation
+      -         individual
+      -         corporation
     description: Rodzaj posiadacza rachunku: osoba fizyczna lub osoba prawna / Account holder type: individual person or corporation
   accountNameClient:
     type: string
@@ -6203,8 +6203,8 @@
 • description: Klasa zapytania o pojedynczy rachunek / Account Information Request Class
 • type: object
 • required:
-  - requestHeader
-  - accountNumber
+  -     requestHeader
+  -     accountNumber
 • properties:
   requestHeader:
     $ref: #/definitions/RequestHeaderAIS
@@ -6386,18 +6386,18 @@
           <t>Removed:
 • description: Klasa zapytania o transakcje / Transaction Information Request Class
 • allOf:
-  $ref: #/definitions/ItemInfoRequestBase
-  type: object
-  required:
-    - requestHeader
-    - accountNumber
-  properties:
-    type:
-      type: string
-      enum:
-        - CREDIT
-        - DEBIT
-      description: Element filtru: transakcji / Filter element
+  -     $ref: #/definitions/ItemInfoRequestBase
+  -     type: object
+    required:
+      -         requestHeader
+      -         accountNumber
+    properties:
+      type:
+        type: string
+        enum:
+          -             CREDIT
+          -             DEBIT
+        description: Element filtru: transakcji / Filter element
 • xml:
   name: TransactionInfoRequest</t>
         </is>
@@ -6441,17 +6441,17 @@
           <t>Removed:
 • description: Klasa zapytania o elementy (transakcje lub blokady) / Element (transaction or hold) Information Request Class
 • allOf:
-  $ref: #/definitions/ItemInfoRequestBase
-  type: object
-  required:
-    - requestHeader
-    - accountNumber
-  properties:
-    type:
-      type: string
-      enum:
-        - DEBIT
-      description: Element filtru: transakcji / Filter element
+  -     $ref: #/definitions/ItemInfoRequestBase
+  -     type: object
+    required:
+      -         requestHeader
+      -         accountNumber
+    properties:
+      type:
+        type: string
+        enum:
+          -             DEBIT
+        description: Element filtru: transakcji / Filter element
 • xml:
   name: HoldRequest</t>
         </is>
@@ -6518,8 +6518,8 @@
 • description: Klasa bazowa informacji o elemencie (transakcji lub blokadzie) / Element (transaction or hold) Information Base Class
 • type: object
 • required:
-  - itemId
-  - amount
+  -     itemId
+  -     amount
 • properties:
   itemId:
     type: string
@@ -6595,22 +6595,22 @@
           <t>Removed:
 • description: Klasa opisująca blokadę na rachunku / Hold info class
 • allOf:
-  $ref: #/definitions/ItemInfoBase
-  type: object
-  required:
-    - itemId
-    - amount
-  properties:
-    holdExpirationDate:
-      type: string
-      format: date-time
-      description: Data ważności blokady, YYYY-MM-DDThh:mm:ss[.mmm]
-    initiator:
-      $ref: #/definitions/NameAddress
-    sender:
-      $ref: #/definitions/SenderRecipient
-    recipient:
-      $ref: #/definitions/SenderRecipient
+  -     $ref: #/definitions/ItemInfoBase
+  -     type: object
+    required:
+      -         itemId
+      -         amount
+    properties:
+      holdExpirationDate:
+        type: string
+        format: date-time
+        description: Data ważności blokady, YYYY-MM-DDThh:mm:ss[.mmm]
+      initiator:
+        $ref: #/definitions/NameAddress
+      sender:
+        $ref: #/definitions/SenderRecipient
+      recipient:
+        $ref: #/definitions/SenderRecipient
 • xml:
   name: HoldInfo</t>
         </is>
@@ -6664,25 +6664,25 @@
           <t>Removed:
 • description: Klasa opisująca oczekującą transakcję płatniczą. Jest to transakcja niezaksięgowana, niemodyfikowalna, wpływającej na dostępne środki (saldo dostępne).
 • allOf:
-  $ref: #/definitions/ItemInfoBase
-  type: object
-  required:
-    - itemId
-    - amount
-    - transactionCategory
-  properties:
-    transactionCategory:
-      type: string
-      enum:
-        - CREDIT
-        - DEBIT
-      description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
-    initiator:
-      $ref: #/definitions/NameAddress
-    sender:
-      $ref: #/definitions/SenderRecipient
-    recipient:
-      $ref: #/definitions/SenderRecipient
+  -     $ref: #/definitions/ItemInfoBase
+  -     type: object
+    required:
+      -         itemId
+      -         amount
+      -         transactionCategory
+    properties:
+      transactionCategory:
+        type: string
+        enum:
+          -             CREDIT
+          -             DEBIT
+        description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
+      initiator:
+        $ref: #/definitions/NameAddress
+      sender:
+        $ref: #/definitions/SenderRecipient
+      recipient:
+        $ref: #/definitions/SenderRecipient
 • xml:
   name: TransactionPendingInfo</t>
         </is>
@@ -6742,33 +6742,33 @@
           <t>Removed:
 • description: Klasa opisująca odrzuconą transakcję płatniczą
 • allOf:
-  $ref: #/definitions/ItemInfoBase
-  type: object
-  required:
-    - itemId
-    - amount
-    - transactionCategory
-  properties:
-    transactionCategory:
-      type: string
-      enum:
-        - CREDIT
-        - DEBIT
-      description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
-    initiator:
-      $ref: #/definitions/NameAddress
-    sender:
-      $ref: #/definitions/SenderRecipient
-    recipient:
-      $ref: #/definitions/SenderRecipient
-    rejectionReason:
-      type: string
-      maxLength: 140
-      description: Powod odrzucenia
-    rejectionDate:
-      type: string
-      format: date-time
-      description: Data odrzucenia, YYYY-MM-DDThh:mm:ss[.mmm]
+  -     $ref: #/definitions/ItemInfoBase
+  -     type: object
+    required:
+      -         itemId
+      -         amount
+      -         transactionCategory
+    properties:
+      transactionCategory:
+        type: string
+        enum:
+          -             CREDIT
+          -             DEBIT
+        description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
+      initiator:
+        $ref: #/definitions/NameAddress
+      sender:
+        $ref: #/definitions/SenderRecipient
+      recipient:
+        $ref: #/definitions/SenderRecipient
+      rejectionReason:
+        type: string
+        maxLength: 140
+        description: Powod odrzucenia
+      rejectionDate:
+        type: string
+        format: date-time
+        description: Data odrzucenia, YYYY-MM-DDThh:mm:ss[.mmm]
 • xml:
   name: TransactionRejectedInfo</t>
         </is>
@@ -6832,35 +6832,35 @@
           <t>Removed:
 • description: Klasa opisująca transakcję płatniczą
 • allOf:
-  $ref: #/definitions/ItemInfoBase
-  type: object
-  required:
-    - itemId
-    - amount
-    - transactionCategory
-  properties:
-    transactionCategory:
-      type: string
-      enum:
-        - CREDIT
-        - DEBIT
-      description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
-    transactionStatus:
-      $ref: #/definitions/DictionaryItem
-    initiator:
-      $ref: #/definitions/NameAddress
-    sender:
-      $ref: #/definitions/SenderRecipient
-    recipient:
-      $ref: #/definitions/SenderRecipient
-    bookingDate:
-      type: string
-      format: date-time
-      description: Data księgowania, YYYY-MM-DDThh:mm:ss[.mmm]. Wymagane warunkowo - w przypadku transakcji zaksięgowanych.
-    postTransactionBalance:
-      type: string
-      pattern: ^-?(0|([1-9][0-9]{0,}))\.\d{2}$
-      description: Saldo rachunku po transakcji. Wymagane warunkowo - w przypadku transakcji zaksięgowanych.
+  -     $ref: #/definitions/ItemInfoBase
+  -     type: object
+    required:
+      -         itemId
+      -         amount
+      -         transactionCategory
+    properties:
+      transactionCategory:
+        type: string
+        enum:
+          -             CREDIT
+          -             DEBIT
+        description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
+      transactionStatus:
+        $ref: #/definitions/DictionaryItem
+      initiator:
+        $ref: #/definitions/NameAddress
+      sender:
+        $ref: #/definitions/SenderRecipient
+      recipient:
+        $ref: #/definitions/SenderRecipient
+      bookingDate:
+        type: string
+        format: date-time
+        description: Data księgowania, YYYY-MM-DDThh:mm:ss[.mmm]. Wymagane warunkowo - w przypadku transakcji zaksięgowanych.
+      postTransactionBalance:
+        type: string
+        pattern: ^-?(0|([1-9][0-9]{0,}))\.\d{2}$
+        description: Saldo rachunku po transakcji. Wymagane warunkowo - w przypadku transakcji zaksięgowanych.
 • xml:
   name: TransactionInfo</t>
         </is>
@@ -6914,27 +6914,27 @@
           <t>Removed:
 • description: Klasa opisująca odwołaną transakcję płatniczą
 • allOf:
-  $ref: #/definitions/ItemInfoBase
-  type: object
-  required:
-    - itemId
-    - amount
-    - transactionCategory
-  properties:
-    transactionCategory:
-      type: string
-      enum:
-        - CREDIT
-        - DEBIT
-      description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
-    transactionStatus:
-      $ref: #/definitions/DictionaryItem
-    initiator:
-      $ref: #/definitions/NameAddress
-    sender:
-      $ref: #/definitions/SenderRecipient
-    recipient:
-      $ref: #/definitions/SenderRecipient
+  -     $ref: #/definitions/ItemInfoBase
+  -     type: object
+    required:
+      -         itemId
+      -         amount
+      -         transactionCategory
+    properties:
+      transactionCategory:
+        type: string
+        enum:
+          -             CREDIT
+          -             DEBIT
+        description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
+      transactionStatus:
+        $ref: #/definitions/DictionaryItem
+      initiator:
+        $ref: #/definitions/NameAddress
+      sender:
+        $ref: #/definitions/SenderRecipient
+      recipient:
+        $ref: #/definitions/SenderRecipient
 • xml:
   name: TransactionCancelledInfo</t>
         </is>
@@ -6988,27 +6988,27 @@
           <t>Removed:
 • description: Klasa opisująca zaplanowaną transakcję płatniczą
 • allOf:
-  $ref: #/definitions/ItemInfoBase
-  type: object
-  required:
-    - itemId
-    - amount
-    - transactionCategory
-  properties:
-    transactionCategory:
-      type: string
-      enum:
-        - CREDIT
-        - DEBIT
-      description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
-    transactionStatus:
-      $ref: #/definitions/DictionaryItem
-    initiator:
-      $ref: #/definitions/NameAddress
-    sender:
-      $ref: #/definitions/SenderRecipient
-    recipient:
-      $ref: #/definitions/SenderRecipient
+  -     $ref: #/definitions/ItemInfoBase
+  -     type: object
+    required:
+      -         itemId
+      -         amount
+      -         transactionCategory
+    properties:
+      transactionCategory:
+        type: string
+        enum:
+          -             CREDIT
+          -             DEBIT
+        description: Kategoria transakcji uznanie/obciążenie / Transaction category (credit/debit)
+      transactionStatus:
+        $ref: #/definitions/DictionaryItem
+      initiator:
+        $ref: #/definitions/NameAddress
+      sender:
+        $ref: #/definitions/SenderRecipient
+      recipient:
+        $ref: #/definitions/SenderRecipient
 • xml:
   name: TransactionScheduledInfo</t>
         </is>
@@ -7051,7 +7051,7 @@
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji done / Done Transaction Information Response Class
 • required:
-  - responseHeader
+  -     responseHeader
 • properties:
   responseHeader:
     $ref: #/definitions/ResponseHeader
@@ -7103,7 +7103,7 @@
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji cancelled / Cancelled Transaction Information Response Class
 • required:
-  - responseHeader
+  -     responseHeader
 • properties:
   responseHeader:
     $ref: #/definitions/ResponseHeader
@@ -7155,7 +7155,7 @@
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji scheduled / Scheduled Transaction Information Response Class
 • required:
-  - responseHeader
+  -     responseHeader
 • properties:
   responseHeader:
     $ref: #/definitions/ResponseHeader
@@ -7207,7 +7207,7 @@
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji pending / Pending Transaction Information Response Class
 • required:
-  - responseHeader
+  -     responseHeader
 • properties:
   responseHeader:
     $ref: #/definitions/ResponseHeader
@@ -7259,7 +7259,7 @@
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji rejected / Rejected Transaction Information Response Class
 • required:
-  - responseHeader
+  -     responseHeader
 • properties:
   responseHeader:
     $ref: #/definitions/ResponseHeader
@@ -7311,7 +7311,7 @@
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę blokad na rachunku / Hold Information Response Class
 • required:
-  - responseHeader
+  -     responseHeader
 • properties:
   responseHeader:
     $ref: #/definitions/ResponseHeader
@@ -7375,9 +7375,9 @@
 • description: Klasa zapytania o pojedynczą transakcję / Transaction Detail Request Class
 • type: object
 • required:
-  - requestHeader
-  - itemId
-  - accountNumber
+  -     requestHeader
+  -     itemId
+  -     accountNumber
 • properties:
   requestHeader:
     $ref: #/definitions/RequestHeaderAIS
@@ -7425,7 +7425,7 @@
       <c r="E117" s="7" t="inlineStr">
         <is>
           <t>Added:
-Typ identyfikatora płatnika / Payor ID type
+• Typ identyfikatora płatnika / Payor ID type
 * `N` - NIP
 * `P` - Pesel
 * `R` - Regon
@@ -7471,17 +7471,17 @@
       <c r="E118" s="7" t="inlineStr">
         <is>
           <t>Added:
-1
+• 1
 Added:
-2
+• 2
 Added:
-3
+• 3
 Removed:
-1
+• 1
 Removed:
-2
+• 2
 Removed:
-3</t>
+• 3</t>
         </is>
       </c>
     </row>
@@ -7521,18 +7521,18 @@
           <t>Removed:
 • name: payorIdType
 • values:
-  value: N
-  description: NIP
-  value: P
-  description: Pesel
-  value: R
-  description: Regon
-  value: 1
-  description: Dowód osobisty
-  value: 2
-  description: Paszport
-  value: 3
-  description: Inny</t>
+  -     value: N
+    description: NIP
+  -     value: P
+    description: Pesel
+  -     value: R
+    description: Regon
+  -     value: 1
+    description: Dowód osobisty
+  -     value: 2
+    description: Paszport
+  -     value: 3
+    description: Inny</t>
         </is>
       </c>
     </row>
@@ -7606,21 +7606,21 @@
     type: string
     description: Typ dodatkowego identyfikatora płatnika / Payor's additional identifier type
     enum:
-      - P
-      - R
-      - 1
-      - 2
+      -         P
+      -         R
+      -         1
+      -         2
     x-ms-enum:
       name: additionalPayorIdType
       values:
-        value: P
-        description: Pesel
-        value: R
-        description: Regon
-        value: 1
-        description: Dowód osobisty
-        value: 2
-        description: Paszport
+        -           value: P
+          description: Pesel
+        -           value: R
+          description: Regon
+        -           value: 1
+          description: Dowód osobisty
+        -           value: 2
+          description: Paszport
 • xml:
   name: SocialSecurityPayor</t>
         </is>
@@ -7829,8 +7829,8 @@
 • description: Klasa odpowiedzi na zapytanie o transakcję /  Transaction Detail Response Class
 • type: object
 • required:
-  - responseHeader
-  - baseInfo
+  -     responseHeader
+  -     baseInfo
 • properties:
   responseHeader:
     $ref: #/definitions/ResponseHeader
@@ -7914,11 +7914,11 @@
       <c r="E124" s="7" t="inlineStr">
         <is>
           <t>Removed:
-ExpressElixir
+• ExpressElixir
 Removed:
-Sorbnet
+• Sorbnet
 Removed:
-BlueCash</t>
+• BlueCash</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       <c r="E125" s="7" t="inlineStr">
         <is>
           <t>Added:
-UrgentD1</t>
+• UrgentD1</t>
         </is>
       </c>
     </row>
@@ -7987,9 +7987,9 @@
       <c r="E126" s="7" t="inlineStr">
         <is>
           <t>Added:
-Swift
+• Swift
 Added:
-SantanderOnePayFX</t>
+• SantanderOnePayFX</t>
         </is>
       </c>
     </row>
@@ -8019,7 +8019,7 @@
       <c r="E127" s="7" t="inlineStr">
         <is>
           <t>Added:
-#/definitions/PaymentNonEEARequestBank</t>
+• #/definitions/PaymentNonEEARequestBank</t>
         </is>
       </c>
     </row>
@@ -8052,11 +8052,11 @@
       <c r="E128" s="7" t="inlineStr">
         <is>
           <t>Added:
-SEPA
+• SEPA
 Added:
-Target
+• Target
 Added:
-SantanderOnePayFX</t>
+• SantanderOnePayFX</t>
         </is>
       </c>
     </row>
@@ -8082,7 +8082,7 @@
       <c r="E129" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8108,7 +8108,7 @@
       <c r="E130" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8134,7 +8134,7 @@
       <c r="E131" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8160,7 +8160,7 @@
       <c r="E132" s="7" t="inlineStr">
         <is>
           <t>Added:
-35</t>
+• 35</t>
         </is>
       </c>
     </row>
@@ -8193,11 +8193,11 @@
       <c r="E133" s="7" t="inlineStr">
         <is>
           <t>Removed:
-EEA
+• EEA
 Removed:
-nonEEA
+• nonEEA
 Removed:
-tax</t>
+• tax</t>
         </is>
       </c>
     </row>
@@ -8298,7 +8298,7 @@
       <c r="E137" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8324,7 +8324,7 @@
       <c r="E138" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8350,7 +8350,7 @@
       <c r="E139" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8376,7 @@
       <c r="E140" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8402,7 +8402,7 @@
       <c r="E141" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       <c r="E142" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8454,7 +8454,7 @@
       <c r="E143" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8480,7 +8480,7 @@
       <c r="E144" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8506,7 +8506,7 @@
       <c r="E145" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8532,7 +8532,7 @@
       <c r="E146" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8557,7 +8557,7 @@
       <c r="E147" s="7" t="inlineStr">
         <is>
           <t>Removed:
-Klasa odpowiedzi na pytanie o płatność / Payment Get Response Class</t>
+• Klasa odpowiedzi na pytanie o płatność / Payment Get Response Class</t>
         </is>
       </c>
     </row>
@@ -8606,15 +8606,15 @@
   responseHeader:
     $ref: #/definitions/ResponseHeader
 • required:
-  - responseHeader
+  -     responseHeader
 • type: object
 Removed:
 • type: object
 • required:
-  - responseHeader
-  - paymentId
-  - generalStatus
-  - detailedStatus
+  -     responseHeader
+  -     paymentId
+  -     generalStatus
+  -     detailedStatus
 • properties:
   responseHeader:
     $ref: #/definitions/ResponseHeader</t>
@@ -8643,7 +8643,7 @@
       <c r="E149" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       <c r="E150" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8695,7 +8695,7 @@
       <c r="E151" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8748,10 +8748,10 @@
 • description: Klasa zapytania o dostępne środki płatnicze na rachunku / Confirmation of Funds Request Class
 • type: object
 • required:
-  - requestHeader
-  - accountNumber
-  - amount
-  - currency
+  -     requestHeader
+  -     accountNumber
+  -     amount
+  -     currency
 • properties:
   requestHeader:
     $ref: #/definitions/RequestHeaderWithoutToken
@@ -8809,8 +8809,8 @@
           <t>Removed:
 • description: Klasa odpowiedzi na zapytanie o dostępne środki płatnicze na rachunku / Confirmation of Funds Response Class
 • required:
-  - responseHeader
-  - fundsAvailable
+  -     responseHeader
+  -     fundsAvailable
 • properties:
   responseHeader:
     $ref: #/definitions/ResponseHeader
@@ -8818,8 +8818,8 @@
     description: Status - Czy środki są dostępne / Status - are funds available
     type: boolean
     enum:
-      - True
-      - False</t>
+      -         True
+      -         False</t>
         </is>
       </c>
     </row>
@@ -8845,7 +8845,7 @@
       <c r="E154" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       <c r="E155" s="7" t="inlineStr">
         <is>
           <t>Added:
-255</t>
+• 255</t>
         </is>
       </c>
     </row>
@@ -8897,7 +8897,7 @@
       <c r="E156" s="7" t="inlineStr">
         <is>
           <t>Added:
-255</t>
+• 255</t>
         </is>
       </c>
     </row>
@@ -8923,7 +8923,7 @@
       <c r="E157" s="7" t="inlineStr">
         <is>
           <t>Added:
-127</t>
+• 127</t>
         </is>
       </c>
     </row>
@@ -8989,24 +8989,24 @@
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU na potrzeby usług autoryzacji / PSU Information Class dedicated for authorization services
 • allOf:
-  $ref: #/definitions/RequestHeaderWithoutToken
-  type: object
-  properties:
-    isCompanyContext:
-      type: boolean
-      description: (true / false) Znacznik oznaczający czy żądanie jest wysyłane w kontekście PSU korporacyjnego
-    psuIdentifierType:
-      type: string
-      description: Typ identyfikatora PSU, służy do wskazania przez TPP na podstawie jakiej informacji zostanie zidentyfikowany PSU, który będzie podlegał uwierzytelnieniu. Wartość słownikowa. / PSU identifier type, used by TPP to indicate type of information based on which the PSU is to be authenticated. Dictionary value.
-    psuIdentifierValue:
-      type: string
-      description: Wartość identyfikatora PSU. Wymagany warunkowo - w przypadku gdy została przekazana niepusta wartość typu identyfikatora PSU. / The value of the PSU's identifier. Required conditionally - in case non empty value of PSU identifier type was passed.
-    psuContextIdentifierType:
-      type: string
-      description: Typ identyfikatora kontekstu w jakim występuje PSU. Wartość słownikowa. Wymagany warunkowo - w przypadku wysyłania żądania dla takiego PSU, który może występować w więcej niż jednym kontekście w wybranym ASPSP. / Identifier of context that is used by PSU. Dictionary value. Required conditionally - in case context of the request is used and PSU may use more then one context for the ASPSP.
-    psuContextIdentifierValue:
-      type: string
-      description: Wartość identyfikatora kontekstu w jakim występuje PSU. Wymagany warunkowo - w przypadku wysyłania żądania dla takiego PSU, który może występować w więcej niż jednym kontekście w wybranym ASPSP. / The value of context that is used by PSU. Required conditionally - in case context of the request is used and PSU may use more then one context for the ASPSP.</t>
+  -     $ref: #/definitions/RequestHeaderWithoutToken
+  -     type: object
+    properties:
+      isCompanyContext:
+        type: boolean
+        description: (true / false) Znacznik oznaczający czy żądanie jest wysyłane w kontekście PSU korporacyjnego
+      psuIdentifierType:
+        type: string
+        description: Typ identyfikatora PSU, służy do wskazania przez TPP na podstawie jakiej informacji zostanie zidentyfikowany PSU, który będzie podlegał uwierzytelnieniu. Wartość słownikowa. / PSU identifier type, used by TPP to indicate type of information based on which the PSU is to be authenticated. Dictionary value.
+      psuIdentifierValue:
+        type: string
+        description: Wartość identyfikatora PSU. Wymagany warunkowo - w przypadku gdy została przekazana niepusta wartość typu identyfikatora PSU. / The value of the PSU's identifier. Required conditionally - in case non empty value of PSU identifier type was passed.
+      psuContextIdentifierType:
+        type: string
+        description: Typ identyfikatora kontekstu w jakim występuje PSU. Wartość słownikowa. Wymagany warunkowo - w przypadku wysyłania żądania dla takiego PSU, który może występować w więcej niż jednym kontekście w wybranym ASPSP. / Identifier of context that is used by PSU. Dictionary value. Required conditionally - in case context of the request is used and PSU may use more then one context for the ASPSP.
+      psuContextIdentifierValue:
+        type: string
+        description: Wartość identyfikatora kontekstu w jakim występuje PSU. Wymagany warunkowo - w przypadku wysyłania żądania dla takiego PSU, który może występować w więcej niż jednym kontekście w wybranym ASPSP. / The value of context that is used by PSU. Required conditionally - in case context of the request is used and PSU may use more then one context for the ASPSP.</t>
         </is>
       </c>
     </row>
@@ -9046,17 +9046,17 @@
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class
 • allOf:
-  $ref: #/definitions/RequestHeaderWithoutTokenAS
-  type: object
-  required:
-    - callbackURL, apiKey
-  properties:
-    callbackURL:
-      type: string
-      description: adres funkcji zwrotnej / callback URL
-    apiKey:
-      type: string
-      description: API key dla wywołania funkcji zwrotnej / callback API key</t>
+  -     $ref: #/definitions/RequestHeaderWithoutTokenAS
+  -     type: object
+    required:
+      -         callbackURL, apiKey
+    properties:
+      callbackURL:
+        type: string
+        description: adres funkcji zwrotnej / callback URL
+      apiKey:
+        type: string
+        description: API key dla wywołania funkcji zwrotnej / callback API key</t>
         </is>
       </c>
     </row>
@@ -9082,7 +9082,7 @@
       <c r="E160" s="7" t="inlineStr">
         <is>
           <t>Removed:
-Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class</t>
+• Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class</t>
         </is>
       </c>
     </row>
@@ -9155,12 +9155,12 @@
     maxLength: 255
     type: string
 • required:
-  - token
+  -     token
 • type: object
 Removed:
 • type: object
 • required:
-  - token
+  -     token
 • properties:
   token:
     type: string
@@ -9195,7 +9195,7 @@
       <c r="E162" s="7" t="inlineStr">
         <is>
           <t>Removed:
-Klasa zawierająca informacje o PSU / PSU Information Class</t>
+• Klasa zawierająca informacje o PSU / PSU Information Class</t>
         </is>
       </c>
     </row>
@@ -9246,12 +9246,12 @@
     maxLength: 256
     type: string
 • required:
-  - token
+  -     token
 • type: object
 Removed:
 • type: object
 • required:
-  - token
+  -     token
 • properties:
   token:
     type: string
@@ -9296,17 +9296,17 @@
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU / PSU Information Class
 • allOf:
-  $ref: #/definitions/RequestHeaderWithoutToken
-  type: object
-  required:
-    - token
-  properties:
-    token:
-      type: string
-      description: Token autoryzacyjny / Authorization token
-    isDirectPsu:
-      type: boolean
-      description: (true/false) Znacznik informujący czy request jest przesłany bezpośrednio przez PSU. Domyślna wartość to false. / Is request sent by PSU directly. false is default value.</t>
+  -     $ref: #/definitions/RequestHeaderWithoutToken
+  -     type: object
+    required:
+      -         token
+    properties:
+      token:
+        type: string
+        description: Token autoryzacyjny / Authorization token
+      isDirectPsu:
+        type: boolean
+        description: (true/false) Znacznik informujący czy request jest przesłany bezpośrednio przez PSU. Domyślna wartość to false. / Is request sent by PSU directly. false is default value.</t>
         </is>
       </c>
     </row>
@@ -9354,23 +9354,23 @@
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class
 • allOf:
-  $ref: #/definitions/RequestHeaderWithoutToken
-  type: object
-  required:
-    - token
-  properties:
-    token:
-      type: string
-      description: Token autoryzacyjny / Authorization token
-    isDirectPsu:
-      type: boolean
-      description: (true/false) Znacznik informujący czy request jest przesłany bezpośrednio przez PSU. Domyślna wartość to false. / Is request sent by PSU directly. false is default value.
-    callbackURL:
-      type: string
-      description: adres funkcji zwrotnej / callback URL
-    apiKey:
-      type: string
-      description: API key dla wywołania funkcji zwrotnej / callback API key</t>
+  -     $ref: #/definitions/RequestHeaderWithoutToken
+  -     type: object
+    required:
+      -         token
+    properties:
+      token:
+        type: string
+        description: Token autoryzacyjny / Authorization token
+      isDirectPsu:
+        type: boolean
+        description: (true/false) Znacznik informujący czy request jest przesłany bezpośrednio przez PSU. Domyślna wartość to false. / Is request sent by PSU directly. false is default value.
+      callbackURL:
+        type: string
+        description: adres funkcji zwrotnej / callback URL
+      apiKey:
+        type: string
+        description: API key dla wywołania funkcji zwrotnej / callback API key</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9396,7 @@
       <c r="E166" s="7" t="inlineStr">
         <is>
           <t>Removed:
-uuid</t>
+• uuid</t>
         </is>
       </c>
     </row>
@@ -9422,7 +9422,7 @@
       <c r="E167" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -9448,7 +9448,7 @@
       <c r="E168" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -9474,7 +9474,7 @@
       <c r="E169" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
       <c r="E170" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -9578,7 +9578,7 @@
       <c r="E172" s="7" t="inlineStr">
         <is>
           <t>Removed:
-before</t>
+• before</t>
         </is>
       </c>
     </row>
@@ -9662,7 +9662,7 @@
       <c r="E174" s="7" t="inlineStr">
         <is>
           <t>Added:
-35</t>
+• 35</t>
         </is>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
       <c r="E175" s="7" t="inlineStr">
         <is>
           <t>Removed:
-10</t>
+• 10</t>
         </is>
       </c>
     </row>
@@ -9719,7 +9719,7 @@
       <c r="E176" s="7" t="inlineStr">
         <is>
           <t>Added:
-Bazowa klasa dla TransferData / TransferData Base Class</t>
+• Bazowa klasa dla TransferData / TransferData Base Class</t>
         </is>
       </c>
     </row>
@@ -9753,16 +9753,16 @@
       <c r="E177" s="7" t="inlineStr">
         <is>
           <t>Removed:
-$ref: #/definitions/TransferDataBase
-type: object
-required:
-  - description
-  - amount
-properties:
-  currency:
-    type: string
-    maxLength: 3
-    description: Waluta / Currency</t>
+•   $ref: #/definitions/TransferDataBase
+•   type: object
+  required:
+    -       description
+    -       amount
+  properties:
+    currency:
+      type: string
+      maxLength: 3
+      description: Waluta / Currency</t>
         </is>
       </c>
     </row>
@@ -9848,8 +9848,8 @@
       <c r="E179" s="7" t="inlineStr">
         <is>
           <t>Added:
-• amount
-• description</t>
+•   amount
+•   description</t>
         </is>
       </c>
     </row>
@@ -9875,7 +9875,7 @@
       <c r="E180" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9906,7 @@
       <c r="E181" s="7" t="inlineStr">
         <is>
           <t>Added:
-Bazowa klasa dla TransferData / TransferData Base Class</t>
+• Bazowa klasa dla TransferData / TransferData Base Class</t>
         </is>
       </c>
     </row>
@@ -9941,17 +9941,17 @@
       <c r="E182" s="7" t="inlineStr">
         <is>
           <t>Removed:
-$ref: #/definitions/TransferDataBase
-type: object
-required:
-  - description
-  - amount
-  - currency
-properties:
-  currency:
-    type: string
-    maxLength: 3
-    description: Waluta, domyślnie EUR przelewów zagranicznych / Currency</t>
+•   $ref: #/definitions/TransferDataBase
+•   type: object
+  required:
+    -       description
+    -       amount
+    -       currency
+  properties:
+    currency:
+      type: string
+      maxLength: 3
+      description: Waluta, domyślnie EUR przelewów zagranicznych / Currency</t>
         </is>
       </c>
     </row>
@@ -10038,9 +10038,9 @@
       <c r="E184" s="7" t="inlineStr">
         <is>
           <t>Added:
-• currency
-• amount
-• description</t>
+•   currency
+•   amount
+•   description</t>
         </is>
       </c>
     </row>
@@ -10066,7 +10066,7 @@
       <c r="E185" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -10091,7 +10091,7 @@
       <c r="E186" s="7" t="inlineStr">
         <is>
           <t>Removed:
-Klasa zawierająca dane przelewu / Transfer Data Class</t>
+• Klasa zawierająca dane przelewu / Transfer Data Class</t>
         </is>
       </c>
     </row>
@@ -10126,16 +10126,16 @@
       <c r="E187" s="7" t="inlineStr">
         <is>
           <t>Removed:
-$ref: #/definitions/TransferDataBaseTax
-type: object
-required:
-  - amount
-  - currency
-properties:
-  currency:
-    type: string
-    maxLength: 3
-    description: Waluta, wymagana wartość PLN / Currency - PLN value required</t>
+•   $ref: #/definitions/TransferDataBaseTax
+•   type: object
+  required:
+    -       amount
+    -       currency
+  properties:
+    currency:
+      type: string
+      maxLength: 3
+      description: Waluta, wymagana wartość PLN / Currency - PLN value required</t>
         </is>
       </c>
     </row>
@@ -10213,8 +10213,8 @@
       <c r="E189" s="7" t="inlineStr">
         <is>
           <t>Added:
-• currency
-• amount</t>
+•   currency
+•   amount</t>
         </is>
       </c>
     </row>
@@ -10240,7 +10240,7 @@
       <c r="E190" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
       <c r="E193" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       <c r="E195" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -10447,7 +10447,7 @@
       <c r="E197" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -10472,7 +10472,7 @@
       <c r="E198" s="7" t="inlineStr">
         <is>
           <t>Added:
-• value</t>
+•   value</t>
         </is>
       </c>
     </row>
@@ -10498,7 +10498,7 @@
       <c r="E199" s="7" t="inlineStr">
         <is>
           <t>Added:
-object</t>
+• object</t>
         </is>
       </c>
     </row>
@@ -10728,10 +10728,10 @@
 • description: Zakres, limity, parametry i czas ważności zgód, o które prosi TPP. / Scope, limits, parameters and expiration time of consents requested by TPP
 • type: object
 • required:
-  - consentId
-  - scopeGroupType
-  - scopeTimeLimit
-  - throttlingPolicy
+  -     consentId
+  -     scopeGroupType
+  -     scopeTimeLimit
+  -     throttlingPolicy
 • properties:
   privilegeList:
     type: array
@@ -10742,9 +10742,9 @@
     type: string
     description: Type of consent
     enum:
-      - ais-accounts
-      - ais
-      - pis
+      -         ais-accounts
+      -         ais
+      -         pis
   consentId:
     type: string
     description: Id of consent
@@ -10756,7 +10756,7 @@
     type: string
     description: Throttling policy
     enum:
-      - psd2Regulatory</t>
+      -         psd2Regulatory</t>
         </is>
       </c>
     </row>
@@ -10851,9 +10851,9 @@
 • description: Zakres, limity, parametry i czas ważności zgód, które potwierdza ASPSP / Scope, limits, parameters and expiration time of consents that are confimed by ASPSP
 • type: object
 • required:
-  - consentId
-  - scopeTimeLimit
-  - throttlingPolicy
+  -     consentId
+  -     scopeTimeLimit
+  -     throttlingPolicy
 • properties:
   privilegeList:
     type: array
@@ -10871,13 +10871,13 @@
     type: string
     description: Throttling policy
     enum:
-      - psd2Regulatory
+      -         psd2Regulatory
 • example:
   consentId: consentId
   resource:
     accounts:
-      - accounts
-      - accounts
+      -         accounts
+      -         accounts
   scopeTimeLimit: scopeTimeLimit
   throttlingPolicy: psd2Regulatory
   privilegeList:
@@ -10953,8 +10953,8 @@
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages</t>
         </is>
       </c>
@@ -11004,13 +11004,13 @@
 • description: Lista atrybutów uprawnienia usługi AIS będących przedmiotem zapytania o zgodę PSU / The list of attributes of the privilege of the AIS service that are the subject of the request for PSU's consent
 • type: object
 • required:
-  - maxAllowedHistoryLong
+  -     maxAllowedHistoryLong
 • properties:
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages
   maxAllowedHistoryLong:
     type: integer
@@ -11057,8 +11057,8 @@
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages</t>
         </is>
       </c>
@@ -11111,13 +11111,13 @@
 • description: Lista atrybutów uprawnienia usługi AIS dla których została wyrażona zgoda przez PSU / The list of attributes of the privilege of the AIS service that the PSU's consent has been confirmed
 • type: object
 • required:
-  - maxAllowedHistoryLong
+  -     maxAllowedHistoryLong
 • properties:
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages
   maxAllowedHistoryLong:
     type: integer
@@ -11173,8 +11173,8 @@
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages
   paymentId:
     type: string
@@ -11228,8 +11228,8 @@
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages
   bundleId:
     type: string
@@ -11285,8 +11285,8 @@
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages
   recurringPaymentId:
     type: string
@@ -11364,8 +11364,8 @@
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages
   recipient:
     $ref: #/definitions/RecipientPIS
@@ -11377,23 +11377,23 @@
     description: Tryb pilności / Urgency mode
     type: string
     enum:
-      - ExpressD0
-      - StandardD1
+      -         ExpressD0
+      -         StandardD1
   system:
     description: Droga jaką przelew ma być rozliczony / The way the transfer should be settled
     type: string
     enum:
-      - Elixir
-      - ExpressElixir
-      - Sorbnet
-      - BlueCash
-      - Internal
+      -         Elixir
+      -         ExpressElixir
+      -         Sorbnet
+      -         BlueCash
+      -         Internal
   executionMode:
     description: Tryb realizacji płatności. Nadrzędna informacja decydująca o tym w jakim trybie zostanie zrealizowana płatność. / Payment execution mode. The superior information deciding which mode is to be used to execute payment.
     type: string
     enum:
-      - Immediate
-      - FutureDated</t>
+      -         Immediate
+      -         FutureDated</t>
         </is>
       </c>
     </row>
@@ -11462,8 +11462,8 @@
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages
   recipient:
     $ref: #/definitions/RecipientPISForeign
@@ -11475,21 +11475,21 @@
     description: Tryb pilności / Urgency mode
     type: string
     enum:
-      - ExpressD0
-      - StandardD1
+      -         ExpressD0
+      -         StandardD1
   system:
     description: Droga jaką przelew ma być rozliczony / The way the transfer should be settled
     type: string
     enum:
-      - SEPA
-      - InstantSEPA
-      - Target
+      -         SEPA
+      -         InstantSEPA
+      -         Target
   executionMode:
     description: Tryb realizacji płatności. Nadrzędna informacja decydująca o tym w jakim trybie zostanie zrealizowana płatność. / Payment execution mode. The superior information deciding which mode is to be used to execute payment.
     type: string
     enum:
-      - Immediate
-      - FutureDated</t>
+      -         Immediate
+      -         FutureDated</t>
         </is>
       </c>
     </row>
@@ -11564,8 +11564,8 @@
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages
   recipient:
     $ref: #/definitions/RecipientPISForeign
@@ -11583,20 +11583,20 @@
     description: Tryb pilności / Urgency mode
     type: string
     enum:
-      - ExpressD0
-      - UrgentD1
-      - StandardD2
+      -         ExpressD0
+      -         UrgentD1
+      -         StandardD2
   system:
     description: Droga jaką przelew ma być rozliczony / The way the transfer should be settled
     type: string
     enum:
-      - Swift
+      -         Swift
   executionMode:
     description: Tryb realizacji płatności. Nadrzędna informacja decydująca o tym w jakim trybie zostanie zrealizowana płatność. / Payment execution mode. The superior information deciding which mode is to be used to execute payment.
     type: string
     enum:
-      - Immediate
-      - FutureDated</t>
+      -         Immediate
+      -         FutureDated</t>
         </is>
       </c>
     </row>
@@ -11666,8 +11666,8 @@
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages
   recipient:
     $ref: #/definitions/RecipientPISTax
@@ -11681,20 +11681,20 @@
     description: Tryb pilności / Urgency mode
     type: string
     enum:
-      - ExpressD0
-      - StandardD1
+      -         ExpressD0
+      -         StandardD1
   system:
     description: Droga jaką przelew ma być rozliczony / The way the transfer should be settled
     type: string
     enum:
-      - Elixir
-      - ExpressElixir
+      -         Elixir
+      -         ExpressElixir
   executionMode:
     description: Tryb realizacji płatności. Nadrzędna informacja decydująca o tym w jakim trybie zostanie zrealizowana płatność. / Payment execution mode. The superior information deciding which mode is to be used to execute payment.
     type: string
     enum:
-      - Immediate
-      - FutureDated</t>
+      -         Immediate
+      -         FutureDated</t>
         </is>
       </c>
     </row>
@@ -11741,8 +11741,8 @@
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages
   paymentId:
     type: string
@@ -11795,8 +11795,8 @@
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages
   recurringPaymentId:
     type: string
@@ -11886,8 +11886,8 @@
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages
   transfersTotalAmount:
     description: Łączna kwota wszystkich przelewów z paczki / The total amount of all transfers from bundle
@@ -11897,10 +11897,10 @@
     description: Typ przelewów, które zostaną zlecone w ramach paczki / The type of transfers that will be initiated through the bundle
     type: string
     enum:
-      - domestic
-      - EEA
-      - nonEEA
-      - tax
+      -         domestic
+      -         EEA
+      -         nonEEA
+      -         tax
   domesticTransfers:
     description: Lista struktur danych przelewów zwykłych, które zostaną zlecone. Wymagane gdy typeOfTransfers = domestic. / The list of data structures of domestic transfers to be initiated. Required when typeOfTransfers = domestic.
     type: array
@@ -11981,8 +11981,8 @@
   scopeUsageLimit:
     type: string
     enum:
-      - single
-      - multiple
+      -         single
+      -         multiple
     description: Rodzaj limitu zgody / Type of limit of usages
   recurrence:
     $ref: #/definitions/RecurringTransferParameters
@@ -11990,10 +11990,10 @@
     description: Typ przelewu, który zostanie wykorzystany do zdefiniowania nowej płatności cyklicznej  / The type of payment that is to be used to define new recurring payment
     type: string
     enum:
-      - domestic
-      - EEA
-      - nonEEA
-      - tax
+      -         domestic
+      -         EEA
+      -         nonEEA
+      -         tax
   domesticPayment:
     $ref: #/definitions/RecurringDomesticPayment
   EEAPayment:

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -582,7 +582,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
@@ -595,12 +595,7 @@
       </c>
       <c r="C3" s="7" t="inlineStr"/>
       <c r="D3" s="7" t="inlineStr"/>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Removed:
-• </t>
-        </is>
-      </c>
+      <c r="E3" s="7" t="inlineStr"/>
     </row>
     <row r="4" ht="210" customHeight="1">
       <c r="A4" s="6" t="inlineStr">
@@ -803,7 +798,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="30" customHeight="1">
+    <row r="10" ht="15" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
@@ -816,12 +811,7 @@
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Removed:
-• </t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="210" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -1225,7 +1215,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="30" customHeight="1">
+    <row r="23" ht="15" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
@@ -1238,12 +1228,7 @@
       </c>
       <c r="C23" s="7" t="inlineStr"/>
       <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Removed:
-• </t>
-        </is>
-      </c>
+      <c r="E23" s="7" t="inlineStr"/>
     </row>
     <row r="24" ht="210" customHeight="1">
       <c r="A24" s="6" t="inlineStr">
@@ -1446,7 +1431,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="30" customHeight="1">
+    <row r="30" ht="15" customHeight="1">
       <c r="A30" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
@@ -1459,12 +1444,7 @@
       </c>
       <c r="C30" s="7" t="inlineStr"/>
       <c r="D30" s="7" t="inlineStr"/>
-      <c r="E30" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Removed:
-• </t>
-        </is>
-      </c>
+      <c r="E30" s="7" t="inlineStr"/>
     </row>
     <row r="31" ht="210" customHeight="1">
       <c r="A31" s="6" t="inlineStr">
@@ -1667,7 +1647,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="30" customHeight="1">
+    <row r="37" ht="15" customHeight="1">
       <c r="A37" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
@@ -1680,12 +1660,7 @@
       </c>
       <c r="C37" s="7" t="inlineStr"/>
       <c r="D37" s="7" t="inlineStr"/>
-      <c r="E37" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Removed:
-• </t>
-        </is>
-      </c>
+      <c r="E37" s="7" t="inlineStr"/>
     </row>
     <row r="38" ht="210" customHeight="1">
       <c r="A38" s="6" t="inlineStr">
@@ -7398,7 +7373,7 @@
         </is>
       </c>
     </row>
-    <row r="117" ht="120" customHeight="1">
+    <row r="117" ht="45" customHeight="1">
       <c r="A117" s="11" t="inlineStr">
         <is>
           <t>Definitions</t>
@@ -7425,13 +7400,7 @@
       <c r="E117" s="7" t="inlineStr">
         <is>
           <t>Added:
-• Typ identyfikatora płatnika / Payor ID type
-* `N` - NIP
-* `P` - Pesel
-* `R` - Regon
-* `1` - Dowód osobisty
-* `2` - Paszport
-* `3` - Inny</t>
+• Typ identyfikatora płatnika / Payor ID type</t>
         </is>
       </c>
     </row>
@@ -8019,7 +7988,7 @@
       <c r="E127" s="7" t="inlineStr">
         <is>
           <t>Added:
-• #/definitions/PaymentNonEEARequestBank</t>
+• #/definitions/Bank</t>
         </is>
       </c>
     </row>
@@ -9719,7 +9688,7 @@
       <c r="E176" s="7" t="inlineStr">
         <is>
           <t>Added:
-• Bazowa klasa dla TransferData / TransferData Base Class</t>
+• Klasa zawierająca dane przelewu / Transfer Data Class</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9875,7 @@
       <c r="E181" s="7" t="inlineStr">
         <is>
           <t>Added:
-• Bazowa klasa dla TransferData / TransferData Base Class</t>
+• Klasa zawierająca dane przelewu / Transfer Data Class</t>
         </is>
       </c>
     </row>

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E223"/>
+  <dimension ref="A1:E218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -582,7 +582,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" ht="210" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
@@ -590,25 +590,10 @@
       </c>
       <c r="B3" s="7" t="inlineStr">
         <is>
-          <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.description</t>
-        </is>
-      </c>
-      <c r="C3" s="7" t="inlineStr"/>
-      <c r="D3" s="7" t="inlineStr"/>
-      <c r="E3" s="7" t="inlineStr"/>
-    </row>
-    <row r="4" ht="210" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="inlineStr">
-        <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.parameters</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -625,7 +610,7 @@
 </t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D3" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -643,25 +628,25 @@
 </t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E3" s="7" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.responses.500</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C4" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -669,8 +654,8 @@
 </t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr"/>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="D4" s="7" t="inlineStr"/>
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -679,18 +664,18 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.responses.503</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -698,8 +683,8 @@
 </t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr"/>
-      <c r="E6" s="7" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr"/>
+      <c r="E5" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -708,19 +693,19 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.responses.510</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr"/>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="C6" s="7" t="inlineStr"/>
+      <c r="D6" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -728,7 +713,7 @@
 </t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E6" s="7" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -737,18 +722,18 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="75" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
+    <row r="7" ht="75" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.security</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -757,14 +742,14 @@
 </t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="E7" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -772,59 +757,44 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="45" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+    <row r="8" ht="45" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C8" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+    <row r="9" ht="210" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.description</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="210" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.parameters</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C9" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -841,7 +811,7 @@
 </t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -859,25 +829,25 @@
 </t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E9" s="7" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.responses.500</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
+      <c r="C10" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -885,8 +855,8 @@
 </t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -895,18 +865,18 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.responses.503</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -914,8 +884,8 @@
 </t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -924,19 +894,19 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.responses.510</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr">
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -944,7 +914,7 @@
 </t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="E12" s="7" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -953,18 +923,18 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="75" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+    <row r="13" ht="75" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B13" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.security</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C13" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -973,14 +943,14 @@
 </t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D13" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E13" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -988,44 +958,44 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="45" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="14" ht="45" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
+      <c r="C14" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr">
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="210" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
+    <row r="15" ht="210" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B15" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.parameters</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1042,7 +1012,7 @@
 </t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
+      <c r="D15" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1060,25 +1030,25 @@
 </t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E15" s="7" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B18" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.responses.500</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
+      <c r="C16" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1086,8 +1056,8 @@
 </t>
         </is>
       </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr">
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1096,18 +1066,18 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="60" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.responses.503</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C17" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1115,8 +1085,8 @@
 </t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr"/>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1125,19 +1095,19 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
+      <c r="B18" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.responses.510</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr">
+      <c r="C18" s="7" t="inlineStr"/>
+      <c r="D18" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1145,7 +1115,7 @@
 </t>
         </is>
       </c>
-      <c r="E20" s="7" t="inlineStr">
+      <c r="E18" s="7" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1154,18 +1124,18 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="75" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
+    <row r="19" ht="75" customHeight="1">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B19" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.security</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="C19" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1174,14 +1144,14 @@
 </t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
+      <c r="D19" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="E21" s="7" t="inlineStr">
+      <c r="E19" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1189,59 +1159,44 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="45" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
+    <row r="20" ht="45" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B22" s="7" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="C22" s="7" t="inlineStr">
+      <c r="C20" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="D22" s="7" t="inlineStr"/>
-      <c r="E22" s="7" t="inlineStr">
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
+    <row r="21" ht="210" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.description</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr"/>
-      <c r="D23" s="7" t="inlineStr"/>
-      <c r="E23" s="7" t="inlineStr"/>
-    </row>
-    <row r="24" ht="210" customHeight="1">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="inlineStr">
+      <c r="B21" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.parameters</t>
         </is>
       </c>
-      <c r="C24" s="7" t="inlineStr">
+      <c r="C21" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1258,7 +1213,7 @@
 </t>
         </is>
       </c>
-      <c r="D24" s="7" t="inlineStr">
+      <c r="D21" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1276,25 +1231,25 @@
 </t>
         </is>
       </c>
-      <c r="E24" s="7" t="inlineStr">
+      <c r="E21" s="7" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="60" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B25" s="7" t="inlineStr">
+      <c r="B22" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.responses.500</t>
         </is>
       </c>
-      <c r="C25" s="7" t="inlineStr">
+      <c r="C22" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1302,8 +1257,8 @@
 </t>
         </is>
       </c>
-      <c r="D25" s="7" t="inlineStr"/>
-      <c r="E25" s="7" t="inlineStr">
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1312,18 +1267,18 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" s="6" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B26" s="7" t="inlineStr">
+      <c r="B23" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.responses.503</t>
         </is>
       </c>
-      <c r="C26" s="7" t="inlineStr">
+      <c r="C23" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1331,8 +1286,8 @@
 </t>
         </is>
       </c>
-      <c r="D26" s="7" t="inlineStr"/>
-      <c r="E26" s="7" t="inlineStr">
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1341,19 +1296,19 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" s="6" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B27" s="7" t="inlineStr">
+      <c r="B24" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.responses.510</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr"/>
-      <c r="D27" s="7" t="inlineStr">
+      <c r="C24" s="7" t="inlineStr"/>
+      <c r="D24" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1361,7 +1316,7 @@
 </t>
         </is>
       </c>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="E24" s="7" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1370,18 +1325,18 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="75" customHeight="1">
-      <c r="A28" s="6" t="inlineStr">
+    <row r="25" ht="75" customHeight="1">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B28" s="7" t="inlineStr">
+      <c r="B25" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.security</t>
         </is>
       </c>
-      <c r="C28" s="7" t="inlineStr">
+      <c r="C25" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1390,14 +1345,14 @@
 </t>
         </is>
       </c>
-      <c r="D28" s="7" t="inlineStr">
+      <c r="D25" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="E28" s="7" t="inlineStr">
+      <c r="E25" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1405,59 +1360,44 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="45" customHeight="1">
-      <c r="A29" s="6" t="inlineStr">
+    <row r="26" ht="45" customHeight="1">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B29" s="7" t="inlineStr">
+      <c r="B26" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="C29" s="7" t="inlineStr">
+      <c r="C26" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="D29" s="7" t="inlineStr"/>
-      <c r="E29" s="7" t="inlineStr">
+      <c r="D26" s="7" t="inlineStr"/>
+      <c r="E26" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="6" t="inlineStr">
+    <row r="27" ht="210" customHeight="1">
+      <c r="A27" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B30" s="7" t="inlineStr">
-        <is>
-          <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.description</t>
-        </is>
-      </c>
-      <c r="C30" s="7" t="inlineStr"/>
-      <c r="D30" s="7" t="inlineStr"/>
-      <c r="E30" s="7" t="inlineStr"/>
-    </row>
-    <row r="31" ht="210" customHeight="1">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B31" s="7" t="inlineStr">
+      <c r="B27" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.parameters</t>
         </is>
       </c>
-      <c r="C31" s="7" t="inlineStr">
+      <c r="C27" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1474,7 +1414,7 @@
 </t>
         </is>
       </c>
-      <c r="D31" s="7" t="inlineStr">
+      <c r="D27" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1492,25 +1432,25 @@
 </t>
         </is>
       </c>
-      <c r="E31" s="7" t="inlineStr">
+      <c r="E27" s="7" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" s="6" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B32" s="7" t="inlineStr">
+      <c r="B28" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.responses.500</t>
         </is>
       </c>
-      <c r="C32" s="7" t="inlineStr">
+      <c r="C28" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1518,8 +1458,8 @@
 </t>
         </is>
       </c>
-      <c r="D32" s="7" t="inlineStr"/>
-      <c r="E32" s="7" t="inlineStr">
+      <c r="D28" s="7" t="inlineStr"/>
+      <c r="E28" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1528,18 +1468,18 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" s="6" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B33" s="7" t="inlineStr">
+      <c r="B29" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.responses.503</t>
         </is>
       </c>
-      <c r="C33" s="7" t="inlineStr">
+      <c r="C29" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1547,8 +1487,8 @@
 </t>
         </is>
       </c>
-      <c r="D33" s="7" t="inlineStr"/>
-      <c r="E33" s="7" t="inlineStr">
+      <c r="D29" s="7" t="inlineStr"/>
+      <c r="E29" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1557,19 +1497,19 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" s="6" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B34" s="7" t="inlineStr">
+      <c r="B30" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.responses.510</t>
         </is>
       </c>
-      <c r="C34" s="7" t="inlineStr"/>
-      <c r="D34" s="7" t="inlineStr">
+      <c r="C30" s="7" t="inlineStr"/>
+      <c r="D30" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1577,7 +1517,7 @@
 </t>
         </is>
       </c>
-      <c r="E34" s="7" t="inlineStr">
+      <c r="E30" s="7" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1586,18 +1526,18 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="75" customHeight="1">
-      <c r="A35" s="6" t="inlineStr">
+    <row r="31" ht="75" customHeight="1">
+      <c r="A31" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B35" s="7" t="inlineStr">
+      <c r="B31" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.security</t>
         </is>
       </c>
-      <c r="C35" s="7" t="inlineStr">
+      <c r="C31" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1606,14 +1546,14 @@
 </t>
         </is>
       </c>
-      <c r="D35" s="7" t="inlineStr">
+      <c r="D31" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="E35" s="7" t="inlineStr">
+      <c r="E31" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1621,59 +1561,44 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="45" customHeight="1">
-      <c r="A36" s="6" t="inlineStr">
+    <row r="32" ht="45" customHeight="1">
+      <c r="A32" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B36" s="7" t="inlineStr">
+      <c r="B32" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="C36" s="7" t="inlineStr">
+      <c r="C32" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="D36" s="7" t="inlineStr"/>
-      <c r="E36" s="7" t="inlineStr">
+      <c r="D32" s="7" t="inlineStr"/>
+      <c r="E32" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="6" t="inlineStr">
+    <row r="33" ht="210" customHeight="1">
+      <c r="A33" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B37" s="7" t="inlineStr">
-        <is>
-          <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.description</t>
-        </is>
-      </c>
-      <c r="C37" s="7" t="inlineStr"/>
-      <c r="D37" s="7" t="inlineStr"/>
-      <c r="E37" s="7" t="inlineStr"/>
-    </row>
-    <row r="38" ht="210" customHeight="1">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="inlineStr">
+      <c r="B33" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.parameters</t>
         </is>
       </c>
-      <c r="C38" s="7" t="inlineStr">
+      <c r="C33" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1690,7 +1615,7 @@
 </t>
         </is>
       </c>
-      <c r="D38" s="7" t="inlineStr">
+      <c r="D33" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1708,25 +1633,25 @@
 </t>
         </is>
       </c>
-      <c r="E38" s="7" t="inlineStr">
+      <c r="E33" s="7" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" s="6" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B39" s="7" t="inlineStr">
+      <c r="B34" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.responses.500</t>
         </is>
       </c>
-      <c r="C39" s="7" t="inlineStr">
+      <c r="C34" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1734,8 +1659,8 @@
 </t>
         </is>
       </c>
-      <c r="D39" s="7" t="inlineStr"/>
-      <c r="E39" s="7" t="inlineStr">
+      <c r="D34" s="7" t="inlineStr"/>
+      <c r="E34" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1744,18 +1669,18 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" s="6" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B40" s="7" t="inlineStr">
+      <c r="B35" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.responses.503</t>
         </is>
       </c>
-      <c r="C40" s="7" t="inlineStr">
+      <c r="C35" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1763,8 +1688,8 @@
 </t>
         </is>
       </c>
-      <c r="D40" s="7" t="inlineStr"/>
-      <c r="E40" s="7" t="inlineStr">
+      <c r="D35" s="7" t="inlineStr"/>
+      <c r="E35" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1773,19 +1698,19 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" s="6" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B41" s="7" t="inlineStr">
+      <c r="B36" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.responses.510</t>
         </is>
       </c>
-      <c r="C41" s="7" t="inlineStr"/>
-      <c r="D41" s="7" t="inlineStr">
+      <c r="C36" s="7" t="inlineStr"/>
+      <c r="D36" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1793,7 +1718,7 @@
 </t>
         </is>
       </c>
-      <c r="E41" s="7" t="inlineStr">
+      <c r="E36" s="7" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1802,18 +1727,18 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="75" customHeight="1">
-      <c r="A42" s="6" t="inlineStr">
+    <row r="37" ht="75" customHeight="1">
+      <c r="A37" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B42" s="7" t="inlineStr">
+      <c r="B37" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.security</t>
         </is>
       </c>
-      <c r="C42" s="7" t="inlineStr">
+      <c r="C37" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1822,14 +1747,14 @@
 </t>
         </is>
       </c>
-      <c r="D42" s="7" t="inlineStr">
+      <c r="D37" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="E42" s="7" t="inlineStr">
+      <c r="E37" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1837,44 +1762,44 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="45" customHeight="1">
-      <c r="A43" s="6" t="inlineStr">
+    <row r="38" ht="45" customHeight="1">
+      <c r="A38" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B43" s="7" t="inlineStr">
+      <c r="B38" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="C43" s="7" t="inlineStr">
+      <c r="C38" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="D43" s="7" t="inlineStr"/>
-      <c r="E43" s="7" t="inlineStr">
+      <c r="D38" s="7" t="inlineStr"/>
+      <c r="E38" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="210" customHeight="1">
-      <c r="A44" s="6" t="inlineStr">
+    <row r="39" ht="210" customHeight="1">
+      <c r="A39" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B44" s="7" t="inlineStr">
+      <c r="B39" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.parameters</t>
         </is>
       </c>
-      <c r="C44" s="7" t="inlineStr">
+      <c r="C39" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1891,7 +1816,7 @@
 </t>
         </is>
       </c>
-      <c r="D44" s="7" t="inlineStr">
+      <c r="D39" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1909,25 +1834,25 @@
 </t>
         </is>
       </c>
-      <c r="E44" s="7" t="inlineStr">
+      <c r="E39" s="7" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" s="6" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B45" s="7" t="inlineStr">
+      <c r="B40" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.responses.500</t>
         </is>
       </c>
-      <c r="C45" s="7" t="inlineStr">
+      <c r="C40" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1935,8 +1860,8 @@
 </t>
         </is>
       </c>
-      <c r="D45" s="7" t="inlineStr"/>
-      <c r="E45" s="7" t="inlineStr">
+      <c r="D40" s="7" t="inlineStr"/>
+      <c r="E40" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1945,18 +1870,18 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" s="6" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B46" s="7" t="inlineStr">
+      <c r="B41" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.responses.503</t>
         </is>
       </c>
-      <c r="C46" s="7" t="inlineStr">
+      <c r="C41" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1964,8 +1889,8 @@
 </t>
         </is>
       </c>
-      <c r="D46" s="7" t="inlineStr"/>
-      <c r="E46" s="7" t="inlineStr">
+      <c r="D41" s="7" t="inlineStr"/>
+      <c r="E41" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1974,19 +1899,19 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" s="6" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B47" s="7" t="inlineStr">
+      <c r="B42" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.responses.510</t>
         </is>
       </c>
-      <c r="C47" s="7" t="inlineStr"/>
-      <c r="D47" s="7" t="inlineStr">
+      <c r="C42" s="7" t="inlineStr"/>
+      <c r="D42" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1994,7 +1919,7 @@
 </t>
         </is>
       </c>
-      <c r="E47" s="7" t="inlineStr">
+      <c r="E42" s="7" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2003,18 +1928,18 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="75" customHeight="1">
-      <c r="A48" s="6" t="inlineStr">
+    <row r="43" ht="75" customHeight="1">
+      <c r="A43" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B48" s="7" t="inlineStr">
+      <c r="B43" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.security</t>
         </is>
       </c>
-      <c r="C48" s="7" t="inlineStr">
+      <c r="C43" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2023,14 +1948,14 @@
 </t>
         </is>
       </c>
-      <c r="D48" s="7" t="inlineStr">
+      <c r="D43" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="E48" s="7" t="inlineStr">
+      <c r="E43" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2038,44 +1963,44 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="45" customHeight="1">
-      <c r="A49" s="6" t="inlineStr">
+    <row r="44" ht="45" customHeight="1">
+      <c r="A44" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B49" s="7" t="inlineStr">
+      <c r="B44" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="C49" s="7" t="inlineStr">
+      <c r="C44" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="D49" s="7" t="inlineStr"/>
-      <c r="E49" s="7" t="inlineStr">
+      <c r="D44" s="7" t="inlineStr"/>
+      <c r="E44" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="210" customHeight="1">
-      <c r="A50" s="6" t="inlineStr">
+    <row r="45" ht="210" customHeight="1">
+      <c r="A45" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B50" s="7" t="inlineStr">
+      <c r="B45" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.parameters</t>
         </is>
       </c>
-      <c r="C50" s="7" t="inlineStr">
+      <c r="C45" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2092,7 +2017,7 @@
 </t>
         </is>
       </c>
-      <c r="D50" s="7" t="inlineStr">
+      <c r="D45" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2110,25 +2035,25 @@
 </t>
         </is>
       </c>
-      <c r="E50" s="7" t="inlineStr">
+      <c r="E45" s="7" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" s="6" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B51" s="7" t="inlineStr">
+      <c r="B46" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.responses.500</t>
         </is>
       </c>
-      <c r="C51" s="7" t="inlineStr">
+      <c r="C46" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2136,8 +2061,8 @@
 </t>
         </is>
       </c>
-      <c r="D51" s="7" t="inlineStr"/>
-      <c r="E51" s="7" t="inlineStr">
+      <c r="D46" s="7" t="inlineStr"/>
+      <c r="E46" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2146,18 +2071,18 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" s="6" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B52" s="7" t="inlineStr">
+      <c r="B47" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.responses.503</t>
         </is>
       </c>
-      <c r="C52" s="7" t="inlineStr">
+      <c r="C47" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2165,8 +2090,8 @@
 </t>
         </is>
       </c>
-      <c r="D52" s="7" t="inlineStr"/>
-      <c r="E52" s="7" t="inlineStr">
+      <c r="D47" s="7" t="inlineStr"/>
+      <c r="E47" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2175,19 +2100,19 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" s="6" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B53" s="7" t="inlineStr">
+      <c r="B48" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.responses.510</t>
         </is>
       </c>
-      <c r="C53" s="7" t="inlineStr"/>
-      <c r="D53" s="7" t="inlineStr">
+      <c r="C48" s="7" t="inlineStr"/>
+      <c r="D48" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2195,7 +2120,7 @@
 </t>
         </is>
       </c>
-      <c r="E53" s="7" t="inlineStr">
+      <c r="E48" s="7" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2204,18 +2129,18 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="75" customHeight="1">
-      <c r="A54" s="6" t="inlineStr">
+    <row r="49" ht="75" customHeight="1">
+      <c r="A49" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B54" s="7" t="inlineStr">
+      <c r="B49" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.security</t>
         </is>
       </c>
-      <c r="C54" s="7" t="inlineStr">
+      <c r="C49" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2224,14 +2149,14 @@
 </t>
         </is>
       </c>
-      <c r="D54" s="7" t="inlineStr">
+      <c r="D49" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="E54" s="7" t="inlineStr">
+      <c r="E49" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2239,44 +2164,44 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="45" customHeight="1">
-      <c r="A55" s="6" t="inlineStr">
+    <row r="50" ht="45" customHeight="1">
+      <c r="A50" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B55" s="7" t="inlineStr">
+      <c r="B50" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="C55" s="7" t="inlineStr">
+      <c r="C50" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="D55" s="7" t="inlineStr"/>
-      <c r="E55" s="7" t="inlineStr">
+      <c r="D50" s="7" t="inlineStr"/>
+      <c r="E50" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="210" customHeight="1">
-      <c r="A56" s="6" t="inlineStr">
+    <row r="51" ht="210" customHeight="1">
+      <c r="A51" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B56" s="7" t="inlineStr">
+      <c r="B51" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.parameters</t>
         </is>
       </c>
-      <c r="C56" s="7" t="inlineStr">
+      <c r="C51" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2293,7 +2218,7 @@
 </t>
         </is>
       </c>
-      <c r="D56" s="7" t="inlineStr">
+      <c r="D51" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2311,25 +2236,25 @@
 </t>
         </is>
       </c>
-      <c r="E56" s="7" t="inlineStr">
+      <c r="E51" s="7" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" s="6" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B57" s="7" t="inlineStr">
+      <c r="B52" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.responses.500</t>
         </is>
       </c>
-      <c r="C57" s="7" t="inlineStr">
+      <c r="C52" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2337,8 +2262,8 @@
 </t>
         </is>
       </c>
-      <c r="D57" s="7" t="inlineStr"/>
-      <c r="E57" s="7" t="inlineStr">
+      <c r="D52" s="7" t="inlineStr"/>
+      <c r="E52" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2347,18 +2272,18 @@
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" s="6" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B58" s="7" t="inlineStr">
+      <c r="B53" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.responses.503</t>
         </is>
       </c>
-      <c r="C58" s="7" t="inlineStr">
+      <c r="C53" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2366,8 +2291,8 @@
 </t>
         </is>
       </c>
-      <c r="D58" s="7" t="inlineStr"/>
-      <c r="E58" s="7" t="inlineStr">
+      <c r="D53" s="7" t="inlineStr"/>
+      <c r="E53" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2376,19 +2301,19 @@
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" s="6" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B59" s="7" t="inlineStr">
+      <c r="B54" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.responses.510</t>
         </is>
       </c>
-      <c r="C59" s="7" t="inlineStr"/>
-      <c r="D59" s="7" t="inlineStr">
+      <c r="C54" s="7" t="inlineStr"/>
+      <c r="D54" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2396,7 +2321,7 @@
 </t>
         </is>
       </c>
-      <c r="E59" s="7" t="inlineStr">
+      <c r="E54" s="7" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2405,18 +2330,18 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="75" customHeight="1">
-      <c r="A60" s="6" t="inlineStr">
+    <row r="55" ht="75" customHeight="1">
+      <c r="A55" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B60" s="7" t="inlineStr">
+      <c r="B55" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.security</t>
         </is>
       </c>
-      <c r="C60" s="7" t="inlineStr">
+      <c r="C55" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2425,14 +2350,14 @@
 </t>
         </is>
       </c>
-      <c r="D60" s="7" t="inlineStr">
+      <c r="D55" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="E60" s="7" t="inlineStr">
+      <c r="E55" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2440,18 +2365,18 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="1020" customHeight="1">
-      <c r="A61" s="6" t="inlineStr">
+    <row r="56" ht="1020" customHeight="1">
+      <c r="A56" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B61" s="7" t="inlineStr">
+      <c r="B56" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getMultiplePayments</t>
         </is>
       </c>
-      <c r="C61" s="7" t="inlineStr">
+      <c r="C56" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: pis
 post:
@@ -2523,8 +2448,8 @@
 </t>
         </is>
       </c>
-      <c r="D61" s="7" t="inlineStr"/>
-      <c r="E61" s="7" t="inlineStr">
+      <c r="D56" s="7" t="inlineStr"/>
+      <c r="E56" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: pis
@@ -2597,44 +2522,44 @@
         </is>
       </c>
     </row>
-    <row r="62" ht="45" customHeight="1">
-      <c r="A62" s="6" t="inlineStr">
+    <row r="57" ht="45" customHeight="1">
+      <c r="A57" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B62" s="7" t="inlineStr">
+      <c r="B57" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="C62" s="7" t="inlineStr">
+      <c r="C57" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="D62" s="7" t="inlineStr"/>
-      <c r="E62" s="7" t="inlineStr">
+      <c r="D57" s="7" t="inlineStr"/>
+      <c r="E57" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="210" customHeight="1">
-      <c r="A63" s="6" t="inlineStr">
+    <row r="58" ht="210" customHeight="1">
+      <c r="A58" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B63" s="7" t="inlineStr">
+      <c r="B58" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.parameters</t>
         </is>
       </c>
-      <c r="C63" s="7" t="inlineStr">
+      <c r="C58" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2651,7 +2576,7 @@
 </t>
         </is>
       </c>
-      <c r="D63" s="7" t="inlineStr">
+      <c r="D58" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2669,25 +2594,25 @@
 </t>
         </is>
       </c>
-      <c r="E63" s="7" t="inlineStr">
+      <c r="E58" s="7" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="A64" s="6" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B64" s="7" t="inlineStr">
+      <c r="B59" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.responses.500</t>
         </is>
       </c>
-      <c r="C64" s="7" t="inlineStr">
+      <c r="C59" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2695,8 +2620,8 @@
 </t>
         </is>
       </c>
-      <c r="D64" s="7" t="inlineStr"/>
-      <c r="E64" s="7" t="inlineStr">
+      <c r="D59" s="7" t="inlineStr"/>
+      <c r="E59" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2705,18 +2630,18 @@
         </is>
       </c>
     </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" s="6" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B65" s="7" t="inlineStr">
+      <c r="B60" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.responses.503</t>
         </is>
       </c>
-      <c r="C65" s="7" t="inlineStr">
+      <c r="C60" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2724,8 +2649,8 @@
 </t>
         </is>
       </c>
-      <c r="D65" s="7" t="inlineStr"/>
-      <c r="E65" s="7" t="inlineStr">
+      <c r="D60" s="7" t="inlineStr"/>
+      <c r="E60" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2734,19 +2659,19 @@
         </is>
       </c>
     </row>
-    <row r="66" ht="60" customHeight="1">
-      <c r="A66" s="6" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B66" s="7" t="inlineStr">
+      <c r="B61" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.responses.510</t>
         </is>
       </c>
-      <c r="C66" s="7" t="inlineStr"/>
-      <c r="D66" s="7" t="inlineStr">
+      <c r="C61" s="7" t="inlineStr"/>
+      <c r="D61" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2754,7 +2679,7 @@
 </t>
         </is>
       </c>
-      <c r="E66" s="7" t="inlineStr">
+      <c r="E61" s="7" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2763,18 +2688,18 @@
         </is>
       </c>
     </row>
-    <row r="67" ht="75" customHeight="1">
-      <c r="A67" s="6" t="inlineStr">
+    <row r="62" ht="75" customHeight="1">
+      <c r="A62" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B67" s="7" t="inlineStr">
+      <c r="B62" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.security</t>
         </is>
       </c>
-      <c r="C67" s="7" t="inlineStr">
+      <c r="C62" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2783,14 +2708,14 @@
 </t>
         </is>
       </c>
-      <c r="D67" s="7" t="inlineStr">
+      <c r="D62" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="E67" s="7" t="inlineStr">
+      <c r="E62" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2798,44 +2723,44 @@
         </is>
       </c>
     </row>
-    <row r="68" ht="45" customHeight="1">
-      <c r="A68" s="6" t="inlineStr">
+    <row r="63" ht="45" customHeight="1">
+      <c r="A63" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B68" s="7" t="inlineStr">
+      <c r="B63" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="C68" s="7" t="inlineStr">
+      <c r="C63" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="D68" s="7" t="inlineStr"/>
-      <c r="E68" s="7" t="inlineStr">
+      <c r="D63" s="7" t="inlineStr"/>
+      <c r="E63" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="210" customHeight="1">
-      <c r="A69" s="6" t="inlineStr">
+    <row r="64" ht="210" customHeight="1">
+      <c r="A64" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B69" s="7" t="inlineStr">
+      <c r="B64" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.parameters</t>
         </is>
       </c>
-      <c r="C69" s="7" t="inlineStr">
+      <c r="C64" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2852,7 +2777,7 @@
 </t>
         </is>
       </c>
-      <c r="D69" s="7" t="inlineStr">
+      <c r="D64" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2870,25 +2795,25 @@
 </t>
         </is>
       </c>
-      <c r="E69" s="7" t="inlineStr">
+      <c r="E64" s="7" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="60" customHeight="1">
-      <c r="A70" s="6" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B70" s="7" t="inlineStr">
+      <c r="B65" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.responses.500</t>
         </is>
       </c>
-      <c r="C70" s="7" t="inlineStr">
+      <c r="C65" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2896,8 +2821,8 @@
 </t>
         </is>
       </c>
-      <c r="D70" s="7" t="inlineStr"/>
-      <c r="E70" s="7" t="inlineStr">
+      <c r="D65" s="7" t="inlineStr"/>
+      <c r="E65" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2906,18 +2831,18 @@
         </is>
       </c>
     </row>
-    <row r="71" ht="60" customHeight="1">
-      <c r="A71" s="6" t="inlineStr">
+    <row r="66" ht="60" customHeight="1">
+      <c r="A66" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B71" s="7" t="inlineStr">
+      <c r="B66" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.responses.503</t>
         </is>
       </c>
-      <c r="C71" s="7" t="inlineStr">
+      <c r="C66" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2925,8 +2850,8 @@
 </t>
         </is>
       </c>
-      <c r="D71" s="7" t="inlineStr"/>
-      <c r="E71" s="7" t="inlineStr">
+      <c r="D66" s="7" t="inlineStr"/>
+      <c r="E66" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2935,19 +2860,19 @@
         </is>
       </c>
     </row>
-    <row r="72" ht="60" customHeight="1">
-      <c r="A72" s="6" t="inlineStr">
+    <row r="67" ht="60" customHeight="1">
+      <c r="A67" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B72" s="7" t="inlineStr">
+      <c r="B67" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.responses.510</t>
         </is>
       </c>
-      <c r="C72" s="7" t="inlineStr"/>
-      <c r="D72" s="7" t="inlineStr">
+      <c r="C67" s="7" t="inlineStr"/>
+      <c r="D67" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2955,7 +2880,7 @@
 </t>
         </is>
       </c>
-      <c r="E72" s="7" t="inlineStr">
+      <c r="E67" s="7" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2964,18 +2889,18 @@
         </is>
       </c>
     </row>
-    <row r="73" ht="75" customHeight="1">
-      <c r="A73" s="6" t="inlineStr">
+    <row r="68" ht="75" customHeight="1">
+      <c r="A68" s="6" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B73" s="7" t="inlineStr">
+      <c r="B68" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.security</t>
         </is>
       </c>
-      <c r="C73" s="7" t="inlineStr">
+      <c r="C68" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2984,14 +2909,14 @@
 </t>
         </is>
       </c>
-      <c r="D73" s="7" t="inlineStr">
+      <c r="D68" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="E73" s="7" t="inlineStr">
+      <c r="E68" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2999,18 +2924,18 @@
         </is>
       </c>
     </row>
-    <row r="74" ht="1035" customHeight="1">
-      <c r="A74" s="8" t="inlineStr">
+    <row r="69" ht="1035" customHeight="1">
+      <c r="A69" s="8" t="inlineStr">
         <is>
           <t>CAF</t>
         </is>
       </c>
-      <c r="B74" s="7" t="inlineStr">
+      <c r="B69" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/confirmation/v2_1_1.1/getConfirmationOfFunds</t>
         </is>
       </c>
-      <c r="C74" s="7" t="inlineStr">
+      <c r="C69" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: caf
 post:
@@ -3083,8 +3008,8 @@
 </t>
         </is>
       </c>
-      <c r="D74" s="7" t="inlineStr"/>
-      <c r="E74" s="7" t="inlineStr">
+      <c r="D69" s="7" t="inlineStr"/>
+      <c r="E69" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: caf
@@ -3157,18 +3082,18 @@
         </is>
       </c>
     </row>
-    <row r="75" ht="945" customHeight="1">
-      <c r="A75" s="9" t="inlineStr">
+    <row r="70" ht="945" customHeight="1">
+      <c r="A70" s="9" t="inlineStr">
         <is>
           <t>AIS</t>
         </is>
       </c>
-      <c r="B75" s="7" t="inlineStr">
+      <c r="B70" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/accounts/v2_1_1.1/deleteConsent</t>
         </is>
       </c>
-      <c r="C75" s="7" t="inlineStr">
+      <c r="C70" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: ais
 post:
@@ -3235,8 +3160,8 @@
 </t>
         </is>
       </c>
-      <c r="D75" s="7" t="inlineStr"/>
-      <c r="E75" s="7" t="inlineStr">
+      <c r="D70" s="7" t="inlineStr"/>
+      <c r="E70" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: ais
@@ -3304,18 +3229,18 @@
         </is>
       </c>
     </row>
-    <row r="76" ht="1170" customHeight="1">
-      <c r="A76" s="9" t="inlineStr">
+    <row r="71" ht="1170" customHeight="1">
+      <c r="A71" s="9" t="inlineStr">
         <is>
           <t>AIS</t>
         </is>
       </c>
-      <c r="B76" s="7" t="inlineStr">
+      <c r="B71" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/accounts/v2_1_1.1/getAccounts</t>
         </is>
       </c>
-      <c r="C76" s="7" t="inlineStr">
+      <c r="C71" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: ais
 post:
@@ -3397,8 +3322,8 @@
 </t>
         </is>
       </c>
-      <c r="D76" s="7" t="inlineStr"/>
-      <c r="E76" s="7" t="inlineStr">
+      <c r="D71" s="7" t="inlineStr"/>
+      <c r="E71" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: ais
@@ -3481,18 +3406,18 @@
         </is>
       </c>
     </row>
-    <row r="77" ht="1170" customHeight="1">
-      <c r="A77" s="9" t="inlineStr">
+    <row r="72" ht="1170" customHeight="1">
+      <c r="A72" s="9" t="inlineStr">
         <is>
           <t>AIS</t>
         </is>
       </c>
-      <c r="B77" s="7" t="inlineStr">
+      <c r="B72" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/accounts/v2_1_1.1/getAccount</t>
         </is>
       </c>
-      <c r="C77" s="7" t="inlineStr">
+      <c r="C72" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: ais
 post:
@@ -3574,8 +3499,8 @@
 </t>
         </is>
       </c>
-      <c r="D77" s="7" t="inlineStr"/>
-      <c r="E77" s="7" t="inlineStr">
+      <c r="D72" s="7" t="inlineStr"/>
+      <c r="E72" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: ais
@@ -3658,18 +3583,18 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="1170" customHeight="1">
-      <c r="A78" s="9" t="inlineStr">
+    <row r="73" ht="1170" customHeight="1">
+      <c r="A73" s="9" t="inlineStr">
         <is>
           <t>AIS</t>
         </is>
       </c>
-      <c r="B78" s="7" t="inlineStr">
+      <c r="B73" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/accounts/v2_1_1.1/getTransactionsDone</t>
         </is>
       </c>
-      <c r="C78" s="7" t="inlineStr">
+      <c r="C73" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: ais
 post:
@@ -3751,8 +3676,8 @@
 </t>
         </is>
       </c>
-      <c r="D78" s="7" t="inlineStr"/>
-      <c r="E78" s="7" t="inlineStr">
+      <c r="D73" s="7" t="inlineStr"/>
+      <c r="E73" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: ais
@@ -3835,18 +3760,18 @@
         </is>
       </c>
     </row>
-    <row r="79" ht="1170" customHeight="1">
-      <c r="A79" s="9" t="inlineStr">
+    <row r="74" ht="1170" customHeight="1">
+      <c r="A74" s="9" t="inlineStr">
         <is>
           <t>AIS</t>
         </is>
       </c>
-      <c r="B79" s="7" t="inlineStr">
+      <c r="B74" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/accounts/v2_1_1.1/getTransactionsPending</t>
         </is>
       </c>
-      <c r="C79" s="7" t="inlineStr">
+      <c r="C74" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: ais
 post:
@@ -3928,8 +3853,8 @@
 </t>
         </is>
       </c>
-      <c r="D79" s="7" t="inlineStr"/>
-      <c r="E79" s="7" t="inlineStr">
+      <c r="D74" s="7" t="inlineStr"/>
+      <c r="E74" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: ais
@@ -4012,18 +3937,18 @@
         </is>
       </c>
     </row>
-    <row r="80" ht="1170" customHeight="1">
-      <c r="A80" s="9" t="inlineStr">
+    <row r="75" ht="1170" customHeight="1">
+      <c r="A75" s="9" t="inlineStr">
         <is>
           <t>AIS</t>
         </is>
       </c>
-      <c r="B80" s="7" t="inlineStr">
+      <c r="B75" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/accounts/v2_1_1.1/getTransactionsRejected</t>
         </is>
       </c>
-      <c r="C80" s="7" t="inlineStr">
+      <c r="C75" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: ais
 post:
@@ -4105,8 +4030,8 @@
 </t>
         </is>
       </c>
-      <c r="D80" s="7" t="inlineStr"/>
-      <c r="E80" s="7" t="inlineStr">
+      <c r="D75" s="7" t="inlineStr"/>
+      <c r="E75" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: ais
@@ -4189,18 +4114,18 @@
         </is>
       </c>
     </row>
-    <row r="81" ht="1170" customHeight="1">
-      <c r="A81" s="9" t="inlineStr">
+    <row r="76" ht="1170" customHeight="1">
+      <c r="A76" s="9" t="inlineStr">
         <is>
           <t>AIS</t>
         </is>
       </c>
-      <c r="B81" s="7" t="inlineStr">
+      <c r="B76" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/accounts/v2_1_1.1/getTransactionsCancelled</t>
         </is>
       </c>
-      <c r="C81" s="7" t="inlineStr">
+      <c r="C76" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: ais
 post:
@@ -4282,8 +4207,8 @@
 </t>
         </is>
       </c>
-      <c r="D81" s="7" t="inlineStr"/>
-      <c r="E81" s="7" t="inlineStr">
+      <c r="D76" s="7" t="inlineStr"/>
+      <c r="E76" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: ais
@@ -4366,18 +4291,18 @@
         </is>
       </c>
     </row>
-    <row r="82" ht="1170" customHeight="1">
-      <c r="A82" s="9" t="inlineStr">
+    <row r="77" ht="1170" customHeight="1">
+      <c r="A77" s="9" t="inlineStr">
         <is>
           <t>AIS</t>
         </is>
       </c>
-      <c r="B82" s="7" t="inlineStr">
+      <c r="B77" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/accounts/v2_1_1.1/getTransactionsScheduled</t>
         </is>
       </c>
-      <c r="C82" s="7" t="inlineStr">
+      <c r="C77" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: ais
 post:
@@ -4459,8 +4384,8 @@
 </t>
         </is>
       </c>
-      <c r="D82" s="7" t="inlineStr"/>
-      <c r="E82" s="7" t="inlineStr">
+      <c r="D77" s="7" t="inlineStr"/>
+      <c r="E77" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: ais
@@ -4543,18 +4468,18 @@
         </is>
       </c>
     </row>
-    <row r="83" ht="1170" customHeight="1">
-      <c r="A83" s="9" t="inlineStr">
+    <row r="78" ht="1170" customHeight="1">
+      <c r="A78" s="9" t="inlineStr">
         <is>
           <t>AIS</t>
         </is>
       </c>
-      <c r="B83" s="7" t="inlineStr">
+      <c r="B78" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/accounts/v2_1_1.1/getHolds</t>
         </is>
       </c>
-      <c r="C83" s="7" t="inlineStr">
+      <c r="C78" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: ais
 post:
@@ -4636,8 +4561,8 @@
 </t>
         </is>
       </c>
-      <c r="D83" s="7" t="inlineStr"/>
-      <c r="E83" s="7" t="inlineStr">
+      <c r="D78" s="7" t="inlineStr"/>
+      <c r="E78" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: ais
@@ -4720,18 +4645,18 @@
         </is>
       </c>
     </row>
-    <row r="84" ht="1170" customHeight="1">
-      <c r="A84" s="9" t="inlineStr">
+    <row r="79" ht="1170" customHeight="1">
+      <c r="A79" s="9" t="inlineStr">
         <is>
           <t>AIS</t>
         </is>
       </c>
-      <c r="B84" s="7" t="inlineStr">
+      <c r="B79" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/accounts/v2_1_1.1/getTransactionDetail</t>
         </is>
       </c>
-      <c r="C84" s="7" t="inlineStr">
+      <c r="C79" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: ais
 post:
@@ -4813,8 +4738,8 @@
 </t>
         </is>
       </c>
-      <c r="D84" s="7" t="inlineStr"/>
-      <c r="E84" s="7" t="inlineStr">
+      <c r="D79" s="7" t="inlineStr"/>
+      <c r="E79" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: ais
@@ -4897,18 +4822,18 @@
         </is>
       </c>
     </row>
-    <row r="85" ht="900" customHeight="1">
-      <c r="A85" s="10" t="inlineStr">
+    <row r="80" ht="900" customHeight="1">
+      <c r="A80" s="10" t="inlineStr">
         <is>
           <t>AS</t>
         </is>
       </c>
-      <c r="B85" s="7" t="inlineStr">
+      <c r="B80" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/auth/v2_1_1.1/authorize</t>
         </is>
       </c>
-      <c r="C85" s="7" t="inlineStr">
+      <c r="C80" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: as
 post:
@@ -4972,8 +4897,8 @@
 </t>
         </is>
       </c>
-      <c r="D85" s="7" t="inlineStr"/>
-      <c r="E85" s="7" t="inlineStr">
+      <c r="D80" s="7" t="inlineStr"/>
+      <c r="E80" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: as
@@ -5038,18 +4963,18 @@
         </is>
       </c>
     </row>
-    <row r="86" ht="915" customHeight="1">
-      <c r="A86" s="10" t="inlineStr">
+    <row r="81" ht="915" customHeight="1">
+      <c r="A81" s="10" t="inlineStr">
         <is>
           <t>AS</t>
         </is>
       </c>
-      <c r="B86" s="7" t="inlineStr">
+      <c r="B81" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/auth/v2_1_1.1/authorizeExt</t>
         </is>
       </c>
-      <c r="C86" s="7" t="inlineStr">
+      <c r="C81" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: as
 post:
@@ -5114,8 +5039,8 @@
 </t>
         </is>
       </c>
-      <c r="D86" s="7" t="inlineStr"/>
-      <c r="E86" s="7" t="inlineStr">
+      <c r="D81" s="7" t="inlineStr"/>
+      <c r="E81" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: as
@@ -5175,18 +5100,18 @@
         </is>
       </c>
     </row>
-    <row r="87" ht="960" customHeight="1">
-      <c r="A87" s="10" t="inlineStr">
+    <row r="82" ht="960" customHeight="1">
+      <c r="A82" s="10" t="inlineStr">
         <is>
           <t>AS</t>
         </is>
       </c>
-      <c r="B87" s="7" t="inlineStr">
+      <c r="B82" s="7" t="inlineStr">
         <is>
           <t>/v2_1_1.1/auth/v2_1_1.1/token</t>
         </is>
       </c>
-      <c r="C87" s="7" t="inlineStr">
+      <c r="C82" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: as
 post:
@@ -5254,8 +5179,8 @@
 </t>
         </is>
       </c>
-      <c r="D87" s="7" t="inlineStr"/>
-      <c r="E87" s="7" t="inlineStr">
+      <c r="D82" s="7" t="inlineStr"/>
+      <c r="E82" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: as
@@ -5324,18 +5249,18 @@
         </is>
       </c>
     </row>
-    <row r="88" ht="540" customHeight="1">
-      <c r="A88" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B88" s="7" t="inlineStr">
+    <row r="83" ht="540" customHeight="1">
+      <c r="A83" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B83" s="7" t="inlineStr">
         <is>
           <t>AuthorizeRequest</t>
         </is>
       </c>
-      <c r="C88" s="7" t="inlineStr">
+      <c r="C83" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa zapytania o uzyskanie kodu autoryzacyjnego zgodnego z OAuth2
 type: object
@@ -5375,8 +5300,8 @@
 </t>
         </is>
       </c>
-      <c r="D88" s="7" t="inlineStr"/>
-      <c r="E88" s="7" t="inlineStr">
+      <c r="D83" s="7" t="inlineStr"/>
+      <c r="E83" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zapytania o uzyskanie kodu autoryzacyjnego zgodnego z OAuth2
@@ -5414,18 +5339,18 @@
         </is>
       </c>
     </row>
-    <row r="89" ht="225" customHeight="1">
-      <c r="A89" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B89" s="7" t="inlineStr">
+    <row r="84" ht="225" customHeight="1">
+      <c r="A84" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B84" s="7" t="inlineStr">
         <is>
           <t>AuthorizeResponse</t>
         </is>
       </c>
-      <c r="C89" s="7" t="inlineStr">
+      <c r="C84" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa odpowiedzi na zapytanie TPP o autoryzacj\u0119 PSU do wykonania\
   \ us\u0142ugi interfejsu XS2A"
@@ -5444,8 +5369,8 @@
 </t>
         </is>
       </c>
-      <c r="D89" s="7" t="inlineStr"/>
-      <c r="E89" s="7" t="inlineStr">
+      <c r="D84" s="7" t="inlineStr"/>
+      <c r="E84" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa odpowiedzi na zapytanie TPP o autoryzację PSU do wykonania usługi interfejsu XS2A
@@ -5463,18 +5388,18 @@
         </is>
       </c>
     </row>
-    <row r="90" ht="600" customHeight="1">
-      <c r="A90" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B90" s="7" t="inlineStr">
+    <row r="85" ht="600" customHeight="1">
+      <c r="A85" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B85" s="7" t="inlineStr">
         <is>
           <t>EatCodeRequest</t>
         </is>
       </c>
-      <c r="C90" s="7" t="inlineStr">
+      <c r="C85" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa zapytania o uzyskanie kodu autoryzacyjnego zgodnego z OAuth2 na
   podstawie przekazanego kodu jednorazowego, wygenerowanego w EAT
@@ -5518,8 +5443,8 @@
 </t>
         </is>
       </c>
-      <c r="D90" s="7" t="inlineStr"/>
-      <c r="E90" s="7" t="inlineStr">
+      <c r="D85" s="7" t="inlineStr"/>
+      <c r="E85" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zapytania o uzyskanie kodu autoryzacyjnego zgodnego z OAuth2 na podstawie przekazanego kodu jednorazowego, wygenerowanego w EAT
@@ -5561,18 +5486,18 @@
         </is>
       </c>
     </row>
-    <row r="91" ht="855" customHeight="1">
-      <c r="A91" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B91" s="7" t="inlineStr">
+    <row r="86" ht="855" customHeight="1">
+      <c r="A86" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B86" s="7" t="inlineStr">
         <is>
           <t>TokenRequest</t>
         </is>
       </c>
-      <c r="C91" s="7" t="inlineStr">
+      <c r="C86" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa zapytania o uzyskanie tokena dost\u0119powego zgodnego z OAuth2"
 type: object
@@ -5633,8 +5558,8 @@
 </t>
         </is>
       </c>
-      <c r="D91" s="7" t="inlineStr"/>
-      <c r="E91" s="7" t="inlineStr">
+      <c r="D86" s="7" t="inlineStr"/>
+      <c r="E86" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zapytania o uzyskanie tokena dostępowego zgodnego z OAuth2
@@ -5681,18 +5606,18 @@
         </is>
       </c>
     </row>
-    <row r="92" ht="510" customHeight="1">
-      <c r="A92" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B92" s="7" t="inlineStr">
+    <row r="87" ht="510" customHeight="1">
+      <c r="A87" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B87" s="7" t="inlineStr">
         <is>
           <t>TokenResponse</t>
         </is>
       </c>
-      <c r="C92" s="7" t="inlineStr">
+      <c r="C87" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa odpowiedzi na zapytanie TPP o wygenerowanie tokena dost\u0119\
   powego"
@@ -5730,8 +5655,8 @@
 </t>
         </is>
       </c>
-      <c r="D92" s="7" t="inlineStr"/>
-      <c r="E92" s="7" t="inlineStr">
+      <c r="D87" s="7" t="inlineStr"/>
+      <c r="E87" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa odpowiedzi na zapytanie TPP o wygenerowanie tokena dostępowego
@@ -5764,18 +5689,18 @@
         </is>
       </c>
     </row>
-    <row r="93" ht="165" customHeight="1">
-      <c r="A93" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B93" s="7" t="inlineStr">
+    <row r="88" ht="165" customHeight="1">
+      <c r="A88" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B88" s="7" t="inlineStr">
         <is>
           <t>DeleteConsentRequest</t>
         </is>
       </c>
-      <c r="C93" s="7" t="inlineStr">
+      <c r="C88" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa zapytania o usuni\u0119cie zgody na dost\u0119p do AIS"
 type: object
@@ -5790,8 +5715,8 @@
 </t>
         </is>
       </c>
-      <c r="D93" s="7" t="inlineStr"/>
-      <c r="E93" s="7" t="inlineStr">
+      <c r="D88" s="7" t="inlineStr"/>
+      <c r="E88" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zapytania o usunięcie zgody na dostęp do AIS
@@ -5807,18 +5732,18 @@
         </is>
       </c>
     </row>
-    <row r="94" ht="315" customHeight="1">
-      <c r="A94" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B94" s="7" t="inlineStr">
+    <row r="89" ht="315" customHeight="1">
+      <c r="A89" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B89" s="7" t="inlineStr">
         <is>
           <t>AccountsRequest</t>
         </is>
       </c>
-      <c r="C94" s="7" t="inlineStr">
+      <c r="C89" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa zapytania o rachunki / Accounts Request Class
 type: object
@@ -5843,8 +5768,8 @@
 </t>
         </is>
       </c>
-      <c r="D94" s="7" t="inlineStr"/>
-      <c r="E94" s="7" t="inlineStr">
+      <c r="D89" s="7" t="inlineStr"/>
+      <c r="E89" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zapytania o rachunki / Accounts Request Class
@@ -5867,18 +5792,18 @@
         </is>
       </c>
     </row>
-    <row r="95" ht="135" customHeight="1">
-      <c r="A95" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B95" s="7" t="inlineStr">
+    <row r="90" ht="135" customHeight="1">
+      <c r="A90" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B90" s="7" t="inlineStr">
         <is>
           <t>AccountResponse</t>
         </is>
       </c>
-      <c r="C95" s="7" t="inlineStr">
+      <c r="C90" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa odpowiedzi na zapytania o konto PSU / PSU's Account Response Class
 required:
@@ -5891,8 +5816,8 @@
 </t>
         </is>
       </c>
-      <c r="D95" s="7" t="inlineStr"/>
-      <c r="E95" s="7" t="inlineStr">
+      <c r="D90" s="7" t="inlineStr"/>
+      <c r="E90" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa odpowiedzi na zapytania o konto PSU / PSU's Account Response Class
@@ -5906,18 +5831,18 @@
         </is>
       </c>
     </row>
-    <row r="96" ht="210" customHeight="1">
-      <c r="A96" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B96" s="7" t="inlineStr">
+    <row r="91" ht="210" customHeight="1">
+      <c r="A91" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B91" s="7" t="inlineStr">
         <is>
           <t>AccountsResponse</t>
         </is>
       </c>
-      <c r="C96" s="7" t="inlineStr">
+      <c r="C91" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa odpowiedzi na zapytania o wiele kont PSU / PSU's Multiple Accounts
   Response Class
@@ -5935,8 +5860,8 @@
 </t>
         </is>
       </c>
-      <c r="D96" s="7" t="inlineStr"/>
-      <c r="E96" s="7" t="inlineStr">
+      <c r="D91" s="7" t="inlineStr"/>
+      <c r="E91" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa odpowiedzi na zapytania o wiele kont PSU / PSU's Multiple Accounts Response Class
@@ -5954,18 +5879,18 @@
         </is>
       </c>
     </row>
-    <row r="97" ht="315" customHeight="1">
-      <c r="A97" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B97" s="7" t="inlineStr">
+    <row r="92" ht="315" customHeight="1">
+      <c r="A92" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B92" s="7" t="inlineStr">
         <is>
           <t>AccountBaseInfo</t>
         </is>
       </c>
-      <c r="C97" s="7" t="inlineStr">
+      <c r="C92" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa informacji o koncie / Account Information Class
 type: object
@@ -5990,8 +5915,8 @@
 </t>
         </is>
       </c>
-      <c r="D97" s="7" t="inlineStr"/>
-      <c r="E97" s="7" t="inlineStr">
+      <c r="D92" s="7" t="inlineStr"/>
+      <c r="E92" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa informacji o koncie / Account Information Class
@@ -6015,18 +5940,18 @@
         </is>
       </c>
     </row>
-    <row r="98" ht="825" customHeight="1">
-      <c r="A98" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B98" s="7" t="inlineStr">
+    <row r="93" ht="825" customHeight="1">
+      <c r="A93" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B93" s="7" t="inlineStr">
         <is>
           <t>AccountInfo</t>
         </is>
       </c>
-      <c r="C98" s="7" t="inlineStr">
+      <c r="C93" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa informacji o koncie / Account Information Class
 type: object
@@ -6085,8 +6010,8 @@
 </t>
         </is>
       </c>
-      <c r="D98" s="7" t="inlineStr"/>
-      <c r="E98" s="7" t="inlineStr">
+      <c r="D93" s="7" t="inlineStr"/>
+      <c r="E93" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa informacji o koncie / Account Information Class
@@ -6142,18 +6067,18 @@
         </is>
       </c>
     </row>
-    <row r="99" ht="210" customHeight="1">
-      <c r="A99" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B99" s="7" t="inlineStr">
+    <row r="94" ht="210" customHeight="1">
+      <c r="A94" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B94" s="7" t="inlineStr">
         <is>
           <t>AccountInfoRequest</t>
         </is>
       </c>
-      <c r="C99" s="7" t="inlineStr">
+      <c r="C94" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa zapytania o pojedynczy rachunek / Account Information Request Class
 type: object
@@ -6171,8 +6096,8 @@
 </t>
         </is>
       </c>
-      <c r="D99" s="7" t="inlineStr"/>
-      <c r="E99" s="7" t="inlineStr">
+      <c r="D94" s="7" t="inlineStr"/>
+      <c r="E94" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zapytania o pojedynczy rachunek / Account Information Request Class
@@ -6191,18 +6116,18 @@
         </is>
       </c>
     </row>
-    <row r="100" ht="900" customHeight="1">
-      <c r="A100" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B100" s="7" t="inlineStr">
+    <row r="95" ht="900" customHeight="1">
+      <c r="A95" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B95" s="7" t="inlineStr">
         <is>
           <t>ItemInfoRequestBase</t>
         </is>
       </c>
-      <c r="C100" s="7" t="inlineStr">
+      <c r="C95" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Bazowa klasa dla zapyta\u0144 o elementy takie jak transakcja i blokada\
   \ / Element (transaction or hold) Information Request Base Class"
@@ -6266,8 +6191,8 @@
 </t>
         </is>
       </c>
-      <c r="D100" s="7" t="inlineStr"/>
-      <c r="E100" s="7" t="inlineStr">
+      <c r="D95" s="7" t="inlineStr"/>
+      <c r="E95" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Bazowa klasa dla zapytań o elementy takie jak transakcja i blokada / Element (transaction or hold) Information Request Base Class
@@ -6323,18 +6248,18 @@
         </is>
       </c>
     </row>
-    <row r="101" ht="255" customHeight="1">
-      <c r="A101" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B101" s="7" t="inlineStr">
+    <row r="96" ht="255" customHeight="1">
+      <c r="A96" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B96" s="7" t="inlineStr">
         <is>
           <t>TransactionInfoRequest</t>
         </is>
       </c>
-      <c r="C101" s="7" t="inlineStr">
+      <c r="C96" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa zapytania o transakcje / Transaction Information Request Class
 allOf:
@@ -6355,8 +6280,8 @@
 </t>
         </is>
       </c>
-      <c r="D101" s="7" t="inlineStr"/>
-      <c r="E101" s="7" t="inlineStr">
+      <c r="D96" s="7" t="inlineStr"/>
+      <c r="E96" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zapytania o transakcje / Transaction Information Request Class
@@ -6378,18 +6303,18 @@
         </is>
       </c>
     </row>
-    <row r="102" ht="255" customHeight="1">
-      <c r="A102" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B102" s="7" t="inlineStr">
+    <row r="97" ht="255" customHeight="1">
+      <c r="A97" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B97" s="7" t="inlineStr">
         <is>
           <t>HoldRequest</t>
         </is>
       </c>
-      <c r="C102" s="7" t="inlineStr">
+      <c r="C97" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa zapytania o elementy (transakcje lub blokady) / Element (transaction
   or hold) Information Request Class
@@ -6410,8 +6335,8 @@
 </t>
         </is>
       </c>
-      <c r="D102" s="7" t="inlineStr"/>
-      <c r="E102" s="7" t="inlineStr">
+      <c r="D97" s="7" t="inlineStr"/>
+      <c r="E97" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zapytania o elementy (transakcje lub blokady) / Element (transaction or hold) Information Request Class
@@ -6432,18 +6357,18 @@
         </is>
       </c>
     </row>
-    <row r="103" ht="585" customHeight="1">
-      <c r="A103" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B103" s="7" t="inlineStr">
+    <row r="98" ht="585" customHeight="1">
+      <c r="A98" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B98" s="7" t="inlineStr">
         <is>
           <t>ItemInfoBase</t>
         </is>
       </c>
-      <c r="C103" s="7" t="inlineStr">
+      <c r="C98" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa bazowa informacji o elemencie (transakcji lub blokadzie) / Element
   (transaction or hold) Information Base Class
@@ -6486,8 +6411,8 @@
 </t>
         </is>
       </c>
-      <c r="D103" s="7" t="inlineStr"/>
-      <c r="E103" s="7" t="inlineStr">
+      <c r="D98" s="7" t="inlineStr"/>
+      <c r="E98" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa bazowa informacji o elemencie (transakcji lub blokadzie) / Element (transaction or hold) Information Base Class
@@ -6528,18 +6453,18 @@
         </is>
       </c>
     </row>
-    <row r="104" ht="315" customHeight="1">
-      <c r="A104" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B104" s="7" t="inlineStr">
+    <row r="99" ht="315" customHeight="1">
+      <c r="A99" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B99" s="7" t="inlineStr">
         <is>
           <t>HoldInfo</t>
         </is>
       </c>
-      <c r="C104" s="7" t="inlineStr">
+      <c r="C99" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa opisuj\u0105ca blokad\u0119 na rachunku / Hold info class"
 allOf:
@@ -6564,8 +6489,8 @@
 </t>
         </is>
       </c>
-      <c r="D104" s="7" t="inlineStr"/>
-      <c r="E104" s="7" t="inlineStr">
+      <c r="D99" s="7" t="inlineStr"/>
+      <c r="E99" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa opisująca blokadę na rachunku / Hold info class
@@ -6591,18 +6516,18 @@
         </is>
       </c>
     </row>
-    <row r="105" ht="405" customHeight="1">
-      <c r="A105" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B105" s="7" t="inlineStr">
+    <row r="100" ht="405" customHeight="1">
+      <c r="A100" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B100" s="7" t="inlineStr">
         <is>
           <t>TransactionPendingInfo</t>
         </is>
       </c>
-      <c r="C105" s="7" t="inlineStr">
+      <c r="C100" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa opisuj\u0105ca oczekuj\u0105c\u0105 transakcj\u0119 p\u0142atnicz\u0105\
   . Jest to transakcja niezaksi\u0119gowana, niemodyfikowalna, wp\u0142ywaj\u0105\
@@ -6633,8 +6558,8 @@
 </t>
         </is>
       </c>
-      <c r="D105" s="7" t="inlineStr"/>
-      <c r="E105" s="7" t="inlineStr">
+      <c r="D100" s="7" t="inlineStr"/>
+      <c r="E100" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa opisująca oczekującą transakcję płatniczą. Jest to transakcja niezaksięgowana, niemodyfikowalna, wpływającej na dostępne środki (saldo dostępne).
@@ -6663,18 +6588,18 @@
         </is>
       </c>
     </row>
-    <row r="106" ht="495" customHeight="1">
-      <c r="A106" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B106" s="7" t="inlineStr">
+    <row r="101" ht="495" customHeight="1">
+      <c r="A101" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B101" s="7" t="inlineStr">
         <is>
           <t>TransactionRejectedInfo</t>
         </is>
       </c>
-      <c r="C106" s="7" t="inlineStr">
+      <c r="C101" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa opisuj\u0105ca odrzucon\u0105 transakcj\u0119 p\u0142atnicz\u0105"
 allOf:
@@ -6711,8 +6636,8 @@
 </t>
         </is>
       </c>
-      <c r="D106" s="7" t="inlineStr"/>
-      <c r="E106" s="7" t="inlineStr">
+      <c r="D101" s="7" t="inlineStr"/>
+      <c r="E101" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa opisująca odrzuconą transakcję płatniczą
@@ -6749,18 +6674,18 @@
         </is>
       </c>
     </row>
-    <row r="107" ht="555" customHeight="1">
-      <c r="A107" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B107" s="7" t="inlineStr">
+    <row r="102" ht="555" customHeight="1">
+      <c r="A102" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B102" s="7" t="inlineStr">
         <is>
           <t>TransactionInfo</t>
         </is>
       </c>
-      <c r="C107" s="7" t="inlineStr">
+      <c r="C102" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa opisuj\u0105ca transakcj\u0119 p\u0142atnicz\u0105"
 allOf:
@@ -6801,8 +6726,8 @@
 </t>
         </is>
       </c>
-      <c r="D107" s="7" t="inlineStr"/>
-      <c r="E107" s="7" t="inlineStr">
+      <c r="D102" s="7" t="inlineStr"/>
+      <c r="E102" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa opisująca transakcję płatniczą
@@ -6841,18 +6766,18 @@
         </is>
       </c>
     </row>
-    <row r="108" ht="405" customHeight="1">
-      <c r="A108" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B108" s="7" t="inlineStr">
+    <row r="103" ht="405" customHeight="1">
+      <c r="A103" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B103" s="7" t="inlineStr">
         <is>
           <t>TransactionCancelledInfo</t>
         </is>
       </c>
-      <c r="C108" s="7" t="inlineStr">
+      <c r="C103" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa opisuj\u0105ca odwo\u0142an\u0105 transakcj\u0119 p\u0142atnicz\u0105"
 allOf:
@@ -6883,8 +6808,8 @@
 </t>
         </is>
       </c>
-      <c r="D108" s="7" t="inlineStr"/>
-      <c r="E108" s="7" t="inlineStr">
+      <c r="D103" s="7" t="inlineStr"/>
+      <c r="E103" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa opisująca odwołaną transakcję płatniczą
@@ -6915,18 +6840,18 @@
         </is>
       </c>
     </row>
-    <row r="109" ht="405" customHeight="1">
-      <c r="A109" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B109" s="7" t="inlineStr">
+    <row r="104" ht="405" customHeight="1">
+      <c r="A104" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B104" s="7" t="inlineStr">
         <is>
           <t>TransactionScheduledInfo</t>
         </is>
       </c>
-      <c r="C109" s="7" t="inlineStr">
+      <c r="C104" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa opisuj\u0105ca zaplanowan\u0105 transakcj\u0119 p\u0142atnicz\u0105"
 allOf:
@@ -6957,8 +6882,8 @@
 </t>
         </is>
       </c>
-      <c r="D109" s="7" t="inlineStr"/>
-      <c r="E109" s="7" t="inlineStr">
+      <c r="D104" s="7" t="inlineStr"/>
+      <c r="E104" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa opisująca zaplanowaną transakcję płatniczą
@@ -6989,18 +6914,18 @@
         </is>
       </c>
     </row>
-    <row r="110" ht="240" customHeight="1">
-      <c r="A110" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B110" s="7" t="inlineStr">
+    <row r="105" ht="240" customHeight="1">
+      <c r="A105" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B105" s="7" t="inlineStr">
         <is>
           <t>TransactionsDoneInfoResponse</t>
         </is>
       </c>
-      <c r="C110" s="7" t="inlineStr">
+      <c r="C105" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa odpowiedzi zawieraj\u0105ca list\u0119 transakcji done / Done\
   \ Transaction Information Response Class"
@@ -7020,8 +6945,8 @@
 </t>
         </is>
       </c>
-      <c r="D110" s="7" t="inlineStr"/>
-      <c r="E110" s="7" t="inlineStr">
+      <c r="D105" s="7" t="inlineStr"/>
+      <c r="E105" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji done / Done Transaction Information Response Class
@@ -7041,18 +6966,18 @@
         </is>
       </c>
     </row>
-    <row r="111" ht="240" customHeight="1">
-      <c r="A111" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B111" s="7" t="inlineStr">
+    <row r="106" ht="240" customHeight="1">
+      <c r="A106" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B106" s="7" t="inlineStr">
         <is>
           <t>TransactionsCancelledInfoResponse</t>
         </is>
       </c>
-      <c r="C111" s="7" t="inlineStr">
+      <c r="C106" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa odpowiedzi zawieraj\u0105ca list\u0119 transakcji cancelled /\
   \ Cancelled Transaction Information Response Class"
@@ -7072,8 +6997,8 @@
 </t>
         </is>
       </c>
-      <c r="D111" s="7" t="inlineStr"/>
-      <c r="E111" s="7" t="inlineStr">
+      <c r="D106" s="7" t="inlineStr"/>
+      <c r="E106" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji cancelled / Cancelled Transaction Information Response Class
@@ -7093,18 +7018,18 @@
         </is>
       </c>
     </row>
-    <row r="112" ht="240" customHeight="1">
-      <c r="A112" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B112" s="7" t="inlineStr">
+    <row r="107" ht="240" customHeight="1">
+      <c r="A107" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B107" s="7" t="inlineStr">
         <is>
           <t>TransactionsScheduledInfoResponse</t>
         </is>
       </c>
-      <c r="C112" s="7" t="inlineStr">
+      <c r="C107" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa odpowiedzi zawieraj\u0105ca list\u0119 transakcji scheduled /\
   \ Scheduled Transaction Information Response Class"
@@ -7124,8 +7049,8 @@
 </t>
         </is>
       </c>
-      <c r="D112" s="7" t="inlineStr"/>
-      <c r="E112" s="7" t="inlineStr">
+      <c r="D107" s="7" t="inlineStr"/>
+      <c r="E107" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji scheduled / Scheduled Transaction Information Response Class
@@ -7145,18 +7070,18 @@
         </is>
       </c>
     </row>
-    <row r="113" ht="240" customHeight="1">
-      <c r="A113" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B113" s="7" t="inlineStr">
+    <row r="108" ht="240" customHeight="1">
+      <c r="A108" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B108" s="7" t="inlineStr">
         <is>
           <t>TransactionPendingInfoResponse</t>
         </is>
       </c>
-      <c r="C113" s="7" t="inlineStr">
+      <c r="C108" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa odpowiedzi zawieraj\u0105ca list\u0119 transakcji pending / Pending\
   \ Transaction Information Response Class"
@@ -7176,8 +7101,8 @@
 </t>
         </is>
       </c>
-      <c r="D113" s="7" t="inlineStr"/>
-      <c r="E113" s="7" t="inlineStr">
+      <c r="D108" s="7" t="inlineStr"/>
+      <c r="E108" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji pending / Pending Transaction Information Response Class
@@ -7197,18 +7122,18 @@
         </is>
       </c>
     </row>
-    <row r="114" ht="240" customHeight="1">
-      <c r="A114" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B114" s="7" t="inlineStr">
+    <row r="109" ht="240" customHeight="1">
+      <c r="A109" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B109" s="7" t="inlineStr">
         <is>
           <t>TransactionRejectedInfoResponse</t>
         </is>
       </c>
-      <c r="C114" s="7" t="inlineStr">
+      <c r="C109" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa odpowiedzi zawieraj\u0105ca list\u0119 transakcji rejected / Rejected\
   \ Transaction Information Response Class"
@@ -7228,8 +7153,8 @@
 </t>
         </is>
       </c>
-      <c r="D114" s="7" t="inlineStr"/>
-      <c r="E114" s="7" t="inlineStr">
+      <c r="D109" s="7" t="inlineStr"/>
+      <c r="E109" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę transakcji rejected / Rejected Transaction Information Response Class
@@ -7249,18 +7174,18 @@
         </is>
       </c>
     </row>
-    <row r="115" ht="240" customHeight="1">
-      <c r="A115" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B115" s="7" t="inlineStr">
+    <row r="110" ht="240" customHeight="1">
+      <c r="A110" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B110" s="7" t="inlineStr">
         <is>
           <t>HoldInfoResponse</t>
         </is>
       </c>
-      <c r="C115" s="7" t="inlineStr">
+      <c r="C110" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa odpowiedzi zawieraj\u0105ca list\u0119 blokad na rachunku / Hold\
   \ Information Response Class"
@@ -7280,8 +7205,8 @@
 </t>
         </is>
       </c>
-      <c r="D115" s="7" t="inlineStr"/>
-      <c r="E115" s="7" t="inlineStr">
+      <c r="D110" s="7" t="inlineStr"/>
+      <c r="E110" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa odpowiedzi zawierająca listę blokad na rachunku / Hold Information Response Class
@@ -7301,18 +7226,18 @@
         </is>
       </c>
     </row>
-    <row r="116" ht="405" customHeight="1">
-      <c r="A116" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B116" s="7" t="inlineStr">
+    <row r="111" ht="405" customHeight="1">
+      <c r="A111" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B111" s="7" t="inlineStr">
         <is>
           <t>TransactionDetailRequest</t>
         </is>
       </c>
-      <c r="C116" s="7" t="inlineStr">
+      <c r="C111" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa zapytania o pojedyncz\u0105 transakcj\u0119 / Transaction Detail\
   \ Request Class"
@@ -7343,8 +7268,8 @@
 </t>
         </is>
       </c>
-      <c r="D116" s="7" t="inlineStr"/>
-      <c r="E116" s="7" t="inlineStr">
+      <c r="D111" s="7" t="inlineStr"/>
+      <c r="E111" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zapytania o pojedynczą transakcję / Transaction Detail Request Class
@@ -7373,49 +7298,49 @@
         </is>
       </c>
     </row>
-    <row r="117" ht="45" customHeight="1">
-      <c r="A117" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B117" s="7" t="inlineStr">
+    <row r="112" ht="45" customHeight="1">
+      <c r="A112" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B112" s="7" t="inlineStr">
         <is>
           <t>Payor.properties.payorIdType.description</t>
         </is>
       </c>
-      <c r="C117" s="7" t="inlineStr">
+      <c r="C112" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">"Typ identyfikatora p\u0142atnika / Payor ID type"
 </t>
         </is>
       </c>
-      <c r="D117" s="7" t="inlineStr">
+      <c r="D112" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">"Typ identyfikatora p\u0142atnika / Payor ID type\n* `N` - NIP\n* `P` - Pesel\n* `R`\
   \ - Regon\n* `1` - Dow\xF3d osobisty\n* `2` - Paszport\n* `3` - Inny"
 </t>
         </is>
       </c>
-      <c r="E117" s="7" t="inlineStr">
+      <c r="E112" s="7" t="inlineStr">
         <is>
           <t>Added:
 • Typ identyfikatora płatnika / Payor ID type</t>
         </is>
       </c>
     </row>
-    <row r="118" ht="270" customHeight="1">
-      <c r="A118" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B118" s="7" t="inlineStr">
+    <row r="113" ht="270" customHeight="1">
+      <c r="A113" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B113" s="7" t="inlineStr">
         <is>
           <t>Payor.properties.payorIdType.enum</t>
         </is>
       </c>
-      <c r="C118" s="7" t="inlineStr">
+      <c r="C113" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- N
 - P
@@ -7426,7 +7351,7 @@
 </t>
         </is>
       </c>
-      <c r="D118" s="7" t="inlineStr">
+      <c r="D113" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- N
 - P
@@ -7437,7 +7362,7 @@
 </t>
         </is>
       </c>
-      <c r="E118" s="7" t="inlineStr">
+      <c r="E113" s="7" t="inlineStr">
         <is>
           <t>Added:
 • 1
@@ -7454,18 +7379,18 @@
         </is>
       </c>
     </row>
-    <row r="119" ht="225" customHeight="1">
-      <c r="A119" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B119" s="7" t="inlineStr">
+    <row r="114" ht="225" customHeight="1">
+      <c r="A114" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B114" s="7" t="inlineStr">
         <is>
           <t>Payor.properties.payorIdType.x-ms-enum</t>
         </is>
       </c>
-      <c r="C119" s="7" t="inlineStr">
+      <c r="C114" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">name: payorIdType
 values:
@@ -7484,8 +7409,8 @@
 </t>
         </is>
       </c>
-      <c r="D119" s="7" t="inlineStr"/>
-      <c r="E119" s="7" t="inlineStr">
+      <c r="D114" s="7" t="inlineStr"/>
+      <c r="E114" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • name: payorIdType
@@ -7505,18 +7430,18 @@
         </is>
       </c>
     </row>
-    <row r="120" ht="540" customHeight="1">
-      <c r="A120" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B120" s="7" t="inlineStr">
+    <row r="115" ht="540" customHeight="1">
+      <c r="A115" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B115" s="7" t="inlineStr">
         <is>
           <t>SocialSecurityPayor</t>
         </is>
       </c>
-      <c r="C120" s="7" t="inlineStr">
+      <c r="C115" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa informacji o p\u0142atniku do ZUS / Polish Social Security Institution\
   \ (ZUS) Payor Information Class"
@@ -7556,8 +7481,8 @@
 </t>
         </is>
       </c>
-      <c r="D120" s="7" t="inlineStr"/>
-      <c r="E120" s="7" t="inlineStr">
+      <c r="D115" s="7" t="inlineStr"/>
+      <c r="E115" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa informacji o płatniku do ZUS / Polish Social Security Institution (ZUS) Payor Information Class
@@ -7595,18 +7520,18 @@
         </is>
       </c>
     </row>
-    <row r="121" ht="435" customHeight="1">
-      <c r="A121" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B121" s="7" t="inlineStr">
+    <row r="116" ht="435" customHeight="1">
+      <c r="A116" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B116" s="7" t="inlineStr">
         <is>
           <t>TransactionInfoZUS</t>
         </is>
       </c>
-      <c r="C121" s="7" t="inlineStr">
+      <c r="C116" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa informacji danych dla przelewu do ZUS / ZUS Transfer Information
   Class
@@ -7639,8 +7564,8 @@
 </t>
         </is>
       </c>
-      <c r="D121" s="7" t="inlineStr"/>
-      <c r="E121" s="7" t="inlineStr">
+      <c r="D116" s="7" t="inlineStr"/>
+      <c r="E116" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa informacji danych dla przelewu do ZUS / ZUS Transfer Information Class
@@ -7673,18 +7598,18 @@
         </is>
       </c>
     </row>
-    <row r="122" ht="165" customHeight="1">
-      <c r="A122" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B122" s="7" t="inlineStr">
+    <row r="117" ht="165" customHeight="1">
+      <c r="A117" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B117" s="7" t="inlineStr">
         <is>
           <t>TransactionInfoCard</t>
         </is>
       </c>
-      <c r="C122" s="7" t="inlineStr">
+      <c r="C117" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">type: object
 description: "Klasa reprezentuj\u0105ca informacje o karcie w ramach transakcji /\
@@ -7699,8 +7624,8 @@
 </t>
         </is>
       </c>
-      <c r="D122" s="7" t="inlineStr"/>
-      <c r="E122" s="7" t="inlineStr">
+      <c r="D117" s="7" t="inlineStr"/>
+      <c r="E117" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • type: object
@@ -7715,18 +7640,18 @@
         </is>
       </c>
     </row>
-    <row r="123" ht="915" customHeight="1">
-      <c r="A123" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B123" s="7" t="inlineStr">
+    <row r="118" ht="915" customHeight="1">
+      <c r="A118" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B118" s="7" t="inlineStr">
         <is>
           <t>TransactionDetailResponse</t>
         </is>
       </c>
-      <c r="C123" s="7" t="inlineStr">
+      <c r="C118" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa odpowiedzi na zapytanie o transakcj\u0119 /  Transaction Detail\
   \ Response Class"
@@ -7791,8 +7716,8 @@
 </t>
         </is>
       </c>
-      <c r="D123" s="7" t="inlineStr"/>
-      <c r="E123" s="7" t="inlineStr">
+      <c r="D118" s="7" t="inlineStr"/>
+      <c r="E118" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa odpowiedzi na zapytanie o transakcję /  Transaction Detail Response Class
@@ -7852,18 +7777,18 @@
         </is>
       </c>
     </row>
-    <row r="124" ht="135" customHeight="1">
-      <c r="A124" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B124" s="7" t="inlineStr">
+    <row r="119" ht="135" customHeight="1">
+      <c r="A119" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B119" s="7" t="inlineStr">
         <is>
           <t>RecurringDomesticPayment.properties.system.enum</t>
         </is>
       </c>
-      <c r="C124" s="7" t="inlineStr">
+      <c r="C119" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- Elixir
 - ExpressElixir
@@ -7873,14 +7798,14 @@
 </t>
         </is>
       </c>
-      <c r="D124" s="7" t="inlineStr">
+      <c r="D119" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- Elixir
 - Internal
 </t>
         </is>
       </c>
-      <c r="E124" s="7" t="inlineStr">
+      <c r="E119" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • ExpressElixir
@@ -7891,25 +7816,25 @@
         </is>
       </c>
     </row>
-    <row r="125" ht="60" customHeight="1">
-      <c r="A125" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B125" s="7" t="inlineStr">
+    <row r="120" ht="60" customHeight="1">
+      <c r="A120" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B120" s="7" t="inlineStr">
         <is>
           <t>PaymentEEARequest.properties.deliveryMode.enum</t>
         </is>
       </c>
-      <c r="C125" s="7" t="inlineStr">
+      <c r="C120" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- ExpressD0
 - StandardD1
 </t>
         </is>
       </c>
-      <c r="D125" s="7" t="inlineStr">
+      <c r="D120" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- ExpressD0
 - StandardD1
@@ -7917,25 +7842,25 @@
 </t>
         </is>
       </c>
-      <c r="E125" s="7" t="inlineStr">
+      <c r="E120" s="7" t="inlineStr">
         <is>
           <t>Added:
 • UrgentD1</t>
         </is>
       </c>
     </row>
-    <row r="126" ht="90" customHeight="1">
-      <c r="A126" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B126" s="7" t="inlineStr">
+    <row r="121" ht="90" customHeight="1">
+      <c r="A121" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B121" s="7" t="inlineStr">
         <is>
           <t>PaymentEEARequest.properties.system.enum</t>
         </is>
       </c>
-      <c r="C126" s="7" t="inlineStr">
+      <c r="C121" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- SEPA
 - InstantSEPA
@@ -7943,7 +7868,7 @@
 </t>
         </is>
       </c>
-      <c r="D126" s="7" t="inlineStr">
+      <c r="D121" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- SEPA
 - InstantSEPA
@@ -7953,7 +7878,7 @@
 </t>
         </is>
       </c>
-      <c r="E126" s="7" t="inlineStr">
+      <c r="E121" s="7" t="inlineStr">
         <is>
           <t>Added:
 • Swift
@@ -7962,54 +7887,54 @@
         </is>
       </c>
     </row>
-    <row r="127" ht="30" customHeight="1">
-      <c r="A127" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B127" s="7" t="inlineStr">
+    <row r="122" ht="30" customHeight="1">
+      <c r="A122" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B122" s="7" t="inlineStr">
         <is>
           <t>PaymentNonEEARequest.properties.recipientBank.$ref</t>
         </is>
       </c>
-      <c r="C127" s="7" t="inlineStr">
+      <c r="C122" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">'#/definitions/Bank'
 </t>
         </is>
       </c>
-      <c r="D127" s="7" t="inlineStr">
+      <c r="D122" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">'#/definitions/PaymentNonEEARequestBank'
 </t>
         </is>
       </c>
-      <c r="E127" s="7" t="inlineStr">
+      <c r="E122" s="7" t="inlineStr">
         <is>
           <t>Added:
 • #/definitions/Bank</t>
         </is>
       </c>
     </row>
-    <row r="128" ht="135" customHeight="1">
-      <c r="A128" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B128" s="7" t="inlineStr">
+    <row r="123" ht="135" customHeight="1">
+      <c r="A123" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B123" s="7" t="inlineStr">
         <is>
           <t>PaymentNonEEARequest.properties.system.enum</t>
         </is>
       </c>
-      <c r="C128" s="7" t="inlineStr">
+      <c r="C123" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- Swift
 </t>
         </is>
       </c>
-      <c r="D128" s="7" t="inlineStr">
+      <c r="D123" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- Swift
 - SEPA
@@ -8018,7 +7943,7 @@
 </t>
         </is>
       </c>
-      <c r="E128" s="7" t="inlineStr">
+      <c r="E123" s="7" t="inlineStr">
         <is>
           <t>Added:
 • SEPA
@@ -8029,122 +7954,122 @@
         </is>
       </c>
     </row>
-    <row r="129" ht="45" customHeight="1">
-      <c r="A129" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B129" s="7" t="inlineStr">
+    <row r="124" ht="45" customHeight="1">
+      <c r="A124" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B124" s="7" t="inlineStr">
         <is>
           <t>PaymentRequest.type</t>
         </is>
       </c>
-      <c r="C129" s="7" t="inlineStr"/>
-      <c r="D129" s="7" t="inlineStr">
+      <c r="C124" s="7" t="inlineStr"/>
+      <c r="D124" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E129" s="7" t="inlineStr">
+      <c r="E124" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="130" ht="45" customHeight="1">
-      <c r="A130" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B130" s="7" t="inlineStr">
+    <row r="125" ht="45" customHeight="1">
+      <c r="A125" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B125" s="7" t="inlineStr">
         <is>
           <t>BundleRequest.type</t>
         </is>
       </c>
-      <c r="C130" s="7" t="inlineStr"/>
-      <c r="D130" s="7" t="inlineStr">
+      <c r="C125" s="7" t="inlineStr"/>
+      <c r="D125" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E130" s="7" t="inlineStr">
+      <c r="E125" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="131" ht="45" customHeight="1">
-      <c r="A131" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B131" s="7" t="inlineStr">
+    <row r="126" ht="45" customHeight="1">
+      <c r="A126" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B126" s="7" t="inlineStr">
         <is>
           <t>RecurringPaymentStatusRequest.type</t>
         </is>
       </c>
-      <c r="C131" s="7" t="inlineStr"/>
-      <c r="D131" s="7" t="inlineStr">
+      <c r="C126" s="7" t="inlineStr"/>
+      <c r="D126" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E131" s="7" t="inlineStr">
+      <c r="E126" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="132" ht="45" customHeight="1">
-      <c r="A132" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B132" s="7" t="inlineStr">
+    <row r="127" ht="45" customHeight="1">
+      <c r="A127" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B127" s="7" t="inlineStr">
         <is>
           <t>PaymentsBundleRequest.properties.transfersTotalAmount.maxLength</t>
         </is>
       </c>
-      <c r="C132" s="7" t="inlineStr"/>
-      <c r="D132" s="7" t="inlineStr">
+      <c r="C127" s="7" t="inlineStr"/>
+      <c r="D127" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">35
 ...
 </t>
         </is>
       </c>
-      <c r="E132" s="7" t="inlineStr">
+      <c r="E127" s="7" t="inlineStr">
         <is>
           <t>Added:
 • 35</t>
         </is>
       </c>
     </row>
-    <row r="133" ht="135" customHeight="1">
-      <c r="A133" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B133" s="7" t="inlineStr">
+    <row r="128" ht="135" customHeight="1">
+      <c r="A128" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B128" s="7" t="inlineStr">
         <is>
           <t>RecurringPaymentRequest.properties.typeOfPayment.enum</t>
         </is>
       </c>
-      <c r="C133" s="7" t="inlineStr">
+      <c r="C128" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- domestic
 - EEA
@@ -8153,13 +8078,13 @@
 </t>
         </is>
       </c>
-      <c r="D133" s="7" t="inlineStr">
+      <c r="D128" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- domestic
 </t>
         </is>
       </c>
-      <c r="E133" s="7" t="inlineStr">
+      <c r="E128" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • EEA
@@ -8170,7 +8095,134 @@
         </is>
       </c>
     </row>
-    <row r="134" ht="30" customHeight="1">
+    <row r="129" ht="30" customHeight="1">
+      <c r="A129" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B129" s="7" t="inlineStr">
+        <is>
+          <t>RecurringPaymentRequest.properties.EEAPayment</t>
+        </is>
+      </c>
+      <c r="C129" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$ref: '#/definitions/RecurringEEAPayment'
+</t>
+        </is>
+      </c>
+      <c r="D129" s="7" t="inlineStr"/>
+      <c r="E129" s="7" t="inlineStr">
+        <is>
+          <t>Removed:
+• $ref: #/definitions/RecurringEEAPayment</t>
+        </is>
+      </c>
+    </row>
+    <row r="130" ht="30" customHeight="1">
+      <c r="A130" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B130" s="7" t="inlineStr">
+        <is>
+          <t>RecurringPaymentRequest.properties.nonEEAPayment</t>
+        </is>
+      </c>
+      <c r="C130" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$ref: '#/definitions/RecurringNonEEAPayment'
+</t>
+        </is>
+      </c>
+      <c r="D130" s="7" t="inlineStr"/>
+      <c r="E130" s="7" t="inlineStr">
+        <is>
+          <t>Removed:
+• $ref: #/definitions/RecurringNonEEAPayment</t>
+        </is>
+      </c>
+    </row>
+    <row r="131" ht="30" customHeight="1">
+      <c r="A131" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B131" s="7" t="inlineStr">
+        <is>
+          <t>RecurringPaymentRequest.properties.taxPayment</t>
+        </is>
+      </c>
+      <c r="C131" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">$ref: '#/definitions/RecurringTaxPayment'
+</t>
+        </is>
+      </c>
+      <c r="D131" s="7" t="inlineStr"/>
+      <c r="E131" s="7" t="inlineStr">
+        <is>
+          <t>Removed:
+• $ref: #/definitions/RecurringTaxPayment</t>
+        </is>
+      </c>
+    </row>
+    <row r="132" ht="45" customHeight="1">
+      <c r="A132" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B132" s="7" t="inlineStr">
+        <is>
+          <t>PaymentsBundleResponse.type</t>
+        </is>
+      </c>
+      <c r="C132" s="7" t="inlineStr"/>
+      <c r="D132" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">object
+...
+</t>
+        </is>
+      </c>
+      <c r="E132" s="7" t="inlineStr">
+        <is>
+          <t>Added:
+• object</t>
+        </is>
+      </c>
+    </row>
+    <row r="133" ht="45" customHeight="1">
+      <c r="A133" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B133" s="7" t="inlineStr">
+        <is>
+          <t>RecurringPaymentResponse.type</t>
+        </is>
+      </c>
+      <c r="C133" s="7" t="inlineStr"/>
+      <c r="D133" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">object
+...
+</t>
+        </is>
+      </c>
+      <c r="E133" s="7" t="inlineStr">
+        <is>
+          <t>Added:
+• object</t>
+        </is>
+      </c>
+    </row>
+    <row r="134" ht="45" customHeight="1">
       <c r="A134" s="11" t="inlineStr">
         <is>
           <t>Definitions</t>
@@ -8178,24 +8230,25 @@
       </c>
       <c r="B134" s="7" t="inlineStr">
         <is>
-          <t>RecurringPaymentRequest.properties.EEAPayment</t>
-        </is>
-      </c>
-      <c r="C134" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$ref: '#/definitions/RecurringEEAPayment'
-</t>
-        </is>
-      </c>
-      <c r="D134" s="7" t="inlineStr"/>
+          <t>CancelPaymentsRequest.type</t>
+        </is>
+      </c>
+      <c r="C134" s="7" t="inlineStr"/>
+      <c r="D134" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">object
+...
+</t>
+        </is>
+      </c>
       <c r="E134" s="7" t="inlineStr">
         <is>
-          <t>Removed:
-• $ref: #/definitions/RecurringEEAPayment</t>
-        </is>
-      </c>
-    </row>
-    <row r="135" ht="30" customHeight="1">
+          <t>Added:
+• object</t>
+        </is>
+      </c>
+    </row>
+    <row r="135" ht="45" customHeight="1">
       <c r="A135" s="11" t="inlineStr">
         <is>
           <t>Definitions</t>
@@ -8203,24 +8256,25 @@
       </c>
       <c r="B135" s="7" t="inlineStr">
         <is>
-          <t>RecurringPaymentRequest.properties.nonEEAPayment</t>
-        </is>
-      </c>
-      <c r="C135" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$ref: '#/definitions/RecurringNonEEAPayment'
-</t>
-        </is>
-      </c>
-      <c r="D135" s="7" t="inlineStr"/>
+          <t>CancelRecurringPaymentRequest.type</t>
+        </is>
+      </c>
+      <c r="C135" s="7" t="inlineStr"/>
+      <c r="D135" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">object
+...
+</t>
+        </is>
+      </c>
       <c r="E135" s="7" t="inlineStr">
         <is>
-          <t>Removed:
-• $ref: #/definitions/RecurringNonEEAPayment</t>
-        </is>
-      </c>
-    </row>
-    <row r="136" ht="30" customHeight="1">
+          <t>Added:
+• object</t>
+        </is>
+      </c>
+    </row>
+    <row r="136" ht="45" customHeight="1">
       <c r="A136" s="11" t="inlineStr">
         <is>
           <t>Definitions</t>
@@ -8228,20 +8282,21 @@
       </c>
       <c r="B136" s="7" t="inlineStr">
         <is>
-          <t>RecurringPaymentRequest.properties.taxPayment</t>
-        </is>
-      </c>
-      <c r="C136" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$ref: '#/definitions/RecurringTaxPayment'
-</t>
-        </is>
-      </c>
-      <c r="D136" s="7" t="inlineStr"/>
+          <t>CancelPaymentsResponse.type</t>
+        </is>
+      </c>
+      <c r="C136" s="7" t="inlineStr"/>
+      <c r="D136" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">object
+...
+</t>
+        </is>
+      </c>
       <c r="E136" s="7" t="inlineStr">
         <is>
-          <t>Removed:
-• $ref: #/definitions/RecurringTaxPayment</t>
+          <t>Added:
+• object</t>
         </is>
       </c>
     </row>
@@ -8253,7 +8308,7 @@
       </c>
       <c r="B137" s="7" t="inlineStr">
         <is>
-          <t>PaymentsBundleResponse.type</t>
+          <t>CancelRecurringPaymentResponse.type</t>
         </is>
       </c>
       <c r="C137" s="7" t="inlineStr"/>
@@ -8279,7 +8334,7 @@
       </c>
       <c r="B138" s="7" t="inlineStr">
         <is>
-          <t>RecurringPaymentResponse.type</t>
+          <t>PaymentsRequest.type</t>
         </is>
       </c>
       <c r="C138" s="7" t="inlineStr"/>
@@ -8305,7 +8360,7 @@
       </c>
       <c r="B139" s="7" t="inlineStr">
         <is>
-          <t>CancelPaymentsRequest.type</t>
+          <t>PaymentTokenEntry.type</t>
         </is>
       </c>
       <c r="C139" s="7" t="inlineStr"/>
@@ -8331,7 +8386,7 @@
       </c>
       <c r="B140" s="7" t="inlineStr">
         <is>
-          <t>CancelRecurringPaymentRequest.type</t>
+          <t>AddPaymentResponse.type</t>
         </is>
       </c>
       <c r="C140" s="7" t="inlineStr"/>
@@ -8357,7 +8412,7 @@
       </c>
       <c r="B141" s="7" t="inlineStr">
         <is>
-          <t>CancelPaymentsResponse.type</t>
+          <t>PaymentInfo.type</t>
         </is>
       </c>
       <c r="C141" s="7" t="inlineStr"/>
@@ -8375,7 +8430,7 @@
         </is>
       </c>
     </row>
-    <row r="142" ht="45" customHeight="1">
+    <row r="142" ht="30" customHeight="1">
       <c r="A142" s="11" t="inlineStr">
         <is>
           <t>Definitions</t>
@@ -8383,25 +8438,24 @@
       </c>
       <c r="B142" s="7" t="inlineStr">
         <is>
-          <t>CancelRecurringPaymentResponse.type</t>
-        </is>
-      </c>
-      <c r="C142" s="7" t="inlineStr"/>
-      <c r="D142" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">object
-...
-</t>
-        </is>
-      </c>
+          <t>GetPaymentResponse.description</t>
+        </is>
+      </c>
+      <c r="C142" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Klasa odpowiedzi na pytanie o p\u0142atno\u015B\u0107 / Payment Get Response Class"
+</t>
+        </is>
+      </c>
+      <c r="D142" s="7" t="inlineStr"/>
       <c r="E142" s="7" t="inlineStr">
         <is>
-          <t>Added:
-• object</t>
-        </is>
-      </c>
-    </row>
-    <row r="143" ht="45" customHeight="1">
+          <t>Removed:
+• Klasa odpowiedzi na pytanie o płatność / Payment Get Response Class</t>
+        </is>
+      </c>
+    </row>
+    <row r="143" ht="285" customHeight="1">
       <c r="A143" s="11" t="inlineStr">
         <is>
           <t>Definitions</t>
@@ -8409,139 +8463,10 @@
       </c>
       <c r="B143" s="7" t="inlineStr">
         <is>
-          <t>PaymentsRequest.type</t>
-        </is>
-      </c>
-      <c r="C143" s="7" t="inlineStr"/>
-      <c r="D143" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">object
-...
-</t>
-        </is>
-      </c>
-      <c r="E143" s="7" t="inlineStr">
-        <is>
-          <t>Added:
-• object</t>
-        </is>
-      </c>
-    </row>
-    <row r="144" ht="45" customHeight="1">
-      <c r="A144" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B144" s="7" t="inlineStr">
-        <is>
-          <t>PaymentTokenEntry.type</t>
-        </is>
-      </c>
-      <c r="C144" s="7" t="inlineStr"/>
-      <c r="D144" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">object
-...
-</t>
-        </is>
-      </c>
-      <c r="E144" s="7" t="inlineStr">
-        <is>
-          <t>Added:
-• object</t>
-        </is>
-      </c>
-    </row>
-    <row r="145" ht="45" customHeight="1">
-      <c r="A145" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B145" s="7" t="inlineStr">
-        <is>
-          <t>AddPaymentResponse.type</t>
-        </is>
-      </c>
-      <c r="C145" s="7" t="inlineStr"/>
-      <c r="D145" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">object
-...
-</t>
-        </is>
-      </c>
-      <c r="E145" s="7" t="inlineStr">
-        <is>
-          <t>Added:
-• object</t>
-        </is>
-      </c>
-    </row>
-    <row r="146" ht="45" customHeight="1">
-      <c r="A146" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B146" s="7" t="inlineStr">
-        <is>
-          <t>PaymentInfo.type</t>
-        </is>
-      </c>
-      <c r="C146" s="7" t="inlineStr"/>
-      <c r="D146" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">object
-...
-</t>
-        </is>
-      </c>
-      <c r="E146" s="7" t="inlineStr">
-        <is>
-          <t>Added:
-• object</t>
-        </is>
-      </c>
-    </row>
-    <row r="147" ht="30" customHeight="1">
-      <c r="A147" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B147" s="7" t="inlineStr">
-        <is>
-          <t>GetPaymentResponse.description</t>
-        </is>
-      </c>
-      <c r="C147" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Klasa odpowiedzi na pytanie o p\u0142atno\u015B\u0107 / Payment Get Response Class"
-</t>
-        </is>
-      </c>
-      <c r="D147" s="7" t="inlineStr"/>
-      <c r="E147" s="7" t="inlineStr">
-        <is>
-          <t>Removed:
-• Klasa odpowiedzi na pytanie o płatność / Payment Get Response Class</t>
-        </is>
-      </c>
-    </row>
-    <row r="148" ht="285" customHeight="1">
-      <c r="A148" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B148" s="7" t="inlineStr">
-        <is>
           <t>GetPaymentResponse.allOf</t>
         </is>
       </c>
-      <c r="C148" s="7" t="inlineStr">
+      <c r="C143" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/PaymentInfo'
 - type: object
@@ -8556,7 +8481,7 @@
 </t>
         </is>
       </c>
-      <c r="D148" s="7" t="inlineStr">
+      <c r="D143" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/PaymentInfo'
 - properties:
@@ -8568,7 +8493,7 @@
 </t>
         </is>
       </c>
-      <c r="E148" s="7" t="inlineStr">
+      <c r="E143" s="7" t="inlineStr">
         <is>
           <t>Added:
 • properties:
@@ -8590,96 +8515,96 @@
         </is>
       </c>
     </row>
-    <row r="149" ht="45" customHeight="1">
-      <c r="A149" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B149" s="7" t="inlineStr">
+    <row r="144" ht="45" customHeight="1">
+      <c r="A144" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B144" s="7" t="inlineStr">
         <is>
           <t>BundleResponse.type</t>
         </is>
       </c>
-      <c r="C149" s="7" t="inlineStr"/>
-      <c r="D149" s="7" t="inlineStr">
+      <c r="C144" s="7" t="inlineStr"/>
+      <c r="D144" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E149" s="7" t="inlineStr">
+      <c r="E144" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="150" ht="45" customHeight="1">
-      <c r="A150" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B150" s="7" t="inlineStr">
+    <row r="145" ht="45" customHeight="1">
+      <c r="A145" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B145" s="7" t="inlineStr">
         <is>
           <t>RecurringPaymentStatusResponse.type</t>
         </is>
       </c>
-      <c r="C150" s="7" t="inlineStr"/>
-      <c r="D150" s="7" t="inlineStr">
+      <c r="C145" s="7" t="inlineStr"/>
+      <c r="D145" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E150" s="7" t="inlineStr">
+      <c r="E145" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="151" ht="45" customHeight="1">
-      <c r="A151" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B151" s="7" t="inlineStr">
+    <row r="146" ht="45" customHeight="1">
+      <c r="A146" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B146" s="7" t="inlineStr">
         <is>
           <t>PaymentsResponse.type</t>
         </is>
       </c>
-      <c r="C151" s="7" t="inlineStr"/>
-      <c r="D151" s="7" t="inlineStr">
+      <c r="C146" s="7" t="inlineStr"/>
+      <c r="D146" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E151" s="7" t="inlineStr">
+      <c r="E146" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="152" ht="405" customHeight="1">
-      <c r="A152" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B152" s="7" t="inlineStr">
+    <row r="147" ht="405" customHeight="1">
+      <c r="A147" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B147" s="7" t="inlineStr">
         <is>
           <t>ConfirmationOfFundsRequest</t>
         </is>
       </c>
-      <c r="C152" s="7" t="inlineStr">
+      <c r="C147" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa zapytania o dost\u0119pne \u015Brodki p\u0142atnicze na rachunku\
   \ / Confirmation of Funds Request Class"
@@ -8710,8 +8635,8 @@
 </t>
         </is>
       </c>
-      <c r="D152" s="7" t="inlineStr"/>
-      <c r="E152" s="7" t="inlineStr">
+      <c r="D147" s="7" t="inlineStr"/>
+      <c r="E147" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zapytania o dostępne środki płatnicze na rachunku / Confirmation of Funds Request Class
@@ -8741,18 +8666,18 @@
         </is>
       </c>
     </row>
-    <row r="153" ht="240" customHeight="1">
-      <c r="A153" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B153" s="7" t="inlineStr">
+    <row r="148" ht="240" customHeight="1">
+      <c r="A148" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B148" s="7" t="inlineStr">
         <is>
           <t>ConfirmationOfFundsResponse</t>
         </is>
       </c>
-      <c r="C153" s="7" t="inlineStr">
+      <c r="C148" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa odpowiedzi na zapytanie o dost\u0119pne \u015Brodki p\u0142atnicze\
   \ na rachunku / Confirmation of Funds Response Class"
@@ -8772,8 +8697,8 @@
 </t>
         </is>
       </c>
-      <c r="D153" s="7" t="inlineStr"/>
-      <c r="E153" s="7" t="inlineStr">
+      <c r="D148" s="7" t="inlineStr"/>
+      <c r="E148" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa odpowiedzi na zapytanie o dostępne środki płatnicze na rachunku / Confirmation of Funds Response Class
@@ -8792,122 +8717,122 @@
         </is>
       </c>
     </row>
-    <row r="154" ht="45" customHeight="1">
-      <c r="A154" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B154" s="7" t="inlineStr">
+    <row r="149" ht="45" customHeight="1">
+      <c r="A149" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B149" s="7" t="inlineStr">
         <is>
           <t>Error.type</t>
         </is>
       </c>
-      <c r="C154" s="7" t="inlineStr"/>
-      <c r="D154" s="7" t="inlineStr">
+      <c r="C149" s="7" t="inlineStr"/>
+      <c r="D149" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E154" s="7" t="inlineStr">
+      <c r="E149" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="155" ht="45" customHeight="1">
-      <c r="A155" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B155" s="7" t="inlineStr">
+    <row r="150" ht="45" customHeight="1">
+      <c r="A150" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B150" s="7" t="inlineStr">
         <is>
           <t>RequestHeaderWithoutToken.properties.userAgent.maxLength</t>
         </is>
       </c>
-      <c r="C155" s="7" t="inlineStr"/>
-      <c r="D155" s="7" t="inlineStr">
+      <c r="C150" s="7" t="inlineStr"/>
+      <c r="D150" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">255
 ...
 </t>
         </is>
       </c>
-      <c r="E155" s="7" t="inlineStr">
+      <c r="E150" s="7" t="inlineStr">
         <is>
           <t>Added:
 • 255</t>
         </is>
       </c>
     </row>
-    <row r="156" ht="45" customHeight="1">
-      <c r="A156" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B156" s="7" t="inlineStr">
+    <row r="151" ht="45" customHeight="1">
+      <c r="A151" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B151" s="7" t="inlineStr">
         <is>
           <t>RequestHeaderWithoutToken.properties.ipAddress.maxLength</t>
         </is>
       </c>
-      <c r="C156" s="7" t="inlineStr"/>
-      <c r="D156" s="7" t="inlineStr">
+      <c r="C151" s="7" t="inlineStr"/>
+      <c r="D151" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">255
 ...
 </t>
         </is>
       </c>
-      <c r="E156" s="7" t="inlineStr">
+      <c r="E151" s="7" t="inlineStr">
         <is>
           <t>Added:
 • 255</t>
         </is>
       </c>
     </row>
-    <row r="157" ht="45" customHeight="1">
-      <c r="A157" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B157" s="7" t="inlineStr">
+    <row r="152" ht="45" customHeight="1">
+      <c r="A152" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B152" s="7" t="inlineStr">
         <is>
           <t>RequestHeaderWithoutToken.properties.tppId.maxLength</t>
         </is>
       </c>
-      <c r="C157" s="7" t="inlineStr"/>
-      <c r="D157" s="7" t="inlineStr">
+      <c r="C152" s="7" t="inlineStr"/>
+      <c r="D152" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">127
 ...
 </t>
         </is>
       </c>
-      <c r="E157" s="7" t="inlineStr">
+      <c r="E152" s="7" t="inlineStr">
         <is>
           <t>Added:
 • 127</t>
         </is>
       </c>
     </row>
-    <row r="158" ht="615" customHeight="1">
-      <c r="A158" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B158" s="7" t="inlineStr">
+    <row r="153" ht="615" customHeight="1">
+      <c r="A153" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B153" s="7" t="inlineStr">
         <is>
           <t>RequestHeaderWithoutTokenAS</t>
         </is>
       </c>
-      <c r="C158" s="7" t="inlineStr">
+      <c r="C153" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa zawieraj\u0105ca informacje o PSU na potrzeby us\u0142ug autoryzacji\
   \ / PSU Information Class dedicated for authorization services"
@@ -8952,8 +8877,8 @@
 </t>
         </is>
       </c>
-      <c r="D158" s="7" t="inlineStr"/>
-      <c r="E158" s="7" t="inlineStr">
+      <c r="D153" s="7" t="inlineStr"/>
+      <c r="E153" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU na potrzeby usług autoryzacji / PSU Information Class dedicated for authorization services
@@ -8979,18 +8904,18 @@
         </is>
       </c>
     </row>
-    <row r="159" ht="225" customHeight="1">
-      <c r="A159" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B159" s="7" t="inlineStr">
+    <row r="154" ht="225" customHeight="1">
+      <c r="A154" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B154" s="7" t="inlineStr">
         <is>
           <t>RequestHeaderWithoutTokenCallbackAS</t>
         </is>
       </c>
-      <c r="C159" s="7" t="inlineStr">
+      <c r="C154" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa zawieraj\u0105ca informacje o PSU and callback URL / PSU and callback\
   \ URL Information Class"
@@ -9009,8 +8934,8 @@
 </t>
         </is>
       </c>
-      <c r="D159" s="7" t="inlineStr"/>
-      <c r="E159" s="7" t="inlineStr">
+      <c r="D154" s="7" t="inlineStr"/>
+      <c r="E154" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class
@@ -9029,44 +8954,44 @@
         </is>
       </c>
     </row>
-    <row r="160" ht="45" customHeight="1">
-      <c r="A160" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B160" s="7" t="inlineStr">
+    <row r="155" ht="45" customHeight="1">
+      <c r="A155" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B155" s="7" t="inlineStr">
         <is>
           <t>RequestHeaderCallback.description</t>
         </is>
       </c>
-      <c r="C160" s="7" t="inlineStr">
+      <c r="C155" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">"Klasa zawieraj\u0105ca informacje o PSU and callback URL / PSU and callback URL Information\
   \ Class"
 </t>
         </is>
       </c>
-      <c r="D160" s="7" t="inlineStr"/>
-      <c r="E160" s="7" t="inlineStr">
+      <c r="D155" s="7" t="inlineStr"/>
+      <c r="E155" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class</t>
         </is>
       </c>
     </row>
-    <row r="161" ht="495" customHeight="1">
-      <c r="A161" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B161" s="7" t="inlineStr">
+    <row r="156" ht="495" customHeight="1">
+      <c r="A156" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B156" s="7" t="inlineStr">
         <is>
           <t>RequestHeaderCallback.allOf</t>
         </is>
       </c>
-      <c r="C161" s="7" t="inlineStr">
+      <c r="C156" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/RequestHeaderWithoutToken'
 - type: object
@@ -9085,7 +9010,7 @@
 </t>
         </is>
       </c>
-      <c r="D161" s="7" t="inlineStr">
+      <c r="D156" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/RequestHeaderWithoutToken'
 - properties:
@@ -9107,7 +9032,7 @@
 </t>
         </is>
       </c>
-      <c r="E161" s="7" t="inlineStr">
+      <c r="E156" s="7" t="inlineStr">
         <is>
           <t>Added:
 • properties:
@@ -9143,43 +9068,43 @@
         </is>
       </c>
     </row>
-    <row r="162" ht="30" customHeight="1">
-      <c r="A162" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B162" s="7" t="inlineStr">
+    <row r="157" ht="30" customHeight="1">
+      <c r="A157" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B157" s="7" t="inlineStr">
         <is>
           <t>RequestHeader.description</t>
         </is>
       </c>
-      <c r="C162" s="7" t="inlineStr">
+      <c r="C157" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">"Klasa zawieraj\u0105ca informacje o PSU / PSU Information Class"
 </t>
         </is>
       </c>
-      <c r="D162" s="7" t="inlineStr"/>
-      <c r="E162" s="7" t="inlineStr">
+      <c r="D157" s="7" t="inlineStr"/>
+      <c r="E157" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • Klasa zawierająca informacje o PSU / PSU Information Class</t>
         </is>
       </c>
     </row>
-    <row r="163" ht="285" customHeight="1">
-      <c r="A163" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B163" s="7" t="inlineStr">
+    <row r="158" ht="285" customHeight="1">
+      <c r="A158" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B158" s="7" t="inlineStr">
         <is>
           <t>RequestHeader.allOf</t>
         </is>
       </c>
-      <c r="C163" s="7" t="inlineStr">
+      <c r="C158" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/RequestHeaderWithoutToken'
 - type: object
@@ -9192,7 +9117,7 @@
 </t>
         </is>
       </c>
-      <c r="D163" s="7" t="inlineStr">
+      <c r="D158" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/RequestHeaderWithoutToken'
 - properties:
@@ -9206,7 +9131,7 @@
 </t>
         </is>
       </c>
-      <c r="E163" s="7" t="inlineStr">
+      <c r="E158" s="7" t="inlineStr">
         <is>
           <t>Added:
 • properties:
@@ -9228,18 +9153,18 @@
         </is>
       </c>
     </row>
-    <row r="164" ht="240" customHeight="1">
-      <c r="A164" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B164" s="7" t="inlineStr">
+    <row r="159" ht="240" customHeight="1">
+      <c r="A159" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B159" s="7" t="inlineStr">
         <is>
           <t>RequestHeaderAIS</t>
         </is>
       </c>
-      <c r="C164" s="7" t="inlineStr">
+      <c r="C159" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa zawieraj\u0105ca informacje o PSU / PSU Information Class"
 allOf:
@@ -9259,8 +9184,8 @@
 </t>
         </is>
       </c>
-      <c r="D164" s="7" t="inlineStr"/>
-      <c r="E164" s="7" t="inlineStr">
+      <c r="D159" s="7" t="inlineStr"/>
+      <c r="E159" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU / PSU Information Class
@@ -9279,18 +9204,18 @@
         </is>
       </c>
     </row>
-    <row r="165" ht="345" customHeight="1">
-      <c r="A165" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B165" s="7" t="inlineStr">
+    <row r="160" ht="345" customHeight="1">
+      <c r="A160" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B160" s="7" t="inlineStr">
         <is>
           <t>RequestHeaderAISCallback</t>
         </is>
       </c>
-      <c r="C165" s="7" t="inlineStr">
+      <c r="C160" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa zawieraj\u0105ca informacje o PSU and callback URL / PSU and callback\
   \ URL Information Class"
@@ -9317,8 +9242,8 @@
 </t>
         </is>
       </c>
-      <c r="D165" s="7" t="inlineStr"/>
-      <c r="E165" s="7" t="inlineStr">
+      <c r="D160" s="7" t="inlineStr"/>
+      <c r="E160" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class
@@ -9343,148 +9268,148 @@
         </is>
       </c>
     </row>
-    <row r="166" ht="45" customHeight="1">
-      <c r="A166" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B166" s="7" t="inlineStr">
+    <row r="161" ht="45" customHeight="1">
+      <c r="A161" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B161" s="7" t="inlineStr">
         <is>
           <t>ResponseHeader.properties.requestId.format</t>
         </is>
       </c>
-      <c r="C166" s="7" t="inlineStr">
+      <c r="C161" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">uuid
 ...
 </t>
         </is>
       </c>
-      <c r="D166" s="7" t="inlineStr"/>
-      <c r="E166" s="7" t="inlineStr">
+      <c r="D161" s="7" t="inlineStr"/>
+      <c r="E161" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • uuid</t>
         </is>
       </c>
     </row>
-    <row r="167" ht="45" customHeight="1">
-      <c r="A167" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B167" s="7" t="inlineStr">
+    <row r="162" ht="45" customHeight="1">
+      <c r="A162" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B162" s="7" t="inlineStr">
         <is>
           <t>ResponseHeader.type</t>
         </is>
       </c>
-      <c r="C167" s="7" t="inlineStr"/>
-      <c r="D167" s="7" t="inlineStr">
+      <c r="C162" s="7" t="inlineStr"/>
+      <c r="D162" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E167" s="7" t="inlineStr">
+      <c r="E162" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="168" ht="45" customHeight="1">
-      <c r="A168" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B168" s="7" t="inlineStr">
+    <row r="163" ht="45" customHeight="1">
+      <c r="A163" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B163" s="7" t="inlineStr">
         <is>
           <t>SenderPISForeign.type</t>
         </is>
       </c>
-      <c r="C168" s="7" t="inlineStr"/>
-      <c r="D168" s="7" t="inlineStr">
+      <c r="C163" s="7" t="inlineStr"/>
+      <c r="D163" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E168" s="7" t="inlineStr">
+      <c r="E163" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="169" ht="45" customHeight="1">
-      <c r="A169" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B169" s="7" t="inlineStr">
+    <row r="164" ht="45" customHeight="1">
+      <c r="A164" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B164" s="7" t="inlineStr">
         <is>
           <t>SenderPISDomestic.type</t>
         </is>
       </c>
-      <c r="C169" s="7" t="inlineStr"/>
-      <c r="D169" s="7" t="inlineStr">
+      <c r="C164" s="7" t="inlineStr"/>
+      <c r="D164" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E169" s="7" t="inlineStr">
+      <c r="E164" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="170" ht="45" customHeight="1">
-      <c r="A170" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B170" s="7" t="inlineStr">
+    <row r="165" ht="45" customHeight="1">
+      <c r="A165" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B165" s="7" t="inlineStr">
         <is>
           <t>Bank.type</t>
         </is>
       </c>
-      <c r="C170" s="7" t="inlineStr"/>
-      <c r="D170" s="7" t="inlineStr">
+      <c r="C165" s="7" t="inlineStr"/>
+      <c r="D165" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E170" s="7" t="inlineStr">
+      <c r="E165" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="171" ht="195" customHeight="1">
-      <c r="A171" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B171" s="7" t="inlineStr">
+    <row r="166" ht="195" customHeight="1">
+      <c r="A166" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B166" s="7" t="inlineStr">
         <is>
           <t>BankAccountInfo</t>
         </is>
       </c>
-      <c r="C171" s="7" t="inlineStr">
+      <c r="C166" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa zawieraj\u0105ca dane banku / Bank Data Class"
 properties:
@@ -9501,8 +9426,8 @@
 </t>
         </is>
       </c>
-      <c r="D171" s="7" t="inlineStr"/>
-      <c r="E171" s="7" t="inlineStr">
+      <c r="D166" s="7" t="inlineStr"/>
+      <c r="E166" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca dane banku / Bank Data Class
@@ -9520,49 +9445,49 @@
         </is>
       </c>
     </row>
-    <row r="172" ht="45" customHeight="1">
-      <c r="A172" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B172" s="7" t="inlineStr">
+    <row r="167" ht="45" customHeight="1">
+      <c r="A167" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B167" s="7" t="inlineStr">
         <is>
           <t>RecurringTransferParameters.properties.dayOffOffsetType.enum</t>
         </is>
       </c>
-      <c r="C172" s="7" t="inlineStr">
+      <c r="C167" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- before
 - after
 </t>
         </is>
       </c>
-      <c r="D172" s="7" t="inlineStr">
+      <c r="D167" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- after
 </t>
         </is>
       </c>
-      <c r="E172" s="7" t="inlineStr">
+      <c r="E167" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • before</t>
         </is>
       </c>
     </row>
-    <row r="173" ht="300" customHeight="1">
-      <c r="A173" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B173" s="7" t="inlineStr">
+    <row r="168" ht="300" customHeight="1">
+      <c r="A168" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B168" s="7" t="inlineStr">
         <is>
           <t>TransferDataBase</t>
         </is>
       </c>
-      <c r="C173" s="7" t="inlineStr">
+      <c r="C168" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Bazowa klasa dla TransferData / TransferData Base Class
 type: object
@@ -9586,8 +9511,8 @@
 </t>
         </is>
       </c>
-      <c r="D173" s="7" t="inlineStr"/>
-      <c r="E173" s="7" t="inlineStr">
+      <c r="D168" s="7" t="inlineStr"/>
+      <c r="E168" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Bazowa klasa dla TransferData / TransferData Base Class
@@ -9609,101 +9534,101 @@
         </is>
       </c>
     </row>
-    <row r="174" ht="45" customHeight="1">
-      <c r="A174" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B174" s="7" t="inlineStr">
+    <row r="169" ht="45" customHeight="1">
+      <c r="A169" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B169" s="7" t="inlineStr">
         <is>
           <t>TransferDataBaseTax.properties.amount.maxLength</t>
         </is>
       </c>
-      <c r="C174" s="7" t="inlineStr"/>
-      <c r="D174" s="7" t="inlineStr">
+      <c r="C169" s="7" t="inlineStr"/>
+      <c r="D169" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">35
 ...
 </t>
         </is>
       </c>
-      <c r="E174" s="7" t="inlineStr">
+      <c r="E169" s="7" t="inlineStr">
         <is>
           <t>Added:
 • 35</t>
         </is>
       </c>
     </row>
-    <row r="175" ht="45" customHeight="1">
-      <c r="A175" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B175" s="7" t="inlineStr">
+    <row r="170" ht="45" customHeight="1">
+      <c r="A170" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B170" s="7" t="inlineStr">
         <is>
           <t>TransferDataBaseTax.properties.executionDate.maxLength</t>
         </is>
       </c>
-      <c r="C175" s="7" t="inlineStr">
+      <c r="C170" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">10
 ...
 </t>
         </is>
       </c>
-      <c r="D175" s="7" t="inlineStr"/>
-      <c r="E175" s="7" t="inlineStr">
+      <c r="D170" s="7" t="inlineStr"/>
+      <c r="E170" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • 10</t>
         </is>
       </c>
     </row>
-    <row r="176" ht="45" customHeight="1">
-      <c r="A176" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B176" s="7" t="inlineStr">
+    <row r="171" ht="45" customHeight="1">
+      <c r="A171" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B171" s="7" t="inlineStr">
         <is>
           <t>TransferData.description</t>
         </is>
       </c>
-      <c r="C176" s="7" t="inlineStr">
+      <c r="C171" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">"Klasa zawieraj\u0105ca dane przelewu / Transfer Data Class"
 </t>
         </is>
       </c>
-      <c r="D176" s="7" t="inlineStr">
+      <c r="D171" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bazowa klasa dla TransferData / TransferData Base Class
 ...
 </t>
         </is>
       </c>
-      <c r="E176" s="7" t="inlineStr">
+      <c r="E171" s="7" t="inlineStr">
         <is>
           <t>Added:
 • Klasa zawierająca dane przelewu / Transfer Data Class</t>
         </is>
       </c>
     </row>
-    <row r="177" ht="165" customHeight="1">
-      <c r="A177" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B177" s="7" t="inlineStr">
+    <row r="172" ht="165" customHeight="1">
+      <c r="A172" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B172" s="7" t="inlineStr">
         <is>
           <t>TransferData.allOf</t>
         </is>
       </c>
-      <c r="C177" s="7" t="inlineStr">
+      <c r="C172" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/TransferDataBase'
 - type: object
@@ -9718,8 +9643,8 @@
 </t>
         </is>
       </c>
-      <c r="D177" s="7" t="inlineStr"/>
-      <c r="E177" s="7" t="inlineStr">
+      <c r="D172" s="7" t="inlineStr"/>
+      <c r="E172" s="7" t="inlineStr">
         <is>
           <t>Removed:
 •   $ref: #/definitions/TransferDataBase
@@ -9735,19 +9660,19 @@
         </is>
       </c>
     </row>
-    <row r="178" ht="315" customHeight="1">
-      <c r="A178" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B178" s="7" t="inlineStr">
+    <row r="173" ht="315" customHeight="1">
+      <c r="A173" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B173" s="7" t="inlineStr">
         <is>
           <t>TransferData.properties</t>
         </is>
       </c>
-      <c r="C178" s="7" t="inlineStr"/>
-      <c r="D178" s="7" t="inlineStr">
+      <c r="C173" s="7" t="inlineStr"/>
+      <c r="D173" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description:
   maxLength: 140
@@ -9772,7 +9697,7 @@
 </t>
         </is>
       </c>
-      <c r="E178" s="7" t="inlineStr">
+      <c r="E173" s="7" t="inlineStr">
         <is>
           <t>Added:
 • description:
@@ -9795,26 +9720,26 @@
         </is>
       </c>
     </row>
-    <row r="179" ht="45" customHeight="1">
-      <c r="A179" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B179" s="7" t="inlineStr">
+    <row r="174" ht="45" customHeight="1">
+      <c r="A174" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B174" s="7" t="inlineStr">
         <is>
           <t>TransferData.required</t>
         </is>
       </c>
-      <c r="C179" s="7" t="inlineStr"/>
-      <c r="D179" s="7" t="inlineStr">
+      <c r="C174" s="7" t="inlineStr"/>
+      <c r="D174" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- amount
 - description
 </t>
         </is>
       </c>
-      <c r="E179" s="7" t="inlineStr">
+      <c r="E174" s="7" t="inlineStr">
         <is>
           <t>Added:
 •   amount
@@ -9822,75 +9747,75 @@
         </is>
       </c>
     </row>
-    <row r="180" ht="45" customHeight="1">
-      <c r="A180" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B180" s="7" t="inlineStr">
+    <row r="175" ht="45" customHeight="1">
+      <c r="A175" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B175" s="7" t="inlineStr">
         <is>
           <t>TransferData.type</t>
         </is>
       </c>
-      <c r="C180" s="7" t="inlineStr"/>
-      <c r="D180" s="7" t="inlineStr">
+      <c r="C175" s="7" t="inlineStr"/>
+      <c r="D175" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E180" s="7" t="inlineStr">
+      <c r="E175" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="181" ht="45" customHeight="1">
-      <c r="A181" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B181" s="7" t="inlineStr">
+    <row r="176" ht="45" customHeight="1">
+      <c r="A176" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B176" s="7" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.description</t>
         </is>
       </c>
-      <c r="C181" s="7" t="inlineStr">
+      <c r="C176" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">"Klasa zawieraj\u0105ca dane przelewu / Transfer Data Class"
 </t>
         </is>
       </c>
-      <c r="D181" s="7" t="inlineStr">
+      <c r="D176" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bazowa klasa dla TransferData / TransferData Base Class
 ...
 </t>
         </is>
       </c>
-      <c r="E181" s="7" t="inlineStr">
+      <c r="E176" s="7" t="inlineStr">
         <is>
           <t>Added:
 • Klasa zawierająca dane przelewu / Transfer Data Class</t>
         </is>
       </c>
     </row>
-    <row r="182" ht="180" customHeight="1">
-      <c r="A182" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B182" s="7" t="inlineStr">
+    <row r="177" ht="180" customHeight="1">
+      <c r="A177" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B177" s="7" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.allOf</t>
         </is>
       </c>
-      <c r="C182" s="7" t="inlineStr">
+      <c r="C177" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/TransferDataBase'
 - type: object
@@ -9906,8 +9831,8 @@
 </t>
         </is>
       </c>
-      <c r="D182" s="7" t="inlineStr"/>
-      <c r="E182" s="7" t="inlineStr">
+      <c r="D177" s="7" t="inlineStr"/>
+      <c r="E177" s="7" t="inlineStr">
         <is>
           <t>Removed:
 •   $ref: #/definitions/TransferDataBase
@@ -9924,19 +9849,19 @@
         </is>
       </c>
     </row>
-    <row r="183" ht="315" customHeight="1">
-      <c r="A183" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B183" s="7" t="inlineStr">
+    <row r="178" ht="315" customHeight="1">
+      <c r="A178" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B178" s="7" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.properties</t>
         </is>
       </c>
-      <c r="C183" s="7" t="inlineStr"/>
-      <c r="D183" s="7" t="inlineStr">
+      <c r="C178" s="7" t="inlineStr"/>
+      <c r="D178" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description:
   maxLength: 140
@@ -9961,7 +9886,7 @@
 </t>
         </is>
       </c>
-      <c r="E183" s="7" t="inlineStr">
+      <c r="E178" s="7" t="inlineStr">
         <is>
           <t>Added:
 • description:
@@ -9984,19 +9909,19 @@
         </is>
       </c>
     </row>
-    <row r="184" ht="60" customHeight="1">
-      <c r="A184" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B184" s="7" t="inlineStr">
+    <row r="179" ht="60" customHeight="1">
+      <c r="A179" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B179" s="7" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.required</t>
         </is>
       </c>
-      <c r="C184" s="7" t="inlineStr"/>
-      <c r="D184" s="7" t="inlineStr">
+      <c r="C179" s="7" t="inlineStr"/>
+      <c r="D179" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- currency
 - amount
@@ -10004,7 +9929,7 @@
 </t>
         </is>
       </c>
-      <c r="E184" s="7" t="inlineStr">
+      <c r="E179" s="7" t="inlineStr">
         <is>
           <t>Added:
 •   currency
@@ -10013,69 +9938,69 @@
         </is>
       </c>
     </row>
-    <row r="185" ht="45" customHeight="1">
-      <c r="A185" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B185" s="7" t="inlineStr">
+    <row r="180" ht="45" customHeight="1">
+      <c r="A180" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B180" s="7" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.type</t>
         </is>
       </c>
-      <c r="C185" s="7" t="inlineStr"/>
-      <c r="D185" s="7" t="inlineStr">
+      <c r="C180" s="7" t="inlineStr"/>
+      <c r="D180" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E185" s="7" t="inlineStr">
+      <c r="E180" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="186" ht="30" customHeight="1">
-      <c r="A186" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B186" s="7" t="inlineStr">
+    <row r="181" ht="30" customHeight="1">
+      <c r="A181" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B181" s="7" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.description</t>
         </is>
       </c>
-      <c r="C186" s="7" t="inlineStr">
+      <c r="C181" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">"Klasa zawieraj\u0105ca dane przelewu / Transfer Data Class"
 </t>
         </is>
       </c>
-      <c r="D186" s="7" t="inlineStr"/>
-      <c r="E186" s="7" t="inlineStr">
+      <c r="D181" s="7" t="inlineStr"/>
+      <c r="E181" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • Klasa zawierająca dane przelewu / Transfer Data Class</t>
         </is>
       </c>
     </row>
-    <row r="187" ht="180" customHeight="1">
-      <c r="A187" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B187" s="7" t="inlineStr">
+    <row r="182" ht="180" customHeight="1">
+      <c r="A182" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B182" s="7" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.allOf</t>
         </is>
       </c>
-      <c r="C187" s="7" t="inlineStr">
+      <c r="C182" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/TransferDataBaseTax'
 - type: object
@@ -10091,8 +10016,8 @@
 </t>
         </is>
       </c>
-      <c r="D187" s="7" t="inlineStr"/>
-      <c r="E187" s="7" t="inlineStr">
+      <c r="D182" s="7" t="inlineStr"/>
+      <c r="E182" s="7" t="inlineStr">
         <is>
           <t>Removed:
 •   $ref: #/definitions/TransferDataBaseTax
@@ -10108,19 +10033,19 @@
         </is>
       </c>
     </row>
-    <row r="188" ht="255" customHeight="1">
-      <c r="A188" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B188" s="7" t="inlineStr">
+    <row r="183" ht="255" customHeight="1">
+      <c r="A183" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B183" s="7" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.properties</t>
         </is>
       </c>
-      <c r="C188" s="7" t="inlineStr"/>
-      <c r="D188" s="7" t="inlineStr">
+      <c r="C183" s="7" t="inlineStr"/>
+      <c r="D183" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">amount:
   pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
@@ -10141,7 +10066,7 @@
 </t>
         </is>
       </c>
-      <c r="E188" s="7" t="inlineStr">
+      <c r="E183" s="7" t="inlineStr">
         <is>
           <t>Added:
 • amount:
@@ -10160,26 +10085,26 @@
         </is>
       </c>
     </row>
-    <row r="189" ht="45" customHeight="1">
-      <c r="A189" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B189" s="7" t="inlineStr">
+    <row r="184" ht="45" customHeight="1">
+      <c r="A184" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B184" s="7" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.required</t>
         </is>
       </c>
-      <c r="C189" s="7" t="inlineStr"/>
-      <c r="D189" s="7" t="inlineStr">
+      <c r="C184" s="7" t="inlineStr"/>
+      <c r="D184" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">- currency
 - amount
 </t>
         </is>
       </c>
-      <c r="E189" s="7" t="inlineStr">
+      <c r="E184" s="7" t="inlineStr">
         <is>
           <t>Added:
 •   currency
@@ -10187,44 +10112,44 @@
         </is>
       </c>
     </row>
-    <row r="190" ht="45" customHeight="1">
-      <c r="A190" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B190" s="7" t="inlineStr">
+    <row r="185" ht="45" customHeight="1">
+      <c r="A185" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B185" s="7" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.type</t>
         </is>
       </c>
-      <c r="C190" s="7" t="inlineStr"/>
-      <c r="D190" s="7" t="inlineStr">
+      <c r="C185" s="7" t="inlineStr"/>
+      <c r="D185" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E190" s="7" t="inlineStr">
+      <c r="E185" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="191" ht="210" customHeight="1">
-      <c r="A191" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B191" s="7" t="inlineStr">
+    <row r="186" ht="210" customHeight="1">
+      <c r="A186" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B186" s="7" t="inlineStr">
         <is>
           <t>SenderRecipient</t>
         </is>
       </c>
-      <c r="C191" s="7" t="inlineStr">
+      <c r="C186" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa zawieraj\u0105ca dane nadawcy/odbiorcy u\u017Cywana w \u017C\u0105\
   daniach AIS / AIS Sender Recipient Data Class"
@@ -10242,8 +10167,8 @@
 </t>
         </is>
       </c>
-      <c r="D191" s="7" t="inlineStr"/>
-      <c r="E191" s="7" t="inlineStr">
+      <c r="D186" s="7" t="inlineStr"/>
+      <c r="E186" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca dane nadawcy/odbiorcy używana w żądaniach AIS / AIS Sender Recipient Data Class
@@ -10261,6 +10186,139 @@
         </is>
       </c>
     </row>
+    <row r="187" ht="45" customHeight="1">
+      <c r="A187" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B187" s="7" t="inlineStr">
+        <is>
+          <t>RecipientPIS.required</t>
+        </is>
+      </c>
+      <c r="C187" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- nameAddress
+- accountNumber
+</t>
+        </is>
+      </c>
+      <c r="D187" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- accountNumber
+- nameAddress
+</t>
+        </is>
+      </c>
+      <c r="E187" s="7" t="inlineStr"/>
+    </row>
+    <row r="188" ht="45" customHeight="1">
+      <c r="A188" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B188" s="7" t="inlineStr">
+        <is>
+          <t>RecipientPIS.type</t>
+        </is>
+      </c>
+      <c r="C188" s="7" t="inlineStr"/>
+      <c r="D188" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">object
+...
+</t>
+        </is>
+      </c>
+      <c r="E188" s="7" t="inlineStr">
+        <is>
+          <t>Added:
+• object</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="45" customHeight="1">
+      <c r="A189" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B189" s="7" t="inlineStr">
+        <is>
+          <t>RecipientPISTax.required</t>
+        </is>
+      </c>
+      <c r="C189" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- nameAddress
+- accountNumber
+</t>
+        </is>
+      </c>
+      <c r="D189" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- accountNumber
+- nameAddress
+</t>
+        </is>
+      </c>
+      <c r="E189" s="7" t="inlineStr"/>
+    </row>
+    <row r="190" ht="45" customHeight="1">
+      <c r="A190" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B190" s="7" t="inlineStr">
+        <is>
+          <t>RecipientPISTax.type</t>
+        </is>
+      </c>
+      <c r="C190" s="7" t="inlineStr"/>
+      <c r="D190" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">object
+...
+</t>
+        </is>
+      </c>
+      <c r="E190" s="7" t="inlineStr">
+        <is>
+          <t>Added:
+• object</t>
+        </is>
+      </c>
+    </row>
+    <row r="191" ht="45" customHeight="1">
+      <c r="A191" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B191" s="7" t="inlineStr">
+        <is>
+          <t>RecipientPISForeign.required</t>
+        </is>
+      </c>
+      <c r="C191" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- nameAddress
+- accountNumber
+</t>
+        </is>
+      </c>
+      <c r="D191" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- accountNumber
+- nameAddress
+</t>
+        </is>
+      </c>
+      <c r="E191" s="7" t="inlineStr"/>
+    </row>
     <row r="192" ht="45" customHeight="1">
       <c r="A192" s="11" t="inlineStr">
         <is>
@@ -10269,26 +10327,25 @@
       </c>
       <c r="B192" s="7" t="inlineStr">
         <is>
-          <t>RecipientPIS.required</t>
-        </is>
-      </c>
-      <c r="C192" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- nameAddress
-- accountNumber
-</t>
-        </is>
-      </c>
+          <t>RecipientPISForeign.type</t>
+        </is>
+      </c>
+      <c r="C192" s="7" t="inlineStr"/>
       <c r="D192" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">- accountNumber
-- nameAddress
-</t>
-        </is>
-      </c>
-      <c r="E192" s="7" t="inlineStr"/>
-    </row>
-    <row r="193" ht="45" customHeight="1">
+          <t xml:space="preserve">object
+...
+</t>
+        </is>
+      </c>
+      <c r="E192" s="7" t="inlineStr">
+        <is>
+          <t>Added:
+• object</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" ht="30" customHeight="1">
       <c r="A193" s="11" t="inlineStr">
         <is>
           <t>Definitions</t>
@@ -10296,52 +10353,50 @@
       </c>
       <c r="B193" s="7" t="inlineStr">
         <is>
-          <t>RecipientPIS.type</t>
+          <t>NameAddress.required</t>
         </is>
       </c>
       <c r="C193" s="7" t="inlineStr"/>
       <c r="D193" s="7" t="inlineStr">
         <is>
+          <t xml:space="preserve">- value
+</t>
+        </is>
+      </c>
+      <c r="E193" s="7" t="inlineStr">
+        <is>
+          <t>Added:
+•   value</t>
+        </is>
+      </c>
+    </row>
+    <row r="194" ht="45" customHeight="1">
+      <c r="A194" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B194" s="7" t="inlineStr">
+        <is>
+          <t>NameAddress.type</t>
+        </is>
+      </c>
+      <c r="C194" s="7" t="inlineStr"/>
+      <c r="D194" s="7" t="inlineStr">
+        <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E193" s="7" t="inlineStr">
+      <c r="E194" s="7" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="194" ht="45" customHeight="1">
-      <c r="A194" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B194" s="7" t="inlineStr">
-        <is>
-          <t>RecipientPISTax.required</t>
-        </is>
-      </c>
-      <c r="C194" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- nameAddress
-- accountNumber
-</t>
-        </is>
-      </c>
-      <c r="D194" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- accountNumber
-- nameAddress
-</t>
-        </is>
-      </c>
-      <c r="E194" s="7" t="inlineStr"/>
-    </row>
-    <row r="195" ht="45" customHeight="1">
+    <row r="195" ht="210" customHeight="1">
       <c r="A195" s="11" t="inlineStr">
         <is>
           <t>Definitions</t>
@@ -10349,140 +10404,10 @@
       </c>
       <c r="B195" s="7" t="inlineStr">
         <is>
-          <t>RecipientPISTax.type</t>
-        </is>
-      </c>
-      <c r="C195" s="7" t="inlineStr"/>
-      <c r="D195" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">object
-...
-</t>
-        </is>
-      </c>
-      <c r="E195" s="7" t="inlineStr">
-        <is>
-          <t>Added:
-• object</t>
-        </is>
-      </c>
-    </row>
-    <row r="196" ht="45" customHeight="1">
-      <c r="A196" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B196" s="7" t="inlineStr">
-        <is>
-          <t>RecipientPISForeign.required</t>
-        </is>
-      </c>
-      <c r="C196" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- nameAddress
-- accountNumber
-</t>
-        </is>
-      </c>
-      <c r="D196" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- accountNumber
-- nameAddress
-</t>
-        </is>
-      </c>
-      <c r="E196" s="7" t="inlineStr"/>
-    </row>
-    <row r="197" ht="45" customHeight="1">
-      <c r="A197" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B197" s="7" t="inlineStr">
-        <is>
-          <t>RecipientPISForeign.type</t>
-        </is>
-      </c>
-      <c r="C197" s="7" t="inlineStr"/>
-      <c r="D197" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">object
-...
-</t>
-        </is>
-      </c>
-      <c r="E197" s="7" t="inlineStr">
-        <is>
-          <t>Added:
-• object</t>
-        </is>
-      </c>
-    </row>
-    <row r="198" ht="30" customHeight="1">
-      <c r="A198" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B198" s="7" t="inlineStr">
-        <is>
-          <t>NameAddress.required</t>
-        </is>
-      </c>
-      <c r="C198" s="7" t="inlineStr"/>
-      <c r="D198" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- value
-</t>
-        </is>
-      </c>
-      <c r="E198" s="7" t="inlineStr">
-        <is>
-          <t>Added:
-•   value</t>
-        </is>
-      </c>
-    </row>
-    <row r="199" ht="45" customHeight="1">
-      <c r="A199" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B199" s="7" t="inlineStr">
-        <is>
-          <t>NameAddress.type</t>
-        </is>
-      </c>
-      <c r="C199" s="7" t="inlineStr"/>
-      <c r="D199" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">object
-...
-</t>
-        </is>
-      </c>
-      <c r="E199" s="7" t="inlineStr">
-        <is>
-          <t>Added:
-• object</t>
-        </is>
-      </c>
-    </row>
-    <row r="200" ht="210" customHeight="1">
-      <c r="A200" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B200" s="7" t="inlineStr">
-        <is>
           <t>PageInfo</t>
         </is>
       </c>
-      <c r="C200" s="7" t="inlineStr">
+      <c r="C195" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa zawieraj\u0105ca dane pozwalajace na korzystanie z mechanizmu\
   \ stronicowania / Paging Information Class"
@@ -10500,8 +10425,8 @@
 </t>
         </is>
       </c>
-      <c r="D200" s="7" t="inlineStr"/>
-      <c r="E200" s="7" t="inlineStr">
+      <c r="D195" s="7" t="inlineStr"/>
+      <c r="E195" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca dane pozwalajace na korzystanie z mechanizmu stronicowania / Paging Information Class
@@ -10515,18 +10440,18 @@
         </is>
       </c>
     </row>
-    <row r="201" ht="240" customHeight="1">
-      <c r="A201" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B201" s="7" t="inlineStr">
+    <row r="196" ht="240" customHeight="1">
+      <c r="A196" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B196" s="7" t="inlineStr">
         <is>
           <t>CurrencyRate</t>
         </is>
       </c>
-      <c r="C201" s="7" t="inlineStr">
+      <c r="C196" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa zawieraj\u0105ca kursy przewalutowa\u0144 / Currency rate"
 properties:
@@ -10546,8 +10471,8 @@
 </t>
         </is>
       </c>
-      <c r="D201" s="7" t="inlineStr"/>
-      <c r="E201" s="7" t="inlineStr">
+      <c r="D196" s="7" t="inlineStr"/>
+      <c r="E196" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca kursy przewalutowań / Currency rate
@@ -10568,18 +10493,18 @@
         </is>
       </c>
     </row>
-    <row r="202" ht="75" customHeight="1">
-      <c r="A202" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B202" s="7" t="inlineStr">
+    <row r="197" ht="75" customHeight="1">
+      <c r="A197" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B197" s="7" t="inlineStr">
         <is>
           <t>Map</t>
         </is>
       </c>
-      <c r="C202" s="7" t="inlineStr">
+      <c r="C197" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa mapy &lt;string, string&gt; / Map (Dictionary) class
 type: object
@@ -10588,8 +10513,8 @@
 </t>
         </is>
       </c>
-      <c r="D202" s="7" t="inlineStr"/>
-      <c r="E202" s="7" t="inlineStr">
+      <c r="D197" s="7" t="inlineStr"/>
+      <c r="E197" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa mapy &lt;string, string&gt; / Map (Dictionary) class
@@ -10599,18 +10524,18 @@
         </is>
       </c>
     </row>
-    <row r="203" ht="150" customHeight="1">
-      <c r="A203" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B203" s="7" t="inlineStr">
+    <row r="198" ht="150" customHeight="1">
+      <c r="A198" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B198" s="7" t="inlineStr">
         <is>
           <t>DictionaryItem</t>
         </is>
       </c>
-      <c r="C203" s="7" t="inlineStr">
+      <c r="C198" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa zawieraj\u0105ca dane elementu/pozycji s\u0142ownika / Dictionary\
   \ Item Class"
@@ -10624,8 +10549,8 @@
 </t>
         </is>
       </c>
-      <c r="D203" s="7" t="inlineStr"/>
-      <c r="E203" s="7" t="inlineStr">
+      <c r="D198" s="7" t="inlineStr"/>
+      <c r="E198" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca dane elementu/pozycji słownika / Dictionary Item Class
@@ -10639,18 +10564,18 @@
         </is>
       </c>
     </row>
-    <row r="204" ht="540" customHeight="1">
-      <c r="A204" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B204" s="7" t="inlineStr">
+    <row r="199" ht="540" customHeight="1">
+      <c r="A199" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B199" s="7" t="inlineStr">
         <is>
           <t>ScopeDetailsInput</t>
         </is>
       </c>
-      <c r="C204" s="7" t="inlineStr">
+      <c r="C199" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Zakres, limity, parametry i czas wa\u017Cno\u015Bci zg\xF3d, o kt\xF3\
   re prosi TPP. / Scope, limits, parameters and expiration time of consents requested\
@@ -10690,8 +10615,8 @@
 </t>
         </is>
       </c>
-      <c r="D204" s="7" t="inlineStr"/>
-      <c r="E204" s="7" t="inlineStr">
+      <c r="D199" s="7" t="inlineStr"/>
+      <c r="E199" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Zakres, limity, parametry i czas ważności zgód, o które prosi TPP. / Scope, limits, parameters and expiration time of consents requested by TPP
@@ -10729,18 +10654,18 @@
         </is>
       </c>
     </row>
-    <row r="205" ht="1035" customHeight="1">
-      <c r="A205" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B205" s="7" t="inlineStr">
+    <row r="200" ht="1035" customHeight="1">
+      <c r="A200" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B200" s="7" t="inlineStr">
         <is>
           <t>ScopeDetailsOutput</t>
         </is>
       </c>
-      <c r="C205" s="7" t="inlineStr">
+      <c r="C200" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Zakres, limity, parametry i czas wa\u017Cno\u015Bci zg\xF3d, kt\xF3\
   re potwierdza ASPSP / Scope, limits, parameters and expiration time of consents\
@@ -10813,8 +10738,8 @@
 </t>
         </is>
       </c>
-      <c r="D205" s="7" t="inlineStr"/>
-      <c r="E205" s="7" t="inlineStr">
+      <c r="D200" s="7" t="inlineStr"/>
+      <c r="E200" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Zakres, limity, parametry i czas ważności zgód, które potwierdza ASPSP / Scope, limits, parameters and expiration time of consents that are confimed by ASPSP
@@ -10885,18 +10810,18 @@
         </is>
       </c>
     </row>
-    <row r="206" ht="180" customHeight="1">
-      <c r="A206" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B206" s="7" t="inlineStr">
+    <row r="201" ht="180" customHeight="1">
+      <c r="A201" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B201" s="7" t="inlineStr">
         <is>
           <t>PrivilegeAisAspspInSimple</t>
         </is>
       </c>
-      <c r="C206" s="7" t="inlineStr">
+      <c r="C201" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia us\u0142ugi AIS b\u0119d\u0105cych przedmiotem\
   \ zapytania o zgod\u0119 PSU / The list of attributes of the privilege of the AIS\
@@ -10912,8 +10837,8 @@
 </t>
         </is>
       </c>
-      <c r="D206" s="7" t="inlineStr"/>
-      <c r="E206" s="7" t="inlineStr">
+      <c r="D201" s="7" t="inlineStr"/>
+      <c r="E201" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia usługi AIS będących przedmiotem zapytania o zgodę PSU / The list of attributes of the privilege of the AIS service that are the subject of the request for PSU's consent
@@ -10928,18 +10853,18 @@
         </is>
       </c>
     </row>
-    <row r="207" ht="345" customHeight="1">
-      <c r="A207" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B207" s="7" t="inlineStr">
+    <row r="202" ht="345" customHeight="1">
+      <c r="A202" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B202" s="7" t="inlineStr">
         <is>
           <t>PrivilegeAisAspspIn</t>
         </is>
       </c>
-      <c r="C207" s="7" t="inlineStr">
+      <c r="C202" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia us\u0142ugi AIS b\u0119d\u0105cych przedmiotem\
   \ zapytania o zgod\u0119 PSU / The list of attributes of the privilege of the AIS\
@@ -10966,8 +10891,8 @@
 </t>
         </is>
       </c>
-      <c r="D207" s="7" t="inlineStr"/>
-      <c r="E207" s="7" t="inlineStr">
+      <c r="D202" s="7" t="inlineStr"/>
+      <c r="E202" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia usługi AIS będących przedmiotem zapytania o zgodę PSU / The list of attributes of the privilege of the AIS service that are the subject of the request for PSU's consent
@@ -10989,18 +10914,18 @@
         </is>
       </c>
     </row>
-    <row r="208" ht="180" customHeight="1">
-      <c r="A208" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B208" s="7" t="inlineStr">
+    <row r="203" ht="180" customHeight="1">
+      <c r="A203" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B203" s="7" t="inlineStr">
         <is>
           <t>PrivilegeAisAspspOutSimple</t>
         </is>
       </c>
-      <c r="C208" s="7" t="inlineStr">
+      <c r="C203" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia us\u0142ugi AIS dla kt\xF3rych zosta\u0142\
   a wyra\u017Cona zgoda przez PSU / The list of attributes of the privilege of the\
@@ -11016,8 +10941,8 @@
 </t>
         </is>
       </c>
-      <c r="D208" s="7" t="inlineStr"/>
-      <c r="E208" s="7" t="inlineStr">
+      <c r="D203" s="7" t="inlineStr"/>
+      <c r="E203" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia usługi AIS dla których została wyrażona zgoda przez PSU / The list of attributes of the privilege of the AIS service that the PSU's consent has been confirmed
@@ -11032,18 +10957,18 @@
         </is>
       </c>
     </row>
-    <row r="209" ht="390" customHeight="1">
-      <c r="A209" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B209" s="7" t="inlineStr">
+    <row r="204" ht="390" customHeight="1">
+      <c r="A204" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B204" s="7" t="inlineStr">
         <is>
           <t>PrivilegeAisAspspOut</t>
         </is>
       </c>
-      <c r="C209" s="7" t="inlineStr">
+      <c r="C204" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia us\u0142ugi AIS dla kt\xF3rych zosta\u0142\
   a wyra\u017Cona zgoda przez PSU / The list of attributes of the privilege of the\
@@ -11073,8 +10998,8 @@
 </t>
         </is>
       </c>
-      <c r="D209" s="7" t="inlineStr"/>
-      <c r="E209" s="7" t="inlineStr">
+      <c r="D204" s="7" t="inlineStr"/>
+      <c r="E204" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia usługi AIS dla których została wyrażona zgoda przez PSU / The list of attributes of the privilege of the AIS service that the PSU's consent has been confirmed
@@ -11099,18 +11024,18 @@
         </is>
       </c>
     </row>
-    <row r="210" ht="270" customHeight="1">
-      <c r="A210" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B210" s="7" t="inlineStr">
+    <row r="205" ht="270" customHeight="1">
+      <c r="A205" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B205" s="7" t="inlineStr">
         <is>
           <t>PrivilegePayment</t>
         </is>
       </c>
-      <c r="C210" s="7" t="inlineStr">
+      <c r="C205" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia do \u017C\u0105dania statusu p\u0142\
   atno\u015Bci / The list of attributes of the payment status request privilege"
@@ -11132,8 +11057,8 @@
 </t>
         </is>
       </c>
-      <c r="D210" s="7" t="inlineStr"/>
-      <c r="E210" s="7" t="inlineStr">
+      <c r="D205" s="7" t="inlineStr"/>
+      <c r="E205" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do żądania statusu płatności / The list of attributes of the payment status request privilege
@@ -11154,18 +11079,18 @@
         </is>
       </c>
     </row>
-    <row r="211" ht="270" customHeight="1">
-      <c r="A211" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B211" s="7" t="inlineStr">
+    <row r="206" ht="270" customHeight="1">
+      <c r="A206" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B206" s="7" t="inlineStr">
         <is>
           <t>PrivilegeBundle</t>
         </is>
       </c>
-      <c r="C211" s="7" t="inlineStr">
+      <c r="C206" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia do \u017C\u0105dania statusu paczki p\u0142\
   atno\u015Bci / The list of attributes of the bundle of payments status request privilege"
@@ -11187,8 +11112,8 @@
 </t>
         </is>
       </c>
-      <c r="D211" s="7" t="inlineStr"/>
-      <c r="E211" s="7" t="inlineStr">
+      <c r="D206" s="7" t="inlineStr"/>
+      <c r="E206" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do żądania statusu paczki płatności / The list of attributes of the bundle of payments status request privilege
@@ -11209,18 +11134,18 @@
         </is>
       </c>
     </row>
-    <row r="212" ht="300" customHeight="1">
-      <c r="A212" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B212" s="7" t="inlineStr">
+    <row r="207" ht="300" customHeight="1">
+      <c r="A207" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B207" s="7" t="inlineStr">
         <is>
           <t>PrivilegeRecurringPaymentStatus</t>
         </is>
       </c>
-      <c r="C212" s="7" t="inlineStr">
+      <c r="C207" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia do \u017C\u0105dania statusu p\u0142\
   atno\u015Bci cyklicznej / The list of attributes of recurring payment status request\
@@ -11244,8 +11169,8 @@
 </t>
         </is>
       </c>
-      <c r="D212" s="7" t="inlineStr"/>
-      <c r="E212" s="7" t="inlineStr">
+      <c r="D207" s="7" t="inlineStr"/>
+      <c r="E207" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do żądania statusu płatności cyklicznej / The list of attributes of recurring payment status request privilege
@@ -11266,18 +11191,18 @@
         </is>
       </c>
     </row>
-    <row r="213" ht="630" customHeight="1">
-      <c r="A213" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B213" s="7" t="inlineStr">
+    <row r="208" ht="630" customHeight="1">
+      <c r="A208" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B208" s="7" t="inlineStr">
         <is>
           <t>PrivilegeDomesticTransfer</t>
         </is>
       </c>
-      <c r="C213" s="7" t="inlineStr">
+      <c r="C208" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia do inicjacji przelewu zwyk\u0142ego /\
   \ The list of attributes of the domestic transfer request initiation privilege"
@@ -11323,8 +11248,8 @@
 </t>
         </is>
       </c>
-      <c r="D213" s="7" t="inlineStr"/>
-      <c r="E213" s="7" t="inlineStr">
+      <c r="D208" s="7" t="inlineStr"/>
+      <c r="E208" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do inicjacji przelewu zwykłego / The list of attributes of the domestic transfer request initiation privilege
@@ -11366,18 +11291,18 @@
         </is>
       </c>
     </row>
-    <row r="214" ht="600" customHeight="1">
-      <c r="A214" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B214" s="7" t="inlineStr">
+    <row r="209" ht="600" customHeight="1">
+      <c r="A209" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B209" s="7" t="inlineStr">
         <is>
           <t>PrivilegeForeignTransferEEA</t>
         </is>
       </c>
-      <c r="C214" s="7" t="inlineStr">
+      <c r="C209" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia do inicjacji przelewu zagranicznego EEA\
   \ / The list of attributes of the EEA foreign transfer request initiation privilege"
@@ -11421,8 +11346,8 @@
 </t>
         </is>
       </c>
-      <c r="D214" s="7" t="inlineStr"/>
-      <c r="E214" s="7" t="inlineStr">
+      <c r="D209" s="7" t="inlineStr"/>
+      <c r="E209" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do inicjacji przelewu zagranicznego EEA / The list of attributes of the EEA foreign transfer request initiation privilege
@@ -11462,18 +11387,18 @@
         </is>
       </c>
     </row>
-    <row r="215" ht="690" customHeight="1">
-      <c r="A215" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B215" s="7" t="inlineStr">
+    <row r="210" ht="690" customHeight="1">
+      <c r="A210" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B210" s="7" t="inlineStr">
         <is>
           <t>PrivilegeForeignTransferNonEEA</t>
         </is>
       </c>
-      <c r="C215" s="7" t="inlineStr">
+      <c r="C210" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia do inicjacji przelewu zagranicznego bez\
   \ EEA / The list of attributes of the non-EEA foreign transfer request initiation\
@@ -11523,8 +11448,8 @@
 </t>
         </is>
       </c>
-      <c r="D215" s="7" t="inlineStr"/>
-      <c r="E215" s="7" t="inlineStr">
+      <c r="D210" s="7" t="inlineStr"/>
+      <c r="E210" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do inicjacji przelewu zagranicznego bez EEA / The list of attributes of the non-EEA foreign transfer request initiation privilege
@@ -11569,18 +11494,18 @@
         </is>
       </c>
     </row>
-    <row r="216" ht="615" customHeight="1">
-      <c r="A216" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B216" s="7" t="inlineStr">
+    <row r="211" ht="615" customHeight="1">
+      <c r="A211" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B211" s="7" t="inlineStr">
         <is>
           <t>PrivilegeTaxTransfer</t>
         </is>
       </c>
-      <c r="C216" s="7" t="inlineStr">
+      <c r="C211" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia do inicjacji przelewu urz\u0119du podatkowego\
   \ / The list of attributes of the tax transfer request initiation privilege"
@@ -11625,8 +11550,8 @@
 </t>
         </is>
       </c>
-      <c r="D216" s="7" t="inlineStr"/>
-      <c r="E216" s="7" t="inlineStr">
+      <c r="D211" s="7" t="inlineStr"/>
+      <c r="E211" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do inicjacji przelewu urzędu podatkowego / The list of attributes of the tax transfer request initiation privilege
@@ -11667,18 +11592,18 @@
         </is>
       </c>
     </row>
-    <row r="217" ht="270" customHeight="1">
-      <c r="A217" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B217" s="7" t="inlineStr">
+    <row r="212" ht="270" customHeight="1">
+      <c r="A212" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B212" s="7" t="inlineStr">
         <is>
           <t>PrivilegeCancelPayment</t>
         </is>
       </c>
-      <c r="C217" s="7" t="inlineStr">
+      <c r="C212" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia do odwo\u0142ania zainicjowanego przelewu\
   \ / The list of attributes of the cancel initiated payment request privilege"
@@ -11700,8 +11625,8 @@
 </t>
         </is>
       </c>
-      <c r="D217" s="7" t="inlineStr"/>
-      <c r="E217" s="7" t="inlineStr">
+      <c r="D212" s="7" t="inlineStr"/>
+      <c r="E212" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do odwołania zainicjowanego przelewu / The list of attributes of the cancel initiated payment request privilege
@@ -11723,18 +11648,18 @@
         </is>
       </c>
     </row>
-    <row r="218" ht="240" customHeight="1">
-      <c r="A218" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B218" s="7" t="inlineStr">
+    <row r="213" ht="240" customHeight="1">
+      <c r="A213" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B213" s="7" t="inlineStr">
         <is>
           <t>PrivilegeCancelRecurringPayment</t>
         </is>
       </c>
-      <c r="C218" s="7" t="inlineStr">
+      <c r="C213" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia do anulowania p\u0142atno\u015Bci cyklicznej\
   \ / The list of attributes of the cancel recurring payment request privilege"
@@ -11754,8 +11679,8 @@
 </t>
         </is>
       </c>
-      <c r="D218" s="7" t="inlineStr"/>
-      <c r="E218" s="7" t="inlineStr">
+      <c r="D213" s="7" t="inlineStr"/>
+      <c r="E213" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do anulowania płatności cyklicznej / The list of attributes of the cancel recurring payment request privilege
@@ -11774,18 +11699,18 @@
         </is>
       </c>
     </row>
-    <row r="219" ht="840" customHeight="1">
-      <c r="A219" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B219" s="7" t="inlineStr">
+    <row r="214" ht="840" customHeight="1">
+      <c r="A214" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B214" s="7" t="inlineStr">
         <is>
           <t>PrivilegeBundleTransfers</t>
         </is>
       </c>
-      <c r="C219" s="7" t="inlineStr">
+      <c r="C214" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia do zainicjowania paczki przelewu / The\
   \ list of attributes of the initiate bundle of payments request privilege"
@@ -11845,8 +11770,8 @@
 </t>
         </is>
       </c>
-      <c r="D219" s="7" t="inlineStr"/>
-      <c r="E219" s="7" t="inlineStr">
+      <c r="D214" s="7" t="inlineStr"/>
+      <c r="E214" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do zainicjowania paczki przelewu / The list of attributes of the initiate bundle of payments request privilege
@@ -11893,18 +11818,18 @@
         </is>
       </c>
     </row>
-    <row r="220" ht="480" customHeight="1">
-      <c r="A220" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B220" s="7" t="inlineStr">
+    <row r="215" ht="480" customHeight="1">
+      <c r="A215" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B215" s="7" t="inlineStr">
         <is>
           <t>PrivilegeRecurringPayment</t>
         </is>
       </c>
-      <c r="C220" s="7" t="inlineStr">
+      <c r="C215" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Lista atrybut\xF3w uprawnienia do zdefiniowania nowej p\u0142atno\u015B\
   ci cyklicznej / The list of attributes of definition of new recurring payment request\
@@ -11940,8 +11865,8 @@
 </t>
         </is>
       </c>
-      <c r="D220" s="7" t="inlineStr"/>
-      <c r="E220" s="7" t="inlineStr">
+      <c r="D215" s="7" t="inlineStr"/>
+      <c r="E215" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do zdefiniowania nowej płatności cyklicznej / The list of attributes of definition of new recurring payment request privilege
@@ -11974,18 +11899,18 @@
         </is>
       </c>
     </row>
-    <row r="221" ht="705" customHeight="1">
-      <c r="A221" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B221" s="7" t="inlineStr">
+    <row r="216" ht="705" customHeight="1">
+      <c r="A216" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B216" s="7" t="inlineStr">
         <is>
           <t>ScopeDetailsInputPrivilegeList</t>
         </is>
       </c>
-      <c r="C221" s="7" t="inlineStr">
+      <c r="C216" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Pe\u0142na lista uprawnie\u0144 b\u0119d\u0105cych przedmiotem zapytania\
   \ o zgod\u0119 PSU / The list of all privileges that are the subject of the request\
@@ -12036,8 +11961,8 @@
 </t>
         </is>
       </c>
-      <c r="D221" s="7" t="inlineStr"/>
-      <c r="E221" s="7" t="inlineStr">
+      <c r="D216" s="7" t="inlineStr"/>
+      <c r="E216" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Pełna lista uprawnień będących przedmiotem zapytania o zgodę PSU / The list of all privileges that are the subject of the request for PSU's consent
@@ -12087,18 +12012,18 @@
         </is>
       </c>
     </row>
-    <row r="222" ht="1290" customHeight="1">
-      <c r="A222" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B222" s="7" t="inlineStr">
+    <row r="217" ht="1290" customHeight="1">
+      <c r="A217" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B217" s="7" t="inlineStr">
         <is>
           <t>ScopeDetailsOutputPrivilegeList</t>
         </is>
       </c>
-      <c r="C222" s="7" t="inlineStr">
+      <c r="C217" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Pe\u0142na lista uprawnie\u0144, dla kt\xF3rych zosta\u0142a wyra\u017C\
   ona zgoda przez PSU / The list of all privileges that the PSU's consent has been\
@@ -12188,8 +12113,8 @@
 </t>
         </is>
       </c>
-      <c r="D222" s="7" t="inlineStr"/>
-      <c r="E222" s="7" t="inlineStr">
+      <c r="D217" s="7" t="inlineStr"/>
+      <c r="E217" s="7" t="inlineStr">
         <is>
           <t>Removed:
 • description: Pełna lista uprawnień, dla których została wyrażona zgoda przez PSU / The list of all privileges that the PSU's consent has been confirmed
@@ -12278,19 +12203,19 @@
         </is>
       </c>
     </row>
-    <row r="223" ht="975" customHeight="1">
-      <c r="A223" s="11" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B223" s="7" t="inlineStr">
+    <row r="218" ht="975" customHeight="1">
+      <c r="A218" s="11" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B218" s="7" t="inlineStr">
         <is>
           <t>PaymentNonEEARequestBank</t>
         </is>
       </c>
-      <c r="C223" s="7" t="inlineStr"/>
-      <c r="D223" s="7" t="inlineStr">
+      <c r="C218" s="7" t="inlineStr"/>
+      <c r="D218" s="7" t="inlineStr">
         <is>
           <t xml:space="preserve">description: "Klasa zawieraj\u0105ca dane banku u\u017Cywana w \u017C\u0105daniach\
   \ AIS / AIS Bank Data Class W przypadku rachunku IBAN nie s\u0105 wymagane poni\u017C\
@@ -12359,7 +12284,7 @@
 </t>
         </is>
       </c>
-      <c r="E223" s="7" t="inlineStr">
+      <c r="E218" s="7" t="inlineStr">
         <is>
           <t>Added:
 • description: Klasa zawierająca dane banku używana w żądaniach AIS / AIS Bank Data Class W przypadku rachunku IBAN nie są wymagane poniższe dane z klasy. Wymagane są niektóre z poniższych danych z klasy w przypadku identyfikacji banków, kiedy rachunek nie jest w formacie IBAN / Some of the following class details are required for identifying banks that do not have an IBAN account. For the IBAN , the following class details are not required.

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>UNCATEGORIZED</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -575,7 +575,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="210" customHeight="1">
+    <row r="3" ht="60" customHeight="1">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
@@ -588,68 +588,10 @@
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.parameters</t>
+          <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.responses.500</t>
         </is>
       </c>
       <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
-- $ref: '#/parameters/acceptEncodingParam'
-- $ref: '#/parameters/acceptLanguageParam'
-- $ref: '#/parameters/acceptCharsetParam'
-- $ref: '#/parameters/xjwsSignatureParam'
-- $ref: '#/parameters/xRequestIdParam'
-- name: domesticRequest
-  in: body
-  description: Data for domestic transfer
-  required: true
-  schema:
-    $ref: '#/definitions/PaymentDomesticRequest'
-</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
-- $ref: '#/parameters/acceptEncodingParam'
-- $ref: '#/parameters/acceptLanguageParam'
-- $ref: '#/parameters/acceptCharsetParam'
-- $ref: '#/parameters/xjwsSignatureParam'
-- $ref: '#/parameters/xRequestIdParam'
-- $ref: '#/parameters/contentTypeParam'
-- schema:
-    $ref: '#/definitions/PaymentDomesticRequest'
-  in: body
-  name: domesticRequest
-  description: Data for domestic transfer
-  required: true
-</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>Added:
-• $ref: #/parameters/contentTypeParam</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.responses.500</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -657,8 +599,8 @@
 </t>
         </is>
       </c>
-      <c r="E4" s="8" t="inlineStr"/>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr"/>
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -667,58 +609,24 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.responses.503</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">description: Service Unavailable
-schema:
-  $ref: '#/definitions/Error'
-</t>
-        </is>
-      </c>
-      <c r="E5" s="8" t="inlineStr"/>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>Removed:
-• description: Service Unavailable
-• schema:
-  $ref: #/definitions/Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.responses.510</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr"/>
-      <c r="E6" s="8" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr"/>
+      <c r="E4" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -726,7 +634,7 @@
 </t>
         </is>
       </c>
-      <c r="F6" s="8" t="inlineStr">
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -735,23 +643,23 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="75" customHeight="1">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
+    <row r="5" ht="75" customHeight="1">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.security</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -760,14 +668,14 @@
 </t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F7" s="8" t="inlineStr">
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -775,54 +683,54 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="45" customHeight="1">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
+    <row r="6" ht="45" customHeight="1">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E8" s="8" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="E6" s="8" t="inlineStr"/>
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="210" customHeight="1">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
+    <row r="7" ht="210" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.parameters</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -839,7 +747,7 @@
 </t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -857,30 +765,30 @@
 </t>
         </is>
       </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.responses.500</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -888,8 +796,8 @@
 </t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -898,23 +806,23 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.responses.503</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -922,8 +830,8 @@
 </t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -932,24 +840,24 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.responses.510</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr"/>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr"/>
+      <c r="E10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -957,7 +865,7 @@
 </t>
         </is>
       </c>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -966,23 +874,23 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="75" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
+    <row r="11" ht="75" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.security</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -991,14 +899,14 @@
 </t>
         </is>
       </c>
-      <c r="E13" s="8" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F13" s="8" t="inlineStr">
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1006,54 +914,54 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="45" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
+    <row r="12" ht="45" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D12" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr">
+      <c r="E12" s="8" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="210" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
+    <row r="13" ht="210" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.parameters</t>
         </is>
       </c>
-      <c r="D15" s="8" t="inlineStr">
+      <c r="D13" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1070,7 +978,7 @@
 </t>
         </is>
       </c>
-      <c r="E15" s="8" t="inlineStr">
+      <c r="E13" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1088,30 +996,30 @@
 </t>
         </is>
       </c>
-      <c r="F15" s="8" t="inlineStr">
+      <c r="F13" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.responses.500</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1119,8 +1027,8 @@
 </t>
         </is>
       </c>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="E14" s="8" t="inlineStr"/>
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1129,23 +1037,23 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.responses.503</t>
         </is>
       </c>
-      <c r="D17" s="8" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1153,8 +1061,8 @@
 </t>
         </is>
       </c>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr">
+      <c r="E15" s="8" t="inlineStr"/>
+      <c r="F15" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1163,24 +1071,24 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.responses.510</t>
         </is>
       </c>
-      <c r="D18" s="8" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr">
+      <c r="D16" s="8" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1188,7 +1096,7 @@
 </t>
         </is>
       </c>
-      <c r="F18" s="8" t="inlineStr">
+      <c r="F16" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1197,23 +1105,23 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="75" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B19" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
+    <row r="17" ht="75" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.security</t>
         </is>
       </c>
-      <c r="D19" s="8" t="inlineStr">
+      <c r="D17" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1222,14 +1130,14 @@
 </t>
         </is>
       </c>
-      <c r="E19" s="8" t="inlineStr">
+      <c r="E17" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F19" s="8" t="inlineStr">
+      <c r="F17" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1237,54 +1145,54 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="45" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
+    <row r="18" ht="45" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="D18" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E20" s="8" t="inlineStr"/>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="E18" s="8" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="210" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="inlineStr">
+    <row r="19" ht="210" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.parameters</t>
         </is>
       </c>
-      <c r="D21" s="8" t="inlineStr">
+      <c r="D19" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1301,7 +1209,7 @@
 </t>
         </is>
       </c>
-      <c r="E21" s="8" t="inlineStr">
+      <c r="E19" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1319,30 +1227,30 @@
 </t>
         </is>
       </c>
-      <c r="F21" s="8" t="inlineStr">
+      <c r="F19" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.responses.500</t>
         </is>
       </c>
-      <c r="D22" s="8" t="inlineStr">
+      <c r="D20" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1350,8 +1258,8 @@
 </t>
         </is>
       </c>
-      <c r="E22" s="8" t="inlineStr"/>
-      <c r="F22" s="8" t="inlineStr">
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1360,23 +1268,23 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr">
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.responses.503</t>
         </is>
       </c>
-      <c r="D23" s="8" t="inlineStr">
+      <c r="D21" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1384,8 +1292,8 @@
 </t>
         </is>
       </c>
-      <c r="E23" s="8" t="inlineStr"/>
-      <c r="F23" s="8" t="inlineStr">
+      <c r="E21" s="8" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1394,24 +1302,24 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="60" customHeight="1">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.responses.510</t>
         </is>
       </c>
-      <c r="D24" s="8" t="inlineStr"/>
-      <c r="E24" s="8" t="inlineStr">
+      <c r="D22" s="8" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1419,7 +1327,7 @@
 </t>
         </is>
       </c>
-      <c r="F24" s="8" t="inlineStr">
+      <c r="F22" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1428,23 +1336,23 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="75" customHeight="1">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B25" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C25" s="8" t="inlineStr">
+    <row r="23" ht="75" customHeight="1">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.security</t>
         </is>
       </c>
-      <c r="D25" s="8" t="inlineStr">
+      <c r="D23" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1453,14 +1361,14 @@
 </t>
         </is>
       </c>
-      <c r="E25" s="8" t="inlineStr">
+      <c r="E23" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F25" s="8" t="inlineStr">
+      <c r="F23" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1468,54 +1376,54 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="45" customHeight="1">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C26" s="8" t="inlineStr">
+    <row r="24" ht="45" customHeight="1">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D26" s="8" t="inlineStr">
+      <c r="D24" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E26" s="8" t="inlineStr"/>
-      <c r="F26" s="8" t="inlineStr">
+      <c r="E24" s="8" t="inlineStr"/>
+      <c r="F24" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="210" customHeight="1">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
+    <row r="25" ht="210" customHeight="1">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.parameters</t>
         </is>
       </c>
-      <c r="D27" s="8" t="inlineStr">
+      <c r="D25" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1532,7 +1440,7 @@
 </t>
         </is>
       </c>
-      <c r="E27" s="8" t="inlineStr">
+      <c r="E25" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1550,30 +1458,30 @@
 </t>
         </is>
       </c>
-      <c r="F27" s="8" t="inlineStr">
+      <c r="F25" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C28" s="8" t="inlineStr">
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.responses.500</t>
         </is>
       </c>
-      <c r="D28" s="8" t="inlineStr">
+      <c r="D26" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1581,8 +1489,8 @@
 </t>
         </is>
       </c>
-      <c r="E28" s="8" t="inlineStr"/>
-      <c r="F28" s="8" t="inlineStr">
+      <c r="E26" s="8" t="inlineStr"/>
+      <c r="F26" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1591,23 +1499,23 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B29" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C29" s="8" t="inlineStr">
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.responses.503</t>
         </is>
       </c>
-      <c r="D29" s="8" t="inlineStr">
+      <c r="D27" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1615,8 +1523,8 @@
 </t>
         </is>
       </c>
-      <c r="E29" s="8" t="inlineStr"/>
-      <c r="F29" s="8" t="inlineStr">
+      <c r="E27" s="8" t="inlineStr"/>
+      <c r="F27" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1625,24 +1533,24 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="60" customHeight="1">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B30" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C30" s="8" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.responses.510</t>
         </is>
       </c>
-      <c r="D30" s="8" t="inlineStr"/>
-      <c r="E30" s="8" t="inlineStr">
+      <c r="D28" s="8" t="inlineStr"/>
+      <c r="E28" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1650,7 +1558,7 @@
 </t>
         </is>
       </c>
-      <c r="F30" s="8" t="inlineStr">
+      <c r="F28" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1659,23 +1567,23 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="75" customHeight="1">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B31" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C31" s="8" t="inlineStr">
+    <row r="29" ht="75" customHeight="1">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.security</t>
         </is>
       </c>
-      <c r="D31" s="8" t="inlineStr">
+      <c r="D29" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1684,14 +1592,14 @@
 </t>
         </is>
       </c>
-      <c r="E31" s="8" t="inlineStr">
+      <c r="E29" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F31" s="8" t="inlineStr">
+      <c r="F29" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1699,54 +1607,54 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="45" customHeight="1">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C32" s="8" t="inlineStr">
+    <row r="30" ht="45" customHeight="1">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D32" s="8" t="inlineStr">
+      <c r="D30" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E32" s="8" t="inlineStr"/>
-      <c r="F32" s="8" t="inlineStr">
+      <c r="E30" s="8" t="inlineStr"/>
+      <c r="F30" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="210" customHeight="1">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C33" s="8" t="inlineStr">
+    <row r="31" ht="210" customHeight="1">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.parameters</t>
         </is>
       </c>
-      <c r="D33" s="8" t="inlineStr">
+      <c r="D31" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1763,7 +1671,7 @@
 </t>
         </is>
       </c>
-      <c r="E33" s="8" t="inlineStr">
+      <c r="E31" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1781,30 +1689,30 @@
 </t>
         </is>
       </c>
-      <c r="F33" s="8" t="inlineStr">
+      <c r="F31" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C34" s="8" t="inlineStr">
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.responses.500</t>
         </is>
       </c>
-      <c r="D34" s="8" t="inlineStr">
+      <c r="D32" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1812,8 +1720,8 @@
 </t>
         </is>
       </c>
-      <c r="E34" s="8" t="inlineStr"/>
-      <c r="F34" s="8" t="inlineStr">
+      <c r="E32" s="8" t="inlineStr"/>
+      <c r="F32" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1822,23 +1730,23 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B35" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.responses.503</t>
         </is>
       </c>
-      <c r="D35" s="8" t="inlineStr">
+      <c r="D33" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1846,8 +1754,8 @@
 </t>
         </is>
       </c>
-      <c r="E35" s="8" t="inlineStr"/>
-      <c r="F35" s="8" t="inlineStr">
+      <c r="E33" s="8" t="inlineStr"/>
+      <c r="F33" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1856,24 +1764,24 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="60" customHeight="1">
-      <c r="A36" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C36" s="8" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.responses.510</t>
         </is>
       </c>
-      <c r="D36" s="8" t="inlineStr"/>
-      <c r="E36" s="8" t="inlineStr">
+      <c r="D34" s="8" t="inlineStr"/>
+      <c r="E34" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1881,7 +1789,7 @@
 </t>
         </is>
       </c>
-      <c r="F36" s="8" t="inlineStr">
+      <c r="F34" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1890,23 +1798,23 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="75" customHeight="1">
-      <c r="A37" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C37" s="8" t="inlineStr">
+    <row r="35" ht="75" customHeight="1">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.security</t>
         </is>
       </c>
-      <c r="D37" s="8" t="inlineStr">
+      <c r="D35" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1915,14 +1823,14 @@
 </t>
         </is>
       </c>
-      <c r="E37" s="8" t="inlineStr">
+      <c r="E35" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F37" s="8" t="inlineStr">
+      <c r="F35" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1930,54 +1838,54 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="45" customHeight="1">
-      <c r="A38" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B38" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C38" s="8" t="inlineStr">
+    <row r="36" ht="45" customHeight="1">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D38" s="8" t="inlineStr">
+      <c r="D36" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E38" s="8" t="inlineStr"/>
-      <c r="F38" s="8" t="inlineStr">
+      <c r="E36" s="8" t="inlineStr"/>
+      <c r="F36" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="210" customHeight="1">
-      <c r="A39" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B39" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C39" s="8" t="inlineStr">
+    <row r="37" ht="210" customHeight="1">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.parameters</t>
         </is>
       </c>
-      <c r="D39" s="8" t="inlineStr">
+      <c r="D37" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1994,7 +1902,7 @@
 </t>
         </is>
       </c>
-      <c r="E39" s="8" t="inlineStr">
+      <c r="E37" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2012,30 +1920,30 @@
 </t>
         </is>
       </c>
-      <c r="F39" s="8" t="inlineStr">
+      <c r="F37" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B40" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C40" s="8" t="inlineStr">
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.responses.500</t>
         </is>
       </c>
-      <c r="D40" s="8" t="inlineStr">
+      <c r="D38" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2043,8 +1951,8 @@
 </t>
         </is>
       </c>
-      <c r="E40" s="8" t="inlineStr"/>
-      <c r="F40" s="8" t="inlineStr">
+      <c r="E38" s="8" t="inlineStr"/>
+      <c r="F38" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2053,23 +1961,23 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B41" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C41" s="8" t="inlineStr">
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.responses.503</t>
         </is>
       </c>
-      <c r="D41" s="8" t="inlineStr">
+      <c r="D39" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2077,8 +1985,8 @@
 </t>
         </is>
       </c>
-      <c r="E41" s="8" t="inlineStr"/>
-      <c r="F41" s="8" t="inlineStr">
+      <c r="E39" s="8" t="inlineStr"/>
+      <c r="F39" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2087,24 +1995,24 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="60" customHeight="1">
-      <c r="A42" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B42" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C42" s="8" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.responses.510</t>
         </is>
       </c>
-      <c r="D42" s="8" t="inlineStr"/>
-      <c r="E42" s="8" t="inlineStr">
+      <c r="D40" s="8" t="inlineStr"/>
+      <c r="E40" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2112,7 +2020,7 @@
 </t>
         </is>
       </c>
-      <c r="F42" s="8" t="inlineStr">
+      <c r="F40" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2121,23 +2029,23 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="75" customHeight="1">
-      <c r="A43" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B43" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C43" s="8" t="inlineStr">
+    <row r="41" ht="75" customHeight="1">
+      <c r="A41" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.security</t>
         </is>
       </c>
-      <c r="D43" s="8" t="inlineStr">
+      <c r="D41" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2146,14 +2054,14 @@
 </t>
         </is>
       </c>
-      <c r="E43" s="8" t="inlineStr">
+      <c r="E41" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F43" s="8" t="inlineStr">
+      <c r="F41" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2161,54 +2069,54 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="45" customHeight="1">
-      <c r="A44" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B44" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C44" s="8" t="inlineStr">
+    <row r="42" ht="45" customHeight="1">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C42" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D44" s="8" t="inlineStr">
+      <c r="D42" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E44" s="8" t="inlineStr"/>
-      <c r="F44" s="8" t="inlineStr">
+      <c r="E42" s="8" t="inlineStr"/>
+      <c r="F42" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="210" customHeight="1">
-      <c r="A45" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B45" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C45" s="8" t="inlineStr">
+    <row r="43" ht="210" customHeight="1">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B43" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C43" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.parameters</t>
         </is>
       </c>
-      <c r="D45" s="8" t="inlineStr">
+      <c r="D43" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2225,7 +2133,7 @@
 </t>
         </is>
       </c>
-      <c r="E45" s="8" t="inlineStr">
+      <c r="E43" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2243,30 +2151,30 @@
 </t>
         </is>
       </c>
-      <c r="F45" s="8" t="inlineStr">
+      <c r="F43" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B46" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C46" s="8" t="inlineStr">
+    <row r="44" ht="60" customHeight="1">
+      <c r="A44" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B44" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.responses.500</t>
         </is>
       </c>
-      <c r="D46" s="8" t="inlineStr">
+      <c r="D44" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2274,8 +2182,8 @@
 </t>
         </is>
       </c>
-      <c r="E46" s="8" t="inlineStr"/>
-      <c r="F46" s="8" t="inlineStr">
+      <c r="E44" s="8" t="inlineStr"/>
+      <c r="F44" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2284,23 +2192,23 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B47" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C47" s="8" t="inlineStr">
+    <row r="45" ht="60" customHeight="1">
+      <c r="A45" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.responses.503</t>
         </is>
       </c>
-      <c r="D47" s="8" t="inlineStr">
+      <c r="D45" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2308,8 +2216,8 @@
 </t>
         </is>
       </c>
-      <c r="E47" s="8" t="inlineStr"/>
-      <c r="F47" s="8" t="inlineStr">
+      <c r="E45" s="8" t="inlineStr"/>
+      <c r="F45" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2318,24 +2226,24 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="60" customHeight="1">
-      <c r="A48" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B48" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C48" s="8" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.responses.510</t>
         </is>
       </c>
-      <c r="D48" s="8" t="inlineStr"/>
-      <c r="E48" s="8" t="inlineStr">
+      <c r="D46" s="8" t="inlineStr"/>
+      <c r="E46" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2343,7 +2251,7 @@
 </t>
         </is>
       </c>
-      <c r="F48" s="8" t="inlineStr">
+      <c r="F46" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2352,23 +2260,23 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="75" customHeight="1">
-      <c r="A49" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B49" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C49" s="8" t="inlineStr">
+    <row r="47" ht="75" customHeight="1">
+      <c r="A47" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.security</t>
         </is>
       </c>
-      <c r="D49" s="8" t="inlineStr">
+      <c r="D47" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2377,14 +2285,14 @@
 </t>
         </is>
       </c>
-      <c r="E49" s="8" t="inlineStr">
+      <c r="E47" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F49" s="8" t="inlineStr">
+      <c r="F47" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2392,54 +2300,54 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="45" customHeight="1">
-      <c r="A50" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B50" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C50" s="8" t="inlineStr">
+    <row r="48" ht="45" customHeight="1">
+      <c r="A48" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D50" s="8" t="inlineStr">
+      <c r="D48" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E50" s="8" t="inlineStr"/>
-      <c r="F50" s="8" t="inlineStr">
+      <c r="E48" s="8" t="inlineStr"/>
+      <c r="F48" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="210" customHeight="1">
-      <c r="A51" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B51" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C51" s="8" t="inlineStr">
+    <row r="49" ht="210" customHeight="1">
+      <c r="A49" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.parameters</t>
         </is>
       </c>
-      <c r="D51" s="8" t="inlineStr">
+      <c r="D49" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2456,7 +2364,7 @@
 </t>
         </is>
       </c>
-      <c r="E51" s="8" t="inlineStr">
+      <c r="E49" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2474,30 +2382,30 @@
 </t>
         </is>
       </c>
-      <c r="F51" s="8" t="inlineStr">
+      <c r="F49" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B52" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C52" s="8" t="inlineStr">
+    <row r="50" ht="60" customHeight="1">
+      <c r="A50" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B50" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.responses.500</t>
         </is>
       </c>
-      <c r="D52" s="8" t="inlineStr">
+      <c r="D50" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2505,8 +2413,8 @@
 </t>
         </is>
       </c>
-      <c r="E52" s="8" t="inlineStr"/>
-      <c r="F52" s="8" t="inlineStr">
+      <c r="E50" s="8" t="inlineStr"/>
+      <c r="F50" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2515,23 +2423,23 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B53" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C53" s="8" t="inlineStr">
+    <row r="51" ht="60" customHeight="1">
+      <c r="A51" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.responses.503</t>
         </is>
       </c>
-      <c r="D53" s="8" t="inlineStr">
+      <c r="D51" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2539,8 +2447,8 @@
 </t>
         </is>
       </c>
-      <c r="E53" s="8" t="inlineStr"/>
-      <c r="F53" s="8" t="inlineStr">
+      <c r="E51" s="8" t="inlineStr"/>
+      <c r="F51" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2549,24 +2457,24 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="60" customHeight="1">
-      <c r="A54" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B54" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C54" s="8" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.responses.510</t>
         </is>
       </c>
-      <c r="D54" s="8" t="inlineStr"/>
-      <c r="E54" s="8" t="inlineStr">
+      <c r="D52" s="8" t="inlineStr"/>
+      <c r="E52" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2574,7 +2482,7 @@
 </t>
         </is>
       </c>
-      <c r="F54" s="8" t="inlineStr">
+      <c r="F52" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2583,23 +2491,23 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="75" customHeight="1">
-      <c r="A55" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B55" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C55" s="8" t="inlineStr">
+    <row r="53" ht="75" customHeight="1">
+      <c r="A53" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.security</t>
         </is>
       </c>
-      <c r="D55" s="8" t="inlineStr">
+      <c r="D53" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2608,14 +2516,14 @@
 </t>
         </is>
       </c>
-      <c r="E55" s="8" t="inlineStr">
+      <c r="E53" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F55" s="8" t="inlineStr">
+      <c r="F53" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2623,23 +2531,23 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="1020" customHeight="1">
-      <c r="A56" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B56" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C56" s="8" t="inlineStr">
+    <row r="54" ht="1020" customHeight="1">
+      <c r="A54" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B54" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getMultiplePayments</t>
         </is>
       </c>
-      <c r="D56" s="8" t="inlineStr">
+      <c r="D54" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: pis
 post:
@@ -2711,8 +2619,8 @@
 </t>
         </is>
       </c>
-      <c r="E56" s="8" t="inlineStr"/>
-      <c r="F56" s="8" t="inlineStr">
+      <c r="E54" s="8" t="inlineStr"/>
+      <c r="F54" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: pis
@@ -2785,54 +2693,54 @@
         </is>
       </c>
     </row>
-    <row r="57" ht="45" customHeight="1">
-      <c r="A57" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B57" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C57" s="8" t="inlineStr">
+    <row r="55" ht="45" customHeight="1">
+      <c r="A55" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D57" s="8" t="inlineStr">
+      <c r="D55" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E57" s="8" t="inlineStr"/>
-      <c r="F57" s="8" t="inlineStr">
+      <c r="E55" s="8" t="inlineStr"/>
+      <c r="F55" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="210" customHeight="1">
-      <c r="A58" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B58" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C58" s="8" t="inlineStr">
+    <row r="56" ht="210" customHeight="1">
+      <c r="A56" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C56" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.parameters</t>
         </is>
       </c>
-      <c r="D58" s="8" t="inlineStr">
+      <c r="D56" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2849,7 +2757,7 @@
 </t>
         </is>
       </c>
-      <c r="E58" s="8" t="inlineStr">
+      <c r="E56" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2867,30 +2775,30 @@
 </t>
         </is>
       </c>
-      <c r="F58" s="8" t="inlineStr">
+      <c r="F56" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B59" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C59" s="8" t="inlineStr">
+    <row r="57" ht="60" customHeight="1">
+      <c r="A57" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B57" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.responses.500</t>
         </is>
       </c>
-      <c r="D59" s="8" t="inlineStr">
+      <c r="D57" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2898,8 +2806,8 @@
 </t>
         </is>
       </c>
-      <c r="E59" s="8" t="inlineStr"/>
-      <c r="F59" s="8" t="inlineStr">
+      <c r="E57" s="8" t="inlineStr"/>
+      <c r="F57" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2908,23 +2816,23 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B60" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C60" s="8" t="inlineStr">
+    <row r="58" ht="60" customHeight="1">
+      <c r="A58" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B58" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.responses.503</t>
         </is>
       </c>
-      <c r="D60" s="8" t="inlineStr">
+      <c r="D58" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2932,8 +2840,8 @@
 </t>
         </is>
       </c>
-      <c r="E60" s="8" t="inlineStr"/>
-      <c r="F60" s="8" t="inlineStr">
+      <c r="E58" s="8" t="inlineStr"/>
+      <c r="F58" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2942,24 +2850,24 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="60" customHeight="1">
-      <c r="A61" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B61" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C61" s="8" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B59" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.responses.510</t>
         </is>
       </c>
-      <c r="D61" s="8" t="inlineStr"/>
-      <c r="E61" s="8" t="inlineStr">
+      <c r="D59" s="8" t="inlineStr"/>
+      <c r="E59" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2967,7 +2875,7 @@
 </t>
         </is>
       </c>
-      <c r="F61" s="8" t="inlineStr">
+      <c r="F59" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2976,23 +2884,23 @@
         </is>
       </c>
     </row>
-    <row r="62" ht="75" customHeight="1">
-      <c r="A62" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B62" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C62" s="8" t="inlineStr">
+    <row r="60" ht="75" customHeight="1">
+      <c r="A60" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B60" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.security</t>
         </is>
       </c>
-      <c r="D62" s="8" t="inlineStr">
+      <c r="D60" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -3001,14 +2909,14 @@
 </t>
         </is>
       </c>
-      <c r="E62" s="8" t="inlineStr">
+      <c r="E60" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F62" s="8" t="inlineStr">
+      <c r="F60" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -3016,54 +2924,54 @@
         </is>
       </c>
     </row>
-    <row r="63" ht="45" customHeight="1">
-      <c r="A63" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B63" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C63" s="8" t="inlineStr">
+    <row r="61" ht="45" customHeight="1">
+      <c r="A61" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B61" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D63" s="8" t="inlineStr">
+      <c r="D61" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E63" s="8" t="inlineStr"/>
-      <c r="F63" s="8" t="inlineStr">
+      <c r="E61" s="8" t="inlineStr"/>
+      <c r="F61" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="210" customHeight="1">
-      <c r="A64" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B64" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C64" s="8" t="inlineStr">
+    <row r="62" ht="210" customHeight="1">
+      <c r="A62" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B62" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.parameters</t>
         </is>
       </c>
-      <c r="D64" s="8" t="inlineStr">
+      <c r="D62" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -3080,7 +2988,7 @@
 </t>
         </is>
       </c>
-      <c r="E64" s="8" t="inlineStr">
+      <c r="E62" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -3098,30 +3006,30 @@
 </t>
         </is>
       </c>
-      <c r="F64" s="8" t="inlineStr">
+      <c r="F62" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B65" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C65" s="8" t="inlineStr">
+    <row r="63" ht="60" customHeight="1">
+      <c r="A63" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B63" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.responses.500</t>
         </is>
       </c>
-      <c r="D65" s="8" t="inlineStr">
+      <c r="D63" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -3129,8 +3037,8 @@
 </t>
         </is>
       </c>
-      <c r="E65" s="8" t="inlineStr"/>
-      <c r="F65" s="8" t="inlineStr">
+      <c r="E63" s="8" t="inlineStr"/>
+      <c r="F63" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -3139,23 +3047,23 @@
         </is>
       </c>
     </row>
-    <row r="66" ht="60" customHeight="1">
-      <c r="A66" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B66" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C66" s="8" t="inlineStr">
+    <row r="64" ht="60" customHeight="1">
+      <c r="A64" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B64" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.responses.503</t>
         </is>
       </c>
-      <c r="D66" s="8" t="inlineStr">
+      <c r="D64" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -3163,8 +3071,8 @@
 </t>
         </is>
       </c>
-      <c r="E66" s="8" t="inlineStr"/>
-      <c r="F66" s="8" t="inlineStr">
+      <c r="E64" s="8" t="inlineStr"/>
+      <c r="F64" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -3173,24 +3081,24 @@
         </is>
       </c>
     </row>
-    <row r="67" ht="60" customHeight="1">
-      <c r="A67" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B67" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C67" s="8" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B65" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.responses.510</t>
         </is>
       </c>
-      <c r="D67" s="8" t="inlineStr"/>
-      <c r="E67" s="8" t="inlineStr">
+      <c r="D65" s="8" t="inlineStr"/>
+      <c r="E65" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -3198,7 +3106,7 @@
 </t>
         </is>
       </c>
-      <c r="F67" s="8" t="inlineStr">
+      <c r="F65" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -3207,23 +3115,23 @@
         </is>
       </c>
     </row>
-    <row r="68" ht="75" customHeight="1">
-      <c r="A68" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B68" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C68" s="8" t="inlineStr">
+    <row r="66" ht="75" customHeight="1">
+      <c r="A66" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B66" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.security</t>
         </is>
       </c>
-      <c r="D68" s="8" t="inlineStr">
+      <c r="D66" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -3232,14 +3140,14 @@
 </t>
         </is>
       </c>
-      <c r="E68" s="8" t="inlineStr">
+      <c r="E66" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F68" s="8" t="inlineStr">
+      <c r="F66" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -3247,6 +3155,68 @@
         </is>
       </c>
     </row>
+    <row r="67" ht="45" customHeight="1">
+      <c r="A67" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B67" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>RequestHeaderWithoutToken.properties.userAgent.maxLength</t>
+        </is>
+      </c>
+      <c r="D67" s="8" t="inlineStr"/>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">255
+...
+</t>
+        </is>
+      </c>
+      <c r="F67" s="8" t="inlineStr">
+        <is>
+          <t>Added:
+• 255</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="45" customHeight="1">
+      <c r="A68" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B68" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C68" s="8" t="inlineStr">
+        <is>
+          <t>RequestHeaderWithoutToken.properties.ipAddress.maxLength</t>
+        </is>
+      </c>
+      <c r="D68" s="8" t="inlineStr"/>
+      <c r="E68" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">255
+...
+</t>
+        </is>
+      </c>
+      <c r="F68" s="8" t="inlineStr">
+        <is>
+          <t>Added:
+• 255</t>
+        </is>
+      </c>
+    </row>
     <row r="69" ht="45" customHeight="1">
       <c r="A69" s="9" t="inlineStr">
         <is>
@@ -3260,109 +3230,47 @@
       </c>
       <c r="C69" s="8" t="inlineStr">
         <is>
-          <t>RequestHeaderWithoutToken.properties.userAgent.maxLength</t>
+          <t>RequestHeaderWithoutToken.properties.tppId.maxLength</t>
         </is>
       </c>
       <c r="D69" s="8" t="inlineStr"/>
       <c r="E69" s="8" t="inlineStr">
         <is>
-          <t xml:space="preserve">255
-...
-</t>
-        </is>
-      </c>
-      <c r="F69" s="8" t="inlineStr">
-        <is>
-          <t>Added:
-• 255</t>
-        </is>
-      </c>
-    </row>
-    <row r="70" ht="45" customHeight="1">
-      <c r="A70" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B70" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C70" s="8" t="inlineStr">
-        <is>
-          <t>RequestHeaderWithoutToken.properties.ipAddress.maxLength</t>
-        </is>
-      </c>
-      <c r="D70" s="8" t="inlineStr"/>
-      <c r="E70" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">255
-...
-</t>
-        </is>
-      </c>
-      <c r="F70" s="8" t="inlineStr">
-        <is>
-          <t>Added:
-• 255</t>
-        </is>
-      </c>
-    </row>
-    <row r="71" ht="45" customHeight="1">
-      <c r="A71" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B71" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C71" s="8" t="inlineStr">
-        <is>
-          <t>RequestHeaderWithoutToken.properties.tppId.maxLength</t>
-        </is>
-      </c>
-      <c r="D71" s="8" t="inlineStr"/>
-      <c r="E71" s="8" t="inlineStr">
-        <is>
           <t xml:space="preserve">127
 ...
 </t>
         </is>
       </c>
-      <c r="F71" s="8" t="inlineStr">
+      <c r="F69" s="8" t="inlineStr">
         <is>
           <t>Added:
 • 127</t>
         </is>
       </c>
     </row>
-    <row r="72" ht="315" customHeight="1">
-      <c r="A72" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B72" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C72" s="8" t="inlineStr">
+    <row r="70" ht="315" customHeight="1">
+      <c r="A70" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B70" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C70" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderWithoutTokenAS</t>
         </is>
       </c>
-      <c r="D72" s="8" t="inlineStr">
+      <c r="D70" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E72" s="8" t="inlineStr"/>
-      <c r="F72" s="8" t="inlineStr">
+      <c r="E70" s="8" t="inlineStr"/>
+      <c r="F70" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU na potrzeby usług autoryzacji / PSU Information Class dedicated for authorization services
@@ -3388,29 +3296,29 @@
         </is>
       </c>
     </row>
-    <row r="73" ht="210" customHeight="1">
-      <c r="A73" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B73" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C73" s="8" t="inlineStr">
+    <row r="71" ht="210" customHeight="1">
+      <c r="A71" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B71" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C71" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderWithoutTokenCallbackAS</t>
         </is>
       </c>
-      <c r="D73" s="8" t="inlineStr">
+      <c r="D71" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E73" s="8" t="inlineStr"/>
-      <c r="F73" s="8" t="inlineStr">
+      <c r="E71" s="8" t="inlineStr"/>
+      <c r="F71" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class
@@ -3429,48 +3337,48 @@
         </is>
       </c>
     </row>
-    <row r="74" ht="30" customHeight="1">
-      <c r="A74" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B74" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C74" s="8" t="inlineStr">
+    <row r="72" ht="30" customHeight="1">
+      <c r="A72" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B72" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C72" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderCallback.description</t>
         </is>
       </c>
-      <c r="D74" s="8" t="inlineStr"/>
-      <c r="E74" s="8" t="inlineStr"/>
-      <c r="F74" s="8" t="inlineStr">
+      <c r="D72" s="8" t="inlineStr"/>
+      <c r="E72" s="8" t="inlineStr"/>
+      <c r="F72" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="495" customHeight="1">
-      <c r="A75" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B75" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C75" s="8" t="inlineStr">
+    <row r="73" ht="495" customHeight="1">
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B73" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C73" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderCallback.allOf</t>
         </is>
       </c>
-      <c r="D75" s="8" t="inlineStr">
+      <c r="D73" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/RequestHeaderWithoutToken'
 - type: object
@@ -3488,7 +3396,7 @@
       description: </t>
         </is>
       </c>
-      <c r="E75" s="8" t="inlineStr">
+      <c r="E73" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/RequestHeaderWithoutToken'
 - properties:
@@ -3504,7 +3412,7 @@
       description: </t>
         </is>
       </c>
-      <c r="F75" s="8" t="inlineStr">
+      <c r="F73" s="8" t="inlineStr">
         <is>
           <t>Added:
 • properties:
@@ -3540,48 +3448,48 @@
         </is>
       </c>
     </row>
-    <row r="76" ht="30" customHeight="1">
-      <c r="A76" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B76" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C76" s="8" t="inlineStr">
+    <row r="74" ht="30" customHeight="1">
+      <c r="A74" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B74" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C74" s="8" t="inlineStr">
         <is>
           <t>RequestHeader.description</t>
         </is>
       </c>
-      <c r="D76" s="8" t="inlineStr"/>
-      <c r="E76" s="8" t="inlineStr"/>
-      <c r="F76" s="8" t="inlineStr">
+      <c r="D74" s="8" t="inlineStr"/>
+      <c r="E74" s="8" t="inlineStr"/>
+      <c r="F74" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • Klasa zawierająca informacje o PSU / PSU Information Class</t>
         </is>
       </c>
     </row>
-    <row r="77" ht="285" customHeight="1">
-      <c r="A77" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B77" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C77" s="8" t="inlineStr">
+    <row r="75" ht="285" customHeight="1">
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B75" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C75" s="8" t="inlineStr">
         <is>
           <t>RequestHeader.allOf</t>
         </is>
       </c>
-      <c r="D77" s="8" t="inlineStr">
+      <c r="D75" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/RequestHeaderWithoutToken'
 - type: object
@@ -3594,7 +3502,7 @@
 </t>
         </is>
       </c>
-      <c r="E77" s="8" t="inlineStr">
+      <c r="E75" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/RequestHeaderWithoutToken'
 - properties:
@@ -3608,7 +3516,7 @@
 </t>
         </is>
       </c>
-      <c r="F77" s="8" t="inlineStr">
+      <c r="F75" s="8" t="inlineStr">
         <is>
           <t>Added:
 • properties:
@@ -3630,29 +3538,29 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="210" customHeight="1">
-      <c r="A78" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B78" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C78" s="8" t="inlineStr">
+    <row r="76" ht="210" customHeight="1">
+      <c r="A76" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B76" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C76" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderAIS</t>
         </is>
       </c>
-      <c r="D78" s="8" t="inlineStr">
+      <c r="D76" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E78" s="8" t="inlineStr"/>
-      <c r="F78" s="8" t="inlineStr">
+      <c r="E76" s="8" t="inlineStr"/>
+      <c r="F76" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU / PSU Information Class
@@ -3671,29 +3579,29 @@
         </is>
       </c>
     </row>
-    <row r="79" ht="300" customHeight="1">
-      <c r="A79" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B79" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C79" s="8" t="inlineStr">
+    <row r="77" ht="300" customHeight="1">
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B77" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C77" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderAISCallback</t>
         </is>
       </c>
-      <c r="D79" s="8" t="inlineStr">
+      <c r="D77" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E79" s="8" t="inlineStr"/>
-      <c r="F79" s="8" t="inlineStr">
+      <c r="E77" s="8" t="inlineStr"/>
+      <c r="F77" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class
@@ -3718,6 +3626,68 @@
         </is>
       </c>
     </row>
+    <row r="78" ht="45" customHeight="1">
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B78" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C78" s="8" t="inlineStr">
+        <is>
+          <t>ResponseHeader.properties.requestId.format</t>
+        </is>
+      </c>
+      <c r="D78" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">uuid
+...
+</t>
+        </is>
+      </c>
+      <c r="E78" s="8" t="inlineStr"/>
+      <c r="F78" s="8" t="inlineStr">
+        <is>
+          <t>Removed:
+• uuid</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="45" customHeight="1">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B79" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C79" s="8" t="inlineStr">
+        <is>
+          <t>ResponseHeader.type</t>
+        </is>
+      </c>
+      <c r="D79" s="8" t="inlineStr"/>
+      <c r="E79" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">object
+...
+</t>
+        </is>
+      </c>
+      <c r="F79" s="8" t="inlineStr">
+        <is>
+          <t>Added:
+• object</t>
+        </is>
+      </c>
+    </row>
     <row r="80" ht="45" customHeight="1">
       <c r="A80" s="9" t="inlineStr">
         <is>
@@ -3731,21 +3701,21 @@
       </c>
       <c r="C80" s="8" t="inlineStr">
         <is>
-          <t>ResponseHeader.properties.requestId.format</t>
-        </is>
-      </c>
-      <c r="D80" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">uuid
+          <t>SenderPISForeign.type</t>
+        </is>
+      </c>
+      <c r="D80" s="8" t="inlineStr"/>
+      <c r="E80" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="E80" s="8" t="inlineStr"/>
       <c r="F80" s="8" t="inlineStr">
         <is>
-          <t>Removed:
-• uuid</t>
+          <t>Added:
+• object</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3732,7 @@
       </c>
       <c r="C81" s="8" t="inlineStr">
         <is>
-          <t>ResponseHeader.type</t>
+          <t>SenderPISDomestic.type</t>
         </is>
       </c>
       <c r="D81" s="8" t="inlineStr"/>
@@ -3793,7 +3763,7 @@
       </c>
       <c r="C82" s="8" t="inlineStr">
         <is>
-          <t>SenderPISForeign.type</t>
+          <t>Bank.type</t>
         </is>
       </c>
       <c r="D82" s="8" t="inlineStr"/>
@@ -3811,7 +3781,7 @@
         </is>
       </c>
     </row>
-    <row r="83" ht="45" customHeight="1">
+    <row r="83" ht="195" customHeight="1">
       <c r="A83" s="9" t="inlineStr">
         <is>
           <t>Definitions</t>
@@ -3824,78 +3794,16 @@
       </c>
       <c r="C83" s="8" t="inlineStr">
         <is>
-          <t>SenderPISDomestic.type</t>
-        </is>
-      </c>
-      <c r="D83" s="8" t="inlineStr"/>
-      <c r="E83" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">object
-...
-</t>
-        </is>
-      </c>
+          <t>BankAccountInfo</t>
+        </is>
+      </c>
+      <c r="D83" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">description: </t>
+        </is>
+      </c>
+      <c r="E83" s="8" t="inlineStr"/>
       <c r="F83" s="8" t="inlineStr">
-        <is>
-          <t>Added:
-• object</t>
-        </is>
-      </c>
-    </row>
-    <row r="84" ht="45" customHeight="1">
-      <c r="A84" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B84" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C84" s="8" t="inlineStr">
-        <is>
-          <t>Bank.type</t>
-        </is>
-      </c>
-      <c r="D84" s="8" t="inlineStr"/>
-      <c r="E84" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">object
-...
-</t>
-        </is>
-      </c>
-      <c r="F84" s="8" t="inlineStr">
-        <is>
-          <t>Added:
-• object</t>
-        </is>
-      </c>
-    </row>
-    <row r="85" ht="195" customHeight="1">
-      <c r="A85" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B85" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C85" s="8" t="inlineStr">
-        <is>
-          <t>BankAccountInfo</t>
-        </is>
-      </c>
-      <c r="D85" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">description: </t>
-        </is>
-      </c>
-      <c r="E85" s="8" t="inlineStr"/>
-      <c r="F85" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca dane banku / Bank Data Class
@@ -3913,59 +3821,59 @@
         </is>
       </c>
     </row>
-    <row r="86" ht="45" customHeight="1">
-      <c r="A86" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B86" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C86" s="8" t="inlineStr">
+    <row r="84" ht="45" customHeight="1">
+      <c r="A84" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B84" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C84" s="8" t="inlineStr">
         <is>
           <t>RecurringTransferParameters.properties.dayOffOffsetType.enum</t>
         </is>
       </c>
-      <c r="D86" s="8" t="inlineStr">
+      <c r="D84" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- before
 - after
 </t>
         </is>
       </c>
-      <c r="E86" s="8" t="inlineStr">
+      <c r="E84" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- after
 </t>
         </is>
       </c>
-      <c r="F86" s="8" t="inlineStr">
+      <c r="F84" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • before</t>
         </is>
       </c>
     </row>
-    <row r="87" ht="255" customHeight="1">
-      <c r="A87" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B87" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C87" s="8" t="inlineStr">
+    <row r="85" ht="255" customHeight="1">
+      <c r="A85" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B85" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C85" s="8" t="inlineStr">
         <is>
           <t>TransferDataBase</t>
         </is>
       </c>
-      <c r="D87" s="8" t="inlineStr">
+      <c r="D85" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Bazowa klasa dla TransferData / TransferData Base Class
 type: object
@@ -3976,8 +3884,8 @@
     description: </t>
         </is>
       </c>
-      <c r="E87" s="8" t="inlineStr"/>
-      <c r="F87" s="8" t="inlineStr">
+      <c r="E85" s="8" t="inlineStr"/>
+      <c r="F85" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Bazowa klasa dla TransferData / TransferData Base Class
@@ -3999,6 +3907,68 @@
         </is>
       </c>
     </row>
+    <row r="86" ht="45" customHeight="1">
+      <c r="A86" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B86" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C86" s="8" t="inlineStr">
+        <is>
+          <t>TransferDataBaseTax.properties.amount.maxLength</t>
+        </is>
+      </c>
+      <c r="D86" s="8" t="inlineStr"/>
+      <c r="E86" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35
+...
+</t>
+        </is>
+      </c>
+      <c r="F86" s="8" t="inlineStr">
+        <is>
+          <t>Added:
+• 35</t>
+        </is>
+      </c>
+    </row>
+    <row r="87" ht="45" customHeight="1">
+      <c r="A87" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B87" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C87" s="8" t="inlineStr">
+        <is>
+          <t>TransferDataBaseTax.properties.executionDate.maxLength</t>
+        </is>
+      </c>
+      <c r="D87" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">10
+...
+</t>
+        </is>
+      </c>
+      <c r="E87" s="8" t="inlineStr"/>
+      <c r="F87" s="8" t="inlineStr">
+        <is>
+          <t>Removed:
+• 10</t>
+        </is>
+      </c>
+    </row>
     <row r="88" ht="45" customHeight="1">
       <c r="A88" s="9" t="inlineStr">
         <is>
@@ -4012,103 +3982,41 @@
       </c>
       <c r="C88" s="8" t="inlineStr">
         <is>
-          <t>TransferDataBaseTax.properties.amount.maxLength</t>
+          <t>TransferData.description</t>
         </is>
       </c>
       <c r="D88" s="8" t="inlineStr"/>
       <c r="E88" s="8" t="inlineStr">
         <is>
-          <t xml:space="preserve">35
-...
-</t>
-        </is>
-      </c>
-      <c r="F88" s="8" t="inlineStr">
-        <is>
-          <t>Added:
-• 35</t>
-        </is>
-      </c>
-    </row>
-    <row r="89" ht="45" customHeight="1">
-      <c r="A89" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B89" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C89" s="8" t="inlineStr">
-        <is>
-          <t>TransferDataBaseTax.properties.executionDate.maxLength</t>
-        </is>
-      </c>
-      <c r="D89" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">10
-...
-</t>
-        </is>
-      </c>
-      <c r="E89" s="8" t="inlineStr"/>
-      <c r="F89" s="8" t="inlineStr">
-        <is>
-          <t>Removed:
-• 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="90" ht="45" customHeight="1">
-      <c r="A90" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B90" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C90" s="8" t="inlineStr">
-        <is>
-          <t>TransferData.description</t>
-        </is>
-      </c>
-      <c r="D90" s="8" t="inlineStr"/>
-      <c r="E90" s="8" t="inlineStr">
-        <is>
           <t xml:space="preserve">Bazowa klasa dla TransferData / TransferData Base Class
 ...
 </t>
         </is>
       </c>
-      <c r="F90" s="8" t="inlineStr">
+      <c r="F88" s="8" t="inlineStr">
         <is>
           <t>Added:
 • Klasa zawierająca dane przelewu / Transfer Data Class</t>
         </is>
       </c>
     </row>
-    <row r="91" ht="165" customHeight="1">
-      <c r="A91" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B91" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C91" s="8" t="inlineStr">
+    <row r="89" ht="165" customHeight="1">
+      <c r="A89" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B89" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C89" s="8" t="inlineStr">
         <is>
           <t>TransferData.allOf</t>
         </is>
       </c>
-      <c r="D91" s="8" t="inlineStr">
+      <c r="D89" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/TransferDataBase'
 - type: object
@@ -4123,8 +4031,8 @@
 </t>
         </is>
       </c>
-      <c r="E91" s="8" t="inlineStr"/>
-      <c r="F91" s="8" t="inlineStr">
+      <c r="E89" s="8" t="inlineStr"/>
+      <c r="F89" s="8" t="inlineStr">
         <is>
           <t>Removed:
 •   $ref: #/definitions/TransferDataBase
@@ -4140,31 +4048,31 @@
         </is>
       </c>
     </row>
-    <row r="92" ht="270" customHeight="1">
-      <c r="A92" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B92" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C92" s="8" t="inlineStr">
+    <row r="90" ht="270" customHeight="1">
+      <c r="A90" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B90" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C90" s="8" t="inlineStr">
         <is>
           <t>TransferData.properties</t>
         </is>
       </c>
-      <c r="D92" s="8" t="inlineStr"/>
-      <c r="E92" s="8" t="inlineStr">
+      <c r="D90" s="8" t="inlineStr"/>
+      <c r="E90" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description:
   maxLength: 140
   description: </t>
         </is>
       </c>
-      <c r="F92" s="8" t="inlineStr">
+      <c r="F90" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description:
@@ -4187,31 +4095,31 @@
         </is>
       </c>
     </row>
-    <row r="93" ht="45" customHeight="1">
-      <c r="A93" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B93" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C93" s="8" t="inlineStr">
+    <row r="91" ht="45" customHeight="1">
+      <c r="A91" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B91" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C91" s="8" t="inlineStr">
         <is>
           <t>TransferData.required</t>
         </is>
       </c>
-      <c r="D93" s="8" t="inlineStr"/>
-      <c r="E93" s="8" t="inlineStr">
+      <c r="D91" s="8" t="inlineStr"/>
+      <c r="E91" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- amount
 - description
 </t>
         </is>
       </c>
-      <c r="F93" s="8" t="inlineStr">
+      <c r="F91" s="8" t="inlineStr">
         <is>
           <t>Added:
 •   amount
@@ -4219,85 +4127,85 @@
         </is>
       </c>
     </row>
-    <row r="94" ht="45" customHeight="1">
-      <c r="A94" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B94" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C94" s="8" t="inlineStr">
+    <row r="92" ht="45" customHeight="1">
+      <c r="A92" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B92" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C92" s="8" t="inlineStr">
         <is>
           <t>TransferData.type</t>
         </is>
       </c>
-      <c r="D94" s="8" t="inlineStr"/>
-      <c r="E94" s="8" t="inlineStr">
+      <c r="D92" s="8" t="inlineStr"/>
+      <c r="E92" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="F94" s="8" t="inlineStr">
+      <c r="F92" s="8" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="95" ht="45" customHeight="1">
-      <c r="A95" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B95" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C95" s="8" t="inlineStr">
+    <row r="93" ht="45" customHeight="1">
+      <c r="A93" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B93" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C93" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.description</t>
         </is>
       </c>
-      <c r="D95" s="8" t="inlineStr"/>
-      <c r="E95" s="8" t="inlineStr">
+      <c r="D93" s="8" t="inlineStr"/>
+      <c r="E93" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Bazowa klasa dla TransferData / TransferData Base Class
 ...
 </t>
         </is>
       </c>
-      <c r="F95" s="8" t="inlineStr">
+      <c r="F93" s="8" t="inlineStr">
         <is>
           <t>Added:
 • Klasa zawierająca dane przelewu / Transfer Data Class</t>
         </is>
       </c>
     </row>
-    <row r="96" ht="180" customHeight="1">
-      <c r="A96" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B96" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C96" s="8" t="inlineStr">
+    <row r="94" ht="180" customHeight="1">
+      <c r="A94" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B94" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C94" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.allOf</t>
         </is>
       </c>
-      <c r="D96" s="8" t="inlineStr">
+      <c r="D94" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/TransferDataBase'
 - type: object
@@ -4312,8 +4220,8 @@
       description: </t>
         </is>
       </c>
-      <c r="E96" s="8" t="inlineStr"/>
-      <c r="F96" s="8" t="inlineStr">
+      <c r="E94" s="8" t="inlineStr"/>
+      <c r="F94" s="8" t="inlineStr">
         <is>
           <t>Removed:
 •   $ref: #/definitions/TransferDataBase
@@ -4330,31 +4238,31 @@
         </is>
       </c>
     </row>
-    <row r="97" ht="270" customHeight="1">
-      <c r="A97" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B97" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C97" s="8" t="inlineStr">
+    <row r="95" ht="270" customHeight="1">
+      <c r="A95" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B95" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C95" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.properties</t>
         </is>
       </c>
-      <c r="D97" s="8" t="inlineStr"/>
-      <c r="E97" s="8" t="inlineStr">
+      <c r="D95" s="8" t="inlineStr"/>
+      <c r="E95" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description:
   maxLength: 140
   description: </t>
         </is>
       </c>
-      <c r="F97" s="8" t="inlineStr">
+      <c r="F95" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description:
@@ -4377,24 +4285,24 @@
         </is>
       </c>
     </row>
-    <row r="98" ht="60" customHeight="1">
-      <c r="A98" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B98" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C98" s="8" t="inlineStr">
+    <row r="96" ht="60" customHeight="1">
+      <c r="A96" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B96" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C96" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.required</t>
         </is>
       </c>
-      <c r="D98" s="8" t="inlineStr"/>
-      <c r="E98" s="8" t="inlineStr">
+      <c r="D96" s="8" t="inlineStr"/>
+      <c r="E96" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- currency
 - amount
@@ -4402,7 +4310,7 @@
 </t>
         </is>
       </c>
-      <c r="F98" s="8" t="inlineStr">
+      <c r="F96" s="8" t="inlineStr">
         <is>
           <t>Added:
 •   currency
@@ -4411,79 +4319,79 @@
         </is>
       </c>
     </row>
-    <row r="99" ht="45" customHeight="1">
-      <c r="A99" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B99" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C99" s="8" t="inlineStr">
+    <row r="97" ht="45" customHeight="1">
+      <c r="A97" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B97" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C97" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.type</t>
         </is>
       </c>
-      <c r="D99" s="8" t="inlineStr"/>
-      <c r="E99" s="8" t="inlineStr">
+      <c r="D97" s="8" t="inlineStr"/>
+      <c r="E97" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="F99" s="8" t="inlineStr">
+      <c r="F97" s="8" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="100" ht="30" customHeight="1">
-      <c r="A100" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B100" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C100" s="8" t="inlineStr">
+    <row r="98" ht="30" customHeight="1">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B98" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C98" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.description</t>
         </is>
       </c>
-      <c r="D100" s="8" t="inlineStr"/>
-      <c r="E100" s="8" t="inlineStr"/>
-      <c r="F100" s="8" t="inlineStr">
+      <c r="D98" s="8" t="inlineStr"/>
+      <c r="E98" s="8" t="inlineStr"/>
+      <c r="F98" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • Klasa zawierająca dane przelewu / Transfer Data Class</t>
         </is>
       </c>
     </row>
-    <row r="101" ht="165" customHeight="1">
-      <c r="A101" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B101" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C101" s="8" t="inlineStr">
+    <row r="99" ht="165" customHeight="1">
+      <c r="A99" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B99" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C99" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.allOf</t>
         </is>
       </c>
-      <c r="D101" s="8" t="inlineStr">
+      <c r="D99" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/TransferDataBaseTax'
 - type: object
@@ -4497,8 +4405,8 @@
       description: </t>
         </is>
       </c>
-      <c r="E101" s="8" t="inlineStr"/>
-      <c r="F101" s="8" t="inlineStr">
+      <c r="E99" s="8" t="inlineStr"/>
+      <c r="F99" s="8" t="inlineStr">
         <is>
           <t>Removed:
 •   $ref: #/definitions/TransferDataBaseTax
@@ -4514,24 +4422,24 @@
         </is>
       </c>
     </row>
-    <row r="102" ht="210" customHeight="1">
-      <c r="A102" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B102" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C102" s="8" t="inlineStr">
+    <row r="100" ht="210" customHeight="1">
+      <c r="A100" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B100" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C100" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.properties</t>
         </is>
       </c>
-      <c r="D102" s="8" t="inlineStr"/>
-      <c r="E102" s="8" t="inlineStr">
+      <c r="D100" s="8" t="inlineStr"/>
+      <c r="E100" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">amount:
   pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
@@ -4541,7 +4449,7 @@
   description: </t>
         </is>
       </c>
-      <c r="F102" s="8" t="inlineStr">
+      <c r="F100" s="8" t="inlineStr">
         <is>
           <t>Added:
 • amount:
@@ -4560,31 +4468,31 @@
         </is>
       </c>
     </row>
-    <row r="103" ht="45" customHeight="1">
-      <c r="A103" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B103" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C103" s="8" t="inlineStr">
+    <row r="101" ht="45" customHeight="1">
+      <c r="A101" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B101" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C101" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.required</t>
         </is>
       </c>
-      <c r="D103" s="8" t="inlineStr"/>
-      <c r="E103" s="8" t="inlineStr">
+      <c r="D101" s="8" t="inlineStr"/>
+      <c r="E101" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- currency
 - amount
 </t>
         </is>
       </c>
-      <c r="F103" s="8" t="inlineStr">
+      <c r="F101" s="8" t="inlineStr">
         <is>
           <t>Added:
 •   currency
@@ -4592,60 +4500,60 @@
         </is>
       </c>
     </row>
-    <row r="104" ht="45" customHeight="1">
-      <c r="A104" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B104" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C104" s="8" t="inlineStr">
+    <row r="102" ht="45" customHeight="1">
+      <c r="A102" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B102" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C102" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.type</t>
         </is>
       </c>
-      <c r="D104" s="8" t="inlineStr"/>
-      <c r="E104" s="8" t="inlineStr">
+      <c r="D102" s="8" t="inlineStr"/>
+      <c r="E102" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="F104" s="8" t="inlineStr">
+      <c r="F102" s="8" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="105" ht="195" customHeight="1">
-      <c r="A105" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B105" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C105" s="8" t="inlineStr">
+    <row r="103" ht="195" customHeight="1">
+      <c r="A103" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B103" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C103" s="8" t="inlineStr">
         <is>
           <t>SenderRecipient</t>
         </is>
       </c>
-      <c r="D105" s="8" t="inlineStr">
+      <c r="D103" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E105" s="8" t="inlineStr"/>
-      <c r="F105" s="8" t="inlineStr">
+      <c r="E103" s="8" t="inlineStr"/>
+      <c r="F103" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca dane nadawcy/odbiorcy używana w żądaniach AIS / AIS Sender Recipient Data Class
@@ -4663,6 +4571,69 @@
         </is>
       </c>
     </row>
+    <row r="104" ht="45" customHeight="1">
+      <c r="A104" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B104" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C104" s="8" t="inlineStr">
+        <is>
+          <t>RecipientPIS.required</t>
+        </is>
+      </c>
+      <c r="D104" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- nameAddress
+- accountNumber
+</t>
+        </is>
+      </c>
+      <c r="E104" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- accountNumber
+- nameAddress
+</t>
+        </is>
+      </c>
+      <c r="F104" s="8" t="inlineStr"/>
+    </row>
+    <row r="105" ht="45" customHeight="1">
+      <c r="A105" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B105" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C105" s="8" t="inlineStr">
+        <is>
+          <t>RecipientPIS.type</t>
+        </is>
+      </c>
+      <c r="D105" s="8" t="inlineStr"/>
+      <c r="E105" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">object
+...
+</t>
+        </is>
+      </c>
+      <c r="F105" s="8" t="inlineStr">
+        <is>
+          <t>Added:
+• object</t>
+        </is>
+      </c>
+    </row>
     <row r="106" ht="45" customHeight="1">
       <c r="A106" s="9" t="inlineStr">
         <is>
@@ -4676,7 +4647,7 @@
       </c>
       <c r="C106" s="8" t="inlineStr">
         <is>
-          <t>RecipientPIS.required</t>
+          <t>RecipientPISTax.required</t>
         </is>
       </c>
       <c r="D106" s="8" t="inlineStr">
@@ -4708,7 +4679,7 @@
       </c>
       <c r="C107" s="8" t="inlineStr">
         <is>
-          <t>RecipientPIS.type</t>
+          <t>RecipientPISTax.type</t>
         </is>
       </c>
       <c r="D107" s="8" t="inlineStr"/>
@@ -4739,7 +4710,7 @@
       </c>
       <c r="C108" s="8" t="inlineStr">
         <is>
-          <t>RecipientPISTax.required</t>
+          <t>RecipientPISForeign.required</t>
         </is>
       </c>
       <c r="D108" s="8" t="inlineStr">
@@ -4771,7 +4742,7 @@
       </c>
       <c r="C109" s="8" t="inlineStr">
         <is>
-          <t>RecipientPISTax.type</t>
+          <t>RecipientPISForeign.type</t>
         </is>
       </c>
       <c r="D109" s="8" t="inlineStr"/>
@@ -4789,7 +4760,7 @@
         </is>
       </c>
     </row>
-    <row r="110" ht="45" customHeight="1">
+    <row r="110" ht="30" customHeight="1">
       <c r="A110" s="9" t="inlineStr">
         <is>
           <t>Definitions</t>
@@ -4802,24 +4773,22 @@
       </c>
       <c r="C110" s="8" t="inlineStr">
         <is>
-          <t>RecipientPISForeign.required</t>
-        </is>
-      </c>
-      <c r="D110" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- nameAddress
-- accountNumber
-</t>
-        </is>
-      </c>
+          <t>NameAddress.required</t>
+        </is>
+      </c>
+      <c r="D110" s="8" t="inlineStr"/>
       <c r="E110" s="8" t="inlineStr">
         <is>
-          <t xml:space="preserve">- accountNumber
-- nameAddress
-</t>
-        </is>
-      </c>
-      <c r="F110" s="8" t="inlineStr"/>
+          <t xml:space="preserve">- value
+</t>
+        </is>
+      </c>
+      <c r="F110" s="8" t="inlineStr">
+        <is>
+          <t>Added:
+•   value</t>
+        </is>
+      </c>
     </row>
     <row r="111" ht="45" customHeight="1">
       <c r="A111" s="9" t="inlineStr">
@@ -4834,7 +4803,7 @@
       </c>
       <c r="C111" s="8" t="inlineStr">
         <is>
-          <t>RecipientPISForeign.type</t>
+          <t>NameAddress.type</t>
         </is>
       </c>
       <c r="D111" s="8" t="inlineStr"/>
@@ -4852,7 +4821,7 @@
         </is>
       </c>
     </row>
-    <row r="112" ht="30" customHeight="1">
+    <row r="112" ht="135" customHeight="1">
       <c r="A112" s="9" t="inlineStr">
         <is>
           <t>Definitions</t>
@@ -4865,77 +4834,16 @@
       </c>
       <c r="C112" s="8" t="inlineStr">
         <is>
-          <t>NameAddress.required</t>
-        </is>
-      </c>
-      <c r="D112" s="8" t="inlineStr"/>
-      <c r="E112" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- value
-</t>
-        </is>
-      </c>
+          <t>PageInfo</t>
+        </is>
+      </c>
+      <c r="D112" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">description: </t>
+        </is>
+      </c>
+      <c r="E112" s="8" t="inlineStr"/>
       <c r="F112" s="8" t="inlineStr">
-        <is>
-          <t>Added:
-•   value</t>
-        </is>
-      </c>
-    </row>
-    <row r="113" ht="45" customHeight="1">
-      <c r="A113" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B113" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C113" s="8" t="inlineStr">
-        <is>
-          <t>NameAddress.type</t>
-        </is>
-      </c>
-      <c r="D113" s="8" t="inlineStr"/>
-      <c r="E113" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">object
-...
-</t>
-        </is>
-      </c>
-      <c r="F113" s="8" t="inlineStr">
-        <is>
-          <t>Added:
-• object</t>
-        </is>
-      </c>
-    </row>
-    <row r="114" ht="135" customHeight="1">
-      <c r="A114" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B114" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C114" s="8" t="inlineStr">
-        <is>
-          <t>PageInfo</t>
-        </is>
-      </c>
-      <c r="D114" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">description: </t>
-        </is>
-      </c>
-      <c r="E114" s="8" t="inlineStr"/>
-      <c r="F114" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca dane pozwalajace na korzystanie z mechanizmu stronicowania / Paging Information Class
@@ -4949,29 +4857,29 @@
         </is>
       </c>
     </row>
-    <row r="115" ht="240" customHeight="1">
-      <c r="A115" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B115" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C115" s="8" t="inlineStr">
+    <row r="113" ht="240" customHeight="1">
+      <c r="A113" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B113" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C113" s="8" t="inlineStr">
         <is>
           <t>CurrencyRate</t>
         </is>
       </c>
-      <c r="D115" s="8" t="inlineStr">
+      <c r="D113" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E115" s="8" t="inlineStr"/>
-      <c r="F115" s="8" t="inlineStr">
+      <c r="E113" s="8" t="inlineStr"/>
+      <c r="F113" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca kursy przewalutowań / Currency rate
@@ -4992,23 +4900,23 @@
         </is>
       </c>
     </row>
-    <row r="116" ht="75" customHeight="1">
-      <c r="A116" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B116" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C116" s="8" t="inlineStr">
+    <row r="114" ht="75" customHeight="1">
+      <c r="A114" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B114" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C114" s="8" t="inlineStr">
         <is>
           <t>Map</t>
         </is>
       </c>
-      <c r="D116" s="8" t="inlineStr">
+      <c r="D114" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa mapy &lt;string, string&gt; / Map (Dictionary) class
 type: object
@@ -5017,8 +4925,8 @@
 </t>
         </is>
       </c>
-      <c r="E116" s="8" t="inlineStr"/>
-      <c r="F116" s="8" t="inlineStr">
+      <c r="E114" s="8" t="inlineStr"/>
+      <c r="F114" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa mapy &lt;string, string&gt; / Map (Dictionary) class
@@ -5028,29 +4936,29 @@
         </is>
       </c>
     </row>
-    <row r="117" ht="135" customHeight="1">
-      <c r="A117" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B117" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C117" s="8" t="inlineStr">
+    <row r="115" ht="135" customHeight="1">
+      <c r="A115" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B115" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C115" s="8" t="inlineStr">
         <is>
           <t>DictionaryItem</t>
         </is>
       </c>
-      <c r="D117" s="8" t="inlineStr">
+      <c r="D115" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E117" s="8" t="inlineStr"/>
-      <c r="F117" s="8" t="inlineStr">
+      <c r="E115" s="8" t="inlineStr"/>
+      <c r="F115" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca dane elementu/pozycji słownika / Dictionary Item Class
@@ -5064,29 +4972,29 @@
         </is>
       </c>
     </row>
-    <row r="118" ht="495" customHeight="1">
-      <c r="A118" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B118" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C118" s="8" t="inlineStr">
+    <row r="116" ht="495" customHeight="1">
+      <c r="A116" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B116" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C116" s="8" t="inlineStr">
         <is>
           <t>ScopeDetailsInput</t>
         </is>
       </c>
-      <c r="D118" s="8" t="inlineStr">
+      <c r="D116" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E118" s="8" t="inlineStr"/>
-      <c r="F118" s="8" t="inlineStr">
+      <c r="E116" s="8" t="inlineStr"/>
+      <c r="F116" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Zakres, limity, parametry i czas ważności zgód, o które prosi TPP. / Scope, limits, parameters and expiration time of consents requested by TPP
@@ -5124,29 +5032,29 @@
         </is>
       </c>
     </row>
-    <row r="119" ht="990" customHeight="1">
-      <c r="A119" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B119" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C119" s="8" t="inlineStr">
+    <row r="117" ht="990" customHeight="1">
+      <c r="A117" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B117" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C117" s="8" t="inlineStr">
         <is>
           <t>ScopeDetailsOutput</t>
         </is>
       </c>
-      <c r="D119" s="8" t="inlineStr">
+      <c r="D117" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E119" s="8" t="inlineStr"/>
-      <c r="F119" s="8" t="inlineStr">
+      <c r="E117" s="8" t="inlineStr"/>
+      <c r="F117" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Zakres, limity, parametry i czas ważności zgód, które potwierdza ASPSP / Scope, limits, parameters and expiration time of consents that are confimed by ASPSP
@@ -5217,29 +5125,29 @@
         </is>
       </c>
     </row>
-    <row r="120" ht="150" customHeight="1">
-      <c r="A120" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B120" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C120" s="8" t="inlineStr">
+    <row r="118" ht="150" customHeight="1">
+      <c r="A118" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B118" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C118" s="8" t="inlineStr">
         <is>
           <t>PrivilegeAisAspspInSimple</t>
         </is>
       </c>
-      <c r="D120" s="8" t="inlineStr">
+      <c r="D118" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E120" s="8" t="inlineStr"/>
-      <c r="F120" s="8" t="inlineStr">
+      <c r="E118" s="8" t="inlineStr"/>
+      <c r="F118" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia usługi AIS będących przedmiotem zapytania o zgodę PSU / The list of attributes of the privilege of the AIS service that are the subject of the request for PSU's consent
@@ -5254,29 +5162,29 @@
         </is>
       </c>
     </row>
-    <row r="121" ht="255" customHeight="1">
-      <c r="A121" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B121" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C121" s="8" t="inlineStr">
+    <row r="119" ht="255" customHeight="1">
+      <c r="A119" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B119" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C119" s="8" t="inlineStr">
         <is>
           <t>PrivilegeAisAspspIn</t>
         </is>
       </c>
-      <c r="D121" s="8" t="inlineStr">
+      <c r="D119" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E121" s="8" t="inlineStr"/>
-      <c r="F121" s="8" t="inlineStr">
+      <c r="E119" s="8" t="inlineStr"/>
+      <c r="F119" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia usługi AIS będących przedmiotem zapytania o zgodę PSU / The list of attributes of the privilege of the AIS service that are the subject of the request for PSU's consent
@@ -5298,29 +5206,29 @@
         </is>
       </c>
     </row>
-    <row r="122" ht="150" customHeight="1">
-      <c r="A122" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B122" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C122" s="8" t="inlineStr">
+    <row r="120" ht="150" customHeight="1">
+      <c r="A120" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B120" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C120" s="8" t="inlineStr">
         <is>
           <t>PrivilegeAisAspspOutSimple</t>
         </is>
       </c>
-      <c r="D122" s="8" t="inlineStr">
+      <c r="D120" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E122" s="8" t="inlineStr"/>
-      <c r="F122" s="8" t="inlineStr">
+      <c r="E120" s="8" t="inlineStr"/>
+      <c r="F120" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia usługi AIS dla których została wyrażona zgoda przez PSU / The list of attributes of the privilege of the AIS service that the PSU's consent has been confirmed
@@ -5335,29 +5243,29 @@
         </is>
       </c>
     </row>
-    <row r="123" ht="300" customHeight="1">
-      <c r="A123" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B123" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C123" s="8" t="inlineStr">
+    <row r="121" ht="300" customHeight="1">
+      <c r="A121" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B121" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C121" s="8" t="inlineStr">
         <is>
           <t>PrivilegeAisAspspOut</t>
         </is>
       </c>
-      <c r="D123" s="8" t="inlineStr">
+      <c r="D121" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E123" s="8" t="inlineStr"/>
-      <c r="F123" s="8" t="inlineStr">
+      <c r="E121" s="8" t="inlineStr"/>
+      <c r="F121" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia usługi AIS dla których została wyrażona zgoda przez PSU / The list of attributes of the privilege of the AIS service that the PSU's consent has been confirmed
@@ -5382,29 +5290,29 @@
         </is>
       </c>
     </row>
-    <row r="124" ht="240" customHeight="1">
-      <c r="A124" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B124" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C124" s="8" t="inlineStr">
+    <row r="122" ht="240" customHeight="1">
+      <c r="A122" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B122" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C122" s="8" t="inlineStr">
         <is>
           <t>PrivilegePayment</t>
         </is>
       </c>
-      <c r="D124" s="8" t="inlineStr">
+      <c r="D122" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E124" s="8" t="inlineStr"/>
-      <c r="F124" s="8" t="inlineStr">
+      <c r="E122" s="8" t="inlineStr"/>
+      <c r="F122" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do żądania statusu płatności / The list of attributes of the payment status request privilege
@@ -5425,29 +5333,29 @@
         </is>
       </c>
     </row>
-    <row r="125" ht="240" customHeight="1">
-      <c r="A125" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B125" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C125" s="8" t="inlineStr">
+    <row r="123" ht="240" customHeight="1">
+      <c r="A123" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B123" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C123" s="8" t="inlineStr">
         <is>
           <t>PrivilegeBundle</t>
         </is>
       </c>
-      <c r="D125" s="8" t="inlineStr">
+      <c r="D123" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E125" s="8" t="inlineStr"/>
-      <c r="F125" s="8" t="inlineStr">
+      <c r="E123" s="8" t="inlineStr"/>
+      <c r="F123" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do żądania statusu paczki płatności / The list of attributes of the bundle of payments status request privilege
@@ -5468,29 +5376,29 @@
         </is>
       </c>
     </row>
-    <row r="126" ht="240" customHeight="1">
-      <c r="A126" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B126" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C126" s="8" t="inlineStr">
+    <row r="124" ht="240" customHeight="1">
+      <c r="A124" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B124" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C124" s="8" t="inlineStr">
         <is>
           <t>PrivilegeRecurringPaymentStatus</t>
         </is>
       </c>
-      <c r="D126" s="8" t="inlineStr">
+      <c r="D124" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E126" s="8" t="inlineStr"/>
-      <c r="F126" s="8" t="inlineStr">
+      <c r="E124" s="8" t="inlineStr"/>
+      <c r="F124" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do żądania statusu płatności cyklicznej / The list of attributes of recurring payment status request privilege
@@ -5511,29 +5419,29 @@
         </is>
       </c>
     </row>
-    <row r="127" ht="555" customHeight="1">
-      <c r="A127" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B127" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C127" s="8" t="inlineStr">
+    <row r="125" ht="555" customHeight="1">
+      <c r="A125" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B125" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C125" s="8" t="inlineStr">
         <is>
           <t>PrivilegeDomesticTransfer</t>
         </is>
       </c>
-      <c r="D127" s="8" t="inlineStr">
+      <c r="D125" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E127" s="8" t="inlineStr"/>
-      <c r="F127" s="8" t="inlineStr">
+      <c r="E125" s="8" t="inlineStr"/>
+      <c r="F125" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do inicjacji przelewu zwykłego / The list of attributes of the domestic transfer request initiation privilege
@@ -5575,29 +5483,29 @@
         </is>
       </c>
     </row>
-    <row r="128" ht="525" customHeight="1">
-      <c r="A128" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B128" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C128" s="8" t="inlineStr">
+    <row r="126" ht="525" customHeight="1">
+      <c r="A126" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B126" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C126" s="8" t="inlineStr">
         <is>
           <t>PrivilegeForeignTransferEEA</t>
         </is>
       </c>
-      <c r="D128" s="8" t="inlineStr">
+      <c r="D126" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E128" s="8" t="inlineStr"/>
-      <c r="F128" s="8" t="inlineStr">
+      <c r="E126" s="8" t="inlineStr"/>
+      <c r="F126" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do inicjacji przelewu zagranicznego EEA / The list of attributes of the EEA foreign transfer request initiation privilege
@@ -5637,29 +5545,29 @@
         </is>
       </c>
     </row>
-    <row r="129" ht="600" customHeight="1">
-      <c r="A129" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B129" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C129" s="8" t="inlineStr">
+    <row r="127" ht="600" customHeight="1">
+      <c r="A127" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B127" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C127" s="8" t="inlineStr">
         <is>
           <t>PrivilegeForeignTransferNonEEA</t>
         </is>
       </c>
-      <c r="D129" s="8" t="inlineStr">
+      <c r="D127" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E129" s="8" t="inlineStr"/>
-      <c r="F129" s="8" t="inlineStr">
+      <c r="E127" s="8" t="inlineStr"/>
+      <c r="F127" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do inicjacji przelewu zagranicznego bez EEA / The list of attributes of the non-EEA foreign transfer request initiation privilege
@@ -5704,29 +5612,29 @@
         </is>
       </c>
     </row>
-    <row r="130" ht="540" customHeight="1">
-      <c r="A130" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B130" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C130" s="8" t="inlineStr">
+    <row r="128" ht="540" customHeight="1">
+      <c r="A128" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B128" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C128" s="8" t="inlineStr">
         <is>
           <t>PrivilegeTaxTransfer</t>
         </is>
       </c>
-      <c r="D130" s="8" t="inlineStr">
+      <c r="D128" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E130" s="8" t="inlineStr"/>
-      <c r="F130" s="8" t="inlineStr">
+      <c r="E128" s="8" t="inlineStr"/>
+      <c r="F128" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do inicjacji przelewu urzędu podatkowego / The list of attributes of the tax transfer request initiation privilege
@@ -5767,29 +5675,29 @@
         </is>
       </c>
     </row>
-    <row r="131" ht="255" customHeight="1">
-      <c r="A131" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B131" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C131" s="8" t="inlineStr">
+    <row r="129" ht="255" customHeight="1">
+      <c r="A129" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B129" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C129" s="8" t="inlineStr">
         <is>
           <t>PrivilegeCancelPayment</t>
         </is>
       </c>
-      <c r="D131" s="8" t="inlineStr">
+      <c r="D129" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E131" s="8" t="inlineStr"/>
-      <c r="F131" s="8" t="inlineStr">
+      <c r="E129" s="8" t="inlineStr"/>
+      <c r="F129" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do odwołania zainicjowanego przelewu / The list of attributes of the cancel initiated payment request privilege
@@ -5811,29 +5719,29 @@
         </is>
       </c>
     </row>
-    <row r="132" ht="210" customHeight="1">
-      <c r="A132" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B132" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C132" s="8" t="inlineStr">
+    <row r="130" ht="210" customHeight="1">
+      <c r="A130" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B130" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C130" s="8" t="inlineStr">
         <is>
           <t>PrivilegeCancelRecurringPayment</t>
         </is>
       </c>
-      <c r="D132" s="8" t="inlineStr">
+      <c r="D130" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E132" s="8" t="inlineStr"/>
-      <c r="F132" s="8" t="inlineStr">
+      <c r="E130" s="8" t="inlineStr"/>
+      <c r="F130" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do anulowania płatności cyklicznej / The list of attributes of the cancel recurring payment request privilege
@@ -5852,29 +5760,29 @@
         </is>
       </c>
     </row>
-    <row r="133" ht="630" customHeight="1">
-      <c r="A133" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B133" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C133" s="8" t="inlineStr">
+    <row r="131" ht="630" customHeight="1">
+      <c r="A131" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B131" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C131" s="8" t="inlineStr">
         <is>
           <t>PrivilegeBundleTransfers</t>
         </is>
       </c>
-      <c r="D133" s="8" t="inlineStr">
+      <c r="D131" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E133" s="8" t="inlineStr"/>
-      <c r="F133" s="8" t="inlineStr">
+      <c r="E131" s="8" t="inlineStr"/>
+      <c r="F131" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do zainicjowania paczki przelewu / The list of attributes of the initiate bundle of payments request privilege
@@ -5921,29 +5829,29 @@
         </is>
       </c>
     </row>
-    <row r="134" ht="420" customHeight="1">
-      <c r="A134" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B134" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C134" s="8" t="inlineStr">
+    <row r="132" ht="420" customHeight="1">
+      <c r="A132" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B132" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C132" s="8" t="inlineStr">
         <is>
           <t>PrivilegeRecurringPayment</t>
         </is>
       </c>
-      <c r="D134" s="8" t="inlineStr">
+      <c r="D132" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E134" s="8" t="inlineStr"/>
-      <c r="F134" s="8" t="inlineStr">
+      <c r="E132" s="8" t="inlineStr"/>
+      <c r="F132" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do zdefiniowania nowej płatności cyklicznej / The list of attributes of definition of new recurring payment request privilege
@@ -5976,29 +5884,29 @@
         </is>
       </c>
     </row>
-    <row r="135" ht="675" customHeight="1">
-      <c r="A135" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B135" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C135" s="8" t="inlineStr">
+    <row r="133" ht="675" customHeight="1">
+      <c r="A133" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B133" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C133" s="8" t="inlineStr">
         <is>
           <t>ScopeDetailsInputPrivilegeList</t>
         </is>
       </c>
-      <c r="D135" s="8" t="inlineStr">
+      <c r="D133" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E135" s="8" t="inlineStr"/>
-      <c r="F135" s="8" t="inlineStr">
+      <c r="E133" s="8" t="inlineStr"/>
+      <c r="F133" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Pełna lista uprawnień będących przedmiotem zapytania o zgodę PSU / The list of all privileges that are the subject of the request for PSU's consent
@@ -6048,29 +5956,29 @@
         </is>
       </c>
     </row>
-    <row r="136" ht="1260" customHeight="1">
-      <c r="A136" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B136" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C136" s="8" t="inlineStr">
+    <row r="134" ht="1260" customHeight="1">
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B134" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C134" s="8" t="inlineStr">
         <is>
           <t>ScopeDetailsOutputPrivilegeList</t>
         </is>
       </c>
-      <c r="D136" s="8" t="inlineStr">
+      <c r="D134" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E136" s="8" t="inlineStr"/>
-      <c r="F136" s="8" t="inlineStr">
+      <c r="E134" s="8" t="inlineStr"/>
+      <c r="F134" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Pełna lista uprawnień, dla których została wyrażona zgoda przez PSU / The list of all privileges that the PSU's consent has been confirmed
@@ -6159,29 +6067,29 @@
         </is>
       </c>
     </row>
-    <row r="137" ht="855" customHeight="1">
-      <c r="A137" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B137" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C137" s="8" t="inlineStr">
+    <row r="135" ht="855" customHeight="1">
+      <c r="A135" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B135" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C135" s="8" t="inlineStr">
         <is>
           <t>PaymentNonEEARequestBank</t>
         </is>
       </c>
-      <c r="D137" s="8" t="inlineStr"/>
-      <c r="E137" s="8" t="inlineStr">
+      <c r="D135" s="8" t="inlineStr"/>
+      <c r="E135" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="F137" s="8" t="inlineStr">
+      <c r="F135" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Klasa zawierająca dane banku używana w żądaniach AIS / AIS Bank Data Class W przypadku rachunku IBAN nie są wymagane poniższe dane z klasy. Wymagane są niektóre z poniższych danych z klasy w przypadku identyfikacji banków, kiedy rachunek nie jest w formacie IBAN / Some of the following class details are required for identifying banks that do not have an IBAN account. For the IBAN , the following class details are not required.

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -575,7 +575,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
+    <row r="3" ht="210" customHeight="1">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
@@ -583,15 +583,73 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>UNCATEGORIZED</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
+          <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.parameters</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
+- $ref: '#/parameters/acceptEncodingParam'
+- $ref: '#/parameters/acceptLanguageParam'
+- $ref: '#/parameters/acceptCharsetParam'
+- $ref: '#/parameters/xjwsSignatureParam'
+- $ref: '#/parameters/xRequestIdParam'
+- name: domesticRequest
+  in: body
+  description: Data for domestic transfer
+  required: true
+  schema:
+    $ref: '#/definitions/PaymentDomesticRequest'
+</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
+- $ref: '#/parameters/acceptEncodingParam'
+- $ref: '#/parameters/acceptLanguageParam'
+- $ref: '#/parameters/acceptCharsetParam'
+- $ref: '#/parameters/xjwsSignatureParam'
+- $ref: '#/parameters/xRequestIdParam'
+- $ref: '#/parameters/contentTypeParam'
+- schema:
+    $ref: '#/definitions/PaymentDomesticRequest'
+  in: body
+  name: domesticRequest
+  description: Data for domestic transfer
+  required: true
+</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>Added:
+• $ref: #/parameters/contentTypeParam</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.responses.500</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -599,8 +657,8 @@
 </t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr"/>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr"/>
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -609,24 +667,58 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
+        <is>
+          <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.responses.503</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">description: Service Unavailable
+schema:
+  $ref: '#/definitions/Error'
+</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr"/>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>Removed:
+• description: Service Unavailable
+• schema:
+  $ref: #/definitions/Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.responses.510</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr"/>
-      <c r="E4" s="8" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr"/>
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -634,7 +726,7 @@
 </t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -643,23 +735,23 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="75" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
+    <row r="7" ht="75" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.security</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -668,14 +760,14 @@
 </t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -683,54 +775,54 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="45" customHeight="1">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
+    <row r="8" ht="45" customHeight="1">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E6" s="8" t="inlineStr"/>
-      <c r="F6" s="8" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="210" customHeight="1">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
+    <row r="9" ht="210" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.parameters</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -747,7 +839,7 @@
 </t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -765,30 +857,30 @@
 </t>
         </is>
       </c>
-      <c r="F7" s="8" t="inlineStr">
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.responses.500</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -796,8 +888,8 @@
 </t>
         </is>
       </c>
-      <c r="E8" s="8" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -806,23 +898,23 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.responses.503</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -830,8 +922,8 @@
 </t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -840,24 +932,24 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.responses.510</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -865,7 +957,7 @@
 </t>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr">
+      <c r="F12" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -874,23 +966,23 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="75" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
+    <row r="13" ht="75" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.security</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D13" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -899,14 +991,14 @@
 </t>
         </is>
       </c>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="E13" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="F13" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -914,54 +1006,54 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="45" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
+    <row r="14" ht="45" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E12" s="8" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="E14" s="8" t="inlineStr"/>
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="210" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
+    <row r="15" ht="210" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.parameters</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -978,7 +1070,7 @@
 </t>
         </is>
       </c>
-      <c r="E13" s="8" t="inlineStr">
+      <c r="E15" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -996,30 +1088,30 @@
 </t>
         </is>
       </c>
-      <c r="F13" s="8" t="inlineStr">
+      <c r="F15" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.responses.500</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D16" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1027,8 +1119,8 @@
 </t>
         </is>
       </c>
-      <c r="E14" s="8" t="inlineStr"/>
-      <c r="F14" s="8" t="inlineStr">
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1037,23 +1129,23 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.responses.503</t>
         </is>
       </c>
-      <c r="D15" s="8" t="inlineStr">
+      <c r="D17" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1061,8 +1153,8 @@
 </t>
         </is>
       </c>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="8" t="inlineStr">
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1071,24 +1163,24 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.responses.510</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1096,7 +1188,7 @@
 </t>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="F18" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1105,23 +1197,23 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="75" customHeight="1">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
+    <row r="19" ht="75" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.security</t>
         </is>
       </c>
-      <c r="D17" s="8" t="inlineStr">
+      <c r="D19" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1130,14 +1222,14 @@
 </t>
         </is>
       </c>
-      <c r="E17" s="8" t="inlineStr">
+      <c r="E19" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F17" s="8" t="inlineStr">
+      <c r="F19" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1145,54 +1237,54 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="45" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+    <row r="20" ht="45" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D18" s="8" t="inlineStr">
+      <c r="D20" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E18" s="8" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="210" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B19" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
+    <row r="21" ht="210" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.parameters</t>
         </is>
       </c>
-      <c r="D19" s="8" t="inlineStr">
+      <c r="D21" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1209,7 +1301,7 @@
 </t>
         </is>
       </c>
-      <c r="E19" s="8" t="inlineStr">
+      <c r="E21" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1227,30 +1319,30 @@
 </t>
         </is>
       </c>
-      <c r="F19" s="8" t="inlineStr">
+      <c r="F21" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.responses.500</t>
         </is>
       </c>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1258,8 +1350,8 @@
 </t>
         </is>
       </c>
-      <c r="E20" s="8" t="inlineStr"/>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1268,23 +1360,23 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.responses.503</t>
         </is>
       </c>
-      <c r="D21" s="8" t="inlineStr">
+      <c r="D23" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1292,8 +1384,8 @@
 </t>
         </is>
       </c>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr">
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1302,24 +1394,24 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.responses.510</t>
         </is>
       </c>
-      <c r="D22" s="8" t="inlineStr"/>
-      <c r="E22" s="8" t="inlineStr">
+      <c r="D24" s="8" t="inlineStr"/>
+      <c r="E24" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1327,7 +1419,7 @@
 </t>
         </is>
       </c>
-      <c r="F22" s="8" t="inlineStr">
+      <c r="F24" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1336,23 +1428,23 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="75" customHeight="1">
-      <c r="A23" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr">
+    <row r="25" ht="75" customHeight="1">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.security</t>
         </is>
       </c>
-      <c r="D23" s="8" t="inlineStr">
+      <c r="D25" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1361,14 +1453,14 @@
 </t>
         </is>
       </c>
-      <c r="E23" s="8" t="inlineStr">
+      <c r="E25" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F23" s="8" t="inlineStr">
+      <c r="F25" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1376,54 +1468,54 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="45" customHeight="1">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr">
+    <row r="26" ht="45" customHeight="1">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D24" s="8" t="inlineStr">
+      <c r="D26" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E24" s="8" t="inlineStr"/>
-      <c r="F24" s="8" t="inlineStr">
+      <c r="E26" s="8" t="inlineStr"/>
+      <c r="F26" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="25" ht="210" customHeight="1">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B25" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C25" s="8" t="inlineStr">
+    <row r="27" ht="210" customHeight="1">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.parameters</t>
         </is>
       </c>
-      <c r="D25" s="8" t="inlineStr">
+      <c r="D27" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1440,7 +1532,7 @@
 </t>
         </is>
       </c>
-      <c r="E25" s="8" t="inlineStr">
+      <c r="E27" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1458,30 +1550,30 @@
 </t>
         </is>
       </c>
-      <c r="F25" s="8" t="inlineStr">
+      <c r="F27" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="60" customHeight="1">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C26" s="8" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.responses.500</t>
         </is>
       </c>
-      <c r="D26" s="8" t="inlineStr">
+      <c r="D28" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1489,8 +1581,8 @@
 </t>
         </is>
       </c>
-      <c r="E26" s="8" t="inlineStr"/>
-      <c r="F26" s="8" t="inlineStr">
+      <c r="E28" s="8" t="inlineStr"/>
+      <c r="F28" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1499,23 +1591,23 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.responses.503</t>
         </is>
       </c>
-      <c r="D27" s="8" t="inlineStr">
+      <c r="D29" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1523,8 +1615,8 @@
 </t>
         </is>
       </c>
-      <c r="E27" s="8" t="inlineStr"/>
-      <c r="F27" s="8" t="inlineStr">
+      <c r="E29" s="8" t="inlineStr"/>
+      <c r="F29" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1533,24 +1625,24 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C28" s="8" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.responses.510</t>
         </is>
       </c>
-      <c r="D28" s="8" t="inlineStr"/>
-      <c r="E28" s="8" t="inlineStr">
+      <c r="D30" s="8" t="inlineStr"/>
+      <c r="E30" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1558,7 +1650,7 @@
 </t>
         </is>
       </c>
-      <c r="F28" s="8" t="inlineStr">
+      <c r="F30" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1567,23 +1659,23 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="75" customHeight="1">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B29" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C29" s="8" t="inlineStr">
+    <row r="31" ht="75" customHeight="1">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.security</t>
         </is>
       </c>
-      <c r="D29" s="8" t="inlineStr">
+      <c r="D31" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1592,14 +1684,14 @@
 </t>
         </is>
       </c>
-      <c r="E29" s="8" t="inlineStr">
+      <c r="E31" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F29" s="8" t="inlineStr">
+      <c r="F31" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1607,54 +1699,54 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="45" customHeight="1">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B30" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C30" s="8" t="inlineStr">
+    <row r="32" ht="45" customHeight="1">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D30" s="8" t="inlineStr">
+      <c r="D32" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E30" s="8" t="inlineStr"/>
-      <c r="F30" s="8" t="inlineStr">
+      <c r="E32" s="8" t="inlineStr"/>
+      <c r="F32" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="210" customHeight="1">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B31" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C31" s="8" t="inlineStr">
+    <row r="33" ht="210" customHeight="1">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.parameters</t>
         </is>
       </c>
-      <c r="D31" s="8" t="inlineStr">
+      <c r="D33" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1671,7 +1763,7 @@
 </t>
         </is>
       </c>
-      <c r="E31" s="8" t="inlineStr">
+      <c r="E33" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1689,30 +1781,30 @@
 </t>
         </is>
       </c>
-      <c r="F31" s="8" t="inlineStr">
+      <c r="F33" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="60" customHeight="1">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C32" s="8" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.responses.500</t>
         </is>
       </c>
-      <c r="D32" s="8" t="inlineStr">
+      <c r="D34" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1720,8 +1812,8 @@
 </t>
         </is>
       </c>
-      <c r="E32" s="8" t="inlineStr"/>
-      <c r="F32" s="8" t="inlineStr">
+      <c r="E34" s="8" t="inlineStr"/>
+      <c r="F34" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1730,23 +1822,23 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C33" s="8" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.responses.503</t>
         </is>
       </c>
-      <c r="D33" s="8" t="inlineStr">
+      <c r="D35" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1754,8 +1846,8 @@
 </t>
         </is>
       </c>
-      <c r="E33" s="8" t="inlineStr"/>
-      <c r="F33" s="8" t="inlineStr">
+      <c r="E35" s="8" t="inlineStr"/>
+      <c r="F35" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1764,24 +1856,24 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C34" s="8" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.responses.510</t>
         </is>
       </c>
-      <c r="D34" s="8" t="inlineStr"/>
-      <c r="E34" s="8" t="inlineStr">
+      <c r="D36" s="8" t="inlineStr"/>
+      <c r="E36" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1789,7 +1881,7 @@
 </t>
         </is>
       </c>
-      <c r="F34" s="8" t="inlineStr">
+      <c r="F36" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1798,23 +1890,23 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="75" customHeight="1">
-      <c r="A35" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B35" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
+    <row r="37" ht="75" customHeight="1">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.security</t>
         </is>
       </c>
-      <c r="D35" s="8" t="inlineStr">
+      <c r="D37" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1823,14 +1915,14 @@
 </t>
         </is>
       </c>
-      <c r="E35" s="8" t="inlineStr">
+      <c r="E37" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F35" s="8" t="inlineStr">
+      <c r="F37" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1838,54 +1930,54 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="45" customHeight="1">
-      <c r="A36" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C36" s="8" t="inlineStr">
+    <row r="38" ht="45" customHeight="1">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D36" s="8" t="inlineStr">
+      <c r="D38" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E36" s="8" t="inlineStr"/>
-      <c r="F36" s="8" t="inlineStr">
+      <c r="E38" s="8" t="inlineStr"/>
+      <c r="F38" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="37" ht="210" customHeight="1">
-      <c r="A37" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C37" s="8" t="inlineStr">
+    <row r="39" ht="210" customHeight="1">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.parameters</t>
         </is>
       </c>
-      <c r="D37" s="8" t="inlineStr">
+      <c r="D39" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1902,7 +1994,7 @@
 </t>
         </is>
       </c>
-      <c r="E37" s="8" t="inlineStr">
+      <c r="E39" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1920,30 +2012,30 @@
 </t>
         </is>
       </c>
-      <c r="F37" s="8" t="inlineStr">
+      <c r="F39" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="60" customHeight="1">
-      <c r="A38" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B38" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C38" s="8" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.responses.500</t>
         </is>
       </c>
-      <c r="D38" s="8" t="inlineStr">
+      <c r="D40" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1951,8 +2043,8 @@
 </t>
         </is>
       </c>
-      <c r="E38" s="8" t="inlineStr"/>
-      <c r="F38" s="8" t="inlineStr">
+      <c r="E40" s="8" t="inlineStr"/>
+      <c r="F40" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1961,23 +2053,23 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B39" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C39" s="8" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B41" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.responses.503</t>
         </is>
       </c>
-      <c r="D39" s="8" t="inlineStr">
+      <c r="D41" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1985,8 +2077,8 @@
 </t>
         </is>
       </c>
-      <c r="E39" s="8" t="inlineStr"/>
-      <c r="F39" s="8" t="inlineStr">
+      <c r="E41" s="8" t="inlineStr"/>
+      <c r="F41" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1995,24 +2087,24 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B40" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C40" s="8" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B42" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C42" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.responses.510</t>
         </is>
       </c>
-      <c r="D40" s="8" t="inlineStr"/>
-      <c r="E40" s="8" t="inlineStr">
+      <c r="D42" s="8" t="inlineStr"/>
+      <c r="E42" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2020,7 +2112,7 @@
 </t>
         </is>
       </c>
-      <c r="F40" s="8" t="inlineStr">
+      <c r="F42" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2029,23 +2121,23 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="75" customHeight="1">
-      <c r="A41" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B41" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C41" s="8" t="inlineStr">
+    <row r="43" ht="75" customHeight="1">
+      <c r="A43" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B43" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C43" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.security</t>
         </is>
       </c>
-      <c r="D41" s="8" t="inlineStr">
+      <c r="D43" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2054,14 +2146,14 @@
 </t>
         </is>
       </c>
-      <c r="E41" s="8" t="inlineStr">
+      <c r="E43" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F41" s="8" t="inlineStr">
+      <c r="F43" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2069,54 +2161,54 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="45" customHeight="1">
-      <c r="A42" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B42" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C42" s="8" t="inlineStr">
+    <row r="44" ht="45" customHeight="1">
+      <c r="A44" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B44" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D42" s="8" t="inlineStr">
+      <c r="D44" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E42" s="8" t="inlineStr"/>
-      <c r="F42" s="8" t="inlineStr">
+      <c r="E44" s="8" t="inlineStr"/>
+      <c r="F44" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="43" ht="210" customHeight="1">
-      <c r="A43" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B43" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C43" s="8" t="inlineStr">
+    <row r="45" ht="210" customHeight="1">
+      <c r="A45" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.parameters</t>
         </is>
       </c>
-      <c r="D43" s="8" t="inlineStr">
+      <c r="D45" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2133,7 +2225,7 @@
 </t>
         </is>
       </c>
-      <c r="E43" s="8" t="inlineStr">
+      <c r="E45" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2151,30 +2243,30 @@
 </t>
         </is>
       </c>
-      <c r="F43" s="8" t="inlineStr">
+      <c r="F45" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="60" customHeight="1">
-      <c r="A44" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B44" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C44" s="8" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B46" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.responses.500</t>
         </is>
       </c>
-      <c r="D44" s="8" t="inlineStr">
+      <c r="D46" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2182,8 +2274,8 @@
 </t>
         </is>
       </c>
-      <c r="E44" s="8" t="inlineStr"/>
-      <c r="F44" s="8" t="inlineStr">
+      <c r="E46" s="8" t="inlineStr"/>
+      <c r="F46" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2192,23 +2284,23 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B45" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C45" s="8" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.responses.503</t>
         </is>
       </c>
-      <c r="D45" s="8" t="inlineStr">
+      <c r="D47" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2216,8 +2308,8 @@
 </t>
         </is>
       </c>
-      <c r="E45" s="8" t="inlineStr"/>
-      <c r="F45" s="8" t="inlineStr">
+      <c r="E47" s="8" t="inlineStr"/>
+      <c r="F47" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2226,24 +2318,24 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B46" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C46" s="8" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.responses.510</t>
         </is>
       </c>
-      <c r="D46" s="8" t="inlineStr"/>
-      <c r="E46" s="8" t="inlineStr">
+      <c r="D48" s="8" t="inlineStr"/>
+      <c r="E48" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2251,7 +2343,7 @@
 </t>
         </is>
       </c>
-      <c r="F46" s="8" t="inlineStr">
+      <c r="F48" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2260,23 +2352,23 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="75" customHeight="1">
-      <c r="A47" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B47" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C47" s="8" t="inlineStr">
+    <row r="49" ht="75" customHeight="1">
+      <c r="A49" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.security</t>
         </is>
       </c>
-      <c r="D47" s="8" t="inlineStr">
+      <c r="D49" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2285,14 +2377,14 @@
 </t>
         </is>
       </c>
-      <c r="E47" s="8" t="inlineStr">
+      <c r="E49" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F47" s="8" t="inlineStr">
+      <c r="F49" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2300,54 +2392,54 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="45" customHeight="1">
-      <c r="A48" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B48" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C48" s="8" t="inlineStr">
+    <row r="50" ht="45" customHeight="1">
+      <c r="A50" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B50" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D48" s="8" t="inlineStr">
+      <c r="D50" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E48" s="8" t="inlineStr"/>
-      <c r="F48" s="8" t="inlineStr">
+      <c r="E50" s="8" t="inlineStr"/>
+      <c r="F50" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="49" ht="210" customHeight="1">
-      <c r="A49" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B49" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C49" s="8" t="inlineStr">
+    <row r="51" ht="210" customHeight="1">
+      <c r="A51" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.parameters</t>
         </is>
       </c>
-      <c r="D49" s="8" t="inlineStr">
+      <c r="D51" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2364,7 +2456,7 @@
 </t>
         </is>
       </c>
-      <c r="E49" s="8" t="inlineStr">
+      <c r="E51" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2382,30 +2474,30 @@
 </t>
         </is>
       </c>
-      <c r="F49" s="8" t="inlineStr">
+      <c r="F51" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="60" customHeight="1">
-      <c r="A50" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B50" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C50" s="8" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.responses.500</t>
         </is>
       </c>
-      <c r="D50" s="8" t="inlineStr">
+      <c r="D52" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2413,8 +2505,8 @@
 </t>
         </is>
       </c>
-      <c r="E50" s="8" t="inlineStr"/>
-      <c r="F50" s="8" t="inlineStr">
+      <c r="E52" s="8" t="inlineStr"/>
+      <c r="F52" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2423,23 +2515,23 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B51" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C51" s="8" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.responses.503</t>
         </is>
       </c>
-      <c r="D51" s="8" t="inlineStr">
+      <c r="D53" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2447,8 +2539,8 @@
 </t>
         </is>
       </c>
-      <c r="E51" s="8" t="inlineStr"/>
-      <c r="F51" s="8" t="inlineStr">
+      <c r="E53" s="8" t="inlineStr"/>
+      <c r="F53" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2457,24 +2549,24 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B52" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C52" s="8" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B54" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.responses.510</t>
         </is>
       </c>
-      <c r="D52" s="8" t="inlineStr"/>
-      <c r="E52" s="8" t="inlineStr">
+      <c r="D54" s="8" t="inlineStr"/>
+      <c r="E54" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2482,7 +2574,7 @@
 </t>
         </is>
       </c>
-      <c r="F52" s="8" t="inlineStr">
+      <c r="F54" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2491,23 +2583,23 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="75" customHeight="1">
-      <c r="A53" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B53" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C53" s="8" t="inlineStr">
+    <row r="55" ht="75" customHeight="1">
+      <c r="A55" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.security</t>
         </is>
       </c>
-      <c r="D53" s="8" t="inlineStr">
+      <c r="D55" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2516,14 +2608,14 @@
 </t>
         </is>
       </c>
-      <c r="E53" s="8" t="inlineStr">
+      <c r="E55" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F53" s="8" t="inlineStr">
+      <c r="F55" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2531,23 +2623,23 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="1020" customHeight="1">
-      <c r="A54" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B54" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C54" s="8" t="inlineStr">
+    <row r="56" ht="1020" customHeight="1">
+      <c r="A56" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C56" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getMultiplePayments</t>
         </is>
       </c>
-      <c r="D54" s="8" t="inlineStr">
+      <c r="D56" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: pis
 post:
@@ -2619,8 +2711,8 @@
 </t>
         </is>
       </c>
-      <c r="E54" s="8" t="inlineStr"/>
-      <c r="F54" s="8" t="inlineStr">
+      <c r="E56" s="8" t="inlineStr"/>
+      <c r="F56" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: pis
@@ -2693,54 +2785,54 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="45" customHeight="1">
-      <c r="A55" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B55" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C55" s="8" t="inlineStr">
+    <row r="57" ht="45" customHeight="1">
+      <c r="A57" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B57" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D55" s="8" t="inlineStr">
+      <c r="D57" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E55" s="8" t="inlineStr"/>
-      <c r="F55" s="8" t="inlineStr">
+      <c r="E57" s="8" t="inlineStr"/>
+      <c r="F57" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="56" ht="210" customHeight="1">
-      <c r="A56" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B56" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C56" s="8" t="inlineStr">
+    <row r="58" ht="210" customHeight="1">
+      <c r="A58" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B58" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.parameters</t>
         </is>
       </c>
-      <c r="D56" s="8" t="inlineStr">
+      <c r="D58" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2757,7 +2849,7 @@
 </t>
         </is>
       </c>
-      <c r="E56" s="8" t="inlineStr">
+      <c r="E58" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2775,30 +2867,30 @@
 </t>
         </is>
       </c>
-      <c r="F56" s="8" t="inlineStr">
+      <c r="F58" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="60" customHeight="1">
-      <c r="A57" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B57" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C57" s="8" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B59" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.responses.500</t>
         </is>
       </c>
-      <c r="D57" s="8" t="inlineStr">
+      <c r="D59" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2806,8 +2898,8 @@
 </t>
         </is>
       </c>
-      <c r="E57" s="8" t="inlineStr"/>
-      <c r="F57" s="8" t="inlineStr">
+      <c r="E59" s="8" t="inlineStr"/>
+      <c r="F59" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2816,23 +2908,23 @@
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B58" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C58" s="8" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B60" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.responses.503</t>
         </is>
       </c>
-      <c r="D58" s="8" t="inlineStr">
+      <c r="D60" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2840,8 +2932,8 @@
 </t>
         </is>
       </c>
-      <c r="E58" s="8" t="inlineStr"/>
-      <c r="F58" s="8" t="inlineStr">
+      <c r="E60" s="8" t="inlineStr"/>
+      <c r="F60" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2850,24 +2942,24 @@
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B59" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C59" s="8" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B61" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.responses.510</t>
         </is>
       </c>
-      <c r="D59" s="8" t="inlineStr"/>
-      <c r="E59" s="8" t="inlineStr">
+      <c r="D61" s="8" t="inlineStr"/>
+      <c r="E61" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2875,7 +2967,7 @@
 </t>
         </is>
       </c>
-      <c r="F59" s="8" t="inlineStr">
+      <c r="F61" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2884,23 +2976,23 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="75" customHeight="1">
-      <c r="A60" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B60" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C60" s="8" t="inlineStr">
+    <row r="62" ht="75" customHeight="1">
+      <c r="A62" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B62" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.security</t>
         </is>
       </c>
-      <c r="D60" s="8" t="inlineStr">
+      <c r="D62" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2909,14 +3001,14 @@
 </t>
         </is>
       </c>
-      <c r="E60" s="8" t="inlineStr">
+      <c r="E62" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F60" s="8" t="inlineStr">
+      <c r="F62" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2924,54 +3016,54 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="45" customHeight="1">
-      <c r="A61" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B61" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C61" s="8" t="inlineStr">
+    <row r="63" ht="45" customHeight="1">
+      <c r="A63" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B63" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D61" s="8" t="inlineStr">
+      <c r="D63" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E61" s="8" t="inlineStr"/>
-      <c r="F61" s="8" t="inlineStr">
+      <c r="E63" s="8" t="inlineStr"/>
+      <c r="F63" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="62" ht="210" customHeight="1">
-      <c r="A62" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B62" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C62" s="8" t="inlineStr">
+    <row r="64" ht="210" customHeight="1">
+      <c r="A64" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B64" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.parameters</t>
         </is>
       </c>
-      <c r="D62" s="8" t="inlineStr">
+      <c r="D64" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2988,7 +3080,7 @@
 </t>
         </is>
       </c>
-      <c r="E62" s="8" t="inlineStr">
+      <c r="E64" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -3006,30 +3098,30 @@
 </t>
         </is>
       </c>
-      <c r="F62" s="8" t="inlineStr">
+      <c r="F64" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="60" customHeight="1">
-      <c r="A63" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B63" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C63" s="8" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B65" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.responses.500</t>
         </is>
       </c>
-      <c r="D63" s="8" t="inlineStr">
+      <c r="D65" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -3037,8 +3129,8 @@
 </t>
         </is>
       </c>
-      <c r="E63" s="8" t="inlineStr"/>
-      <c r="F63" s="8" t="inlineStr">
+      <c r="E65" s="8" t="inlineStr"/>
+      <c r="F65" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -3047,23 +3139,23 @@
         </is>
       </c>
     </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="A64" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B64" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C64" s="8" t="inlineStr">
+    <row r="66" ht="60" customHeight="1">
+      <c r="A66" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B66" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.responses.503</t>
         </is>
       </c>
-      <c r="D64" s="8" t="inlineStr">
+      <c r="D66" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -3071,8 +3163,8 @@
 </t>
         </is>
       </c>
-      <c r="E64" s="8" t="inlineStr"/>
-      <c r="F64" s="8" t="inlineStr">
+      <c r="E66" s="8" t="inlineStr"/>
+      <c r="F66" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -3081,24 +3173,24 @@
         </is>
       </c>
     </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B65" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C65" s="8" t="inlineStr">
+    <row r="67" ht="60" customHeight="1">
+      <c r="A67" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B67" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.responses.510</t>
         </is>
       </c>
-      <c r="D65" s="8" t="inlineStr"/>
-      <c r="E65" s="8" t="inlineStr">
+      <c r="D67" s="8" t="inlineStr"/>
+      <c r="E67" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -3106,7 +3198,7 @@
 </t>
         </is>
       </c>
-      <c r="F65" s="8" t="inlineStr">
+      <c r="F67" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -3115,23 +3207,23 @@
         </is>
       </c>
     </row>
-    <row r="66" ht="75" customHeight="1">
-      <c r="A66" s="7" t="inlineStr">
-        <is>
-          <t>PIS</t>
-        </is>
-      </c>
-      <c r="B66" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C66" s="8" t="inlineStr">
+    <row r="68" ht="75" customHeight="1">
+      <c r="A68" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B68" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C68" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.security</t>
         </is>
       </c>
-      <c r="D66" s="8" t="inlineStr">
+      <c r="D68" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -3140,14 +3232,14 @@
 </t>
         </is>
       </c>
-      <c r="E66" s="8" t="inlineStr">
+      <c r="E68" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F66" s="8" t="inlineStr">
+      <c r="F68" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -3155,122 +3247,122 @@
         </is>
       </c>
     </row>
-    <row r="67" ht="45" customHeight="1">
-      <c r="A67" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B67" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C67" s="8" t="inlineStr">
+    <row r="69" ht="45" customHeight="1">
+      <c r="A69" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B69" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C69" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderWithoutToken.properties.userAgent.maxLength</t>
         </is>
       </c>
-      <c r="D67" s="8" t="inlineStr"/>
-      <c r="E67" s="8" t="inlineStr">
+      <c r="D69" s="8" t="inlineStr"/>
+      <c r="E69" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">255
 ...
 </t>
         </is>
       </c>
-      <c r="F67" s="8" t="inlineStr">
+      <c r="F69" s="8" t="inlineStr">
         <is>
           <t>Added:
 • 255</t>
         </is>
       </c>
     </row>
-    <row r="68" ht="45" customHeight="1">
-      <c r="A68" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B68" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C68" s="8" t="inlineStr">
+    <row r="70" ht="45" customHeight="1">
+      <c r="A70" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B70" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C70" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderWithoutToken.properties.ipAddress.maxLength</t>
         </is>
       </c>
-      <c r="D68" s="8" t="inlineStr"/>
-      <c r="E68" s="8" t="inlineStr">
+      <c r="D70" s="8" t="inlineStr"/>
+      <c r="E70" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">255
 ...
 </t>
         </is>
       </c>
-      <c r="F68" s="8" t="inlineStr">
+      <c r="F70" s="8" t="inlineStr">
         <is>
           <t>Added:
 • 255</t>
         </is>
       </c>
     </row>
-    <row r="69" ht="45" customHeight="1">
-      <c r="A69" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B69" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C69" s="8" t="inlineStr">
+    <row r="71" ht="45" customHeight="1">
+      <c r="A71" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B71" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C71" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderWithoutToken.properties.tppId.maxLength</t>
         </is>
       </c>
-      <c r="D69" s="8" t="inlineStr"/>
-      <c r="E69" s="8" t="inlineStr">
+      <c r="D71" s="8" t="inlineStr"/>
+      <c r="E71" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">127
 ...
 </t>
         </is>
       </c>
-      <c r="F69" s="8" t="inlineStr">
+      <c r="F71" s="8" t="inlineStr">
         <is>
           <t>Added:
 • 127</t>
         </is>
       </c>
     </row>
-    <row r="70" ht="315" customHeight="1">
-      <c r="A70" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B70" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C70" s="8" t="inlineStr">
+    <row r="72" ht="315" customHeight="1">
+      <c r="A72" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B72" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C72" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderWithoutTokenAS</t>
         </is>
       </c>
-      <c r="D70" s="8" t="inlineStr">
+      <c r="D72" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E70" s="8" t="inlineStr"/>
-      <c r="F70" s="8" t="inlineStr">
+      <c r="E72" s="8" t="inlineStr"/>
+      <c r="F72" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU na potrzeby usług autoryzacji / PSU Information Class dedicated for authorization services
@@ -3296,29 +3388,29 @@
         </is>
       </c>
     </row>
-    <row r="71" ht="210" customHeight="1">
-      <c r="A71" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B71" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C71" s="8" t="inlineStr">
+    <row r="73" ht="210" customHeight="1">
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B73" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C73" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderWithoutTokenCallbackAS</t>
         </is>
       </c>
-      <c r="D71" s="8" t="inlineStr">
+      <c r="D73" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E71" s="8" t="inlineStr"/>
-      <c r="F71" s="8" t="inlineStr">
+      <c r="E73" s="8" t="inlineStr"/>
+      <c r="F73" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class
@@ -3337,48 +3429,48 @@
         </is>
       </c>
     </row>
-    <row r="72" ht="30" customHeight="1">
-      <c r="A72" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B72" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C72" s="8" t="inlineStr">
+    <row r="74" ht="30" customHeight="1">
+      <c r="A74" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B74" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C74" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderCallback.description</t>
         </is>
       </c>
-      <c r="D72" s="8" t="inlineStr"/>
-      <c r="E72" s="8" t="inlineStr"/>
-      <c r="F72" s="8" t="inlineStr">
+      <c r="D74" s="8" t="inlineStr"/>
+      <c r="E74" s="8" t="inlineStr"/>
+      <c r="F74" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class</t>
         </is>
       </c>
     </row>
-    <row r="73" ht="495" customHeight="1">
-      <c r="A73" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B73" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C73" s="8" t="inlineStr">
+    <row r="75" ht="495" customHeight="1">
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B75" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C75" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderCallback.allOf</t>
         </is>
       </c>
-      <c r="D73" s="8" t="inlineStr">
+      <c r="D75" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/RequestHeaderWithoutToken'
 - type: object
@@ -3396,7 +3488,7 @@
       description: </t>
         </is>
       </c>
-      <c r="E73" s="8" t="inlineStr">
+      <c r="E75" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/RequestHeaderWithoutToken'
 - properties:
@@ -3412,7 +3504,7 @@
       description: </t>
         </is>
       </c>
-      <c r="F73" s="8" t="inlineStr">
+      <c r="F75" s="8" t="inlineStr">
         <is>
           <t>Added:
 • properties:
@@ -3448,48 +3540,48 @@
         </is>
       </c>
     </row>
-    <row r="74" ht="30" customHeight="1">
-      <c r="A74" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B74" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C74" s="8" t="inlineStr">
+    <row r="76" ht="30" customHeight="1">
+      <c r="A76" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B76" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C76" s="8" t="inlineStr">
         <is>
           <t>RequestHeader.description</t>
         </is>
       </c>
-      <c r="D74" s="8" t="inlineStr"/>
-      <c r="E74" s="8" t="inlineStr"/>
-      <c r="F74" s="8" t="inlineStr">
+      <c r="D76" s="8" t="inlineStr"/>
+      <c r="E76" s="8" t="inlineStr"/>
+      <c r="F76" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • Klasa zawierająca informacje o PSU / PSU Information Class</t>
         </is>
       </c>
     </row>
-    <row r="75" ht="285" customHeight="1">
-      <c r="A75" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B75" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C75" s="8" t="inlineStr">
+    <row r="77" ht="285" customHeight="1">
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B77" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C77" s="8" t="inlineStr">
         <is>
           <t>RequestHeader.allOf</t>
         </is>
       </c>
-      <c r="D75" s="8" t="inlineStr">
+      <c r="D77" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/RequestHeaderWithoutToken'
 - type: object
@@ -3502,7 +3594,7 @@
 </t>
         </is>
       </c>
-      <c r="E75" s="8" t="inlineStr">
+      <c r="E77" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/RequestHeaderWithoutToken'
 - properties:
@@ -3516,7 +3608,7 @@
 </t>
         </is>
       </c>
-      <c r="F75" s="8" t="inlineStr">
+      <c r="F77" s="8" t="inlineStr">
         <is>
           <t>Added:
 • properties:
@@ -3538,29 +3630,29 @@
         </is>
       </c>
     </row>
-    <row r="76" ht="210" customHeight="1">
-      <c r="A76" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B76" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C76" s="8" t="inlineStr">
+    <row r="78" ht="210" customHeight="1">
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B78" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C78" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderAIS</t>
         </is>
       </c>
-      <c r="D76" s="8" t="inlineStr">
+      <c r="D78" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E76" s="8" t="inlineStr"/>
-      <c r="F76" s="8" t="inlineStr">
+      <c r="E78" s="8" t="inlineStr"/>
+      <c r="F78" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU / PSU Information Class
@@ -3579,29 +3671,29 @@
         </is>
       </c>
     </row>
-    <row r="77" ht="300" customHeight="1">
-      <c r="A77" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B77" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C77" s="8" t="inlineStr">
+    <row r="79" ht="300" customHeight="1">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B79" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C79" s="8" t="inlineStr">
         <is>
           <t>RequestHeaderAISCallback</t>
         </is>
       </c>
-      <c r="D77" s="8" t="inlineStr">
+      <c r="D79" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E77" s="8" t="inlineStr"/>
-      <c r="F77" s="8" t="inlineStr">
+      <c r="E79" s="8" t="inlineStr"/>
+      <c r="F79" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca informacje o PSU and callback URL / PSU and callback URL Information Class
@@ -3626,184 +3718,184 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="45" customHeight="1">
-      <c r="A78" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B78" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C78" s="8" t="inlineStr">
+    <row r="80" ht="45" customHeight="1">
+      <c r="A80" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B80" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C80" s="8" t="inlineStr">
         <is>
           <t>ResponseHeader.properties.requestId.format</t>
         </is>
       </c>
-      <c r="D78" s="8" t="inlineStr">
+      <c r="D80" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">uuid
 ...
 </t>
         </is>
       </c>
-      <c r="E78" s="8" t="inlineStr"/>
-      <c r="F78" s="8" t="inlineStr">
+      <c r="E80" s="8" t="inlineStr"/>
+      <c r="F80" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • uuid</t>
         </is>
       </c>
     </row>
-    <row r="79" ht="45" customHeight="1">
-      <c r="A79" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B79" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C79" s="8" t="inlineStr">
+    <row r="81" ht="45" customHeight="1">
+      <c r="A81" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B81" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C81" s="8" t="inlineStr">
         <is>
           <t>ResponseHeader.type</t>
         </is>
       </c>
-      <c r="D79" s="8" t="inlineStr"/>
-      <c r="E79" s="8" t="inlineStr">
+      <c r="D81" s="8" t="inlineStr"/>
+      <c r="E81" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="F79" s="8" t="inlineStr">
+      <c r="F81" s="8" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="80" ht="45" customHeight="1">
-      <c r="A80" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B80" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C80" s="8" t="inlineStr">
+    <row r="82" ht="45" customHeight="1">
+      <c r="A82" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B82" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C82" s="8" t="inlineStr">
         <is>
           <t>SenderPISForeign.type</t>
         </is>
       </c>
-      <c r="D80" s="8" t="inlineStr"/>
-      <c r="E80" s="8" t="inlineStr">
+      <c r="D82" s="8" t="inlineStr"/>
+      <c r="E82" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="F80" s="8" t="inlineStr">
+      <c r="F82" s="8" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="81" ht="45" customHeight="1">
-      <c r="A81" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B81" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C81" s="8" t="inlineStr">
+    <row r="83" ht="45" customHeight="1">
+      <c r="A83" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B83" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C83" s="8" t="inlineStr">
         <is>
           <t>SenderPISDomestic.type</t>
         </is>
       </c>
-      <c r="D81" s="8" t="inlineStr"/>
-      <c r="E81" s="8" t="inlineStr">
+      <c r="D83" s="8" t="inlineStr"/>
+      <c r="E83" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="F81" s="8" t="inlineStr">
+      <c r="F83" s="8" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="82" ht="45" customHeight="1">
-      <c r="A82" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B82" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C82" s="8" t="inlineStr">
+    <row r="84" ht="45" customHeight="1">
+      <c r="A84" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B84" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C84" s="8" t="inlineStr">
         <is>
           <t>Bank.type</t>
         </is>
       </c>
-      <c r="D82" s="8" t="inlineStr"/>
-      <c r="E82" s="8" t="inlineStr">
+      <c r="D84" s="8" t="inlineStr"/>
+      <c r="E84" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="F82" s="8" t="inlineStr">
+      <c r="F84" s="8" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="83" ht="195" customHeight="1">
-      <c r="A83" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B83" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C83" s="8" t="inlineStr">
+    <row r="85" ht="195" customHeight="1">
+      <c r="A85" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B85" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C85" s="8" t="inlineStr">
         <is>
           <t>BankAccountInfo</t>
         </is>
       </c>
-      <c r="D83" s="8" t="inlineStr">
+      <c r="D85" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E83" s="8" t="inlineStr"/>
-      <c r="F83" s="8" t="inlineStr">
+      <c r="E85" s="8" t="inlineStr"/>
+      <c r="F85" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca dane banku / Bank Data Class
@@ -3821,59 +3913,59 @@
         </is>
       </c>
     </row>
-    <row r="84" ht="45" customHeight="1">
-      <c r="A84" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B84" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C84" s="8" t="inlineStr">
+    <row r="86" ht="45" customHeight="1">
+      <c r="A86" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B86" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C86" s="8" t="inlineStr">
         <is>
           <t>RecurringTransferParameters.properties.dayOffOffsetType.enum</t>
         </is>
       </c>
-      <c r="D84" s="8" t="inlineStr">
+      <c r="D86" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- before
 - after
 </t>
         </is>
       </c>
-      <c r="E84" s="8" t="inlineStr">
+      <c r="E86" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- after
 </t>
         </is>
       </c>
-      <c r="F84" s="8" t="inlineStr">
+      <c r="F86" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • before</t>
         </is>
       </c>
     </row>
-    <row r="85" ht="255" customHeight="1">
-      <c r="A85" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B85" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C85" s="8" t="inlineStr">
+    <row r="87" ht="255" customHeight="1">
+      <c r="A87" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B87" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C87" s="8" t="inlineStr">
         <is>
           <t>TransferDataBase</t>
         </is>
       </c>
-      <c r="D85" s="8" t="inlineStr">
+      <c r="D87" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Bazowa klasa dla TransferData / TransferData Base Class
 type: object
@@ -3884,8 +3976,8 @@
     description: </t>
         </is>
       </c>
-      <c r="E85" s="8" t="inlineStr"/>
-      <c r="F85" s="8" t="inlineStr">
+      <c r="E87" s="8" t="inlineStr"/>
+      <c r="F87" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Bazowa klasa dla TransferData / TransferData Base Class
@@ -3907,116 +3999,116 @@
         </is>
       </c>
     </row>
-    <row r="86" ht="45" customHeight="1">
-      <c r="A86" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B86" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C86" s="8" t="inlineStr">
+    <row r="88" ht="45" customHeight="1">
+      <c r="A88" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B88" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C88" s="8" t="inlineStr">
         <is>
           <t>TransferDataBaseTax.properties.amount.maxLength</t>
         </is>
       </c>
-      <c r="D86" s="8" t="inlineStr"/>
-      <c r="E86" s="8" t="inlineStr">
+      <c r="D88" s="8" t="inlineStr"/>
+      <c r="E88" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">35
 ...
 </t>
         </is>
       </c>
-      <c r="F86" s="8" t="inlineStr">
+      <c r="F88" s="8" t="inlineStr">
         <is>
           <t>Added:
 • 35</t>
         </is>
       </c>
     </row>
-    <row r="87" ht="45" customHeight="1">
-      <c r="A87" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B87" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C87" s="8" t="inlineStr">
+    <row r="89" ht="45" customHeight="1">
+      <c r="A89" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B89" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C89" s="8" t="inlineStr">
         <is>
           <t>TransferDataBaseTax.properties.executionDate.maxLength</t>
         </is>
       </c>
-      <c r="D87" s="8" t="inlineStr">
+      <c r="D89" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">10
 ...
 </t>
         </is>
       </c>
-      <c r="E87" s="8" t="inlineStr"/>
-      <c r="F87" s="8" t="inlineStr">
+      <c r="E89" s="8" t="inlineStr"/>
+      <c r="F89" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • 10</t>
         </is>
       </c>
     </row>
-    <row r="88" ht="45" customHeight="1">
-      <c r="A88" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B88" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C88" s="8" t="inlineStr">
+    <row r="90" ht="45" customHeight="1">
+      <c r="A90" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B90" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C90" s="8" t="inlineStr">
         <is>
           <t>TransferData.description</t>
         </is>
       </c>
-      <c r="D88" s="8" t="inlineStr"/>
-      <c r="E88" s="8" t="inlineStr">
+      <c r="D90" s="8" t="inlineStr"/>
+      <c r="E90" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Bazowa klasa dla TransferData / TransferData Base Class
 ...
 </t>
         </is>
       </c>
-      <c r="F88" s="8" t="inlineStr">
+      <c r="F90" s="8" t="inlineStr">
         <is>
           <t>Added:
 • Klasa zawierająca dane przelewu / Transfer Data Class</t>
         </is>
       </c>
     </row>
-    <row r="89" ht="165" customHeight="1">
-      <c r="A89" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B89" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C89" s="8" t="inlineStr">
+    <row r="91" ht="165" customHeight="1">
+      <c r="A91" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B91" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C91" s="8" t="inlineStr">
         <is>
           <t>TransferData.allOf</t>
         </is>
       </c>
-      <c r="D89" s="8" t="inlineStr">
+      <c r="D91" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/TransferDataBase'
 - type: object
@@ -4031,8 +4123,8 @@
 </t>
         </is>
       </c>
-      <c r="E89" s="8" t="inlineStr"/>
-      <c r="F89" s="8" t="inlineStr">
+      <c r="E91" s="8" t="inlineStr"/>
+      <c r="F91" s="8" t="inlineStr">
         <is>
           <t>Removed:
 •   $ref: #/definitions/TransferDataBase
@@ -4048,31 +4140,31 @@
         </is>
       </c>
     </row>
-    <row r="90" ht="270" customHeight="1">
-      <c r="A90" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B90" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C90" s="8" t="inlineStr">
+    <row r="92" ht="270" customHeight="1">
+      <c r="A92" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B92" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C92" s="8" t="inlineStr">
         <is>
           <t>TransferData.properties</t>
         </is>
       </c>
-      <c r="D90" s="8" t="inlineStr"/>
-      <c r="E90" s="8" t="inlineStr">
+      <c r="D92" s="8" t="inlineStr"/>
+      <c r="E92" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description:
   maxLength: 140
   description: </t>
         </is>
       </c>
-      <c r="F90" s="8" t="inlineStr">
+      <c r="F92" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description:
@@ -4095,31 +4187,31 @@
         </is>
       </c>
     </row>
-    <row r="91" ht="45" customHeight="1">
-      <c r="A91" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B91" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C91" s="8" t="inlineStr">
+    <row r="93" ht="45" customHeight="1">
+      <c r="A93" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B93" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C93" s="8" t="inlineStr">
         <is>
           <t>TransferData.required</t>
         </is>
       </c>
-      <c r="D91" s="8" t="inlineStr"/>
-      <c r="E91" s="8" t="inlineStr">
+      <c r="D93" s="8" t="inlineStr"/>
+      <c r="E93" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- amount
 - description
 </t>
         </is>
       </c>
-      <c r="F91" s="8" t="inlineStr">
+      <c r="F93" s="8" t="inlineStr">
         <is>
           <t>Added:
 •   amount
@@ -4127,85 +4219,85 @@
         </is>
       </c>
     </row>
-    <row r="92" ht="45" customHeight="1">
-      <c r="A92" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B92" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C92" s="8" t="inlineStr">
+    <row r="94" ht="45" customHeight="1">
+      <c r="A94" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B94" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C94" s="8" t="inlineStr">
         <is>
           <t>TransferData.type</t>
         </is>
       </c>
-      <c r="D92" s="8" t="inlineStr"/>
-      <c r="E92" s="8" t="inlineStr">
+      <c r="D94" s="8" t="inlineStr"/>
+      <c r="E94" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="F92" s="8" t="inlineStr">
+      <c r="F94" s="8" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="93" ht="45" customHeight="1">
-      <c r="A93" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B93" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C93" s="8" t="inlineStr">
+    <row r="95" ht="45" customHeight="1">
+      <c r="A95" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B95" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C95" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.description</t>
         </is>
       </c>
-      <c r="D93" s="8" t="inlineStr"/>
-      <c r="E93" s="8" t="inlineStr">
+      <c r="D95" s="8" t="inlineStr"/>
+      <c r="E95" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">Bazowa klasa dla TransferData / TransferData Base Class
 ...
 </t>
         </is>
       </c>
-      <c r="F93" s="8" t="inlineStr">
+      <c r="F95" s="8" t="inlineStr">
         <is>
           <t>Added:
 • Klasa zawierająca dane przelewu / Transfer Data Class</t>
         </is>
       </c>
     </row>
-    <row r="94" ht="180" customHeight="1">
-      <c r="A94" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B94" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C94" s="8" t="inlineStr">
+    <row r="96" ht="180" customHeight="1">
+      <c r="A96" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B96" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C96" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.allOf</t>
         </is>
       </c>
-      <c r="D94" s="8" t="inlineStr">
+      <c r="D96" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/TransferDataBase'
 - type: object
@@ -4220,8 +4312,8 @@
       description: </t>
         </is>
       </c>
-      <c r="E94" s="8" t="inlineStr"/>
-      <c r="F94" s="8" t="inlineStr">
+      <c r="E96" s="8" t="inlineStr"/>
+      <c r="F96" s="8" t="inlineStr">
         <is>
           <t>Removed:
 •   $ref: #/definitions/TransferDataBase
@@ -4238,31 +4330,31 @@
         </is>
       </c>
     </row>
-    <row r="95" ht="270" customHeight="1">
-      <c r="A95" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B95" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C95" s="8" t="inlineStr">
+    <row r="97" ht="270" customHeight="1">
+      <c r="A97" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B97" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C97" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.properties</t>
         </is>
       </c>
-      <c r="D95" s="8" t="inlineStr"/>
-      <c r="E95" s="8" t="inlineStr">
+      <c r="D97" s="8" t="inlineStr"/>
+      <c r="E97" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description:
   maxLength: 140
   description: </t>
         </is>
       </c>
-      <c r="F95" s="8" t="inlineStr">
+      <c r="F97" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description:
@@ -4285,24 +4377,24 @@
         </is>
       </c>
     </row>
-    <row r="96" ht="60" customHeight="1">
-      <c r="A96" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B96" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C96" s="8" t="inlineStr">
+    <row r="98" ht="60" customHeight="1">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B98" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C98" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.required</t>
         </is>
       </c>
-      <c r="D96" s="8" t="inlineStr"/>
-      <c r="E96" s="8" t="inlineStr">
+      <c r="D98" s="8" t="inlineStr"/>
+      <c r="E98" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- currency
 - amount
@@ -4310,7 +4402,7 @@
 </t>
         </is>
       </c>
-      <c r="F96" s="8" t="inlineStr">
+      <c r="F98" s="8" t="inlineStr">
         <is>
           <t>Added:
 •   currency
@@ -4319,79 +4411,79 @@
         </is>
       </c>
     </row>
-    <row r="97" ht="45" customHeight="1">
-      <c r="A97" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B97" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C97" s="8" t="inlineStr">
+    <row r="99" ht="45" customHeight="1">
+      <c r="A99" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B99" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C99" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequired.type</t>
         </is>
       </c>
-      <c r="D97" s="8" t="inlineStr"/>
-      <c r="E97" s="8" t="inlineStr">
+      <c r="D99" s="8" t="inlineStr"/>
+      <c r="E99" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="F97" s="8" t="inlineStr">
+      <c r="F99" s="8" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="98" ht="30" customHeight="1">
-      <c r="A98" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B98" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C98" s="8" t="inlineStr">
+    <row r="100" ht="30" customHeight="1">
+      <c r="A100" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B100" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C100" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.description</t>
         </is>
       </c>
-      <c r="D98" s="8" t="inlineStr"/>
-      <c r="E98" s="8" t="inlineStr"/>
-      <c r="F98" s="8" t="inlineStr">
+      <c r="D100" s="8" t="inlineStr"/>
+      <c r="E100" s="8" t="inlineStr"/>
+      <c r="F100" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • Klasa zawierająca dane przelewu / Transfer Data Class</t>
         </is>
       </c>
     </row>
-    <row r="99" ht="165" customHeight="1">
-      <c r="A99" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B99" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C99" s="8" t="inlineStr">
+    <row r="101" ht="165" customHeight="1">
+      <c r="A101" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B101" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C101" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.allOf</t>
         </is>
       </c>
-      <c r="D99" s="8" t="inlineStr">
+      <c r="D101" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/definitions/TransferDataBaseTax'
 - type: object
@@ -4405,8 +4497,8 @@
       description: </t>
         </is>
       </c>
-      <c r="E99" s="8" t="inlineStr"/>
-      <c r="F99" s="8" t="inlineStr">
+      <c r="E101" s="8" t="inlineStr"/>
+      <c r="F101" s="8" t="inlineStr">
         <is>
           <t>Removed:
 •   $ref: #/definitions/TransferDataBaseTax
@@ -4422,24 +4514,24 @@
         </is>
       </c>
     </row>
-    <row r="100" ht="210" customHeight="1">
-      <c r="A100" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B100" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C100" s="8" t="inlineStr">
+    <row r="102" ht="210" customHeight="1">
+      <c r="A102" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B102" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C102" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.properties</t>
         </is>
       </c>
-      <c r="D100" s="8" t="inlineStr"/>
-      <c r="E100" s="8" t="inlineStr">
+      <c r="D102" s="8" t="inlineStr"/>
+      <c r="E102" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">amount:
   pattern: ^(0|([1-9][0-9]{0,}))\.\d{2}$
@@ -4449,7 +4541,7 @@
   description: </t>
         </is>
       </c>
-      <c r="F100" s="8" t="inlineStr">
+      <c r="F102" s="8" t="inlineStr">
         <is>
           <t>Added:
 • amount:
@@ -4468,31 +4560,31 @@
         </is>
       </c>
     </row>
-    <row r="101" ht="45" customHeight="1">
-      <c r="A101" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B101" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C101" s="8" t="inlineStr">
+    <row r="103" ht="45" customHeight="1">
+      <c r="A103" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B103" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C103" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.required</t>
         </is>
       </c>
-      <c r="D101" s="8" t="inlineStr"/>
-      <c r="E101" s="8" t="inlineStr">
+      <c r="D103" s="8" t="inlineStr"/>
+      <c r="E103" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- currency
 - amount
 </t>
         </is>
       </c>
-      <c r="F101" s="8" t="inlineStr">
+      <c r="F103" s="8" t="inlineStr">
         <is>
           <t>Added:
 •   currency
@@ -4500,60 +4592,60 @@
         </is>
       </c>
     </row>
-    <row r="102" ht="45" customHeight="1">
-      <c r="A102" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B102" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C102" s="8" t="inlineStr">
+    <row r="104" ht="45" customHeight="1">
+      <c r="A104" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B104" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C104" s="8" t="inlineStr">
         <is>
           <t>TransferDataCurrencyRequiredTax.type</t>
         </is>
       </c>
-      <c r="D102" s="8" t="inlineStr"/>
-      <c r="E102" s="8" t="inlineStr">
+      <c r="D104" s="8" t="inlineStr"/>
+      <c r="E104" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="F102" s="8" t="inlineStr">
+      <c r="F104" s="8" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="103" ht="195" customHeight="1">
-      <c r="A103" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B103" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C103" s="8" t="inlineStr">
+    <row r="105" ht="195" customHeight="1">
+      <c r="A105" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B105" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C105" s="8" t="inlineStr">
         <is>
           <t>SenderRecipient</t>
         </is>
       </c>
-      <c r="D103" s="8" t="inlineStr">
+      <c r="D105" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E103" s="8" t="inlineStr"/>
-      <c r="F103" s="8" t="inlineStr">
+      <c r="E105" s="8" t="inlineStr"/>
+      <c r="F105" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca dane nadawcy/odbiorcy używana w żądaniach AIS / AIS Sender Recipient Data Class
@@ -4571,279 +4663,279 @@
         </is>
       </c>
     </row>
-    <row r="104" ht="45" customHeight="1">
-      <c r="A104" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B104" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C104" s="8" t="inlineStr">
+    <row r="106" ht="45" customHeight="1">
+      <c r="A106" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B106" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C106" s="8" t="inlineStr">
         <is>
           <t>RecipientPIS.required</t>
         </is>
       </c>
-      <c r="D104" s="8" t="inlineStr">
+      <c r="D106" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- nameAddress
 - accountNumber
 </t>
         </is>
       </c>
-      <c r="E104" s="8" t="inlineStr">
+      <c r="E106" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- accountNumber
 - nameAddress
 </t>
         </is>
       </c>
-      <c r="F104" s="8" t="inlineStr"/>
-    </row>
-    <row r="105" ht="45" customHeight="1">
-      <c r="A105" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B105" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C105" s="8" t="inlineStr">
+      <c r="F106" s="8" t="inlineStr"/>
+    </row>
+    <row r="107" ht="45" customHeight="1">
+      <c r="A107" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B107" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C107" s="8" t="inlineStr">
         <is>
           <t>RecipientPIS.type</t>
         </is>
       </c>
-      <c r="D105" s="8" t="inlineStr"/>
-      <c r="E105" s="8" t="inlineStr">
+      <c r="D107" s="8" t="inlineStr"/>
+      <c r="E107" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="F105" s="8" t="inlineStr">
+      <c r="F107" s="8" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="106" ht="45" customHeight="1">
-      <c r="A106" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B106" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C106" s="8" t="inlineStr">
+    <row r="108" ht="45" customHeight="1">
+      <c r="A108" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B108" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C108" s="8" t="inlineStr">
         <is>
           <t>RecipientPISTax.required</t>
         </is>
       </c>
-      <c r="D106" s="8" t="inlineStr">
+      <c r="D108" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- nameAddress
 - accountNumber
 </t>
         </is>
       </c>
-      <c r="E106" s="8" t="inlineStr">
+      <c r="E108" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- accountNumber
 - nameAddress
 </t>
         </is>
       </c>
-      <c r="F106" s="8" t="inlineStr"/>
-    </row>
-    <row r="107" ht="45" customHeight="1">
-      <c r="A107" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B107" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C107" s="8" t="inlineStr">
+      <c r="F108" s="8" t="inlineStr"/>
+    </row>
+    <row r="109" ht="45" customHeight="1">
+      <c r="A109" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B109" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C109" s="8" t="inlineStr">
         <is>
           <t>RecipientPISTax.type</t>
         </is>
       </c>
-      <c r="D107" s="8" t="inlineStr"/>
-      <c r="E107" s="8" t="inlineStr">
+      <c r="D109" s="8" t="inlineStr"/>
+      <c r="E109" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="F107" s="8" t="inlineStr">
+      <c r="F109" s="8" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="108" ht="45" customHeight="1">
-      <c r="A108" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B108" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C108" s="8" t="inlineStr">
+    <row r="110" ht="45" customHeight="1">
+      <c r="A110" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B110" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C110" s="8" t="inlineStr">
         <is>
           <t>RecipientPISForeign.required</t>
         </is>
       </c>
-      <c r="D108" s="8" t="inlineStr">
+      <c r="D110" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- nameAddress
 - accountNumber
 </t>
         </is>
       </c>
-      <c r="E108" s="8" t="inlineStr">
+      <c r="E110" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- accountNumber
 - nameAddress
 </t>
         </is>
       </c>
-      <c r="F108" s="8" t="inlineStr"/>
-    </row>
-    <row r="109" ht="45" customHeight="1">
-      <c r="A109" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B109" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C109" s="8" t="inlineStr">
+      <c r="F110" s="8" t="inlineStr"/>
+    </row>
+    <row r="111" ht="45" customHeight="1">
+      <c r="A111" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B111" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C111" s="8" t="inlineStr">
         <is>
           <t>RecipientPISForeign.type</t>
         </is>
       </c>
-      <c r="D109" s="8" t="inlineStr"/>
-      <c r="E109" s="8" t="inlineStr">
+      <c r="D111" s="8" t="inlineStr"/>
+      <c r="E111" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="F109" s="8" t="inlineStr">
+      <c r="F111" s="8" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="110" ht="30" customHeight="1">
-      <c r="A110" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B110" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C110" s="8" t="inlineStr">
+    <row r="112" ht="30" customHeight="1">
+      <c r="A112" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B112" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C112" s="8" t="inlineStr">
         <is>
           <t>NameAddress.required</t>
         </is>
       </c>
-      <c r="D110" s="8" t="inlineStr"/>
-      <c r="E110" s="8" t="inlineStr">
+      <c r="D112" s="8" t="inlineStr"/>
+      <c r="E112" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- value
 </t>
         </is>
       </c>
-      <c r="F110" s="8" t="inlineStr">
+      <c r="F112" s="8" t="inlineStr">
         <is>
           <t>Added:
 •   value</t>
         </is>
       </c>
     </row>
-    <row r="111" ht="45" customHeight="1">
-      <c r="A111" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B111" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C111" s="8" t="inlineStr">
+    <row r="113" ht="45" customHeight="1">
+      <c r="A113" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B113" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C113" s="8" t="inlineStr">
         <is>
           <t>NameAddress.type</t>
         </is>
       </c>
-      <c r="D111" s="8" t="inlineStr"/>
-      <c r="E111" s="8" t="inlineStr">
+      <c r="D113" s="8" t="inlineStr"/>
+      <c r="E113" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">object
 ...
 </t>
         </is>
       </c>
-      <c r="F111" s="8" t="inlineStr">
+      <c r="F113" s="8" t="inlineStr">
         <is>
           <t>Added:
 • object</t>
         </is>
       </c>
     </row>
-    <row r="112" ht="135" customHeight="1">
-      <c r="A112" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B112" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C112" s="8" t="inlineStr">
+    <row r="114" ht="135" customHeight="1">
+      <c r="A114" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B114" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C114" s="8" t="inlineStr">
         <is>
           <t>PageInfo</t>
         </is>
       </c>
-      <c r="D112" s="8" t="inlineStr">
+      <c r="D114" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E112" s="8" t="inlineStr"/>
-      <c r="F112" s="8" t="inlineStr">
+      <c r="E114" s="8" t="inlineStr"/>
+      <c r="F114" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca dane pozwalajace na korzystanie z mechanizmu stronicowania / Paging Information Class
@@ -4857,29 +4949,29 @@
         </is>
       </c>
     </row>
-    <row r="113" ht="240" customHeight="1">
-      <c r="A113" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B113" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C113" s="8" t="inlineStr">
+    <row r="115" ht="240" customHeight="1">
+      <c r="A115" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B115" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C115" s="8" t="inlineStr">
         <is>
           <t>CurrencyRate</t>
         </is>
       </c>
-      <c r="D113" s="8" t="inlineStr">
+      <c r="D115" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E113" s="8" t="inlineStr"/>
-      <c r="F113" s="8" t="inlineStr">
+      <c r="E115" s="8" t="inlineStr"/>
+      <c r="F115" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca kursy przewalutowań / Currency rate
@@ -4900,23 +4992,23 @@
         </is>
       </c>
     </row>
-    <row r="114" ht="75" customHeight="1">
-      <c r="A114" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B114" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C114" s="8" t="inlineStr">
+    <row r="116" ht="75" customHeight="1">
+      <c r="A116" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B116" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C116" s="8" t="inlineStr">
         <is>
           <t>Map</t>
         </is>
       </c>
-      <c r="D114" s="8" t="inlineStr">
+      <c r="D116" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Klasa mapy &lt;string, string&gt; / Map (Dictionary) class
 type: object
@@ -4925,8 +5017,8 @@
 </t>
         </is>
       </c>
-      <c r="E114" s="8" t="inlineStr"/>
-      <c r="F114" s="8" t="inlineStr">
+      <c r="E116" s="8" t="inlineStr"/>
+      <c r="F116" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa mapy &lt;string, string&gt; / Map (Dictionary) class
@@ -4936,29 +5028,29 @@
         </is>
       </c>
     </row>
-    <row r="115" ht="135" customHeight="1">
-      <c r="A115" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B115" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C115" s="8" t="inlineStr">
+    <row r="117" ht="135" customHeight="1">
+      <c r="A117" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B117" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C117" s="8" t="inlineStr">
         <is>
           <t>DictionaryItem</t>
         </is>
       </c>
-      <c r="D115" s="8" t="inlineStr">
+      <c r="D117" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E115" s="8" t="inlineStr"/>
-      <c r="F115" s="8" t="inlineStr">
+      <c r="E117" s="8" t="inlineStr"/>
+      <c r="F117" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Klasa zawierająca dane elementu/pozycji słownika / Dictionary Item Class
@@ -4972,29 +5064,29 @@
         </is>
       </c>
     </row>
-    <row r="116" ht="495" customHeight="1">
-      <c r="A116" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B116" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C116" s="8" t="inlineStr">
+    <row r="118" ht="495" customHeight="1">
+      <c r="A118" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B118" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C118" s="8" t="inlineStr">
         <is>
           <t>ScopeDetailsInput</t>
         </is>
       </c>
-      <c r="D116" s="8" t="inlineStr">
+      <c r="D118" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E116" s="8" t="inlineStr"/>
-      <c r="F116" s="8" t="inlineStr">
+      <c r="E118" s="8" t="inlineStr"/>
+      <c r="F118" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Zakres, limity, parametry i czas ważności zgód, o które prosi TPP. / Scope, limits, parameters and expiration time of consents requested by TPP
@@ -5032,29 +5124,29 @@
         </is>
       </c>
     </row>
-    <row r="117" ht="990" customHeight="1">
-      <c r="A117" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B117" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C117" s="8" t="inlineStr">
+    <row r="119" ht="990" customHeight="1">
+      <c r="A119" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B119" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C119" s="8" t="inlineStr">
         <is>
           <t>ScopeDetailsOutput</t>
         </is>
       </c>
-      <c r="D117" s="8" t="inlineStr">
+      <c r="D119" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E117" s="8" t="inlineStr"/>
-      <c r="F117" s="8" t="inlineStr">
+      <c r="E119" s="8" t="inlineStr"/>
+      <c r="F119" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Zakres, limity, parametry i czas ważności zgód, które potwierdza ASPSP / Scope, limits, parameters and expiration time of consents that are confimed by ASPSP
@@ -5125,29 +5217,29 @@
         </is>
       </c>
     </row>
-    <row r="118" ht="150" customHeight="1">
-      <c r="A118" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B118" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C118" s="8" t="inlineStr">
+    <row r="120" ht="150" customHeight="1">
+      <c r="A120" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B120" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C120" s="8" t="inlineStr">
         <is>
           <t>PrivilegeAisAspspInSimple</t>
         </is>
       </c>
-      <c r="D118" s="8" t="inlineStr">
+      <c r="D120" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E118" s="8" t="inlineStr"/>
-      <c r="F118" s="8" t="inlineStr">
+      <c r="E120" s="8" t="inlineStr"/>
+      <c r="F120" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia usługi AIS będących przedmiotem zapytania o zgodę PSU / The list of attributes of the privilege of the AIS service that are the subject of the request for PSU's consent
@@ -5162,29 +5254,29 @@
         </is>
       </c>
     </row>
-    <row r="119" ht="255" customHeight="1">
-      <c r="A119" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B119" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C119" s="8" t="inlineStr">
+    <row r="121" ht="255" customHeight="1">
+      <c r="A121" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B121" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C121" s="8" t="inlineStr">
         <is>
           <t>PrivilegeAisAspspIn</t>
         </is>
       </c>
-      <c r="D119" s="8" t="inlineStr">
+      <c r="D121" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E119" s="8" t="inlineStr"/>
-      <c r="F119" s="8" t="inlineStr">
+      <c r="E121" s="8" t="inlineStr"/>
+      <c r="F121" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia usługi AIS będących przedmiotem zapytania o zgodę PSU / The list of attributes of the privilege of the AIS service that are the subject of the request for PSU's consent
@@ -5206,29 +5298,29 @@
         </is>
       </c>
     </row>
-    <row r="120" ht="150" customHeight="1">
-      <c r="A120" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B120" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C120" s="8" t="inlineStr">
+    <row r="122" ht="150" customHeight="1">
+      <c r="A122" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B122" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C122" s="8" t="inlineStr">
         <is>
           <t>PrivilegeAisAspspOutSimple</t>
         </is>
       </c>
-      <c r="D120" s="8" t="inlineStr">
+      <c r="D122" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E120" s="8" t="inlineStr"/>
-      <c r="F120" s="8" t="inlineStr">
+      <c r="E122" s="8" t="inlineStr"/>
+      <c r="F122" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia usługi AIS dla których została wyrażona zgoda przez PSU / The list of attributes of the privilege of the AIS service that the PSU's consent has been confirmed
@@ -5243,29 +5335,29 @@
         </is>
       </c>
     </row>
-    <row r="121" ht="300" customHeight="1">
-      <c r="A121" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B121" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C121" s="8" t="inlineStr">
+    <row r="123" ht="300" customHeight="1">
+      <c r="A123" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B123" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C123" s="8" t="inlineStr">
         <is>
           <t>PrivilegeAisAspspOut</t>
         </is>
       </c>
-      <c r="D121" s="8" t="inlineStr">
+      <c r="D123" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E121" s="8" t="inlineStr"/>
-      <c r="F121" s="8" t="inlineStr">
+      <c r="E123" s="8" t="inlineStr"/>
+      <c r="F123" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia usługi AIS dla których została wyrażona zgoda przez PSU / The list of attributes of the privilege of the AIS service that the PSU's consent has been confirmed
@@ -5290,29 +5382,29 @@
         </is>
       </c>
     </row>
-    <row r="122" ht="240" customHeight="1">
-      <c r="A122" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B122" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C122" s="8" t="inlineStr">
+    <row r="124" ht="240" customHeight="1">
+      <c r="A124" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B124" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C124" s="8" t="inlineStr">
         <is>
           <t>PrivilegePayment</t>
         </is>
       </c>
-      <c r="D122" s="8" t="inlineStr">
+      <c r="D124" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E122" s="8" t="inlineStr"/>
-      <c r="F122" s="8" t="inlineStr">
+      <c r="E124" s="8" t="inlineStr"/>
+      <c r="F124" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do żądania statusu płatności / The list of attributes of the payment status request privilege
@@ -5333,29 +5425,29 @@
         </is>
       </c>
     </row>
-    <row r="123" ht="240" customHeight="1">
-      <c r="A123" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B123" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C123" s="8" t="inlineStr">
+    <row r="125" ht="240" customHeight="1">
+      <c r="A125" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B125" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C125" s="8" t="inlineStr">
         <is>
           <t>PrivilegeBundle</t>
         </is>
       </c>
-      <c r="D123" s="8" t="inlineStr">
+      <c r="D125" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E123" s="8" t="inlineStr"/>
-      <c r="F123" s="8" t="inlineStr">
+      <c r="E125" s="8" t="inlineStr"/>
+      <c r="F125" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do żądania statusu paczki płatności / The list of attributes of the bundle of payments status request privilege
@@ -5376,29 +5468,29 @@
         </is>
       </c>
     </row>
-    <row r="124" ht="240" customHeight="1">
-      <c r="A124" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B124" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C124" s="8" t="inlineStr">
+    <row r="126" ht="240" customHeight="1">
+      <c r="A126" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B126" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C126" s="8" t="inlineStr">
         <is>
           <t>PrivilegeRecurringPaymentStatus</t>
         </is>
       </c>
-      <c r="D124" s="8" t="inlineStr">
+      <c r="D126" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E124" s="8" t="inlineStr"/>
-      <c r="F124" s="8" t="inlineStr">
+      <c r="E126" s="8" t="inlineStr"/>
+      <c r="F126" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do żądania statusu płatności cyklicznej / The list of attributes of recurring payment status request privilege
@@ -5419,29 +5511,29 @@
         </is>
       </c>
     </row>
-    <row r="125" ht="555" customHeight="1">
-      <c r="A125" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B125" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C125" s="8" t="inlineStr">
+    <row r="127" ht="555" customHeight="1">
+      <c r="A127" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B127" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C127" s="8" t="inlineStr">
         <is>
           <t>PrivilegeDomesticTransfer</t>
         </is>
       </c>
-      <c r="D125" s="8" t="inlineStr">
+      <c r="D127" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E125" s="8" t="inlineStr"/>
-      <c r="F125" s="8" t="inlineStr">
+      <c r="E127" s="8" t="inlineStr"/>
+      <c r="F127" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do inicjacji przelewu zwykłego / The list of attributes of the domestic transfer request initiation privilege
@@ -5483,29 +5575,29 @@
         </is>
       </c>
     </row>
-    <row r="126" ht="525" customHeight="1">
-      <c r="A126" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B126" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C126" s="8" t="inlineStr">
+    <row r="128" ht="525" customHeight="1">
+      <c r="A128" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B128" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C128" s="8" t="inlineStr">
         <is>
           <t>PrivilegeForeignTransferEEA</t>
         </is>
       </c>
-      <c r="D126" s="8" t="inlineStr">
+      <c r="D128" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E126" s="8" t="inlineStr"/>
-      <c r="F126" s="8" t="inlineStr">
+      <c r="E128" s="8" t="inlineStr"/>
+      <c r="F128" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do inicjacji przelewu zagranicznego EEA / The list of attributes of the EEA foreign transfer request initiation privilege
@@ -5545,29 +5637,29 @@
         </is>
       </c>
     </row>
-    <row r="127" ht="600" customHeight="1">
-      <c r="A127" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B127" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C127" s="8" t="inlineStr">
+    <row r="129" ht="600" customHeight="1">
+      <c r="A129" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B129" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C129" s="8" t="inlineStr">
         <is>
           <t>PrivilegeForeignTransferNonEEA</t>
         </is>
       </c>
-      <c r="D127" s="8" t="inlineStr">
+      <c r="D129" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E127" s="8" t="inlineStr"/>
-      <c r="F127" s="8" t="inlineStr">
+      <c r="E129" s="8" t="inlineStr"/>
+      <c r="F129" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do inicjacji przelewu zagranicznego bez EEA / The list of attributes of the non-EEA foreign transfer request initiation privilege
@@ -5612,29 +5704,29 @@
         </is>
       </c>
     </row>
-    <row r="128" ht="540" customHeight="1">
-      <c r="A128" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B128" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C128" s="8" t="inlineStr">
+    <row r="130" ht="540" customHeight="1">
+      <c r="A130" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B130" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C130" s="8" t="inlineStr">
         <is>
           <t>PrivilegeTaxTransfer</t>
         </is>
       </c>
-      <c r="D128" s="8" t="inlineStr">
+      <c r="D130" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E128" s="8" t="inlineStr"/>
-      <c r="F128" s="8" t="inlineStr">
+      <c r="E130" s="8" t="inlineStr"/>
+      <c r="F130" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do inicjacji przelewu urzędu podatkowego / The list of attributes of the tax transfer request initiation privilege
@@ -5675,29 +5767,29 @@
         </is>
       </c>
     </row>
-    <row r="129" ht="255" customHeight="1">
-      <c r="A129" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B129" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C129" s="8" t="inlineStr">
+    <row r="131" ht="255" customHeight="1">
+      <c r="A131" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B131" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C131" s="8" t="inlineStr">
         <is>
           <t>PrivilegeCancelPayment</t>
         </is>
       </c>
-      <c r="D129" s="8" t="inlineStr">
+      <c r="D131" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E129" s="8" t="inlineStr"/>
-      <c r="F129" s="8" t="inlineStr">
+      <c r="E131" s="8" t="inlineStr"/>
+      <c r="F131" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do odwołania zainicjowanego przelewu / The list of attributes of the cancel initiated payment request privilege
@@ -5719,29 +5811,29 @@
         </is>
       </c>
     </row>
-    <row r="130" ht="210" customHeight="1">
-      <c r="A130" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B130" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C130" s="8" t="inlineStr">
+    <row r="132" ht="210" customHeight="1">
+      <c r="A132" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B132" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C132" s="8" t="inlineStr">
         <is>
           <t>PrivilegeCancelRecurringPayment</t>
         </is>
       </c>
-      <c r="D130" s="8" t="inlineStr">
+      <c r="D132" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E130" s="8" t="inlineStr"/>
-      <c r="F130" s="8" t="inlineStr">
+      <c r="E132" s="8" t="inlineStr"/>
+      <c r="F132" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do anulowania płatności cyklicznej / The list of attributes of the cancel recurring payment request privilege
@@ -5760,29 +5852,29 @@
         </is>
       </c>
     </row>
-    <row r="131" ht="630" customHeight="1">
-      <c r="A131" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B131" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C131" s="8" t="inlineStr">
+    <row r="133" ht="630" customHeight="1">
+      <c r="A133" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B133" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C133" s="8" t="inlineStr">
         <is>
           <t>PrivilegeBundleTransfers</t>
         </is>
       </c>
-      <c r="D131" s="8" t="inlineStr">
+      <c r="D133" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E131" s="8" t="inlineStr"/>
-      <c r="F131" s="8" t="inlineStr">
+      <c r="E133" s="8" t="inlineStr"/>
+      <c r="F133" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do zainicjowania paczki przelewu / The list of attributes of the initiate bundle of payments request privilege
@@ -5829,29 +5921,29 @@
         </is>
       </c>
     </row>
-    <row r="132" ht="420" customHeight="1">
-      <c r="A132" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B132" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C132" s="8" t="inlineStr">
+    <row r="134" ht="420" customHeight="1">
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B134" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C134" s="8" t="inlineStr">
         <is>
           <t>PrivilegeRecurringPayment</t>
         </is>
       </c>
-      <c r="D132" s="8" t="inlineStr">
+      <c r="D134" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E132" s="8" t="inlineStr"/>
-      <c r="F132" s="8" t="inlineStr">
+      <c r="E134" s="8" t="inlineStr"/>
+      <c r="F134" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Lista atrybutów uprawnienia do zdefiniowania nowej płatności cyklicznej / The list of attributes of definition of new recurring payment request privilege
@@ -5884,29 +5976,29 @@
         </is>
       </c>
     </row>
-    <row r="133" ht="675" customHeight="1">
-      <c r="A133" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B133" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C133" s="8" t="inlineStr">
+    <row r="135" ht="675" customHeight="1">
+      <c r="A135" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B135" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C135" s="8" t="inlineStr">
         <is>
           <t>ScopeDetailsInputPrivilegeList</t>
         </is>
       </c>
-      <c r="D133" s="8" t="inlineStr">
+      <c r="D135" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E133" s="8" t="inlineStr"/>
-      <c r="F133" s="8" t="inlineStr">
+      <c r="E135" s="8" t="inlineStr"/>
+      <c r="F135" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Pełna lista uprawnień będących przedmiotem zapytania o zgodę PSU / The list of all privileges that are the subject of the request for PSU's consent
@@ -5956,29 +6048,29 @@
         </is>
       </c>
     </row>
-    <row r="134" ht="1260" customHeight="1">
-      <c r="A134" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B134" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C134" s="8" t="inlineStr">
+    <row r="136" ht="1260" customHeight="1">
+      <c r="A136" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B136" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C136" s="8" t="inlineStr">
         <is>
           <t>ScopeDetailsOutputPrivilegeList</t>
         </is>
       </c>
-      <c r="D134" s="8" t="inlineStr">
+      <c r="D136" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="E134" s="8" t="inlineStr"/>
-      <c r="F134" s="8" t="inlineStr">
+      <c r="E136" s="8" t="inlineStr"/>
+      <c r="F136" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Pełna lista uprawnień, dla których została wyrażona zgoda przez PSU / The list of all privileges that the PSU's consent has been confirmed
@@ -6067,29 +6159,29 @@
         </is>
       </c>
     </row>
-    <row r="135" ht="855" customHeight="1">
-      <c r="A135" s="9" t="inlineStr">
-        <is>
-          <t>Definitions</t>
-        </is>
-      </c>
-      <c r="B135" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C135" s="8" t="inlineStr">
+    <row r="137" ht="855" customHeight="1">
+      <c r="A137" s="9" t="inlineStr">
+        <is>
+          <t>Definitions</t>
+        </is>
+      </c>
+      <c r="B137" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C137" s="8" t="inlineStr">
         <is>
           <t>PaymentNonEEARequestBank</t>
         </is>
       </c>
-      <c r="D135" s="8" t="inlineStr"/>
-      <c r="E135" s="8" t="inlineStr">
+      <c r="D137" s="8" t="inlineStr"/>
+      <c r="E137" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: </t>
         </is>
       </c>
-      <c r="F135" s="8" t="inlineStr">
+      <c r="F137" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Klasa zawierająca dane banku używana w żądaniach AIS / AIS Bank Data Class W przypadku rachunku IBAN nie są wymagane poniższe dane z klasy. Wymagane są niektóre z poniższych danych z klasy w przypadku identyfikacji banków, kiedy rachunek nie jest w formacie IBAN / Some of the following class details are required for identifying banks that do not have an IBAN account. For the IBAN , the following class details are not required.

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -571,7 +571,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="210" customHeight="1">
+    <row r="2" ht="45" customHeight="1">
       <c r="A2" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
@@ -579,15 +579,46 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>UNCATEGORIZED</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
+          <t>/v2_1_1.1/payments/v2_1_1.1/domestic.x-swagger-router-controller</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pis
+...
+</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr"/>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Removed:
+• pis</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="210" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>PIS</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.parameters</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -604,7 +635,7 @@
 </t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="E3" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -622,30 +653,30 @@
 </t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.responses.500</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -653,8 +684,8 @@
 </t>
         </is>
       </c>
-      <c r="E3" s="8" t="inlineStr"/>
-      <c r="F3" s="8" t="inlineStr">
+      <c r="E4" s="8" t="inlineStr"/>
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -663,23 +694,23 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.responses.503</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -687,8 +718,8 @@
 </t>
         </is>
       </c>
-      <c r="E4" s="8" t="inlineStr"/>
-      <c r="F4" s="8" t="inlineStr">
+      <c r="E5" s="8" t="inlineStr"/>
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -697,24 +728,24 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.responses.510</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr"/>
-      <c r="E5" s="8" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr"/>
+      <c r="E6" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -722,7 +753,7 @@
 </t>
         </is>
       </c>
-      <c r="F5" s="8" t="inlineStr">
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -731,23 +762,23 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="75" customHeight="1">
-      <c r="A6" s="7" t="inlineStr">
+    <row r="7" ht="75" customHeight="1">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/domestic.post.security</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -756,14 +787,14 @@
 </t>
         </is>
       </c>
-      <c r="E6" s="8" t="inlineStr">
+      <c r="E7" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F6" s="8" t="inlineStr">
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -771,54 +802,54 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="45" customHeight="1">
-      <c r="A7" s="7" t="inlineStr">
+    <row r="8" ht="45" customHeight="1">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr"/>
-      <c r="F7" s="8" t="inlineStr">
+      <c r="E8" s="8" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="210" customHeight="1">
-      <c r="A8" s="7" t="inlineStr">
+    <row r="9" ht="210" customHeight="1">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.parameters</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -835,7 +866,7 @@
 </t>
         </is>
       </c>
-      <c r="E8" s="8" t="inlineStr">
+      <c r="E9" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -853,30 +884,30 @@
 </t>
         </is>
       </c>
-      <c r="F8" s="8" t="inlineStr">
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="7" t="inlineStr">
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.responses.500</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -884,8 +915,8 @@
 </t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="E10" s="8" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -894,23 +925,23 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="7" t="inlineStr">
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.responses.503</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -918,8 +949,8 @@
 </t>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
+      <c r="E11" s="8" t="inlineStr"/>
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -928,24 +959,24 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="7" t="inlineStr">
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.responses.510</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
+      <c r="D12" s="8" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -953,7 +984,7 @@
 </t>
         </is>
       </c>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="F12" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -962,23 +993,23 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="75" customHeight="1">
-      <c r="A12" s="7" t="inlineStr">
+    <row r="13" ht="75" customHeight="1">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/EEA.post.security</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="D13" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -987,14 +1018,14 @@
 </t>
         </is>
       </c>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="E13" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="F13" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1002,54 +1033,54 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="45" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
+    <row r="14" ht="45" customHeight="1">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr">
+      <c r="E14" s="8" t="inlineStr"/>
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="210" customHeight="1">
-      <c r="A14" s="7" t="inlineStr">
+    <row r="15" ht="210" customHeight="1">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.parameters</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1066,7 +1097,7 @@
 </t>
         </is>
       </c>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="E15" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1084,30 +1115,30 @@
 </t>
         </is>
       </c>
-      <c r="F14" s="8" t="inlineStr">
+      <c r="F15" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="7" t="inlineStr">
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.responses.500</t>
         </is>
       </c>
-      <c r="D15" s="8" t="inlineStr">
+      <c r="D16" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1115,8 +1146,8 @@
 </t>
         </is>
       </c>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="8" t="inlineStr">
+      <c r="E16" s="8" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1125,23 +1156,23 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.responses.503</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="D17" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1149,8 +1180,8 @@
 </t>
         </is>
       </c>
-      <c r="E16" s="8" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="E17" s="8" t="inlineStr"/>
+      <c r="F17" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1159,24 +1190,24 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="7" t="inlineStr">
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.responses.510</t>
         </is>
       </c>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr">
+      <c r="D18" s="8" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1184,7 +1215,7 @@
 </t>
         </is>
       </c>
-      <c r="F17" s="8" t="inlineStr">
+      <c r="F18" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1193,23 +1224,23 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="75" customHeight="1">
-      <c r="A18" s="7" t="inlineStr">
+    <row r="19" ht="75" customHeight="1">
+      <c r="A19" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/nonEEA.post.security</t>
         </is>
       </c>
-      <c r="D18" s="8" t="inlineStr">
+      <c r="D19" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1218,14 +1249,14 @@
 </t>
         </is>
       </c>
-      <c r="E18" s="8" t="inlineStr">
+      <c r="E19" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F18" s="8" t="inlineStr">
+      <c r="F19" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1233,54 +1264,54 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="45" customHeight="1">
-      <c r="A19" s="7" t="inlineStr">
+    <row r="20" ht="45" customHeight="1">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D19" s="8" t="inlineStr">
+      <c r="D20" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr">
+      <c r="E20" s="8" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="210" customHeight="1">
-      <c r="A20" s="7" t="inlineStr">
+    <row r="21" ht="210" customHeight="1">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.parameters</t>
         </is>
       </c>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="D21" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1297,7 +1328,7 @@
 </t>
         </is>
       </c>
-      <c r="E20" s="8" t="inlineStr">
+      <c r="E21" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1315,30 +1346,30 @@
 </t>
         </is>
       </c>
-      <c r="F20" s="8" t="inlineStr">
+      <c r="F21" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="60" customHeight="1">
-      <c r="A21" s="7" t="inlineStr">
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C21" s="8" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.responses.500</t>
         </is>
       </c>
-      <c r="D21" s="8" t="inlineStr">
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1346,8 +1377,8 @@
 </t>
         </is>
       </c>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr">
+      <c r="E22" s="8" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1356,23 +1387,23 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="60" customHeight="1">
-      <c r="A22" s="7" t="inlineStr">
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C22" s="8" t="inlineStr">
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.responses.503</t>
         </is>
       </c>
-      <c r="D22" s="8" t="inlineStr">
+      <c r="D23" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1380,8 +1411,8 @@
 </t>
         </is>
       </c>
-      <c r="E22" s="8" t="inlineStr"/>
-      <c r="F22" s="8" t="inlineStr">
+      <c r="E23" s="8" t="inlineStr"/>
+      <c r="F23" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1390,24 +1421,24 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="60" customHeight="1">
-      <c r="A23" s="7" t="inlineStr">
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B23" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C23" s="8" t="inlineStr">
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.responses.510</t>
         </is>
       </c>
-      <c r="D23" s="8" t="inlineStr"/>
-      <c r="E23" s="8" t="inlineStr">
+      <c r="D24" s="8" t="inlineStr"/>
+      <c r="E24" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1415,7 +1446,7 @@
 </t>
         </is>
       </c>
-      <c r="F23" s="8" t="inlineStr">
+      <c r="F24" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1424,23 +1455,23 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="75" customHeight="1">
-      <c r="A24" s="7" t="inlineStr">
+    <row r="25" ht="75" customHeight="1">
+      <c r="A25" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C24" s="8" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/tax.post.security</t>
         </is>
       </c>
-      <c r="D24" s="8" t="inlineStr">
+      <c r="D25" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1449,14 +1480,14 @@
 </t>
         </is>
       </c>
-      <c r="E24" s="8" t="inlineStr">
+      <c r="E25" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F24" s="8" t="inlineStr">
+      <c r="F25" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1464,54 +1495,54 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="45" customHeight="1">
-      <c r="A25" s="7" t="inlineStr">
+    <row r="26" ht="45" customHeight="1">
+      <c r="A26" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C25" s="8" t="inlineStr">
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D25" s="8" t="inlineStr">
+      <c r="D26" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E25" s="8" t="inlineStr"/>
-      <c r="F25" s="8" t="inlineStr">
+      <c r="E26" s="8" t="inlineStr"/>
+      <c r="F26" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="210" customHeight="1">
-      <c r="A26" s="7" t="inlineStr">
+    <row r="27" ht="210" customHeight="1">
+      <c r="A27" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C26" s="8" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.parameters</t>
         </is>
       </c>
-      <c r="D26" s="8" t="inlineStr">
+      <c r="D27" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1528,7 +1559,7 @@
 </t>
         </is>
       </c>
-      <c r="E26" s="8" t="inlineStr">
+      <c r="E27" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1546,30 +1577,30 @@
 </t>
         </is>
       </c>
-      <c r="F26" s="8" t="inlineStr">
+      <c r="F27" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="60" customHeight="1">
-      <c r="A27" s="7" t="inlineStr">
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B27" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.responses.500</t>
         </is>
       </c>
-      <c r="D27" s="8" t="inlineStr">
+      <c r="D28" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1577,8 +1608,8 @@
 </t>
         </is>
       </c>
-      <c r="E27" s="8" t="inlineStr"/>
-      <c r="F27" s="8" t="inlineStr">
+      <c r="E28" s="8" t="inlineStr"/>
+      <c r="F28" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1587,23 +1618,23 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="60" customHeight="1">
-      <c r="A28" s="7" t="inlineStr">
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B28" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C28" s="8" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C29" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.responses.503</t>
         </is>
       </c>
-      <c r="D28" s="8" t="inlineStr">
+      <c r="D29" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1611,8 +1642,8 @@
 </t>
         </is>
       </c>
-      <c r="E28" s="8" t="inlineStr"/>
-      <c r="F28" s="8" t="inlineStr">
+      <c r="E29" s="8" t="inlineStr"/>
+      <c r="F29" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1621,24 +1652,24 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="60" customHeight="1">
-      <c r="A29" s="7" t="inlineStr">
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B29" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C29" s="8" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.responses.510</t>
         </is>
       </c>
-      <c r="D29" s="8" t="inlineStr"/>
-      <c r="E29" s="8" t="inlineStr">
+      <c r="D30" s="8" t="inlineStr"/>
+      <c r="E30" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1646,7 +1677,7 @@
 </t>
         </is>
       </c>
-      <c r="F29" s="8" t="inlineStr">
+      <c r="F30" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1655,23 +1686,23 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="75" customHeight="1">
-      <c r="A30" s="7" t="inlineStr">
+    <row r="31" ht="75" customHeight="1">
+      <c r="A31" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B30" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C30" s="8" t="inlineStr">
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/bundle.post.security</t>
         </is>
       </c>
-      <c r="D30" s="8" t="inlineStr">
+      <c r="D31" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1680,14 +1711,14 @@
 </t>
         </is>
       </c>
-      <c r="E30" s="8" t="inlineStr">
+      <c r="E31" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F30" s="8" t="inlineStr">
+      <c r="F31" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1695,54 +1726,54 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="45" customHeight="1">
-      <c r="A31" s="7" t="inlineStr">
+    <row r="32" ht="45" customHeight="1">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B31" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C31" s="8" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D31" s="8" t="inlineStr">
+      <c r="D32" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E31" s="8" t="inlineStr"/>
-      <c r="F31" s="8" t="inlineStr">
+      <c r="E32" s="8" t="inlineStr"/>
+      <c r="F32" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="210" customHeight="1">
-      <c r="A32" s="7" t="inlineStr">
+    <row r="33" ht="210" customHeight="1">
+      <c r="A33" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B32" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C32" s="8" t="inlineStr">
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.parameters</t>
         </is>
       </c>
-      <c r="D32" s="8" t="inlineStr">
+      <c r="D33" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1759,7 +1790,7 @@
 </t>
         </is>
       </c>
-      <c r="E32" s="8" t="inlineStr">
+      <c r="E33" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1777,30 +1808,30 @@
 </t>
         </is>
       </c>
-      <c r="F32" s="8" t="inlineStr">
+      <c r="F33" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="33" ht="60" customHeight="1">
-      <c r="A33" s="7" t="inlineStr">
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C33" s="8" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.responses.500</t>
         </is>
       </c>
-      <c r="D33" s="8" t="inlineStr">
+      <c r="D34" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1808,8 +1839,8 @@
 </t>
         </is>
       </c>
-      <c r="E33" s="8" t="inlineStr"/>
-      <c r="F33" s="8" t="inlineStr">
+      <c r="E34" s="8" t="inlineStr"/>
+      <c r="F34" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -1818,23 +1849,23 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="60" customHeight="1">
-      <c r="A34" s="7" t="inlineStr">
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C34" s="8" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.responses.503</t>
         </is>
       </c>
-      <c r="D34" s="8" t="inlineStr">
+      <c r="D35" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -1842,8 +1873,8 @@
 </t>
         </is>
       </c>
-      <c r="E34" s="8" t="inlineStr"/>
-      <c r="F34" s="8" t="inlineStr">
+      <c r="E35" s="8" t="inlineStr"/>
+      <c r="F35" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -1852,24 +1883,24 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="60" customHeight="1">
-      <c r="A35" s="7" t="inlineStr">
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B35" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.responses.510</t>
         </is>
       </c>
-      <c r="D35" s="8" t="inlineStr"/>
-      <c r="E35" s="8" t="inlineStr">
+      <c r="D36" s="8" t="inlineStr"/>
+      <c r="E36" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -1877,7 +1908,7 @@
 </t>
         </is>
       </c>
-      <c r="F35" s="8" t="inlineStr">
+      <c r="F36" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -1886,23 +1917,23 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="75" customHeight="1">
-      <c r="A36" s="7" t="inlineStr">
+    <row r="37" ht="75" customHeight="1">
+      <c r="A37" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C36" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/recurring.post.security</t>
         </is>
       </c>
-      <c r="D36" s="8" t="inlineStr">
+      <c r="D37" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -1911,14 +1942,14 @@
 </t>
         </is>
       </c>
-      <c r="E36" s="8" t="inlineStr">
+      <c r="E37" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F36" s="8" t="inlineStr">
+      <c r="F37" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -1926,54 +1957,54 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="45" customHeight="1">
-      <c r="A37" s="7" t="inlineStr">
+    <row r="38" ht="45" customHeight="1">
+      <c r="A38" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C37" s="8" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D37" s="8" t="inlineStr">
+      <c r="D38" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E37" s="8" t="inlineStr"/>
-      <c r="F37" s="8" t="inlineStr">
+      <c r="E38" s="8" t="inlineStr"/>
+      <c r="F38" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="38" ht="210" customHeight="1">
-      <c r="A38" s="7" t="inlineStr">
+    <row r="39" ht="210" customHeight="1">
+      <c r="A39" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B38" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C38" s="8" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.parameters</t>
         </is>
       </c>
-      <c r="D38" s="8" t="inlineStr">
+      <c r="D39" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -1990,7 +2021,7 @@
 </t>
         </is>
       </c>
-      <c r="E38" s="8" t="inlineStr">
+      <c r="E39" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2008,30 +2039,30 @@
 </t>
         </is>
       </c>
-      <c r="F38" s="8" t="inlineStr">
+      <c r="F39" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="39" ht="60" customHeight="1">
-      <c r="A39" s="7" t="inlineStr">
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B39" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C39" s="8" t="inlineStr">
+      <c r="B40" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.responses.500</t>
         </is>
       </c>
-      <c r="D39" s="8" t="inlineStr">
+      <c r="D40" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2039,8 +2070,8 @@
 </t>
         </is>
       </c>
-      <c r="E39" s="8" t="inlineStr"/>
-      <c r="F39" s="8" t="inlineStr">
+      <c r="E40" s="8" t="inlineStr"/>
+      <c r="F40" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2049,23 +2080,23 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="60" customHeight="1">
-      <c r="A40" s="7" t="inlineStr">
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B40" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C40" s="8" t="inlineStr">
+      <c r="B41" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.responses.503</t>
         </is>
       </c>
-      <c r="D40" s="8" t="inlineStr">
+      <c r="D41" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2073,8 +2104,8 @@
 </t>
         </is>
       </c>
-      <c r="E40" s="8" t="inlineStr"/>
-      <c r="F40" s="8" t="inlineStr">
+      <c r="E41" s="8" t="inlineStr"/>
+      <c r="F41" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2083,24 +2114,24 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="60" customHeight="1">
-      <c r="A41" s="7" t="inlineStr">
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B41" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C41" s="8" t="inlineStr">
+      <c r="B42" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C42" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.responses.510</t>
         </is>
       </c>
-      <c r="D41" s="8" t="inlineStr"/>
-      <c r="E41" s="8" t="inlineStr">
+      <c r="D42" s="8" t="inlineStr"/>
+      <c r="E42" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2108,7 +2139,7 @@
 </t>
         </is>
       </c>
-      <c r="F41" s="8" t="inlineStr">
+      <c r="F42" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2117,23 +2148,23 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="75" customHeight="1">
-      <c r="A42" s="7" t="inlineStr">
+    <row r="43" ht="75" customHeight="1">
+      <c r="A43" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B42" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C42" s="8" t="inlineStr">
+      <c r="B43" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C43" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getPayment.post.security</t>
         </is>
       </c>
-      <c r="D42" s="8" t="inlineStr">
+      <c r="D43" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2142,14 +2173,14 @@
 </t>
         </is>
       </c>
-      <c r="E42" s="8" t="inlineStr">
+      <c r="E43" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F42" s="8" t="inlineStr">
+      <c r="F43" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2157,54 +2188,54 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="45" customHeight="1">
-      <c r="A43" s="7" t="inlineStr">
+    <row r="44" ht="45" customHeight="1">
+      <c r="A44" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B43" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C43" s="8" t="inlineStr">
+      <c r="B44" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D43" s="8" t="inlineStr">
+      <c r="D44" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E43" s="8" t="inlineStr"/>
-      <c r="F43" s="8" t="inlineStr">
+      <c r="E44" s="8" t="inlineStr"/>
+      <c r="F44" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="44" ht="210" customHeight="1">
-      <c r="A44" s="7" t="inlineStr">
+    <row r="45" ht="210" customHeight="1">
+      <c r="A45" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B44" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C44" s="8" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.parameters</t>
         </is>
       </c>
-      <c r="D44" s="8" t="inlineStr">
+      <c r="D45" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2221,7 +2252,7 @@
 </t>
         </is>
       </c>
-      <c r="E44" s="8" t="inlineStr">
+      <c r="E45" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2239,30 +2270,30 @@
 </t>
         </is>
       </c>
-      <c r="F44" s="8" t="inlineStr">
+      <c r="F45" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="45" ht="60" customHeight="1">
-      <c r="A45" s="7" t="inlineStr">
+    <row r="46" ht="60" customHeight="1">
+      <c r="A46" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B45" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C45" s="8" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.responses.500</t>
         </is>
       </c>
-      <c r="D45" s="8" t="inlineStr">
+      <c r="D46" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2270,8 +2301,8 @@
 </t>
         </is>
       </c>
-      <c r="E45" s="8" t="inlineStr"/>
-      <c r="F45" s="8" t="inlineStr">
+      <c r="E46" s="8" t="inlineStr"/>
+      <c r="F46" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2280,23 +2311,23 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="60" customHeight="1">
-      <c r="A46" s="7" t="inlineStr">
+    <row r="47" ht="60" customHeight="1">
+      <c r="A47" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B46" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C46" s="8" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.responses.503</t>
         </is>
       </c>
-      <c r="D46" s="8" t="inlineStr">
+      <c r="D47" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2304,8 +2335,8 @@
 </t>
         </is>
       </c>
-      <c r="E46" s="8" t="inlineStr"/>
-      <c r="F46" s="8" t="inlineStr">
+      <c r="E47" s="8" t="inlineStr"/>
+      <c r="F47" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2314,24 +2345,24 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="60" customHeight="1">
-      <c r="A47" s="7" t="inlineStr">
+    <row r="48" ht="60" customHeight="1">
+      <c r="A48" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B47" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C47" s="8" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.responses.510</t>
         </is>
       </c>
-      <c r="D47" s="8" t="inlineStr"/>
-      <c r="E47" s="8" t="inlineStr">
+      <c r="D48" s="8" t="inlineStr"/>
+      <c r="E48" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2339,7 +2370,7 @@
 </t>
         </is>
       </c>
-      <c r="F47" s="8" t="inlineStr">
+      <c r="F48" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2348,23 +2379,23 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="75" customHeight="1">
-      <c r="A48" s="7" t="inlineStr">
+    <row r="49" ht="75" customHeight="1">
+      <c r="A49" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B48" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C48" s="8" t="inlineStr">
+      <c r="B49" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getBundle.post.security</t>
         </is>
       </c>
-      <c r="D48" s="8" t="inlineStr">
+      <c r="D49" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2373,14 +2404,14 @@
 </t>
         </is>
       </c>
-      <c r="E48" s="8" t="inlineStr">
+      <c r="E49" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F48" s="8" t="inlineStr">
+      <c r="F49" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2388,54 +2419,54 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="45" customHeight="1">
-      <c r="A49" s="7" t="inlineStr">
+    <row r="50" ht="45" customHeight="1">
+      <c r="A50" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B49" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C49" s="8" t="inlineStr">
+      <c r="B50" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D49" s="8" t="inlineStr">
+      <c r="D50" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E49" s="8" t="inlineStr"/>
-      <c r="F49" s="8" t="inlineStr">
+      <c r="E50" s="8" t="inlineStr"/>
+      <c r="F50" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="50" ht="210" customHeight="1">
-      <c r="A50" s="7" t="inlineStr">
+    <row r="51" ht="210" customHeight="1">
+      <c r="A51" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B50" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C50" s="8" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.parameters</t>
         </is>
       </c>
-      <c r="D50" s="8" t="inlineStr">
+      <c r="D51" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2452,7 +2483,7 @@
 </t>
         </is>
       </c>
-      <c r="E50" s="8" t="inlineStr">
+      <c r="E51" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2470,30 +2501,30 @@
 </t>
         </is>
       </c>
-      <c r="F50" s="8" t="inlineStr">
+      <c r="F51" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="51" ht="60" customHeight="1">
-      <c r="A51" s="7" t="inlineStr">
+    <row r="52" ht="60" customHeight="1">
+      <c r="A52" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B51" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C51" s="8" t="inlineStr">
+      <c r="B52" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.responses.500</t>
         </is>
       </c>
-      <c r="D51" s="8" t="inlineStr">
+      <c r="D52" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2501,8 +2532,8 @@
 </t>
         </is>
       </c>
-      <c r="E51" s="8" t="inlineStr"/>
-      <c r="F51" s="8" t="inlineStr">
+      <c r="E52" s="8" t="inlineStr"/>
+      <c r="F52" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2511,23 +2542,23 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="60" customHeight="1">
-      <c r="A52" s="7" t="inlineStr">
+    <row r="53" ht="60" customHeight="1">
+      <c r="A53" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B52" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C52" s="8" t="inlineStr">
+      <c r="B53" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.responses.503</t>
         </is>
       </c>
-      <c r="D52" s="8" t="inlineStr">
+      <c r="D53" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2535,8 +2566,8 @@
 </t>
         </is>
       </c>
-      <c r="E52" s="8" t="inlineStr"/>
-      <c r="F52" s="8" t="inlineStr">
+      <c r="E53" s="8" t="inlineStr"/>
+      <c r="F53" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2545,24 +2576,24 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="60" customHeight="1">
-      <c r="A53" s="7" t="inlineStr">
+    <row r="54" ht="60" customHeight="1">
+      <c r="A54" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B53" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C53" s="8" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.responses.510</t>
         </is>
       </c>
-      <c r="D53" s="8" t="inlineStr"/>
-      <c r="E53" s="8" t="inlineStr">
+      <c r="D54" s="8" t="inlineStr"/>
+      <c r="E54" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2570,7 +2601,7 @@
 </t>
         </is>
       </c>
-      <c r="F53" s="8" t="inlineStr">
+      <c r="F54" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2579,23 +2610,23 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="75" customHeight="1">
-      <c r="A54" s="7" t="inlineStr">
+    <row r="55" ht="75" customHeight="1">
+      <c r="A55" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B54" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C54" s="8" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C55" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getRecurringPayment.post.security</t>
         </is>
       </c>
-      <c r="D54" s="8" t="inlineStr">
+      <c r="D55" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2604,14 +2635,14 @@
 </t>
         </is>
       </c>
-      <c r="E54" s="8" t="inlineStr">
+      <c r="E55" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F54" s="8" t="inlineStr">
+      <c r="F55" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -2619,23 +2650,23 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="1020" customHeight="1">
-      <c r="A55" s="7" t="inlineStr">
+    <row r="56" ht="1020" customHeight="1">
+      <c r="A56" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B55" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C55" s="8" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C56" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/getMultiplePayments</t>
         </is>
       </c>
-      <c r="D55" s="8" t="inlineStr">
+      <c r="D56" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">x-swagger-router-controller: pis
 post:
@@ -2707,8 +2738,8 @@
 </t>
         </is>
       </c>
-      <c r="E55" s="8" t="inlineStr"/>
-      <c r="F55" s="8" t="inlineStr">
+      <c r="E56" s="8" t="inlineStr"/>
+      <c r="F56" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • x-swagger-router-controller: pis
@@ -2781,54 +2812,54 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="45" customHeight="1">
-      <c r="A56" s="7" t="inlineStr">
+    <row r="57" ht="45" customHeight="1">
+      <c r="A57" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B56" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C56" s="8" t="inlineStr">
+      <c r="B57" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D56" s="8" t="inlineStr">
+      <c r="D57" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E56" s="8" t="inlineStr"/>
-      <c r="F56" s="8" t="inlineStr">
+      <c r="E57" s="8" t="inlineStr"/>
+      <c r="F57" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="57" ht="210" customHeight="1">
-      <c r="A57" s="7" t="inlineStr">
+    <row r="58" ht="210" customHeight="1">
+      <c r="A58" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C57" s="8" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.parameters</t>
         </is>
       </c>
-      <c r="D57" s="8" t="inlineStr">
+      <c r="D58" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2845,7 +2876,7 @@
 </t>
         </is>
       </c>
-      <c r="E57" s="8" t="inlineStr">
+      <c r="E58" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -2863,30 +2894,30 @@
 </t>
         </is>
       </c>
-      <c r="F57" s="8" t="inlineStr">
+      <c r="F58" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="58" ht="60" customHeight="1">
-      <c r="A58" s="7" t="inlineStr">
+    <row r="59" ht="60" customHeight="1">
+      <c r="A59" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B58" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C58" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.responses.500</t>
         </is>
       </c>
-      <c r="D58" s="8" t="inlineStr">
+      <c r="D59" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2894,8 +2925,8 @@
 </t>
         </is>
       </c>
-      <c r="E58" s="8" t="inlineStr"/>
-      <c r="F58" s="8" t="inlineStr">
+      <c r="E59" s="8" t="inlineStr"/>
+      <c r="F59" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -2904,23 +2935,23 @@
         </is>
       </c>
     </row>
-    <row r="59" ht="60" customHeight="1">
-      <c r="A59" s="7" t="inlineStr">
+    <row r="60" ht="60" customHeight="1">
+      <c r="A60" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B59" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C59" s="8" t="inlineStr">
+      <c r="B60" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.responses.503</t>
         </is>
       </c>
-      <c r="D59" s="8" t="inlineStr">
+      <c r="D60" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -2928,8 +2959,8 @@
 </t>
         </is>
       </c>
-      <c r="E59" s="8" t="inlineStr"/>
-      <c r="F59" s="8" t="inlineStr">
+      <c r="E60" s="8" t="inlineStr"/>
+      <c r="F60" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -2938,24 +2969,24 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="60" customHeight="1">
-      <c r="A60" s="7" t="inlineStr">
+    <row r="61" ht="60" customHeight="1">
+      <c r="A61" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B60" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C60" s="8" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.responses.510</t>
         </is>
       </c>
-      <c r="D60" s="8" t="inlineStr"/>
-      <c r="E60" s="8" t="inlineStr">
+      <c r="D61" s="8" t="inlineStr"/>
+      <c r="E61" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -2963,7 +2994,7 @@
 </t>
         </is>
       </c>
-      <c r="F60" s="8" t="inlineStr">
+      <c r="F61" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -2972,23 +3003,23 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="75" customHeight="1">
-      <c r="A61" s="7" t="inlineStr">
+    <row r="62" ht="75" customHeight="1">
+      <c r="A62" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B61" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C61" s="8" t="inlineStr">
+      <c r="B62" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelPayments.post.security</t>
         </is>
       </c>
-      <c r="D61" s="8" t="inlineStr">
+      <c r="D62" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -2997,14 +3028,14 @@
 </t>
         </is>
       </c>
-      <c r="E61" s="8" t="inlineStr">
+      <c r="E62" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F61" s="8" t="inlineStr">
+      <c r="F62" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
@@ -3012,54 +3043,54 @@
         </is>
       </c>
     </row>
-    <row r="62" ht="45" customHeight="1">
-      <c r="A62" s="7" t="inlineStr">
+    <row r="63" ht="45" customHeight="1">
+      <c r="A63" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B62" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C62" s="8" t="inlineStr">
+      <c r="B63" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.x-swagger-router-controller</t>
         </is>
       </c>
-      <c r="D62" s="8" t="inlineStr">
+      <c r="D63" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">pis
 ...
 </t>
         </is>
       </c>
-      <c r="E62" s="8" t="inlineStr"/>
-      <c r="F62" s="8" t="inlineStr">
+      <c r="E63" s="8" t="inlineStr"/>
+      <c r="F63" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • pis</t>
         </is>
       </c>
     </row>
-    <row r="63" ht="210" customHeight="1">
-      <c r="A63" s="7" t="inlineStr">
+    <row r="64" ht="210" customHeight="1">
+      <c r="A64" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B63" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C63" s="8" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.parameters</t>
         </is>
       </c>
-      <c r="D63" s="8" t="inlineStr">
+      <c r="D64" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -3076,7 +3107,7 @@
 </t>
         </is>
       </c>
-      <c r="E63" s="8" t="inlineStr">
+      <c r="E64" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- $ref: '#/parameters/authorizationParam'
 - $ref: '#/parameters/acceptEncodingParam'
@@ -3094,30 +3125,30 @@
 </t>
         </is>
       </c>
-      <c r="F63" s="8" t="inlineStr">
+      <c r="F64" s="8" t="inlineStr">
         <is>
           <t>Added:
 • $ref: #/parameters/contentTypeParam</t>
         </is>
       </c>
     </row>
-    <row r="64" ht="60" customHeight="1">
-      <c r="A64" s="7" t="inlineStr">
+    <row r="65" ht="60" customHeight="1">
+      <c r="A65" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B64" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C64" s="8" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.responses.500</t>
         </is>
       </c>
-      <c r="D64" s="8" t="inlineStr">
+      <c r="D65" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -3125,8 +3156,8 @@
 </t>
         </is>
       </c>
-      <c r="E64" s="8" t="inlineStr"/>
-      <c r="F64" s="8" t="inlineStr">
+      <c r="E65" s="8" t="inlineStr"/>
+      <c r="F65" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Internal Server Error
@@ -3135,23 +3166,23 @@
         </is>
       </c>
     </row>
-    <row r="65" ht="60" customHeight="1">
-      <c r="A65" s="7" t="inlineStr">
+    <row r="66" ht="60" customHeight="1">
+      <c r="A66" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B65" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C65" s="8" t="inlineStr">
+      <c r="B66" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.responses.503</t>
         </is>
       </c>
-      <c r="D65" s="8" t="inlineStr">
+      <c r="D66" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Service Unavailable
 schema:
@@ -3159,8 +3190,8 @@
 </t>
         </is>
       </c>
-      <c r="E65" s="8" t="inlineStr"/>
-      <c r="F65" s="8" t="inlineStr">
+      <c r="E66" s="8" t="inlineStr"/>
+      <c r="F66" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • description: Service Unavailable
@@ -3169,24 +3200,24 @@
         </is>
       </c>
     </row>
-    <row r="66" ht="60" customHeight="1">
-      <c r="A66" s="7" t="inlineStr">
+    <row r="67" ht="60" customHeight="1">
+      <c r="A67" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B66" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C66" s="8" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.responses.510</t>
         </is>
       </c>
-      <c r="D66" s="8" t="inlineStr"/>
-      <c r="E66" s="8" t="inlineStr">
+      <c r="D67" s="8" t="inlineStr"/>
+      <c r="E67" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">description: Internal Server Error
 schema:
@@ -3194,7 +3225,7 @@
 </t>
         </is>
       </c>
-      <c r="F66" s="8" t="inlineStr">
+      <c r="F67" s="8" t="inlineStr">
         <is>
           <t>Added:
 • description: Internal Server Error
@@ -3203,23 +3234,23 @@
         </is>
       </c>
     </row>
-    <row r="67" ht="75" customHeight="1">
-      <c r="A67" s="7" t="inlineStr">
+    <row r="68" ht="75" customHeight="1">
+      <c r="A68" s="7" t="inlineStr">
         <is>
           <t>PIS</t>
         </is>
       </c>
-      <c r="B67" s="8" t="inlineStr">
-        <is>
-          <t>UNCATEGORIZED</t>
-        </is>
-      </c>
-      <c r="C67" s="8" t="inlineStr">
+      <c r="B68" s="8" t="inlineStr">
+        <is>
+          <t>UNCATEGORIZED</t>
+        </is>
+      </c>
+      <c r="C68" s="8" t="inlineStr">
         <is>
           <t>/v2_1_1.1/payments/v2_1_1.1/cancelRecurringPayment.post.security</t>
         </is>
       </c>
-      <c r="D67" s="8" t="inlineStr">
+      <c r="D68" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_aspsp:
   - pis
@@ -3228,49 +3259,18 @@
 </t>
         </is>
       </c>
-      <c r="E67" s="8" t="inlineStr">
+      <c r="E68" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- xs2a_auth_decoupled:
   - pis
 </t>
         </is>
       </c>
-      <c r="F67" s="8" t="inlineStr">
+      <c r="F68" s="8" t="inlineStr">
         <is>
           <t>Removed:
 • xs2a_auth_aspsp:
   -     pis</t>
-        </is>
-      </c>
-    </row>
-    <row r="68" ht="45" customHeight="1">
-      <c r="A68" s="9" t="inlineStr">
-        <is>
-          <t>CAF</t>
-        </is>
-      </c>
-      <c r="B68" s="8" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="C68" s="8" t="inlineStr">
-        <is>
-          <t>/v2_1_1.1/confirmation/v2_1_1.1/getConfirmationOfFunds.x-swagger-router-controller</t>
-        </is>
-      </c>
-      <c r="D68" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">caf
-...
-</t>
-        </is>
-      </c>
-      <c r="E68" s="8" t="inlineStr"/>
-      <c r="F68" s="8" t="inlineStr">
-        <is>
-          <t>Removed:
-• caf</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B74" s="8" t="inlineStr">
         <is>
-          <t>MINOR</t>
+          <t>UNCATEGORIZED</t>
         </is>
       </c>
       <c r="C74" s="8" t="inlineStr">

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>UNCATEGORIZED</t>
+          <t>MINOR</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="B69" s="8" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>UNCATEGORIZED</t>
         </is>
       </c>
       <c r="C69" s="8" t="inlineStr">

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>UNCATEGORIZED</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="B69" s="8" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>UNCATEGORIZED</t>
         </is>
       </c>
       <c r="C69" s="8" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B70" s="8" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>UNCATEGORIZED</t>
         </is>
       </c>
       <c r="C70" s="8" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B71" s="8" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>UNCATEGORIZED</t>
         </is>
       </c>
       <c r="C71" s="8" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="B72" s="8" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>UNCATEGORIZED</t>
         </is>
       </c>
       <c r="C72" s="8" t="inlineStr">

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>UNCATEGORIZED</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -3282,7 +3282,7 @@
       </c>
       <c r="B69" s="8" t="inlineStr">
         <is>
-          <t>UNCATEGORIZED</t>
+          <t>HIGH</t>
         </is>
       </c>
       <c r="C69" s="8" t="inlineStr">
